--- a/projects/SEB_calibration_Rgenoud_2013.xlsx
+++ b/projects/SEB_calibration_Rgenoud_2013.xlsx
@@ -2416,24 +2416,9 @@
     <t>Baseboard Nominal Capacity (W)</t>
   </si>
   <si>
-    <t>bball</t>
-  </si>
-  <si>
     <t>0.4.2</t>
   </si>
   <si>
-    <t>../ASHRAE_example/lib</t>
-  </si>
-  <si>
-    <t>../ASHRAE_example/seeds/SEB4_baseboard.osm</t>
-  </si>
-  <si>
-    <t>../ASHRAE_example/weather/SRRL_2013AMY_60min.epw</t>
-  </si>
-  <si>
-    <t>../ASHRAE_example/measures</t>
-  </si>
-  <si>
     <t>Parameter Short Display Name</t>
   </si>
   <si>
@@ -2465,6 +2450,21 @@
   </si>
   <si>
     <t>SEB4 baseboard Rgenoud 2013 no balance</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>../Calibration_example/measures</t>
+  </si>
+  <si>
+    <t>../Calibration_example/weather/SRRL_2013AMY_60min.epw</t>
+  </si>
+  <si>
+    <t>../Calibration_example/seeds/SEB4_baseboard.osm</t>
+  </si>
+  <si>
+    <t>../Calibration_example/lib</t>
   </si>
 </sst>
 </file>
@@ -6800,8 +6800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6837,7 +6837,7 @@
         <v>436</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>437</v>
@@ -6848,7 +6848,7 @@
         <v>456</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>791</v>
+        <v>803</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>457</v>
@@ -6859,7 +6859,7 @@
         <v>469</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>614</v>
@@ -6870,7 +6870,7 @@
         <v>470</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>472</v>
@@ -6941,7 +6941,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>471</v>
@@ -6952,7 +6952,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>654</v>
@@ -7165,7 +7165,7 @@
     </row>
     <row r="33" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="31" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B33" s="31">
         <v>1</v>
@@ -7175,7 +7175,7 @@
     </row>
     <row r="34" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="31" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="B34" s="30">
         <v>1</v>
@@ -7185,7 +7185,7 @@
     </row>
     <row r="35" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="31" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="B35" s="30">
         <v>3</v>
@@ -7211,7 +7211,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>795</v>
+        <v>805</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7239,7 +7239,7 @@
         <v>643</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>794</v>
+        <v>806</v>
       </c>
       <c r="E40" s="2"/>
     </row>
@@ -7266,7 +7266,7 @@
         <v>645</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>793</v>
+        <v>807</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7399,7 +7399,7 @@
         <v>36</v>
       </c>
       <c r="F3" s="63" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>11</v>
@@ -10080,7 +10080,7 @@
         <v>459</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>632</v>
@@ -10118,7 +10118,7 @@
         <v>624</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>637</v>
@@ -10216,7 +10216,7 @@
         <v>641</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>636</v>
@@ -10248,7 +10248,7 @@
         <v>642</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>635</v>

--- a/projects/SEB_calibration_Rgenoud_2013.xlsx
+++ b/projects/SEB_calibration_Rgenoud_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28280" tabRatio="562" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28280" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -6780,8 +6780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6856,7 +6856,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>440</v>
       </c>
@@ -19450,7 +19450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>

--- a/projects/SEB_calibration_Rgenoud_2013.xlsx
+++ b/projects/SEB_calibration_Rgenoud_2013.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28280" tabRatio="562"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="24880" windowHeight="15340" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -2457,7 +2457,7 @@
     <t>../Calibration_example/lib</t>
   </si>
   <si>
-    <t>1.11.0-rc3</t>
+    <t>1.12.4</t>
   </si>
 </sst>
 </file>
@@ -6781,7 +6781,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/projects/SEB_calibration_Rgenoud_2013.xlsx
+++ b/projects/SEB_calibration_Rgenoud_2013.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="24880" windowHeight="15340" tabRatio="562"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Outputs!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$2:$AA$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$2:$AA$126</definedName>
     <definedName name="AnalysisType">Lookups!$A$17:$A$23</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$D$9</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$9</definedName>
@@ -30,7 +30,7 @@
     <definedName name="TrueFalse">Lookups!$C$12:$C$13</definedName>
     <definedName name="Workflow">Lookups!$E$12:$E$13</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2598" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="822">
   <si>
     <t>type</t>
   </si>
@@ -2238,33 +2238,9 @@
     <t>calibration_reports.gas_bill_consumption_nmbe</t>
   </si>
   <si>
-    <t>Ngrid Add Monthly Utility Data</t>
-  </si>
-  <si>
-    <t>NGridAddMonthlyUtilityData</t>
-  </si>
-  <si>
-    <t>Path to electric JSON</t>
-  </si>
-  <si>
-    <t>electric_json</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
-    <t>../../../lib/calibration_data/electric_billed_usages.json</t>
-  </si>
-  <si>
-    <t>Path to gas JSON</t>
-  </si>
-  <si>
-    <t>gas_json</t>
-  </si>
-  <si>
-    <t>../../../lib/calibration_data/gas_billed_usages.json</t>
-  </si>
-  <si>
     <t>Start date</t>
   </si>
   <si>
@@ -2458,6 +2434,78 @@
   </si>
   <si>
     <t>1.12.4</t>
+  </si>
+  <si>
+    <t>AddMonthlyJSONUtilityDataElectric</t>
+  </si>
+  <si>
+    <t>AddMonthlyJSONUtilityData</t>
+  </si>
+  <si>
+    <t>Path to JSON</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>../../../lib/calibration_data/electric.json</t>
+  </si>
+  <si>
+    <t>Variable Name</t>
+  </si>
+  <si>
+    <t>Electric Bill</t>
+  </si>
+  <si>
+    <t>Fuel Type</t>
+  </si>
+  <si>
+    <t>fuel_type</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Consumption Unit</t>
+  </si>
+  <si>
+    <t>consumption_unit</t>
+  </si>
+  <si>
+    <t>data key name</t>
+  </si>
+  <si>
+    <t>data_key_name</t>
+  </si>
+  <si>
+    <t>tot_kwh</t>
+  </si>
+  <si>
+    <t>remove existing Utility Bill data</t>
+  </si>
+  <si>
+    <t>remove_existing_data</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>AddMonthlyJSONUtilityDataGas</t>
+  </si>
+  <si>
+    <t>../../../lib/calibration_data/gas.json</t>
+  </si>
+  <si>
+    <t>Gas Bill</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>tot_therms</t>
+  </si>
+  <si>
+    <t>FALSE</t>
   </si>
 </sst>
 </file>
@@ -6780,21 +6828,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="19"/>
       <c r="B1" s="28"/>
       <c r="C1" s="19"/>
@@ -6803,7 +6851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1">
+    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>433</v>
       </c>
@@ -6812,51 +6860,51 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>434</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28">
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>454</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="42">
+    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>467</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.25" customHeight="1">
+    <row r="6" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>468</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>440</v>
       </c>
@@ -6875,7 +6923,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28">
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>441</v>
       </c>
@@ -6894,7 +6942,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>456</v>
       </c>
@@ -6907,7 +6955,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1">
+    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>27</v>
       </c>
@@ -6916,40 +6964,40 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="E14" s="31" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>460</v>
       </c>
@@ -6960,7 +7008,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>461</v>
       </c>
@@ -6971,7 +7019,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>462</v>
       </c>
@@ -6982,7 +7030,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>464</v>
       </c>
@@ -6993,7 +7041,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>26</v>
       </c>
@@ -7006,7 +7054,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>449</v>
       </c>
@@ -7014,11 +7062,11 @@
         <v>548</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="31" customFormat="1">
+    <row r="22" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>448</v>
       </c>
@@ -7035,7 +7083,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="31" customFormat="1">
+    <row r="24" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
         <v>559</v>
       </c>
@@ -7047,7 +7095,7 @@
       </c>
       <c r="D24" s="35"/>
     </row>
-    <row r="25" spans="1:5" s="31" customFormat="1">
+    <row r="25" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="31" t="s">
         <v>562</v>
       </c>
@@ -7059,7 +7107,7 @@
       </c>
       <c r="D25" s="35"/>
     </row>
-    <row r="26" spans="1:5" s="31" customFormat="1">
+    <row r="26" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
         <v>558</v>
       </c>
@@ -7071,7 +7119,7 @@
       </c>
       <c r="D26" s="35"/>
     </row>
-    <row r="27" spans="1:5" s="31" customFormat="1">
+    <row r="27" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
         <v>578</v>
       </c>
@@ -7083,7 +7131,7 @@
       </c>
       <c r="D27" s="35"/>
     </row>
-    <row r="28" spans="1:5" s="31" customFormat="1">
+    <row r="28" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
         <v>560</v>
       </c>
@@ -7095,7 +7143,7 @@
       </c>
       <c r="D28" s="35"/>
     </row>
-    <row r="29" spans="1:5" s="31" customFormat="1">
+    <row r="29" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="31" t="s">
         <v>536</v>
       </c>
@@ -7107,7 +7155,7 @@
       </c>
       <c r="D29" s="35"/>
     </row>
-    <row r="30" spans="1:5" s="31" customFormat="1">
+    <row r="30" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="31" t="s">
         <v>541</v>
       </c>
@@ -7119,7 +7167,7 @@
       </c>
       <c r="D30" s="35"/>
     </row>
-    <row r="31" spans="1:5" s="31" customFormat="1">
+    <row r="31" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="31" t="s">
         <v>555</v>
       </c>
@@ -7131,7 +7179,7 @@
       </c>
       <c r="D31" s="35"/>
     </row>
-    <row r="32" spans="1:5" s="31" customFormat="1">
+    <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="31" t="s">
         <v>556</v>
       </c>
@@ -7143,9 +7191,9 @@
       </c>
       <c r="D32" s="35"/>
     </row>
-    <row r="33" spans="1:5" s="31" customFormat="1">
+    <row r="33" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="31" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="B33" s="31">
         <v>1</v>
@@ -7153,9 +7201,9 @@
       <c r="C33" s="30"/>
       <c r="D33" s="35"/>
     </row>
-    <row r="34" spans="1:5" s="31" customFormat="1">
+    <row r="34" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="31" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="B34" s="30">
         <v>1</v>
@@ -7163,9 +7211,9 @@
       <c r="C34" s="30"/>
       <c r="D34" s="35"/>
     </row>
-    <row r="35" spans="1:5" s="31" customFormat="1">
+    <row r="35" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="31" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="B35" s="30">
         <v>3</v>
@@ -7173,12 +7221,12 @@
       <c r="C35" s="34"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="31" customFormat="1">
+    <row r="36" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="30"/>
       <c r="C36" s="34"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" ht="28">
+    <row r="37" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>32</v>
       </c>
@@ -7191,15 +7239,15 @@
       <c r="D37" s="11"/>
       <c r="E37" s="13"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="2" customFormat="1" ht="28">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>29</v>
       </c>
@@ -7216,7 +7264,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="31" customFormat="1">
+    <row r="41" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="31" t="s">
         <v>31</v>
       </c>
@@ -7224,11 +7272,11 @@
         <v>641</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="E41" s="2"/>
     </row>
-    <row r="43" spans="1:5" s="2" customFormat="1" ht="56">
+    <row r="43" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>34</v>
       </c>
@@ -7243,7 +7291,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="31" t="s">
         <v>644</v>
       </c>
@@ -7251,10 +7299,10 @@
         <v>643</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="31" customFormat="1">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="26"/>
       <c r="D45" s="2"/>
     </row>
@@ -7282,39 +7330,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z186"/>
+  <dimension ref="A1:Z199"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.1640625" style="31" customWidth="1"/>
-    <col min="5" max="6" width="24.1640625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
+    <col min="5" max="6" width="24.109375" style="31" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="31" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" style="4" customWidth="1"/>
     <col min="10" max="10" width="8.6640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.1640625" style="31" customWidth="1"/>
-    <col min="12" max="12" width="8.1640625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" style="31" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" style="31" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" style="31" customWidth="1"/>
     <col min="14" max="15" width="7.6640625" style="31" customWidth="1"/>
-    <col min="16" max="16" width="11.5" style="31"/>
-    <col min="17" max="17" width="11.5" style="31" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" style="31"/>
+    <col min="17" max="17" width="11.44140625" style="31" customWidth="1"/>
     <col min="18" max="18" width="23" style="31" customWidth="1"/>
     <col min="19" max="19" width="27.6640625" style="31" customWidth="1"/>
-    <col min="20" max="20" width="46.1640625" style="31" customWidth="1"/>
-    <col min="21" max="23" width="11.5" style="31"/>
+    <col min="20" max="20" width="46.109375" style="31" customWidth="1"/>
+    <col min="21" max="23" width="11.44140625" style="31"/>
     <col min="24" max="24" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.5" style="31"/>
+    <col min="25" max="16384" width="11.44140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18">
+    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7350,7 +7398,7 @@
       <c r="Y1" s="66"/>
       <c r="Z1" s="66"/>
     </row>
-    <row r="2" spans="1:26" s="8" customFormat="1" ht="15">
+    <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7367,7 +7415,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:26" s="14" customFormat="1" ht="45">
+    <row r="3" spans="1:26" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7384,7 +7432,7 @@
         <v>35</v>
       </c>
       <c r="F3" s="62" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>11</v>
@@ -7444,18 +7492,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="37" customFormat="1">
+    <row r="4" spans="1:26" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="b">
         <v>1</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>732</v>
+        <v>798</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>733</v>
+        <v>799</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>733</v>
+        <v>799</v>
       </c>
       <c r="E4" s="37" t="s">
         <v>66</v>
@@ -7463,1010 +7511,977 @@
       <c r="H4" s="38"/>
       <c r="I4" s="38"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B5" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>734</v>
+        <v>800</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>735</v>
+        <v>801</v>
       </c>
       <c r="F5" s="63"/>
       <c r="G5" s="31" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>737</v>
+        <v>802</v>
       </c>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B6" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>738</v>
+        <v>803</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>739</v>
+        <v>164</v>
       </c>
       <c r="F6" s="63"/>
       <c r="G6" s="31" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>740</v>
+        <v>804</v>
       </c>
       <c r="J6" s="31"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B7" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>741</v>
+        <v>805</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>742</v>
+        <v>806</v>
       </c>
       <c r="F7" s="63"/>
       <c r="G7" s="31" t="s">
-        <v>736</v>
-      </c>
-      <c r="I7" s="48" t="s">
-        <v>773</v>
+        <v>732</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>807</v>
       </c>
       <c r="J7" s="31"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B8" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>743</v>
+        <v>808</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>744</v>
+        <v>809</v>
       </c>
       <c r="F8" s="63"/>
       <c r="G8" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>648</v>
+      </c>
+      <c r="J8" s="31"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B9" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>810</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>811</v>
+      </c>
+      <c r="F9" s="63"/>
+      <c r="G9" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>812</v>
+      </c>
+      <c r="J9" s="31"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B10" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>733</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>734</v>
+      </c>
+      <c r="F10" s="63"/>
+      <c r="G10" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="I10" s="48" t="s">
+        <v>765</v>
+      </c>
+      <c r="J10" s="31"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B11" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>735</v>
+      </c>
+      <c r="E11" s="31" t="s">
         <v>736</v>
       </c>
-      <c r="I8" s="48" t="s">
-        <v>774</v>
-      </c>
-      <c r="J8" s="31"/>
-    </row>
-    <row r="9" spans="1:26" s="37" customFormat="1">
-      <c r="A9" s="37" t="b">
+      <c r="F11" s="63"/>
+      <c r="G11" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="I11" s="48" t="s">
+        <v>766</v>
+      </c>
+      <c r="J11" s="31"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B12" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>813</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>814</v>
+      </c>
+      <c r="F12" s="63"/>
+      <c r="G12" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="48" t="s">
+        <v>815</v>
+      </c>
+      <c r="J12" s="31"/>
+    </row>
+    <row r="13" spans="1:26" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B13" s="37" t="s">
+        <v>816</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>799</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>799</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B14" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>800</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>801</v>
+      </c>
+      <c r="F14" s="63"/>
+      <c r="G14" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="J14" s="31"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B15" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>803</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="F15" s="63"/>
+      <c r="G15" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="I15" s="31" t="s">
+        <v>818</v>
+      </c>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B16" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>805</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>806</v>
+      </c>
+      <c r="F16" s="63"/>
+      <c r="G16" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>819</v>
+      </c>
+      <c r="J16" s="31"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B17" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>808</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>809</v>
+      </c>
+      <c r="F17" s="63"/>
+      <c r="G17" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>650</v>
+      </c>
+      <c r="J17" s="31"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B18" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>810</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>811</v>
+      </c>
+      <c r="F18" s="63"/>
+      <c r="G18" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>820</v>
+      </c>
+      <c r="J18" s="31"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B19" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>733</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>734</v>
+      </c>
+      <c r="F19" s="63"/>
+      <c r="G19" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="I19" s="48" t="s">
+        <v>765</v>
+      </c>
+      <c r="J19" s="31"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B20" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>735</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>736</v>
+      </c>
+      <c r="F20" s="63"/>
+      <c r="G20" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="I20" s="48" t="s">
+        <v>766</v>
+      </c>
+      <c r="J20" s="31"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B21" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>813</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>814</v>
+      </c>
+      <c r="F21" s="63"/>
+      <c r="G21" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="48" t="s">
+        <v>821</v>
+      </c>
+      <c r="J21" s="31"/>
+    </row>
+    <row r="22" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="B22" s="37" t="s">
         <v>646</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C22" s="37" t="s">
         <v>645</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D22" s="37" t="s">
         <v>645</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E22" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-    </row>
-    <row r="10" spans="1:26" s="45" customFormat="1">
-      <c r="A10" s="45" t="b">
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+    </row>
+    <row r="23" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B23" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C23" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D23" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E23" s="45" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="30" customFormat="1">
-      <c r="B11" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="30" t="s">
+    <row r="24" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E24" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="63"/>
-      <c r="G11" s="30" t="s">
+      <c r="F24" s="63"/>
+      <c r="G24" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="I24" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="30" t="s">
+      <c r="J24" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="P11" s="31"/>
-    </row>
-    <row r="12" spans="1:26" s="40" customFormat="1" ht="15">
-      <c r="B12" s="40" t="s">
+      <c r="P24" s="31"/>
+    </row>
+    <row r="25" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D25" s="41" t="s">
         <v>681</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E25" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="50"/>
-      <c r="G12" s="40" t="s">
+      <c r="F25" s="50"/>
+      <c r="G25" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="40">
-        <v>0</v>
-      </c>
-      <c r="K12" s="42">
-        <v>0</v>
-      </c>
-      <c r="L12" s="42">
+      <c r="I25" s="40">
+        <v>0</v>
+      </c>
+      <c r="K25" s="42">
+        <v>0</v>
+      </c>
+      <c r="L25" s="42">
         <v>100</v>
       </c>
-      <c r="M12" s="42">
+      <c r="M25" s="42">
         <v>15</v>
       </c>
-      <c r="N12" s="42">
-        <f>(L12-K12)/6</f>
+      <c r="N25" s="42">
+        <f>(L25-K25)/6</f>
         <v>16.666666666666668</v>
       </c>
-      <c r="O12" s="42">
+      <c r="O25" s="42">
         <v>1</v>
       </c>
-      <c r="R12" s="40" t="s">
+      <c r="R25" s="40" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="30" customFormat="1">
-      <c r="B13" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="30" t="s">
+    <row r="26" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="30" t="s">
         <v>673</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E26" s="30" t="s">
         <v>674</v>
       </c>
-      <c r="F13" s="63"/>
-      <c r="G13" s="30" t="s">
+      <c r="F26" s="63"/>
+      <c r="G26" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I26" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" s="56" customFormat="1">
-      <c r="B14" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="57" t="s">
+    <row r="27" spans="1:18" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="57" t="s">
         <v>676</v>
       </c>
-      <c r="E14" s="56" t="s">
+      <c r="E27" s="56" t="s">
         <v>675</v>
       </c>
-      <c r="F14" s="63"/>
-      <c r="G14" s="56" t="s">
+      <c r="F27" s="63"/>
+      <c r="G27" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="I14" s="56">
-        <v>0</v>
-      </c>
-      <c r="K14" s="58">
-        <v>0</v>
-      </c>
-      <c r="L14" s="58">
+      <c r="I27" s="56">
+        <v>0</v>
+      </c>
+      <c r="K27" s="58">
+        <v>0</v>
+      </c>
+      <c r="L27" s="58">
         <v>0.1</v>
       </c>
-      <c r="M14" s="58">
+      <c r="M27" s="58">
         <v>0.05</v>
       </c>
-      <c r="N14" s="58">
-        <f>(L14-K14)/6</f>
+      <c r="N27" s="58">
+        <f>(L27-K27)/6</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="O14" s="58">
+      <c r="O27" s="58">
         <v>0.01</v>
       </c>
-      <c r="R14" s="56" t="s">
+      <c r="R27" s="56" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="30" customFormat="1">
-      <c r="B15" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="30" t="s">
+    <row r="28" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="30" t="s">
         <v>678</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E28" s="30" t="s">
         <v>677</v>
       </c>
-      <c r="F15" s="63"/>
-      <c r="G15" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" s="30" customFormat="1" ht="15">
-      <c r="B16" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>680</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>679</v>
-      </c>
-      <c r="F16" s="64"/>
-      <c r="G16" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I16" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="B17" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="64"/>
-      <c r="G17" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I17" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="B18" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="64"/>
-      <c r="G18" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I18" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="B19" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="64"/>
-      <c r="G19" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I19" s="30">
-        <v>1</v>
-      </c>
-      <c r="P19" s="31"/>
-    </row>
-    <row r="20" spans="1:18" s="46" customFormat="1">
-      <c r="A20" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="B20" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="15">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="64"/>
-      <c r="G21" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="Q21" s="39"/>
-    </row>
-    <row r="22" spans="1:18" s="52" customFormat="1" ht="15">
-      <c r="B22" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="52" t="s">
-        <v>655</v>
-      </c>
-      <c r="E22" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="64"/>
-      <c r="G22" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="I22" s="52">
-        <v>0</v>
-      </c>
-      <c r="J22" s="53"/>
-      <c r="K22" s="54">
-        <v>-40</v>
-      </c>
-      <c r="L22" s="54">
-        <v>40</v>
-      </c>
-      <c r="M22" s="54">
-        <v>0</v>
-      </c>
-      <c r="N22" s="54">
-        <f>(L22-K22)/6</f>
-        <v>13.333333333333334</v>
-      </c>
-      <c r="O22" s="54">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="52" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="15">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="64"/>
-      <c r="G23" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="Q23" s="39"/>
-    </row>
-    <row r="24" spans="1:18" ht="15">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="64"/>
-      <c r="G24" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="Q24" s="39"/>
-    </row>
-    <row r="25" spans="1:18" ht="15">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="64"/>
-      <c r="G25" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30">
-        <v>0</v>
-      </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="Q25" s="39"/>
-    </row>
-    <row r="26" spans="1:18" ht="15">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" s="64"/>
-      <c r="G26" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="Q26" s="39"/>
-    </row>
-    <row r="27" spans="1:18" ht="15">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="64"/>
-      <c r="G27" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30">
-        <v>15</v>
-      </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="Q27" s="39"/>
-    </row>
-    <row r="28" spans="1:18" ht="15">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="64"/>
+      <c r="F28" s="63"/>
       <c r="G28" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H28" s="30"/>
       <c r="I28" s="30">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="Q28" s="39"/>
-    </row>
-    <row r="29" spans="1:18" ht="15">
-      <c r="A29" s="30"/>
+    </row>
+    <row r="29" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="30"/>
       <c r="D29" s="30" t="s">
-        <v>57</v>
+        <v>680</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>58</v>
+        <v>679</v>
       </c>
       <c r="F29" s="64"/>
       <c r="G29" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H29" s="30"/>
+        <v>62</v>
+      </c>
       <c r="I29" s="30">
-        <v>1</v>
-      </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="Q29" s="39"/>
-    </row>
-    <row r="30" spans="1:18" s="46" customFormat="1">
-      <c r="A30" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="B30" s="46" t="s">
-        <v>283</v>
-      </c>
-      <c r="C30" s="46" t="s">
-        <v>284</v>
-      </c>
-      <c r="D30" s="46" t="s">
-        <v>284</v>
-      </c>
-      <c r="E30" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" s="30" customFormat="1" ht="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="64"/>
+      <c r="G30" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="I30" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>371</v>
+        <v>70</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F31" s="64"/>
       <c r="G31" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="64"/>
+      <c r="G32" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32" s="30">
+        <v>1</v>
+      </c>
+      <c r="P32" s="31"/>
+    </row>
+    <row r="33" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="B33" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="30"/>
+      <c r="B34" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="64"/>
+      <c r="G34" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I31" s="30" t="s">
+      <c r="H34" s="30"/>
+      <c r="I34" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="J31" s="30" t="s">
+      <c r="J34" s="30" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" s="40" customFormat="1" ht="15">
-      <c r="B32" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="40" t="s">
-        <v>658</v>
-      </c>
-      <c r="E32" s="40" t="s">
-        <v>286</v>
-      </c>
-      <c r="F32" s="50"/>
-      <c r="G32" s="40" t="s">
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="Q34" s="39"/>
+    </row>
+    <row r="35" spans="1:18" s="52" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="52" t="s">
+        <v>655</v>
+      </c>
+      <c r="E35" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="64"/>
+      <c r="G35" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="H32" s="40" t="s">
-        <v>659</v>
-      </c>
-      <c r="I32" s="40">
-        <v>0</v>
-      </c>
-      <c r="J32" s="43"/>
-      <c r="K32" s="42">
-        <v>-80</v>
-      </c>
-      <c r="L32" s="42">
-        <v>80</v>
-      </c>
-      <c r="M32" s="42">
-        <v>0</v>
-      </c>
-      <c r="N32" s="42">
-        <f>(L32-K32)/6</f>
-        <v>26.666666666666668</v>
-      </c>
-      <c r="O32" s="42">
+      <c r="I35" s="52">
+        <v>0</v>
+      </c>
+      <c r="J35" s="53"/>
+      <c r="K35" s="54">
+        <v>-40</v>
+      </c>
+      <c r="L35" s="54">
+        <v>40</v>
+      </c>
+      <c r="M35" s="54">
+        <v>0</v>
+      </c>
+      <c r="N35" s="54">
+        <f>(L35-K35)/6</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="O35" s="54">
         <v>1</v>
       </c>
-      <c r="R32" s="40" t="s">
+      <c r="Q35" s="55"/>
+      <c r="R35" s="52" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="B33" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>660</v>
-      </c>
-      <c r="E33" s="30" t="s">
+    <row r="36" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="30"/>
+      <c r="B36" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="30"/>
+      <c r="D36" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F33" s="64"/>
-      <c r="G33" s="30" t="s">
+      <c r="F36" s="64"/>
+      <c r="G36" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H33" s="30" t="s">
-        <v>659</v>
-      </c>
-      <c r="I33" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" s="30" customFormat="1">
-      <c r="B34" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>661</v>
-      </c>
-      <c r="E34" s="30" t="s">
+      <c r="H36" s="30"/>
+      <c r="I36" s="30">
+        <v>0</v>
+      </c>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="Q36" s="39"/>
+    </row>
+    <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="30"/>
+      <c r="B37" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F34" s="63"/>
-      <c r="G34" s="30" t="s">
+      <c r="F37" s="64"/>
+      <c r="G37" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H34" s="30" t="s">
-        <v>659</v>
-      </c>
-      <c r="I34" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" s="30" customFormat="1">
-      <c r="B35" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>662</v>
-      </c>
-      <c r="E35" s="30" t="s">
+      <c r="H37" s="30"/>
+      <c r="I37" s="30">
+        <v>0</v>
+      </c>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="Q37" s="39"/>
+    </row>
+    <row r="38" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="30"/>
+      <c r="B38" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="63"/>
-      <c r="G35" s="30" t="s">
+      <c r="F38" s="64"/>
+      <c r="G38" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H35" s="30" t="s">
-        <v>663</v>
-      </c>
-      <c r="I35" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" s="30" customFormat="1">
-      <c r="B36" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>664</v>
-      </c>
-      <c r="E36" s="30" t="s">
+      <c r="H38" s="30"/>
+      <c r="I38" s="30">
+        <v>0</v>
+      </c>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="Q38" s="39"/>
+    </row>
+    <row r="39" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="30"/>
+      <c r="B39" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="30" t="s">
         <v>52</v>
-      </c>
-      <c r="F36" s="63"/>
-      <c r="G36" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I36" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" s="30" customFormat="1">
-      <c r="B37" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="30" t="s">
-        <v>665</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F37" s="63"/>
-      <c r="G37" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H37" s="30" t="s">
-        <v>663</v>
-      </c>
-      <c r="I37" s="30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" s="30" customFormat="1">
-      <c r="B38" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="30" t="s">
-        <v>666</v>
-      </c>
-      <c r="E38" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" s="63"/>
-      <c r="G38" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H38" s="30" t="s">
-        <v>659</v>
-      </c>
-      <c r="I38" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="B39" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>667</v>
-      </c>
-      <c r="E39" s="30" t="s">
-        <v>58</v>
       </c>
       <c r="F39" s="64"/>
       <c r="G39" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="Q39" s="39"/>
+    </row>
+    <row r="40" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="30"/>
+      <c r="B40" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40" s="64"/>
+      <c r="G40" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H39" s="30" t="s">
-        <v>663</v>
-      </c>
-      <c r="I39" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="B40" s="46" t="s">
-        <v>769</v>
-      </c>
-      <c r="C40" s="46" t="s">
-        <v>770</v>
-      </c>
-      <c r="D40" s="46" t="s">
-        <v>770</v>
-      </c>
-      <c r="E40" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" s="30" customFormat="1" ht="15">
+      <c r="H40" s="30"/>
+      <c r="I40" s="30">
+        <v>15</v>
+      </c>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="Q40" s="39"/>
+    </row>
+    <row r="41" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="30"/>
       <c r="B41" s="30" t="s">
         <v>21</v>
       </c>
+      <c r="C41" s="30"/>
       <c r="D41" s="30" t="s">
-        <v>342</v>
+        <v>55</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="F41" s="64"/>
       <c r="G41" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="Q41" s="39"/>
+    </row>
+    <row r="42" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="30"/>
+      <c r="B42" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" s="64"/>
+      <c r="G42" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30">
+        <v>1</v>
+      </c>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="Q42" s="39"/>
+    </row>
+    <row r="43" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="B43" s="46" t="s">
+        <v>283</v>
+      </c>
+      <c r="C43" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="D43" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="E43" s="46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="64"/>
+      <c r="G44" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I41" s="51" t="s">
-        <v>415</v>
-      </c>
-      <c r="J41" s="30" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" s="40" customFormat="1" ht="15">
-      <c r="B42" s="40" t="s">
+      <c r="I44" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="J44" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="40" t="s">
-        <v>771</v>
-      </c>
-      <c r="E42" s="40" t="s">
-        <v>772</v>
-      </c>
-      <c r="F42" s="50"/>
-      <c r="G42" s="40" t="s">
+      <c r="D45" s="40" t="s">
+        <v>658</v>
+      </c>
+      <c r="E45" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="F45" s="50"/>
+      <c r="G45" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="H42" s="40" t="s">
+      <c r="H45" s="40" t="s">
         <v>659</v>
       </c>
-      <c r="I42" s="40">
-        <v>0.8</v>
-      </c>
-      <c r="J42" s="43"/>
-      <c r="K42" s="42">
-        <v>0.78</v>
-      </c>
-      <c r="L42" s="42">
-        <v>0.98</v>
-      </c>
-      <c r="M42" s="42">
-        <v>0.8</v>
-      </c>
-      <c r="N42" s="42">
-        <f>(L42-K42)/6</f>
-        <v>3.3333333333333326E-2</v>
-      </c>
-      <c r="O42" s="42">
+      <c r="I45" s="40">
+        <v>0</v>
+      </c>
+      <c r="J45" s="43"/>
+      <c r="K45" s="42">
+        <v>-80</v>
+      </c>
+      <c r="L45" s="42">
+        <v>80</v>
+      </c>
+      <c r="M45" s="42">
+        <v>0</v>
+      </c>
+      <c r="N45" s="42">
+        <f>(L45-K45)/6</f>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="O45" s="42">
         <v>1</v>
       </c>
-      <c r="R42" s="40" t="s">
+      <c r="R45" s="40" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="43" spans="1:18" s="30" customFormat="1">
-      <c r="B43" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="30" t="s">
-        <v>347</v>
-      </c>
-      <c r="E43" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="F43" s="31"/>
-      <c r="G43" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I43" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" s="30" customFormat="1">
-      <c r="B44" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="30" t="s">
+    <row r="46" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="30" t="s">
         <v>660</v>
       </c>
-      <c r="E44" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="F44" s="31"/>
-      <c r="G44" s="30" t="s">
+      <c r="E46" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" s="64"/>
+      <c r="G46" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H44" s="30" t="s">
+      <c r="H46" s="30" t="s">
         <v>659</v>
       </c>
-      <c r="I44" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" s="30" customFormat="1">
-      <c r="B45" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="30" t="s">
+      <c r="I46" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="30" t="s">
         <v>661</v>
       </c>
-      <c r="E45" s="30" t="s">
+      <c r="E47" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F45" s="31"/>
-      <c r="G45" s="30" t="s">
+      <c r="F47" s="63"/>
+      <c r="G47" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H45" s="30" t="s">
+      <c r="H47" s="30" t="s">
         <v>659</v>
       </c>
-      <c r="I45" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" s="30" customFormat="1">
-      <c r="B46" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="30" t="s">
+      <c r="I47" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="30" t="s">
         <v>662</v>
       </c>
-      <c r="E46" s="30" t="s">
+      <c r="E48" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="F46" s="31"/>
-      <c r="G46" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H46" s="30" t="s">
-        <v>663</v>
-      </c>
-      <c r="I46" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="B47" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="30" t="s">
-        <v>664</v>
-      </c>
-      <c r="E47" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F47" s="64"/>
-      <c r="G47" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I47" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="B48" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" s="30" t="s">
-        <v>665</v>
-      </c>
-      <c r="E48" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F48" s="64"/>
+      <c r="F48" s="63"/>
       <c r="G48" s="30" t="s">
         <v>63</v>
       </c>
@@ -8474,41 +8489,38 @@
         <v>663</v>
       </c>
       <c r="I48" s="30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" s="30" customFormat="1" ht="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B49" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E49" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F49" s="64"/>
+        <v>52</v>
+      </c>
+      <c r="F49" s="63"/>
       <c r="G49" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H49" s="30" t="s">
-        <v>659</v>
-      </c>
-      <c r="I49" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" s="30" customFormat="1" ht="15">
+        <v>61</v>
+      </c>
+      <c r="I49" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B50" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E50" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F50" s="64"/>
+        <v>54</v>
+      </c>
+      <c r="F50" s="63"/>
       <c r="G50" s="30" t="s">
         <v>63</v>
       </c>
@@ -8516,198 +8528,201 @@
         <v>663</v>
       </c>
       <c r="I50" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1">
-      <c r="A51" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="B51" s="46" t="s">
-        <v>776</v>
-      </c>
-      <c r="C51" s="46" t="s">
-        <v>775</v>
-      </c>
-      <c r="D51" s="46" t="s">
-        <v>775</v>
-      </c>
-      <c r="E51" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" s="30" customFormat="1" ht="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>666</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51" s="63"/>
+      <c r="G51" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H51" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="I51" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B52" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>777</v>
+        <v>667</v>
       </c>
       <c r="E52" s="30" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="F52" s="64"/>
       <c r="G52" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I52" s="51" t="s">
-        <v>415</v>
-      </c>
-      <c r="J52" s="30" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" s="40" customFormat="1" ht="15">
-      <c r="B53" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D53" s="40" t="s">
-        <v>778</v>
-      </c>
-      <c r="E53" s="40" t="s">
-        <v>779</v>
-      </c>
-      <c r="F53" s="50"/>
-      <c r="G53" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H53" s="40" t="s">
-        <v>659</v>
-      </c>
-      <c r="I53" s="40">
-        <v>4</v>
-      </c>
-      <c r="J53" s="43"/>
-      <c r="K53" s="42">
-        <v>2</v>
-      </c>
-      <c r="L53" s="42">
-        <v>5</v>
-      </c>
-      <c r="M53" s="42">
-        <v>4</v>
-      </c>
-      <c r="N53" s="42">
-        <f>(L53-K53)/6</f>
-        <v>0.5</v>
-      </c>
-      <c r="O53" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="R53" s="40" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" s="30" customFormat="1" ht="15">
+        <v>63</v>
+      </c>
+      <c r="H52" s="30" t="s">
+        <v>663</v>
+      </c>
+      <c r="I52" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="B53" s="46" t="s">
+        <v>761</v>
+      </c>
+      <c r="C53" s="46" t="s">
+        <v>762</v>
+      </c>
+      <c r="D53" s="46" t="s">
+        <v>762</v>
+      </c>
+      <c r="E53" s="46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B54" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E54" s="30" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="F54" s="64"/>
       <c r="G54" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I54" s="51" t="s">
+        <v>415</v>
+      </c>
+      <c r="J54" s="30" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="40" t="s">
+        <v>763</v>
+      </c>
+      <c r="E55" s="40" t="s">
+        <v>764</v>
+      </c>
+      <c r="F55" s="50"/>
+      <c r="G55" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H55" s="40" t="s">
+        <v>659</v>
+      </c>
+      <c r="I55" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="J55" s="43"/>
+      <c r="K55" s="42">
+        <v>0.78</v>
+      </c>
+      <c r="L55" s="42">
+        <v>0.98</v>
+      </c>
+      <c r="M55" s="42">
+        <v>0.8</v>
+      </c>
+      <c r="N55" s="42">
+        <f>(L55-K55)/6</f>
+        <v>3.3333333333333326E-2</v>
+      </c>
+      <c r="O55" s="42">
+        <v>1</v>
+      </c>
+      <c r="R55" s="40" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F56" s="31"/>
+      <c r="G56" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I54" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="B55" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="30" t="s">
+      <c r="I56" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="30" t="s">
         <v>660</v>
       </c>
-      <c r="E55" s="30" t="s">
+      <c r="E57" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="F55" s="64"/>
-      <c r="G55" s="30" t="s">
+      <c r="F57" s="31"/>
+      <c r="G57" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H55" s="30" t="s">
+      <c r="H57" s="30" t="s">
         <v>659</v>
       </c>
-      <c r="I55" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="B56" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D56" s="30" t="s">
+      <c r="I57" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="30" t="s">
         <v>661</v>
       </c>
-      <c r="E56" s="30" t="s">
+      <c r="E58" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F56" s="64"/>
-      <c r="G56" s="30" t="s">
+      <c r="F58" s="31"/>
+      <c r="G58" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H56" s="30" t="s">
+      <c r="H58" s="30" t="s">
         <v>659</v>
       </c>
-      <c r="I56" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="B57" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D57" s="30" t="s">
+      <c r="I58" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="30" t="s">
         <v>662</v>
       </c>
-      <c r="E57" s="30" t="s">
+      <c r="E59" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="F57" s="64"/>
-      <c r="G57" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H57" s="30" t="s">
-        <v>663</v>
-      </c>
-      <c r="I57" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="B58" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D58" s="30" t="s">
-        <v>664</v>
-      </c>
-      <c r="E58" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F58" s="64"/>
-      <c r="G58" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I58" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="B59" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59" s="30" t="s">
-        <v>665</v>
-      </c>
-      <c r="E59" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F59" s="64"/>
+      <c r="F59" s="31"/>
       <c r="G59" s="30" t="s">
         <v>63</v>
       </c>
@@ -8715,39 +8730,36 @@
         <v>663</v>
       </c>
       <c r="I59" s="30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" s="30" customFormat="1" ht="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B60" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E60" s="30" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F60" s="64"/>
       <c r="G60" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H60" s="30" t="s">
-        <v>659</v>
-      </c>
-      <c r="I60" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" s="30" customFormat="1" ht="15">
+        <v>61</v>
+      </c>
+      <c r="I60" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B61" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E61" s="30" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F61" s="64"/>
       <c r="G61" s="30" t="s">
@@ -8757,177 +8769,157 @@
         <v>663</v>
       </c>
       <c r="I61" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1">
-      <c r="A62" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="B62" s="46" t="s">
-        <v>240</v>
-      </c>
-      <c r="C62" s="46" t="s">
-        <v>241</v>
-      </c>
-      <c r="D62" s="46" t="s">
-        <v>241</v>
-      </c>
-      <c r="E62" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" s="30" customFormat="1" ht="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B62" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="30" t="s">
+        <v>666</v>
+      </c>
+      <c r="E62" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F62" s="64"/>
+      <c r="G62" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H62" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="I62" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B63" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>209</v>
+        <v>667</v>
       </c>
       <c r="E63" s="30" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="F63" s="64"/>
       <c r="G63" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H63" s="30" t="s">
+        <v>663</v>
+      </c>
+      <c r="I63" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="B64" s="46" t="s">
+        <v>768</v>
+      </c>
+      <c r="C64" s="46" t="s">
+        <v>767</v>
+      </c>
+      <c r="D64" s="46" t="s">
+        <v>767</v>
+      </c>
+      <c r="E64" s="46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B65" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="30" t="s">
+        <v>769</v>
+      </c>
+      <c r="E65" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" s="64"/>
+      <c r="G65" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I63" s="51" t="s">
+      <c r="I65" s="51" t="s">
         <v>415</v>
       </c>
-      <c r="J63" s="30" t="s">
+      <c r="J65" s="30" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="64" spans="1:18" s="40" customFormat="1" ht="15">
-      <c r="B64" s="40" t="s">
+    <row r="66" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B66" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D64" s="40" t="s">
-        <v>780</v>
-      </c>
-      <c r="E64" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="F64" s="50"/>
-      <c r="G64" s="40" t="s">
+      <c r="D66" s="40" t="s">
+        <v>770</v>
+      </c>
+      <c r="E66" s="40" t="s">
+        <v>771</v>
+      </c>
+      <c r="F66" s="50"/>
+      <c r="G66" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="H64" s="40" t="s">
+      <c r="H66" s="40" t="s">
         <v>659</v>
       </c>
-      <c r="I64" s="40">
-        <v>0</v>
-      </c>
-      <c r="J64" s="43"/>
-      <c r="K64" s="42">
-        <v>-20</v>
-      </c>
-      <c r="L64" s="42">
-        <v>14</v>
-      </c>
-      <c r="M64" s="42">
-        <v>0</v>
-      </c>
-      <c r="N64" s="42">
-        <f>(L64-K64)/6</f>
-        <v>5.666666666666667</v>
-      </c>
-      <c r="O64" s="42">
-        <v>1</v>
-      </c>
-      <c r="R64" s="40" t="s">
+      <c r="I66" s="40">
+        <v>4</v>
+      </c>
+      <c r="J66" s="43"/>
+      <c r="K66" s="42">
+        <v>2</v>
+      </c>
+      <c r="L66" s="42">
+        <v>5</v>
+      </c>
+      <c r="M66" s="42">
+        <v>4</v>
+      </c>
+      <c r="N66" s="42">
+        <f>(L66-K66)/6</f>
+        <v>0.5</v>
+      </c>
+      <c r="O66" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="R66" s="40" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="40" customFormat="1" ht="15">
-      <c r="B65" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D65" s="40" t="s">
-        <v>781</v>
-      </c>
-      <c r="E65" s="40" t="s">
-        <v>782</v>
-      </c>
-      <c r="F65" s="50"/>
-      <c r="G65" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H65" s="40" t="s">
-        <v>659</v>
-      </c>
-      <c r="I65" s="40">
-        <v>0</v>
-      </c>
-      <c r="J65" s="43"/>
-      <c r="K65" s="42">
-        <v>-20</v>
-      </c>
-      <c r="L65" s="42">
-        <v>30</v>
-      </c>
-      <c r="M65" s="42">
-        <v>0</v>
-      </c>
-      <c r="N65" s="42">
-        <f>(L65-K65)/6</f>
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="O65" s="42">
-        <v>1</v>
-      </c>
-      <c r="R65" s="40" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="B66" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D66" s="30" t="s">
+    <row r="67" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="E66" s="30" t="s">
+      <c r="E67" s="30" t="s">
         <v>89</v>
-      </c>
-      <c r="F66" s="64"/>
-      <c r="G66" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I66" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="B67" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D67" s="30" t="s">
-        <v>660</v>
-      </c>
-      <c r="E67" s="30" t="s">
-        <v>126</v>
       </c>
       <c r="F67" s="64"/>
       <c r="G67" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H67" s="30" t="s">
-        <v>659</v>
-      </c>
-      <c r="I67" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" s="30" customFormat="1" ht="15">
+        <v>61</v>
+      </c>
+      <c r="I67" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B68" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E68" s="30" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="F68" s="64"/>
       <c r="G68" s="30" t="s">
@@ -8940,1073 +8932,1376 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" s="30" customFormat="1" ht="15">
+    <row r="69" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B69" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E69" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F69" s="64"/>
       <c r="G69" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H69" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="I69" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B70" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="30" t="s">
+        <v>662</v>
+      </c>
+      <c r="E70" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F70" s="64"/>
+      <c r="G70" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H69" s="30" t="s">
+      <c r="H70" s="30" t="s">
         <v>663</v>
       </c>
-      <c r="I69" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" s="30" customFormat="1">
-      <c r="B70" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D70" s="30" t="s">
+      <c r="I70" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B71" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="30" t="s">
         <v>664</v>
       </c>
-      <c r="E70" s="30" t="s">
+      <c r="E71" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="F70" s="63"/>
-      <c r="G70" s="30" t="s">
+      <c r="F71" s="64"/>
+      <c r="G71" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I70" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" s="30" customFormat="1">
-      <c r="B71" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D71" s="30" t="s">
+      <c r="I71" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B72" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="30" t="s">
         <v>665</v>
       </c>
-      <c r="E71" s="30" t="s">
+      <c r="E72" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="F71" s="63"/>
-      <c r="G71" s="30" t="s">
+      <c r="F72" s="64"/>
+      <c r="G72" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H71" s="30" t="s">
+      <c r="H72" s="30" t="s">
         <v>663</v>
       </c>
-      <c r="I71" s="30">
+      <c r="I72" s="30">
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:18" s="30" customFormat="1">
-      <c r="B72" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D72" s="30" t="s">
+    <row r="73" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B73" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="30" t="s">
         <v>666</v>
       </c>
-      <c r="E72" s="30" t="s">
+      <c r="E73" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="F72" s="63"/>
-      <c r="G72" s="30" t="s">
+      <c r="F73" s="64"/>
+      <c r="G73" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H72" s="30" t="s">
+      <c r="H73" s="30" t="s">
         <v>659</v>
       </c>
-      <c r="I72" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" s="30" customFormat="1">
-      <c r="B73" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D73" s="30" t="s">
+      <c r="I73" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B74" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="30" t="s">
         <v>667</v>
       </c>
-      <c r="E73" s="30" t="s">
+      <c r="E74" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F73" s="63"/>
-      <c r="G73" s="30" t="s">
+      <c r="F74" s="64"/>
+      <c r="G74" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H73" s="30" t="s">
+      <c r="H74" s="30" t="s">
         <v>663</v>
       </c>
-      <c r="I73" s="30">
+      <c r="I74" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:18" s="46" customFormat="1">
-      <c r="A74" s="46" t="b">
+    <row r="75" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="B74" s="46" t="s">
+      <c r="B75" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="C75" s="46" t="s">
+        <v>241</v>
+      </c>
+      <c r="D75" s="46" t="s">
+        <v>241</v>
+      </c>
+      <c r="E75" s="46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B76" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="E76" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="F76" s="64"/>
+      <c r="G76" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I76" s="51" t="s">
+        <v>415</v>
+      </c>
+      <c r="J76" s="30" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B77" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="40" t="s">
+        <v>772</v>
+      </c>
+      <c r="E77" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="F77" s="50"/>
+      <c r="G77" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H77" s="40" t="s">
+        <v>659</v>
+      </c>
+      <c r="I77" s="40">
+        <v>0</v>
+      </c>
+      <c r="J77" s="43"/>
+      <c r="K77" s="42">
+        <v>-20</v>
+      </c>
+      <c r="L77" s="42">
+        <v>14</v>
+      </c>
+      <c r="M77" s="42">
+        <v>0</v>
+      </c>
+      <c r="N77" s="42">
+        <f>(L77-K77)/6</f>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="O77" s="42">
+        <v>1</v>
+      </c>
+      <c r="R77" s="40" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B78" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" s="40" t="s">
+        <v>773</v>
+      </c>
+      <c r="E78" s="40" t="s">
+        <v>774</v>
+      </c>
+      <c r="F78" s="50"/>
+      <c r="G78" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H78" s="40" t="s">
+        <v>659</v>
+      </c>
+      <c r="I78" s="40">
+        <v>0</v>
+      </c>
+      <c r="J78" s="43"/>
+      <c r="K78" s="42">
+        <v>-20</v>
+      </c>
+      <c r="L78" s="42">
+        <v>30</v>
+      </c>
+      <c r="M78" s="42">
+        <v>0</v>
+      </c>
+      <c r="N78" s="42">
+        <f>(L78-K78)/6</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="O78" s="42">
+        <v>1</v>
+      </c>
+      <c r="R78" s="40" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B79" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="E79" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F79" s="64"/>
+      <c r="G79" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I79" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B80" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="30" t="s">
+        <v>660</v>
+      </c>
+      <c r="E80" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="F80" s="64"/>
+      <c r="G80" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H80" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="I80" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B81" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="30" t="s">
+        <v>661</v>
+      </c>
+      <c r="E81" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F81" s="64"/>
+      <c r="G81" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H81" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="I81" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B82" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" s="30" t="s">
+        <v>662</v>
+      </c>
+      <c r="E82" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F82" s="64"/>
+      <c r="G82" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H82" s="30" t="s">
+        <v>663</v>
+      </c>
+      <c r="I82" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="30" t="s">
+        <v>664</v>
+      </c>
+      <c r="E83" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F83" s="63"/>
+      <c r="G83" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I83" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" s="30" t="s">
+        <v>665</v>
+      </c>
+      <c r="E84" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F84" s="63"/>
+      <c r="G84" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H84" s="30" t="s">
+        <v>663</v>
+      </c>
+      <c r="I84" s="30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="30" t="s">
+        <v>666</v>
+      </c>
+      <c r="E85" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F85" s="63"/>
+      <c r="G85" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H85" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="I85" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" s="30" t="s">
+        <v>667</v>
+      </c>
+      <c r="E86" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F86" s="63"/>
+      <c r="G86" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H86" s="30" t="s">
+        <v>663</v>
+      </c>
+      <c r="I86" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="B87" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="C74" s="46" t="s">
+      <c r="C87" s="46" t="s">
         <v>668</v>
       </c>
-      <c r="D74" s="46" t="s">
+      <c r="D87" s="46" t="s">
         <v>668</v>
       </c>
-      <c r="E74" s="46" t="s">
+      <c r="E87" s="46" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="75" spans="1:18" s="40" customFormat="1" ht="15">
-      <c r="B75" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D75" s="40" t="s">
-        <v>669</v>
-      </c>
-      <c r="E75" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="F75" s="50"/>
-      <c r="G75" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H75" s="40" t="s">
-        <v>670</v>
-      </c>
-      <c r="I75" s="40">
-        <v>0</v>
-      </c>
-      <c r="J75" s="43"/>
-      <c r="K75" s="42">
-        <v>-6</v>
-      </c>
-      <c r="L75" s="42">
-        <v>2</v>
-      </c>
-      <c r="M75" s="42">
-        <v>0</v>
-      </c>
-      <c r="N75" s="42">
-        <f>(L75-K75)/6</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="O75" s="42">
-        <v>1</v>
-      </c>
-      <c r="R75" s="40" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" s="40" customFormat="1" ht="15">
-      <c r="B76" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D76" s="40" t="s">
-        <v>671</v>
-      </c>
-      <c r="E76" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="F76" s="50"/>
-      <c r="G76" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H76" s="40" t="s">
-        <v>670</v>
-      </c>
-      <c r="I76" s="40">
-        <v>0</v>
-      </c>
-      <c r="J76" s="43"/>
-      <c r="K76" s="42">
-        <v>-5</v>
-      </c>
-      <c r="L76" s="42">
-        <v>3.9</v>
-      </c>
-      <c r="M76" s="42">
-        <v>0</v>
-      </c>
-      <c r="N76" s="42">
-        <f>(L76-K76)/6</f>
-        <v>1.4833333333333334</v>
-      </c>
-      <c r="O76" s="42">
-        <v>1</v>
-      </c>
-      <c r="R76" s="40" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18">
-      <c r="B77" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D77" s="31" t="s">
-        <v>672</v>
-      </c>
-      <c r="E77" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="F77" s="63"/>
-      <c r="G77" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="I77" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="78" spans="1:18" ht="15">
-      <c r="A78" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B78" s="49" t="s">
-        <v>751</v>
-      </c>
-      <c r="C78" s="49" t="s">
-        <v>752</v>
-      </c>
-      <c r="D78" s="49" t="s">
-        <v>752</v>
-      </c>
-      <c r="E78" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="F78" s="46"/>
-      <c r="G78" s="49"/>
-      <c r="H78" s="49"/>
-      <c r="I78" s="49"/>
-      <c r="J78" s="49"/>
-      <c r="K78" s="49"/>
-      <c r="L78" s="49"/>
-      <c r="M78" s="46"/>
-      <c r="N78" s="46"/>
-      <c r="O78" s="46"/>
-      <c r="P78" s="46"/>
-      <c r="Q78" s="46"/>
-      <c r="R78" s="46"/>
-    </row>
-    <row r="79" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="A79" s="40"/>
-      <c r="B79" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C79" s="50"/>
-      <c r="D79" s="50" t="s">
-        <v>745</v>
-      </c>
-      <c r="E79" s="50" t="s">
-        <v>746</v>
-      </c>
-      <c r="F79" s="50"/>
-      <c r="G79" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H79" s="50"/>
-      <c r="I79" s="50">
-        <v>1</v>
-      </c>
-      <c r="J79" s="50"/>
-      <c r="K79" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="L79" s="50">
-        <v>4</v>
-      </c>
-      <c r="M79" s="42">
-        <v>1.75</v>
-      </c>
-      <c r="N79" s="40">
-        <f>1.5/6</f>
-        <v>0.25</v>
-      </c>
-      <c r="O79" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="P79" s="40"/>
-      <c r="Q79" s="40"/>
-      <c r="R79" s="40" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="A80" s="50"/>
-      <c r="B80" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C80" s="50"/>
-      <c r="D80" s="50" t="s">
-        <v>747</v>
-      </c>
-      <c r="E80" s="50" t="s">
-        <v>748</v>
-      </c>
-      <c r="F80" s="50"/>
-      <c r="G80" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H80" s="50"/>
-      <c r="I80" s="50">
-        <v>1</v>
-      </c>
-      <c r="J80" s="50"/>
-      <c r="K80" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="L80" s="50">
-        <v>3</v>
-      </c>
-      <c r="M80" s="42">
-        <v>1.75</v>
-      </c>
-      <c r="N80" s="50">
-        <v>0.25</v>
-      </c>
-      <c r="O80" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="P80" s="40"/>
-      <c r="Q80" s="40"/>
-      <c r="R80" s="40" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" s="30" customFormat="1" ht="15">
-      <c r="A81" s="50"/>
-      <c r="B81" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C81" s="50"/>
-      <c r="D81" s="50" t="s">
-        <v>749</v>
-      </c>
-      <c r="E81" s="50" t="s">
-        <v>750</v>
-      </c>
-      <c r="F81" s="50"/>
-      <c r="G81" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H81" s="50"/>
-      <c r="I81" s="50">
-        <v>1</v>
-      </c>
-      <c r="J81" s="50"/>
-      <c r="K81" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="L81" s="50">
-        <v>3</v>
-      </c>
-      <c r="M81" s="42">
-        <v>1.75</v>
-      </c>
-      <c r="N81" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="O81" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="P81" s="42"/>
-      <c r="Q81" s="42"/>
-      <c r="R81" s="40" t="s">
-        <v>654</v>
-      </c>
-      <c r="T81" s="31"/>
-    </row>
-    <row r="82" spans="1:20" ht="15">
-      <c r="A82" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B82" s="49" t="s">
-        <v>753</v>
-      </c>
-      <c r="C82" s="49" t="s">
-        <v>754</v>
-      </c>
-      <c r="D82" s="49" t="s">
-        <v>754</v>
-      </c>
-      <c r="E82" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="F82" s="46"/>
-      <c r="G82" s="49"/>
-      <c r="H82" s="49"/>
-      <c r="I82" s="49"/>
-      <c r="J82" s="49"/>
-      <c r="K82" s="49"/>
-      <c r="L82" s="49"/>
-      <c r="M82" s="46"/>
-      <c r="N82" s="46"/>
-      <c r="O82" s="46"/>
-      <c r="P82" s="46"/>
-      <c r="Q82" s="46"/>
-      <c r="R82" s="46"/>
-    </row>
-    <row r="83" spans="1:20" ht="15">
-      <c r="A83" s="40"/>
-      <c r="B83" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C83" s="50"/>
-      <c r="D83" s="50" t="s">
-        <v>755</v>
-      </c>
-      <c r="E83" s="50" t="s">
-        <v>746</v>
-      </c>
-      <c r="F83" s="50"/>
-      <c r="G83" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H83" s="50"/>
-      <c r="I83" s="50">
-        <v>1</v>
-      </c>
-      <c r="J83" s="50"/>
-      <c r="K83" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="L83" s="50">
-        <v>3</v>
-      </c>
-      <c r="M83" s="42">
-        <v>1.75</v>
-      </c>
-      <c r="N83" s="40">
-        <f>1.5/6</f>
-        <v>0.25</v>
-      </c>
-      <c r="O83" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="P83" s="40"/>
-      <c r="Q83" s="40"/>
-      <c r="R83" s="40" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" ht="15">
-      <c r="A84" s="50"/>
-      <c r="B84" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C84" s="50"/>
-      <c r="D84" s="50" t="s">
-        <v>756</v>
-      </c>
-      <c r="E84" s="50" t="s">
-        <v>748</v>
-      </c>
-      <c r="F84" s="50"/>
-      <c r="G84" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H84" s="50"/>
-      <c r="I84" s="50">
-        <v>1</v>
-      </c>
-      <c r="J84" s="50"/>
-      <c r="K84" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="L84" s="50">
-        <v>4</v>
-      </c>
-      <c r="M84" s="42">
-        <v>1.75</v>
-      </c>
-      <c r="N84" s="50">
-        <v>0.25</v>
-      </c>
-      <c r="O84" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="P84" s="40"/>
-      <c r="Q84" s="40"/>
-      <c r="R84" s="40" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" ht="15">
-      <c r="A85" s="50"/>
-      <c r="B85" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C85" s="50"/>
-      <c r="D85" s="50" t="s">
-        <v>757</v>
-      </c>
-      <c r="E85" s="50" t="s">
-        <v>750</v>
-      </c>
-      <c r="F85" s="50"/>
-      <c r="G85" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H85" s="50"/>
-      <c r="I85" s="50">
-        <v>1</v>
-      </c>
-      <c r="J85" s="50"/>
-      <c r="K85" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="L85" s="50">
-        <v>3</v>
-      </c>
-      <c r="M85" s="42">
-        <v>1.75</v>
-      </c>
-      <c r="N85" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="O85" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="P85" s="42"/>
-      <c r="Q85" s="42"/>
-      <c r="R85" s="40" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" s="46" customFormat="1" ht="15" customHeight="1">
-      <c r="A86" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="B86" s="46" t="s">
-        <v>784</v>
-      </c>
-      <c r="C86" s="46" t="s">
-        <v>783</v>
-      </c>
-      <c r="D86" s="46" t="s">
-        <v>783</v>
-      </c>
-      <c r="E86" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" s="56" customFormat="1">
-      <c r="B87" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="D87" s="56" t="s">
-        <v>787</v>
-      </c>
-      <c r="E87" s="56" t="s">
-        <v>785</v>
-      </c>
-      <c r="F87" s="63"/>
-      <c r="G87" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="H87" s="56" t="s">
-        <v>659</v>
-      </c>
-      <c r="I87" s="56">
-        <v>1</v>
-      </c>
-      <c r="J87" s="59"/>
-      <c r="K87" s="58">
-        <v>0.9</v>
-      </c>
-      <c r="L87" s="58">
-        <v>1</v>
-      </c>
-      <c r="M87" s="58">
-        <v>0.95</v>
-      </c>
-      <c r="N87" s="58">
-        <f>(L87-K87)/6</f>
-        <v>1.6666666666666663E-2</v>
-      </c>
-      <c r="O87" s="58">
-        <v>0.1</v>
-      </c>
-      <c r="R87" s="56" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" s="40" customFormat="1" ht="15">
+    <row r="88" spans="1:20" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B88" s="40" t="s">
         <v>22</v>
       </c>
       <c r="D88" s="40" t="s">
-        <v>788</v>
+        <v>669</v>
       </c>
       <c r="E88" s="40" t="s">
-        <v>786</v>
+        <v>188</v>
       </c>
       <c r="F88" s="50"/>
       <c r="G88" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H88" s="40" t="s">
-        <v>659</v>
+        <v>670</v>
       </c>
       <c r="I88" s="40">
-        <v>1450</v>
+        <v>0</v>
       </c>
       <c r="J88" s="43"/>
       <c r="K88" s="42">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="L88" s="42">
-        <v>3000</v>
+        <v>2</v>
       </c>
       <c r="M88" s="42">
-        <v>1450</v>
+        <v>0</v>
       </c>
       <c r="N88" s="42">
         <f>(L88-K88)/6</f>
-        <v>500</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="O88" s="42">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R88" s="40" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="89" spans="1:20">
-      <c r="A89" s="37" t="b">
+    <row r="89" spans="1:20" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B89" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" s="40" t="s">
+        <v>671</v>
+      </c>
+      <c r="E89" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="F89" s="50"/>
+      <c r="G89" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H89" s="40" t="s">
+        <v>670</v>
+      </c>
+      <c r="I89" s="40">
+        <v>0</v>
+      </c>
+      <c r="J89" s="43"/>
+      <c r="K89" s="42">
+        <v>-5</v>
+      </c>
+      <c r="L89" s="42">
+        <v>3.9</v>
+      </c>
+      <c r="M89" s="42">
+        <v>0</v>
+      </c>
+      <c r="N89" s="42">
+        <f>(L89-K89)/6</f>
+        <v>1.4833333333333334</v>
+      </c>
+      <c r="O89" s="42">
         <v>1</v>
       </c>
-      <c r="B89" s="37" t="s">
-        <v>758</v>
-      </c>
-      <c r="C89" s="37" t="s">
-        <v>759</v>
-      </c>
-      <c r="D89" s="37" t="s">
-        <v>759</v>
-      </c>
-      <c r="E89" s="37" t="s">
+      <c r="R89" s="40" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B90" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="31" t="s">
+        <v>672</v>
+      </c>
+      <c r="E90" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="F90" s="63"/>
+      <c r="G90" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="I90" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B91" s="49" t="s">
+        <v>743</v>
+      </c>
+      <c r="C91" s="49" t="s">
+        <v>744</v>
+      </c>
+      <c r="D91" s="49" t="s">
+        <v>744</v>
+      </c>
+      <c r="E91" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="F91" s="46"/>
+      <c r="G91" s="49"/>
+      <c r="H91" s="49"/>
+      <c r="I91" s="49"/>
+      <c r="J91" s="49"/>
+      <c r="K91" s="49"/>
+      <c r="L91" s="49"/>
+      <c r="M91" s="46"/>
+      <c r="N91" s="46"/>
+      <c r="O91" s="46"/>
+      <c r="P91" s="46"/>
+      <c r="Q91" s="46"/>
+      <c r="R91" s="46"/>
+    </row>
+    <row r="92" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="40"/>
+      <c r="B92" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C92" s="50"/>
+      <c r="D92" s="50" t="s">
+        <v>737</v>
+      </c>
+      <c r="E92" s="50" t="s">
+        <v>738</v>
+      </c>
+      <c r="F92" s="50"/>
+      <c r="G92" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="H92" s="50"/>
+      <c r="I92" s="50">
+        <v>1</v>
+      </c>
+      <c r="J92" s="50"/>
+      <c r="K92" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="L92" s="50">
+        <v>4</v>
+      </c>
+      <c r="M92" s="42">
+        <v>1.75</v>
+      </c>
+      <c r="N92" s="40">
+        <f>1.5/6</f>
+        <v>0.25</v>
+      </c>
+      <c r="O92" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="P92" s="40"/>
+      <c r="Q92" s="40"/>
+      <c r="R92" s="40" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="50"/>
+      <c r="B93" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93" s="50"/>
+      <c r="D93" s="50" t="s">
+        <v>739</v>
+      </c>
+      <c r="E93" s="50" t="s">
+        <v>740</v>
+      </c>
+      <c r="F93" s="50"/>
+      <c r="G93" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="H93" s="50"/>
+      <c r="I93" s="50">
+        <v>1</v>
+      </c>
+      <c r="J93" s="50"/>
+      <c r="K93" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="L93" s="50">
+        <v>3</v>
+      </c>
+      <c r="M93" s="42">
+        <v>1.75</v>
+      </c>
+      <c r="N93" s="50">
+        <v>0.25</v>
+      </c>
+      <c r="O93" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="P93" s="40"/>
+      <c r="Q93" s="40"/>
+      <c r="R93" s="40" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="50"/>
+      <c r="B94" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94" s="50"/>
+      <c r="D94" s="50" t="s">
+        <v>741</v>
+      </c>
+      <c r="E94" s="50" t="s">
+        <v>742</v>
+      </c>
+      <c r="F94" s="50"/>
+      <c r="G94" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="H94" s="50"/>
+      <c r="I94" s="50">
+        <v>1</v>
+      </c>
+      <c r="J94" s="50"/>
+      <c r="K94" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="L94" s="50">
+        <v>3</v>
+      </c>
+      <c r="M94" s="42">
+        <v>1.75</v>
+      </c>
+      <c r="N94" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="O94" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="P94" s="42"/>
+      <c r="Q94" s="42"/>
+      <c r="R94" s="40" t="s">
+        <v>654</v>
+      </c>
+      <c r="T94" s="31"/>
+    </row>
+    <row r="95" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B95" s="49" t="s">
+        <v>745</v>
+      </c>
+      <c r="C95" s="49" t="s">
+        <v>746</v>
+      </c>
+      <c r="D95" s="49" t="s">
+        <v>746</v>
+      </c>
+      <c r="E95" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="F95" s="46"/>
+      <c r="G95" s="49"/>
+      <c r="H95" s="49"/>
+      <c r="I95" s="49"/>
+      <c r="J95" s="49"/>
+      <c r="K95" s="49"/>
+      <c r="L95" s="49"/>
+      <c r="M95" s="46"/>
+      <c r="N95" s="46"/>
+      <c r="O95" s="46"/>
+      <c r="P95" s="46"/>
+      <c r="Q95" s="46"/>
+      <c r="R95" s="46"/>
+    </row>
+    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="40"/>
+      <c r="B96" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" s="50"/>
+      <c r="D96" s="50" t="s">
+        <v>747</v>
+      </c>
+      <c r="E96" s="50" t="s">
+        <v>738</v>
+      </c>
+      <c r="F96" s="50"/>
+      <c r="G96" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="H96" s="50"/>
+      <c r="I96" s="50">
+        <v>1</v>
+      </c>
+      <c r="J96" s="50"/>
+      <c r="K96" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="L96" s="50">
+        <v>3</v>
+      </c>
+      <c r="M96" s="42">
+        <v>1.75</v>
+      </c>
+      <c r="N96" s="40">
+        <f>1.5/6</f>
+        <v>0.25</v>
+      </c>
+      <c r="O96" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="P96" s="40"/>
+      <c r="Q96" s="40"/>
+      <c r="R96" s="40" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="50"/>
+      <c r="B97" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" s="50"/>
+      <c r="D97" s="50" t="s">
+        <v>748</v>
+      </c>
+      <c r="E97" s="50" t="s">
+        <v>740</v>
+      </c>
+      <c r="F97" s="50"/>
+      <c r="G97" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="H97" s="50"/>
+      <c r="I97" s="50">
+        <v>1</v>
+      </c>
+      <c r="J97" s="50"/>
+      <c r="K97" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="L97" s="50">
+        <v>4</v>
+      </c>
+      <c r="M97" s="42">
+        <v>1.75</v>
+      </c>
+      <c r="N97" s="50">
+        <v>0.25</v>
+      </c>
+      <c r="O97" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="P97" s="40"/>
+      <c r="Q97" s="40"/>
+      <c r="R97" s="40" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="50"/>
+      <c r="B98" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98" s="50"/>
+      <c r="D98" s="50" t="s">
+        <v>749</v>
+      </c>
+      <c r="E98" s="50" t="s">
+        <v>742</v>
+      </c>
+      <c r="F98" s="50"/>
+      <c r="G98" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="H98" s="50"/>
+      <c r="I98" s="50">
+        <v>1</v>
+      </c>
+      <c r="J98" s="50"/>
+      <c r="K98" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="L98" s="50">
+        <v>3</v>
+      </c>
+      <c r="M98" s="42">
+        <v>1.75</v>
+      </c>
+      <c r="N98" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="O98" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="P98" s="42"/>
+      <c r="Q98" s="42"/>
+      <c r="R98" s="40" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="B99" s="46" t="s">
+        <v>776</v>
+      </c>
+      <c r="C99" s="46" t="s">
+        <v>775</v>
+      </c>
+      <c r="D99" s="46" t="s">
+        <v>775</v>
+      </c>
+      <c r="E99" s="46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="56" t="s">
+        <v>779</v>
+      </c>
+      <c r="E100" s="56" t="s">
+        <v>777</v>
+      </c>
+      <c r="F100" s="63"/>
+      <c r="G100" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="H100" s="56" t="s">
+        <v>659</v>
+      </c>
+      <c r="I100" s="56">
+        <v>1</v>
+      </c>
+      <c r="J100" s="59"/>
+      <c r="K100" s="58">
+        <v>0.9</v>
+      </c>
+      <c r="L100" s="58">
+        <v>1</v>
+      </c>
+      <c r="M100" s="58">
+        <v>0.95</v>
+      </c>
+      <c r="N100" s="58">
+        <f>(L100-K100)/6</f>
+        <v>1.6666666666666663E-2</v>
+      </c>
+      <c r="O100" s="58">
+        <v>0.1</v>
+      </c>
+      <c r="R100" s="56" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B101" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D101" s="40" t="s">
+        <v>780</v>
+      </c>
+      <c r="E101" s="40" t="s">
+        <v>778</v>
+      </c>
+      <c r="F101" s="50"/>
+      <c r="G101" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H101" s="40" t="s">
+        <v>659</v>
+      </c>
+      <c r="I101" s="40">
+        <v>1450</v>
+      </c>
+      <c r="J101" s="43"/>
+      <c r="K101" s="42">
+        <v>0</v>
+      </c>
+      <c r="L101" s="42">
+        <v>3000</v>
+      </c>
+      <c r="M101" s="42">
+        <v>1450</v>
+      </c>
+      <c r="N101" s="42">
+        <f>(L101-K101)/6</f>
+        <v>500</v>
+      </c>
+      <c r="O101" s="42">
+        <v>10</v>
+      </c>
+      <c r="R101" s="40" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A102" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="B102" s="37" t="s">
+        <v>750</v>
+      </c>
+      <c r="C102" s="37" t="s">
+        <v>751</v>
+      </c>
+      <c r="D102" s="37" t="s">
+        <v>751</v>
+      </c>
+      <c r="E102" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="F89" s="37"/>
-      <c r="G89" s="37"/>
-      <c r="H89" s="38"/>
-      <c r="I89" s="38"/>
-      <c r="J89" s="37"/>
-      <c r="K89" s="37"/>
-      <c r="L89" s="37"/>
-      <c r="M89" s="37"/>
-      <c r="N89" s="37"/>
-      <c r="O89" s="37"/>
-      <c r="P89" s="37"/>
-      <c r="Q89" s="37"/>
-      <c r="R89" s="37"/>
-    </row>
-    <row r="90" spans="1:20">
-      <c r="F90" s="63"/>
-      <c r="I90" s="31"/>
-      <c r="J90" s="31"/>
-    </row>
-    <row r="91" spans="1:20">
-      <c r="F91" s="47"/>
-      <c r="I91" s="31"/>
-      <c r="J91" s="31"/>
-    </row>
-    <row r="92" spans="1:20">
-      <c r="F92" s="47"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="31"/>
-    </row>
-    <row r="93" spans="1:20">
-      <c r="F93" s="47"/>
-      <c r="I93" s="31"/>
-      <c r="J93" s="31"/>
-    </row>
-    <row r="94" spans="1:20">
-      <c r="F94" s="47"/>
-      <c r="I94" s="31"/>
-      <c r="J94" s="31"/>
-    </row>
-    <row r="95" spans="1:20">
-      <c r="F95" s="47"/>
-      <c r="I95" s="31"/>
-      <c r="J95" s="31"/>
-    </row>
-    <row r="96" spans="1:20">
-      <c r="F96" s="47"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="31"/>
-    </row>
-    <row r="97" spans="6:10">
-      <c r="F97" s="47"/>
-      <c r="I97" s="31"/>
-      <c r="J97" s="31"/>
-    </row>
-    <row r="98" spans="6:10">
-      <c r="F98" s="47"/>
-      <c r="I98" s="31"/>
-      <c r="J98" s="31"/>
-    </row>
-    <row r="99" spans="6:10">
-      <c r="I99" s="31"/>
-      <c r="J99" s="31"/>
-    </row>
-    <row r="100" spans="6:10">
-      <c r="I100" s="31"/>
-      <c r="J100" s="31"/>
-    </row>
-    <row r="101" spans="6:10">
-      <c r="I101" s="31"/>
-      <c r="J101" s="31"/>
-    </row>
-    <row r="102" spans="6:10">
-      <c r="I102" s="31"/>
-      <c r="J102" s="31"/>
-    </row>
-    <row r="103" spans="6:10">
+      <c r="F102" s="37"/>
+      <c r="G102" s="37"/>
+      <c r="H102" s="38"/>
+      <c r="I102" s="38"/>
+      <c r="J102" s="37"/>
+      <c r="K102" s="37"/>
+      <c r="L102" s="37"/>
+      <c r="M102" s="37"/>
+      <c r="N102" s="37"/>
+      <c r="O102" s="37"/>
+      <c r="P102" s="37"/>
+      <c r="Q102" s="37"/>
+      <c r="R102" s="37"/>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F103" s="63"/>
       <c r="I103" s="31"/>
       <c r="J103" s="31"/>
     </row>
-    <row r="104" spans="6:10">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F104" s="47"/>
       <c r="I104" s="31"/>
       <c r="J104" s="31"/>
     </row>
-    <row r="105" spans="6:10">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F105" s="47"/>
       <c r="I105" s="31"/>
       <c r="J105" s="31"/>
     </row>
-    <row r="106" spans="6:10">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F106" s="47"/>
       <c r="I106" s="31"/>
       <c r="J106" s="31"/>
     </row>
-    <row r="107" spans="6:10">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F107" s="47"/>
       <c r="I107" s="31"/>
       <c r="J107" s="31"/>
     </row>
-    <row r="108" spans="6:10">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F108" s="47"/>
       <c r="I108" s="31"/>
       <c r="J108" s="31"/>
     </row>
-    <row r="109" spans="6:10">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F109" s="47"/>
       <c r="I109" s="31"/>
       <c r="J109" s="31"/>
     </row>
-    <row r="110" spans="6:10">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F110" s="47"/>
       <c r="I110" s="31"/>
       <c r="J110" s="31"/>
     </row>
-    <row r="111" spans="6:10">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F111" s="47"/>
       <c r="I111" s="31"/>
       <c r="J111" s="31"/>
     </row>
-    <row r="112" spans="6:10">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
       <c r="I112" s="31"/>
       <c r="J112" s="31"/>
     </row>
-    <row r="113" spans="9:10">
+    <row r="113" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I113" s="31"/>
       <c r="J113" s="31"/>
     </row>
-    <row r="114" spans="9:10">
+    <row r="114" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I114" s="31"/>
       <c r="J114" s="31"/>
     </row>
-    <row r="115" spans="9:10">
+    <row r="115" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I115" s="31"/>
       <c r="J115" s="31"/>
     </row>
-    <row r="116" spans="9:10">
+    <row r="116" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I116" s="31"/>
       <c r="J116" s="31"/>
     </row>
-    <row r="117" spans="9:10">
+    <row r="117" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I117" s="31"/>
       <c r="J117" s="31"/>
     </row>
-    <row r="118" spans="9:10">
+    <row r="118" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I118" s="31"/>
       <c r="J118" s="31"/>
     </row>
-    <row r="119" spans="9:10">
+    <row r="119" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I119" s="31"/>
       <c r="J119" s="31"/>
     </row>
-    <row r="120" spans="9:10">
+    <row r="120" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I120" s="31"/>
       <c r="J120" s="31"/>
     </row>
-    <row r="121" spans="9:10">
+    <row r="121" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I121" s="31"/>
       <c r="J121" s="31"/>
     </row>
-    <row r="122" spans="9:10">
+    <row r="122" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I122" s="31"/>
       <c r="J122" s="31"/>
     </row>
-    <row r="123" spans="9:10">
+    <row r="123" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I123" s="31"/>
       <c r="J123" s="31"/>
     </row>
-    <row r="124" spans="9:10">
+    <row r="124" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I124" s="31"/>
       <c r="J124" s="31"/>
     </row>
-    <row r="125" spans="9:10">
+    <row r="125" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I125" s="31"/>
       <c r="J125" s="31"/>
     </row>
-    <row r="126" spans="9:10">
+    <row r="126" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I126" s="31"/>
       <c r="J126" s="31"/>
     </row>
-    <row r="127" spans="9:10">
+    <row r="127" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I127" s="31"/>
       <c r="J127" s="31"/>
     </row>
-    <row r="128" spans="9:10">
+    <row r="128" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I128" s="31"/>
       <c r="J128" s="31"/>
     </row>
-    <row r="129" spans="9:10">
+    <row r="129" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I129" s="31"/>
       <c r="J129" s="31"/>
     </row>
-    <row r="130" spans="9:10">
+    <row r="130" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I130" s="31"/>
       <c r="J130" s="31"/>
     </row>
-    <row r="131" spans="9:10">
+    <row r="131" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I131" s="31"/>
       <c r="J131" s="31"/>
     </row>
-    <row r="132" spans="9:10">
+    <row r="132" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I132" s="31"/>
       <c r="J132" s="31"/>
     </row>
-    <row r="133" spans="9:10">
+    <row r="133" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I133" s="31"/>
       <c r="J133" s="31"/>
     </row>
-    <row r="134" spans="9:10">
+    <row r="134" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I134" s="31"/>
       <c r="J134" s="31"/>
     </row>
-    <row r="135" spans="9:10">
+    <row r="135" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I135" s="31"/>
       <c r="J135" s="31"/>
     </row>
-    <row r="136" spans="9:10">
+    <row r="136" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I136" s="31"/>
       <c r="J136" s="31"/>
     </row>
-    <row r="137" spans="9:10">
+    <row r="137" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I137" s="31"/>
       <c r="J137" s="31"/>
     </row>
-    <row r="138" spans="9:10">
+    <row r="138" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I138" s="31"/>
       <c r="J138" s="31"/>
     </row>
-    <row r="139" spans="9:10">
+    <row r="139" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I139" s="31"/>
       <c r="J139" s="31"/>
     </row>
-    <row r="140" spans="9:10">
+    <row r="140" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I140" s="31"/>
       <c r="J140" s="31"/>
     </row>
-    <row r="141" spans="9:10">
+    <row r="141" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I141" s="31"/>
       <c r="J141" s="31"/>
     </row>
-    <row r="142" spans="9:10">
+    <row r="142" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I142" s="31"/>
       <c r="J142" s="31"/>
     </row>
-    <row r="143" spans="9:10">
+    <row r="143" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I143" s="31"/>
       <c r="J143" s="31"/>
     </row>
-    <row r="144" spans="9:10">
+    <row r="144" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I144" s="31"/>
       <c r="J144" s="31"/>
     </row>
-    <row r="145" spans="9:10">
+    <row r="145" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I145" s="31"/>
       <c r="J145" s="31"/>
     </row>
-    <row r="146" spans="9:10">
+    <row r="146" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I146" s="31"/>
       <c r="J146" s="31"/>
     </row>
-    <row r="147" spans="9:10">
+    <row r="147" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I147" s="31"/>
       <c r="J147" s="31"/>
     </row>
-    <row r="148" spans="9:10">
+    <row r="148" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I148" s="31"/>
       <c r="J148" s="31"/>
     </row>
-    <row r="149" spans="9:10">
+    <row r="149" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I149" s="31"/>
       <c r="J149" s="31"/>
     </row>
-    <row r="150" spans="9:10">
+    <row r="150" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I150" s="31"/>
       <c r="J150" s="31"/>
     </row>
-    <row r="151" spans="9:10">
+    <row r="151" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I151" s="31"/>
       <c r="J151" s="31"/>
     </row>
-    <row r="152" spans="9:10">
+    <row r="152" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I152" s="31"/>
       <c r="J152" s="31"/>
     </row>
-    <row r="153" spans="9:10">
+    <row r="153" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I153" s="31"/>
       <c r="J153" s="31"/>
     </row>
-    <row r="154" spans="9:10">
+    <row r="154" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I154" s="31"/>
       <c r="J154" s="31"/>
     </row>
-    <row r="155" spans="9:10">
+    <row r="155" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I155" s="31"/>
       <c r="J155" s="31"/>
     </row>
-    <row r="156" spans="9:10">
+    <row r="156" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I156" s="31"/>
       <c r="J156" s="31"/>
     </row>
-    <row r="157" spans="9:10">
+    <row r="157" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I157" s="31"/>
       <c r="J157" s="31"/>
     </row>
-    <row r="158" spans="9:10">
+    <row r="158" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I158" s="31"/>
       <c r="J158" s="31"/>
     </row>
-    <row r="159" spans="9:10">
+    <row r="159" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I159" s="31"/>
       <c r="J159" s="31"/>
     </row>
-    <row r="160" spans="9:10">
+    <row r="160" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I160" s="31"/>
       <c r="J160" s="31"/>
     </row>
-    <row r="161" spans="9:10">
+    <row r="161" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I161" s="31"/>
       <c r="J161" s="31"/>
     </row>
-    <row r="162" spans="9:10">
+    <row r="162" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I162" s="31"/>
       <c r="J162" s="31"/>
     </row>
-    <row r="163" spans="9:10">
+    <row r="163" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I163" s="31"/>
       <c r="J163" s="31"/>
     </row>
-    <row r="164" spans="9:10">
+    <row r="164" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I164" s="31"/>
       <c r="J164" s="31"/>
     </row>
-    <row r="165" spans="9:10">
+    <row r="165" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I165" s="31"/>
       <c r="J165" s="31"/>
     </row>
-    <row r="166" spans="9:10">
+    <row r="166" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I166" s="31"/>
       <c r="J166" s="31"/>
     </row>
-    <row r="167" spans="9:10">
+    <row r="167" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I167" s="31"/>
       <c r="J167" s="31"/>
     </row>
-    <row r="168" spans="9:10">
+    <row r="168" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I168" s="31"/>
       <c r="J168" s="31"/>
     </row>
-    <row r="169" spans="9:10">
+    <row r="169" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I169" s="31"/>
       <c r="J169" s="31"/>
     </row>
-    <row r="170" spans="9:10">
+    <row r="170" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I170" s="31"/>
       <c r="J170" s="31"/>
     </row>
-    <row r="171" spans="9:10">
+    <row r="171" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I171" s="31"/>
       <c r="J171" s="31"/>
     </row>
-    <row r="172" spans="9:10">
+    <row r="172" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I172" s="31"/>
       <c r="J172" s="31"/>
     </row>
-    <row r="173" spans="9:10">
+    <row r="173" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I173" s="31"/>
       <c r="J173" s="31"/>
     </row>
-    <row r="174" spans="9:10">
+    <row r="174" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I174" s="31"/>
       <c r="J174" s="31"/>
     </row>
-    <row r="175" spans="9:10">
+    <row r="175" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I175" s="31"/>
       <c r="J175" s="31"/>
     </row>
-    <row r="176" spans="9:10">
+    <row r="176" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I176" s="31"/>
       <c r="J176" s="31"/>
     </row>
-    <row r="177" spans="9:10">
+    <row r="177" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I177" s="31"/>
       <c r="J177" s="31"/>
     </row>
-    <row r="178" spans="9:10">
+    <row r="178" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I178" s="31"/>
       <c r="J178" s="31"/>
     </row>
-    <row r="179" spans="9:10">
+    <row r="179" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I179" s="31"/>
       <c r="J179" s="31"/>
     </row>
-    <row r="180" spans="9:10">
+    <row r="180" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I180" s="31"/>
       <c r="J180" s="31"/>
     </row>
-    <row r="181" spans="9:10">
+    <row r="181" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I181" s="31"/>
       <c r="J181" s="31"/>
     </row>
-    <row r="182" spans="9:10">
+    <row r="182" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I182" s="31"/>
       <c r="J182" s="31"/>
     </row>
-    <row r="183" spans="9:10">
+    <row r="183" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I183" s="31"/>
       <c r="J183" s="31"/>
     </row>
-    <row r="184" spans="9:10">
+    <row r="184" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I184" s="31"/>
       <c r="J184" s="31"/>
     </row>
-    <row r="185" spans="9:10">
+    <row r="185" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I185" s="31"/>
       <c r="J185" s="31"/>
     </row>
-    <row r="186" spans="9:10">
+    <row r="186" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I186" s="31"/>
       <c r="J186" s="31"/>
     </row>
+    <row r="187" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I187" s="31"/>
+      <c r="J187" s="31"/>
+    </row>
+    <row r="188" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I188" s="31"/>
+      <c r="J188" s="31"/>
+    </row>
+    <row r="189" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I189" s="31"/>
+      <c r="J189" s="31"/>
+    </row>
+    <row r="190" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I190" s="31"/>
+      <c r="J190" s="31"/>
+    </row>
+    <row r="191" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I191" s="31"/>
+      <c r="J191" s="31"/>
+    </row>
+    <row r="192" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I192" s="31"/>
+      <c r="J192" s="31"/>
+    </row>
+    <row r="193" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I193" s="31"/>
+      <c r="J193" s="31"/>
+    </row>
+    <row r="194" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I194" s="31"/>
+      <c r="J194" s="31"/>
+    </row>
+    <row r="195" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I195" s="31"/>
+      <c r="J195" s="31"/>
+    </row>
+    <row r="196" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I196" s="31"/>
+      <c r="J196" s="31"/>
+    </row>
+    <row r="197" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I197" s="31"/>
+      <c r="J197" s="31"/>
+    </row>
+    <row r="198" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I198" s="31"/>
+      <c r="J198" s="31"/>
+    </row>
+    <row r="199" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I199" s="31"/>
+      <c r="J199" s="31"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:AA113"/>
+  <autoFilter ref="A2:AA126"/>
   <mergeCells count="1">
     <mergeCell ref="U1:Z1"/>
   </mergeCells>
@@ -10029,22 +10324,22 @@
       <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.5" style="31" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" style="31" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5" style="31" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" style="31" customWidth="1"/>
     <col min="4" max="4" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="31" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="31" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="31" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="31" customWidth="1"/>
+    <col min="7" max="8" width="10.44140625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="31" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" style="31" customWidth="1"/>
     <col min="11" max="11" width="9.6640625" style="31" customWidth="1"/>
-    <col min="12" max="16384" width="11.5" style="31"/>
+    <col min="12" max="16384" width="11.44140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
       <c r="B1" s="60"/>
       <c r="C1" s="5"/>
@@ -10060,12 +10355,12 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" ht="15">
+    <row r="2" spans="1:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>457</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>630</v>
@@ -10098,12 +10393,12 @@
         <v>621</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="14" customFormat="1" ht="45">
+    <row r="3" spans="1:13" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>622</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>635</v>
@@ -10137,7 +10432,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>637</v>
       </c>
@@ -10166,7 +10461,7 @@
       <c r="K4" s="30"/>
       <c r="L4" s="30"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>638</v>
       </c>
@@ -10196,12 +10491,12 @@
       <c r="L5" s="30"/>
       <c r="M5" s="30"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>639</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>634</v>
@@ -10228,12 +10523,12 @@
       <c r="K6" s="30"/>
       <c r="L6" s="30"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>640</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>633</v>
@@ -10260,7 +10555,7 @@
       <c r="K7" s="30"/>
       <c r="L7" s="30"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>682</v>
       </c>
@@ -10289,7 +10584,7 @@
       <c r="L8" s="30"/>
       <c r="M8" s="30"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>684</v>
       </c>
@@ -10318,7 +10613,7 @@
       <c r="L9" s="30"/>
       <c r="M9" s="30"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>686</v>
       </c>
@@ -10346,7 +10641,7 @@
       <c r="L10" s="30"/>
       <c r="M10" s="30"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
         <v>688</v>
       </c>
@@ -10374,7 +10669,7 @@
       <c r="L11" s="30"/>
       <c r="M11" s="30"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
         <v>690</v>
       </c>
@@ -10402,7 +10697,7 @@
       <c r="L12" s="30"/>
       <c r="M12" s="30"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
         <v>692</v>
       </c>
@@ -10430,7 +10725,7 @@
       <c r="L13" s="30"/>
       <c r="M13" s="30"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
         <v>694</v>
       </c>
@@ -10459,7 +10754,7 @@
       <c r="L14" s="30"/>
       <c r="M14" s="30"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
         <v>696</v>
       </c>
@@ -10488,7 +10783,7 @@
       <c r="L15" s="30"/>
       <c r="M15" s="30"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
         <v>698</v>
       </c>
@@ -10517,7 +10812,7 @@
       <c r="L16" s="30"/>
       <c r="M16" s="30"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>700</v>
       </c>
@@ -10546,7 +10841,7 @@
       <c r="L17" s="30"/>
       <c r="M17" s="30"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
         <v>702</v>
       </c>
@@ -10575,7 +10870,7 @@
       <c r="L18" s="30"/>
       <c r="M18" s="30"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
         <v>704</v>
       </c>
@@ -10604,7 +10899,7 @@
       <c r="L19" s="30"/>
       <c r="M19" s="30"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
         <v>706</v>
       </c>
@@ -10633,7 +10928,7 @@
       <c r="L20" s="30"/>
       <c r="M20" s="30"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
         <v>708</v>
       </c>
@@ -10662,7 +10957,7 @@
       <c r="L21" s="30"/>
       <c r="M21" s="30"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
         <v>710</v>
       </c>
@@ -10691,7 +10986,7 @@
       <c r="L22" s="30"/>
       <c r="M22" s="30"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
         <v>713</v>
       </c>
@@ -10720,7 +11015,7 @@
       <c r="L23" s="30"/>
       <c r="M23" s="30"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
         <v>715</v>
       </c>
@@ -10749,7 +11044,7 @@
       <c r="L24" s="30"/>
       <c r="M24" s="30"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
         <v>717</v>
       </c>
@@ -10778,7 +11073,7 @@
       <c r="L25" s="30"/>
       <c r="M25" s="30"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
         <v>647</v>
       </c>
@@ -10807,7 +11102,7 @@
       <c r="L26" s="30"/>
       <c r="M26" s="30"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
         <v>649</v>
       </c>
@@ -10836,7 +11131,7 @@
       <c r="L27" s="30"/>
       <c r="M27" s="30"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
         <v>722</v>
       </c>
@@ -10864,7 +11159,7 @@
       <c r="L28" s="30"/>
       <c r="M28" s="30"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
         <v>723</v>
       </c>
@@ -10892,7 +11187,7 @@
       <c r="L29" s="30"/>
       <c r="M29" s="30"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
         <v>724</v>
       </c>
@@ -10920,7 +11215,7 @@
       <c r="L30" s="30"/>
       <c r="M30" s="30"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>726</v>
       </c>
@@ -10948,7 +11243,7 @@
       <c r="L31" s="30"/>
       <c r="M31" s="30"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
         <v>728</v>
       </c>
@@ -10976,7 +11271,7 @@
       <c r="L32" s="30"/>
       <c r="M32" s="30"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
         <v>730</v>
       </c>
@@ -11004,14 +11299,14 @@
       <c r="L33" s="30"/>
       <c r="M33" s="30"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="31" t="s">
@@ -11027,14 +11322,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="30" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="31" t="s">
@@ -11050,14 +11345,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="30" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="E36" s="30"/>
       <c r="F36" s="31" t="s">
@@ -11073,13 +11368,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="30" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="B37" s="30"/>
       <c r="D37" s="30" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="F37" s="31" t="s">
         <v>62</v>
@@ -11094,175 +11389,175 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B38" s="30"/>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B39" s="30"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B40" s="30"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B41" s="30"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B42" s="30"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B43" s="30"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B44" s="30"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B45" s="30"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B46" s="30"/>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B47" s="30"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B48" s="30"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="30"/>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="30"/>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="30"/>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="30"/>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="30"/>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="30"/>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="30"/>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="30"/>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="30"/>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="30"/>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="30"/>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="30"/>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="30"/>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="30"/>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="30"/>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="30"/>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="30"/>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="30"/>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="30"/>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="30"/>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="30"/>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="30"/>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="30"/>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="30"/>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="30"/>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="30"/>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="30"/>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="30"/>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="30"/>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="30"/>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="30"/>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="30"/>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" s="30"/>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" s="30"/>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" s="30"/>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" s="30"/>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" s="30"/>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" s="30"/>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" s="30"/>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" s="30"/>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" s="30"/>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" s="30"/>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91" s="30"/>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" s="30"/>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93" s="30"/>
     </row>
-    <row r="94" spans="2:2">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94" s="30"/>
     </row>
   </sheetData>
@@ -11284,19 +11579,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -11315,7 +11610,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -11336,7 +11631,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -11359,7 +11654,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -11382,7 +11677,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -11405,7 +11700,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -11428,7 +11723,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -11451,7 +11746,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -11474,7 +11769,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -11497,7 +11792,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -11520,7 +11815,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -11539,7 +11834,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -11560,7 +11855,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -11583,7 +11878,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -11606,7 +11901,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -11629,7 +11924,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -11652,7 +11947,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -11675,7 +11970,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -11698,7 +11993,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -11721,7 +12016,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -11744,7 +12039,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -11763,7 +12058,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -11786,7 +12081,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -11809,7 +12104,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -11832,7 +12127,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -11855,7 +12150,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -11878,7 +12173,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -11901,7 +12196,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -11924,7 +12219,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -11947,7 +12242,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -11970,7 +12265,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15">
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -11989,7 +12284,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15">
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -12010,7 +12305,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15">
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -12033,7 +12328,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15">
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -12056,7 +12351,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15">
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -12079,7 +12374,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15">
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -12102,7 +12397,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -12125,7 +12420,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -12148,7 +12443,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15">
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -12171,7 +12466,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15">
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -12194,7 +12489,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15">
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -12213,7 +12508,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15">
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -12234,7 +12529,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15">
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -12257,7 +12552,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15">
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -12280,7 +12575,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15">
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -12303,7 +12598,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15">
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -12326,7 +12621,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15">
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -12349,7 +12644,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15">
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -12372,7 +12667,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15">
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -12395,7 +12690,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15">
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -12418,7 +12713,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15">
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -12437,7 +12732,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15">
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -12458,7 +12753,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15">
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -12481,7 +12776,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15">
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -12504,7 +12799,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15">
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -12527,7 +12822,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15">
+    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -12550,7 +12845,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15">
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -12573,7 +12868,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15">
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -12596,7 +12891,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15">
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -12619,7 +12914,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15">
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -12642,7 +12937,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15">
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -12661,7 +12956,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15">
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -12682,7 +12977,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15">
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12707,7 +13002,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15">
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -12730,7 +13025,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15">
+    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -12753,7 +13048,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15">
+    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -12776,7 +13071,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15">
+    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -12799,7 +13094,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15">
+    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -12822,7 +13117,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15">
+    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -12845,7 +13140,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15">
+    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -12868,7 +13163,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15">
+    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -12891,7 +13186,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15">
+    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -12910,7 +13205,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15">
+    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -12931,7 +13226,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15">
+    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -12954,7 +13249,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15">
+    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -12979,7 +13274,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15">
+    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -13002,7 +13297,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15">
+    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -13025,7 +13320,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15">
+    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -13048,7 +13343,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15">
+    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -13071,7 +13366,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15">
+    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -13094,7 +13389,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15">
+    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -13117,7 +13412,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15">
+    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -13140,7 +13435,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15">
+    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -13163,7 +13458,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15">
+    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -13186,7 +13481,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15">
+    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -13209,7 +13504,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15">
+    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -13228,7 +13523,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15">
+    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -13251,7 +13546,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15">
+    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -13274,7 +13569,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15">
+    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -13297,7 +13592,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15">
+    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -13320,7 +13615,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15">
+    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -13343,7 +13638,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15">
+    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -13366,7 +13661,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15">
+    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -13389,7 +13684,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15">
+    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -13412,7 +13707,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15">
+    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -13435,7 +13730,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15">
+    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -13458,7 +13753,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15">
+    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -13477,7 +13772,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15">
+    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -13502,7 +13797,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15">
+    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -13521,7 +13816,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15">
+    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -13542,7 +13837,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15">
+    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -13567,7 +13862,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15">
+    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -13586,7 +13881,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15">
+    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -13609,7 +13904,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15">
+    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -13634,7 +13929,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15">
+    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -13657,7 +13952,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15">
+    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -13678,7 +13973,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15">
+    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -13697,7 +13992,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15">
+    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -13722,7 +14017,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15">
+    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -13745,7 +14040,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15">
+    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -13768,7 +14063,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15">
+    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -13791,7 +14086,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15">
+    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -13814,7 +14109,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15">
+    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -13837,7 +14132,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15">
+    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -13860,7 +14155,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15">
+    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -13879,7 +14174,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15">
+    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -13902,7 +14197,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15">
+    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -13925,7 +14220,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15">
+    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -13948,7 +14243,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15">
+    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -13967,7 +14262,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15">
+    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -13990,7 +14285,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15">
+    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -14013,7 +14308,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15">
+    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -14036,7 +14331,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15">
+    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -14059,7 +14354,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15">
+    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -14082,7 +14377,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15">
+    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -14105,7 +14400,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15">
+    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -14124,7 +14419,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15">
+    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -14149,7 +14444,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15">
+    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -14172,7 +14467,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15">
+    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -14195,7 +14490,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15">
+    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -14218,7 +14513,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15">
+    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -14241,7 +14536,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15">
+    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -14264,7 +14559,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15">
+    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -14287,7 +14582,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15">
+    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -14310,7 +14605,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15">
+    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -14333,7 +14628,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15">
+    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -14352,7 +14647,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15">
+    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -14377,7 +14672,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15">
+    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -14398,7 +14693,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15">
+    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -14421,7 +14716,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15">
+    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -14444,7 +14739,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15">
+    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -14467,7 +14762,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15">
+    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -14490,7 +14785,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15">
+    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -14513,7 +14808,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15">
+    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -14536,7 +14831,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15">
+    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -14559,7 +14854,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15">
+    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -14582,7 +14877,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15">
+    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -14605,7 +14900,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15">
+    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -14628,7 +14923,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15">
+    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -14651,7 +14946,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15">
+    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -14674,7 +14969,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15">
+    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -14693,7 +14988,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15">
+    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14716,7 +15011,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15">
+    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -14735,7 +15030,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15">
+    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -14758,7 +15053,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15">
+    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -14781,7 +15076,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15">
+    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -14800,7 +15095,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15">
+    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -14825,7 +15120,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15">
+    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -14848,7 +15143,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15">
+    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -14871,7 +15166,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15">
+    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -14894,7 +15189,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15">
+    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -14917,7 +15212,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15">
+    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -14940,7 +15235,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15">
+    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -14963,7 +15258,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15">
+    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -14986,7 +15281,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15">
+    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -15009,7 +15304,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15">
+    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -15032,7 +15327,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15">
+    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -15051,7 +15346,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15">
+    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -15076,7 +15371,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15">
+    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -15099,7 +15394,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15">
+    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -15122,7 +15417,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15">
+    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -15145,7 +15440,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15">
+    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -15168,7 +15463,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15">
+    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -15191,7 +15486,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15">
+    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -15214,7 +15509,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15">
+    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -15237,7 +15532,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15">
+    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -15260,7 +15555,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15">
+    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -15283,7 +15578,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15">
+    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -15302,7 +15597,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15">
+    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -15325,7 +15620,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15">
+    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -15348,7 +15643,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15">
+    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -15371,7 +15666,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15">
+    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -15394,7 +15689,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15">
+    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -15413,7 +15708,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15">
+    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -15436,7 +15731,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15">
+    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -15459,7 +15754,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15">
+    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -15482,7 +15777,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15">
+    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -15505,7 +15800,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15">
+    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -15524,7 +15819,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15">
+    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -15545,7 +15840,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15">
+    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -15568,7 +15863,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15">
+    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -15587,7 +15882,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15">
+    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -15610,7 +15905,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15">
+    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -15635,7 +15930,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15">
+    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -15656,7 +15951,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15">
+    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -15681,7 +15976,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15">
+    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15706,7 +16001,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15">
+    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -15725,7 +16020,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15">
+    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -15750,7 +16045,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15">
+    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -15773,7 +16068,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15">
+    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -15796,7 +16091,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15">
+    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -15819,7 +16114,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15">
+    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -15842,7 +16137,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15">
+    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -15865,7 +16160,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15">
+    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -15888,7 +16183,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15">
+    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -15911,7 +16206,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15">
+    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -15934,7 +16229,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15">
+    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -15953,7 +16248,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15">
+    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -15978,7 +16273,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15">
+    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -16001,7 +16296,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15">
+    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -16024,7 +16319,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15">
+    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -16047,7 +16342,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15">
+    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -16070,7 +16365,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15">
+    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -16093,7 +16388,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15">
+    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -16116,7 +16411,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15">
+    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -16139,7 +16434,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15">
+    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -16162,7 +16457,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15">
+    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -16181,7 +16476,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15">
+    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -16202,7 +16497,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15">
+    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -16225,7 +16520,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15">
+    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -16248,7 +16543,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15">
+    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -16271,7 +16566,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15">
+    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -16294,7 +16589,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15">
+    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -16317,7 +16612,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15">
+    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -16340,7 +16635,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15">
+    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -16363,7 +16658,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15">
+    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -16386,7 +16681,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15">
+    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -16409,7 +16704,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15">
+    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -16432,7 +16727,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15">
+    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -16455,7 +16750,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15">
+    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -16478,7 +16773,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15">
+    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -16501,7 +16796,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15">
+    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -16524,7 +16819,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15">
+    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -16547,7 +16842,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15">
+    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -16566,7 +16861,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15">
+    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -16587,7 +16882,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15">
+    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -16610,7 +16905,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15">
+    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -16633,7 +16928,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15">
+    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -16656,7 +16951,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15">
+    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -16679,7 +16974,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15">
+    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16702,7 +16997,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15">
+    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -16725,7 +17020,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15">
+    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -16748,7 +17043,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15">
+    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -16771,7 +17066,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15">
+    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -16794,7 +17089,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15">
+    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -16817,7 +17112,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15">
+    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -16840,7 +17135,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15">
+    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -16863,7 +17158,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15">
+    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -16886,7 +17181,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15">
+    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -16909,7 +17204,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15">
+    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -16932,7 +17227,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15">
+    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -16951,7 +17246,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15">
+    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -16976,7 +17271,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15">
+    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -16999,7 +17294,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15">
+    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -17022,7 +17317,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15">
+    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -17045,7 +17340,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15">
+    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -17068,7 +17363,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15">
+    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -17087,7 +17382,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15">
+    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -17112,7 +17407,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15">
+    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -17135,7 +17430,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15">
+    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -17154,7 +17449,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15">
+    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -17173,7 +17468,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15">
+    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -17192,7 +17487,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15">
+    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -17213,7 +17508,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15">
+    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -17236,7 +17531,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15">
+    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -17259,7 +17554,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15">
+    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -17282,7 +17577,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15">
+    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -17305,7 +17600,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15">
+    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -17328,7 +17623,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15">
+    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -17351,7 +17646,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15">
+    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -17374,7 +17669,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15">
+    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -17397,7 +17692,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15">
+    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -17420,7 +17715,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15">
+    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -17443,7 +17738,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15">
+    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -17462,7 +17757,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15">
+    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -17485,7 +17780,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15">
+    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -17504,7 +17799,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15">
+    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -17529,7 +17824,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15">
+    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -17552,7 +17847,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15">
+    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -17575,7 +17870,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15">
+    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -17598,7 +17893,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15">
+    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -17621,7 +17916,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15">
+    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -17644,7 +17939,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15">
+    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -17667,7 +17962,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15">
+    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -17690,7 +17985,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15">
+    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -17713,7 +18008,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15">
+    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -17736,7 +18031,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15">
+    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -17759,7 +18054,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15">
+    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -17778,7 +18073,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15">
+    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -17801,7 +18096,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15">
+    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -17820,7 +18115,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15">
+    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -17841,7 +18136,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15">
+    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -17860,7 +18155,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15">
+    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -17881,7 +18176,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15">
+    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -17900,7 +18195,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15">
+    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -17921,7 +18216,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15">
+    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -17940,7 +18235,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15">
+    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -17963,7 +18258,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15">
+    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -17982,7 +18277,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15">
+    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -18007,7 +18302,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15">
+    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -18030,7 +18325,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15">
+    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -18053,7 +18348,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15">
+    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -18076,7 +18371,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15">
+    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -18099,7 +18394,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15">
+    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -18122,7 +18417,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15">
+    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -18145,7 +18440,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15">
+    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -18168,7 +18463,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15">
+    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -18191,7 +18486,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15">
+    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -18210,7 +18505,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15">
+    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -18233,7 +18528,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15">
+    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -18256,7 +18551,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15">
+    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -18279,7 +18574,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15">
+    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -18302,7 +18597,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15">
+    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -18321,7 +18616,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15">
+    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -18344,7 +18639,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15">
+    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -18367,7 +18662,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15">
+    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -18392,7 +18687,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15">
+    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -18411,7 +18706,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15">
+    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -18436,7 +18731,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15">
+    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -18459,7 +18754,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15">
+    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -18478,7 +18773,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15">
+    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -18499,7 +18794,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15">
+    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -18520,7 +18815,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15">
+    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -18543,7 +18838,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15">
+    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -18562,7 +18857,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15">
+    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -18581,7 +18876,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15">
+    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -18606,7 +18901,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15">
+    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -18631,7 +18926,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -18645,7 +18940,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -18668,7 +18963,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18688,7 +18983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18708,7 +19003,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18728,7 +19023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18745,7 +19040,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18768,7 +19063,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18791,7 +19086,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18805,7 +19100,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="337" spans="1:16">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18828,7 +19123,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="338" spans="1:16">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18851,7 +19146,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="339" spans="1:16">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18871,7 +19166,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -18891,7 +19186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -18908,7 +19203,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="342" spans="1:16">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -18934,7 +19229,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -18963,7 +19258,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15">
+    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -19002,7 +19297,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:16">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -19016,7 +19311,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="346" spans="1:16">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -19036,7 +19331,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -19050,7 +19345,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="348" spans="1:16">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -19070,7 +19365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -19090,7 +19385,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="350" spans="1:16">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -19110,7 +19405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -19130,7 +19425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -19150,7 +19445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -19170,7 +19465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -19190,7 +19485,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -19210,7 +19505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -19230,7 +19525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -19244,7 +19539,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="358" spans="1:18">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -19264,7 +19559,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -19284,7 +19579,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1">
+    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -19300,7 +19595,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1">
+    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -19326,7 +19621,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -19367,7 +19662,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -19381,7 +19676,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="364" spans="1:18">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -19401,7 +19696,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -19415,7 +19710,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="366" spans="1:18">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -19454,17 +19749,17 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.5" customWidth="1"/>
+    <col min="17" max="17" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>439</v>
       </c>
@@ -19475,7 +19770,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="30" customFormat="1">
+    <row r="2" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>587</v>
       </c>
@@ -19489,7 +19784,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="30" customFormat="1">
+    <row r="3" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>590</v>
       </c>
@@ -19503,7 +19798,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="30" customFormat="1">
+    <row r="4" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>592</v>
       </c>
@@ -19517,7 +19812,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="30" customFormat="1">
+    <row r="5" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>594</v>
       </c>
@@ -19531,7 +19826,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="30" customFormat="1">
+    <row r="6" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>596</v>
       </c>
@@ -19545,7 +19840,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="30" customFormat="1">
+    <row r="7" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>438</v>
       </c>
@@ -19559,7 +19854,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="30" customFormat="1">
+    <row r="8" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>599</v>
       </c>
@@ -19573,7 +19868,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="30" customFormat="1">
+    <row r="9" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>601</v>
       </c>
@@ -19587,7 +19882,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>567</v>
       </c>
@@ -19601,7 +19896,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>452</v>
       </c>
@@ -19615,7 +19910,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>450</v>
       </c>
@@ -19626,8 +19921,8 @@
         <v>542</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="30" customFormat="1"/>
-    <row r="16" spans="1:21">
+    <row r="14" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>545</v>
       </c>
@@ -19653,7 +19948,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>546</v>
       </c>
@@ -19694,7 +19989,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -19735,7 +20030,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>540</v>
       </c>
@@ -19767,7 +20062,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>548</v>
       </c>
@@ -19799,7 +20094,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>547</v>
       </c>
@@ -19828,7 +20123,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>549</v>
       </c>
@@ -19860,7 +20155,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>550</v>
       </c>
@@ -19880,7 +20175,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>642</v>
       </c>
@@ -19903,7 +20198,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L25" s="1" t="s">
         <v>556</v>
       </c>
@@ -19914,7 +20209,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L26" s="1" t="s">
         <v>537</v>
       </c>
@@ -19922,7 +20217,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L27" s="1" t="s">
         <v>539</v>
       </c>

--- a/projects/SEB_calibration_Rgenoud_2013.xlsx
+++ b/projects/SEB_calibration_Rgenoud_2013.xlsx
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Outputs!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$2:$AA$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$2:$AA$127</definedName>
     <definedName name="AnalysisType">Lookups!$A$17:$A$23</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$D$9</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$9</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2667" uniqueCount="824">
   <si>
     <t>type</t>
   </si>
@@ -2506,6 +2506,12 @@
   </si>
   <si>
     <t>FALSE</t>
+  </si>
+  <si>
+    <t>Set RunPeriod</t>
+  </si>
+  <si>
+    <t>set_runperiod</t>
   </si>
 </sst>
 </file>
@@ -7330,11 +7336,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z199"/>
+  <dimension ref="A1:Z200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7663,60 +7669,60 @@
       </c>
       <c r="J12" s="31"/>
     </row>
-    <row r="13" spans="1:26" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37" t="b">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B13" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>822</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>823</v>
+      </c>
+      <c r="F13" s="63"/>
+      <c r="G13" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="48" t="s">
+        <v>815</v>
+      </c>
+      <c r="J13" s="31"/>
+    </row>
+    <row r="14" spans="1:26" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B14" s="37" t="s">
         <v>816</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C14" s="37" t="s">
         <v>799</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D14" s="37" t="s">
         <v>799</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E14" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B14" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>800</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>801</v>
-      </c>
-      <c r="F14" s="63"/>
-      <c r="G14" s="31" t="s">
-        <v>732</v>
-      </c>
-      <c r="I14" s="31" t="s">
-        <v>817</v>
-      </c>
-      <c r="J14" s="31"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B15" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>164</v>
+        <v>801</v>
       </c>
       <c r="F15" s="63"/>
       <c r="G15" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="J15" s="31"/>
     </row>
@@ -7725,17 +7731,17 @@
         <v>21</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>806</v>
+        <v>164</v>
       </c>
       <c r="F16" s="63"/>
       <c r="G16" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="J16" s="31"/>
     </row>
@@ -7744,17 +7750,17 @@
         <v>21</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>650</v>
+        <v>819</v>
       </c>
       <c r="J17" s="31"/>
     </row>
@@ -7763,17 +7769,17 @@
         <v>21</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="F18" s="63"/>
       <c r="G18" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>820</v>
+        <v>650</v>
       </c>
       <c r="J18" s="31"/>
     </row>
@@ -7782,17 +7788,17 @@
         <v>21</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>733</v>
+        <v>810</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>734</v>
+        <v>811</v>
       </c>
       <c r="F19" s="63"/>
       <c r="G19" s="31" t="s">
         <v>732</v>
       </c>
-      <c r="I19" s="48" t="s">
-        <v>765</v>
+      <c r="I19" s="31" t="s">
+        <v>820</v>
       </c>
       <c r="J19" s="31"/>
     </row>
@@ -7801,17 +7807,17 @@
         <v>21</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F20" s="63"/>
       <c r="G20" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I20" s="48" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="J20" s="31"/>
     </row>
@@ -7820,199 +7826,200 @@
         <v>21</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>813</v>
+        <v>735</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>814</v>
+        <v>736</v>
       </c>
       <c r="F21" s="63"/>
       <c r="G21" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="I21" s="48" t="s">
+        <v>766</v>
+      </c>
+      <c r="J21" s="31"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B22" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>813</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>814</v>
+      </c>
+      <c r="F22" s="63"/>
+      <c r="G22" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="48" t="s">
+      <c r="I22" s="48" t="s">
         <v>821</v>
       </c>
-      <c r="J21" s="31"/>
-    </row>
-    <row r="22" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="37" t="b">
+      <c r="J22" s="31"/>
+    </row>
+    <row r="23" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B23" s="37" t="s">
         <v>646</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C23" s="37" t="s">
         <v>645</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D23" s="37" t="s">
         <v>645</v>
       </c>
-      <c r="E22" s="37" t="s">
+      <c r="E23" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-    </row>
-    <row r="23" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="45" t="b">
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+    </row>
+    <row r="24" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B23" s="45" t="s">
+      <c r="B24" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C24" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="45" t="s">
+      <c r="D24" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="45" t="s">
+      <c r="E24" s="45" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="30" t="s">
+    <row r="25" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E25" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="63"/>
-      <c r="G24" s="30" t="s">
+      <c r="F25" s="63"/>
+      <c r="G25" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I24" s="30" t="s">
+      <c r="I25" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="J24" s="30" t="s">
+      <c r="J25" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="P24" s="31"/>
-    </row>
-    <row r="25" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="40" t="s">
+      <c r="P25" s="31"/>
+    </row>
+    <row r="26" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D26" s="41" t="s">
         <v>681</v>
       </c>
-      <c r="E25" s="40" t="s">
+      <c r="E26" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="50"/>
-      <c r="G25" s="40" t="s">
+      <c r="F26" s="50"/>
+      <c r="G26" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="I25" s="40">
-        <v>0</v>
-      </c>
-      <c r="K25" s="42">
-        <v>0</v>
-      </c>
-      <c r="L25" s="42">
+      <c r="I26" s="40">
+        <v>0</v>
+      </c>
+      <c r="K26" s="42">
+        <v>0</v>
+      </c>
+      <c r="L26" s="42">
         <v>100</v>
       </c>
-      <c r="M25" s="42">
+      <c r="M26" s="42">
         <v>15</v>
       </c>
-      <c r="N25" s="42">
-        <f>(L25-K25)/6</f>
+      <c r="N26" s="42">
+        <f>(L26-K26)/6</f>
         <v>16.666666666666668</v>
       </c>
-      <c r="O25" s="42">
+      <c r="O26" s="42">
         <v>1</v>
       </c>
-      <c r="R25" s="40" t="s">
+      <c r="R26" s="40" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="30" t="s">
+    <row r="27" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="30" t="s">
         <v>673</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E27" s="30" t="s">
         <v>674</v>
       </c>
-      <c r="F26" s="63"/>
-      <c r="G26" s="30" t="s">
+      <c r="F27" s="63"/>
+      <c r="G27" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="30">
+      <c r="I27" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="57" t="s">
+    <row r="28" spans="1:18" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="57" t="s">
         <v>676</v>
       </c>
-      <c r="E27" s="56" t="s">
+      <c r="E28" s="56" t="s">
         <v>675</v>
       </c>
-      <c r="F27" s="63"/>
-      <c r="G27" s="56" t="s">
+      <c r="F28" s="63"/>
+      <c r="G28" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="I27" s="56">
-        <v>0</v>
-      </c>
-      <c r="K27" s="58">
-        <v>0</v>
-      </c>
-      <c r="L27" s="58">
+      <c r="I28" s="56">
+        <v>0</v>
+      </c>
+      <c r="K28" s="58">
+        <v>0</v>
+      </c>
+      <c r="L28" s="58">
         <v>0.1</v>
       </c>
-      <c r="M27" s="58">
+      <c r="M28" s="58">
         <v>0.05</v>
       </c>
-      <c r="N27" s="58">
-        <f>(L27-K27)/6</f>
+      <c r="N28" s="58">
+        <f>(L28-K28)/6</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="O27" s="58">
+      <c r="O28" s="58">
         <v>0.01</v>
       </c>
-      <c r="R27" s="56" t="s">
+      <c r="R28" s="56" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="30" t="s">
+    <row r="29" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="30" t="s">
         <v>678</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E29" s="30" t="s">
         <v>677</v>
       </c>
-      <c r="F28" s="63"/>
-      <c r="G28" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>680</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>679</v>
-      </c>
-      <c r="F29" s="64"/>
+      <c r="F29" s="63"/>
       <c r="G29" s="30" t="s">
         <v>62</v>
       </c>
@@ -8025,10 +8032,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>69</v>
+        <v>680</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>46</v>
+        <v>679</v>
       </c>
       <c r="F30" s="64"/>
       <c r="G30" s="30" t="s">
@@ -8043,10 +8050,10 @@
         <v>21</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F31" s="64"/>
       <c r="G31" s="30" t="s">
@@ -8061,132 +8068,123 @@
         <v>21</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F32" s="64"/>
       <c r="G32" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="I32" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="64"/>
+      <c r="G33" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="I32" s="30">
+      <c r="I33" s="30">
         <v>1</v>
       </c>
-      <c r="P32" s="31"/>
-    </row>
-    <row r="33" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="46" t="b">
+      <c r="P33" s="31"/>
+    </row>
+    <row r="34" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="B34" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="46" t="s">
+      <c r="C34" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="46" t="s">
+      <c r="D34" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="46" t="s">
+      <c r="E34" s="46" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30" t="s">
+    <row r="35" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="30"/>
+      <c r="B35" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="E35" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="64"/>
-      <c r="G34" s="30" t="s">
+      <c r="F35" s="64"/>
+      <c r="G35" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30" t="s">
+      <c r="H35" s="30"/>
+      <c r="I35" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="J34" s="30" t="s">
+      <c r="J35" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="Q34" s="39"/>
-    </row>
-    <row r="35" spans="1:18" s="52" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B35" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="52" t="s">
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="Q35" s="39"/>
+    </row>
+    <row r="36" spans="1:18" s="52" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="52" t="s">
         <v>655</v>
       </c>
-      <c r="E35" s="52" t="s">
+      <c r="E36" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="F35" s="64"/>
-      <c r="G35" s="52" t="s">
+      <c r="F36" s="64"/>
+      <c r="G36" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="I35" s="52">
-        <v>0</v>
-      </c>
-      <c r="J35" s="53"/>
-      <c r="K35" s="54">
+      <c r="I36" s="52">
+        <v>0</v>
+      </c>
+      <c r="J36" s="53"/>
+      <c r="K36" s="54">
         <v>-40</v>
       </c>
-      <c r="L35" s="54">
+      <c r="L36" s="54">
         <v>40</v>
       </c>
-      <c r="M35" s="54">
-        <v>0</v>
-      </c>
-      <c r="N35" s="54">
-        <f>(L35-K35)/6</f>
+      <c r="M36" s="54">
+        <v>0</v>
+      </c>
+      <c r="N36" s="54">
+        <f>(L36-K36)/6</f>
         <v>13.333333333333334</v>
       </c>
-      <c r="O35" s="54">
+      <c r="O36" s="54">
         <v>1</v>
       </c>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="52" t="s">
+      <c r="Q36" s="55"/>
+      <c r="R36" s="52" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F36" s="64"/>
-      <c r="G36" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30">
-        <v>0</v>
-      </c>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="Q36" s="39"/>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="30"/>
@@ -8194,11 +8192,11 @@
         <v>21</v>
       </c>
       <c r="C37" s="30"/>
-      <c r="D37" s="30" t="s">
-        <v>47</v>
+      <c r="D37" s="44" t="s">
+        <v>45</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F37" s="64"/>
       <c r="G37" s="30" t="s">
@@ -8222,14 +8220,14 @@
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F38" s="64"/>
       <c r="G38" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H38" s="30"/>
       <c r="I38" s="30">
@@ -8249,18 +8247,18 @@
       </c>
       <c r="C39" s="30"/>
       <c r="D39" s="30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F39" s="64"/>
       <c r="G39" s="30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H39" s="30"/>
-      <c r="I39" s="30" t="b">
-        <v>1</v>
+      <c r="I39" s="30">
+        <v>0</v>
       </c>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -8276,18 +8274,18 @@
       </c>
       <c r="C40" s="30"/>
       <c r="D40" s="30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F40" s="64"/>
       <c r="G40" s="30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H40" s="30"/>
-      <c r="I40" s="30">
-        <v>15</v>
+      <c r="I40" s="30" t="b">
+        <v>1</v>
       </c>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -8303,18 +8301,18 @@
       </c>
       <c r="C41" s="30"/>
       <c r="D41" s="30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F41" s="64"/>
       <c r="G41" s="30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H41" s="30"/>
       <c r="I41" s="30">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -8330,18 +8328,18 @@
       </c>
       <c r="C42" s="30"/>
       <c r="D42" s="30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F42" s="64"/>
       <c r="G42" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H42" s="30"/>
       <c r="I42" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -8350,117 +8348,123 @@
       <c r="O42" s="3"/>
       <c r="Q42" s="39"/>
     </row>
-    <row r="43" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="46" t="b">
+    <row r="43" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="30"/>
+      <c r="B43" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F43" s="64"/>
+      <c r="G43" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30">
         <v>1</v>
       </c>
-      <c r="B43" s="46" t="s">
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="Q43" s="39"/>
+    </row>
+    <row r="44" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="B44" s="46" t="s">
         <v>283</v>
       </c>
-      <c r="C43" s="46" t="s">
+      <c r="C44" s="46" t="s">
         <v>284</v>
       </c>
-      <c r="D43" s="46" t="s">
+      <c r="D44" s="46" t="s">
         <v>284</v>
       </c>
-      <c r="E43" s="46" t="s">
+      <c r="E44" s="46" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B44" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="30" t="s">
+    <row r="45" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="30" t="s">
         <v>371</v>
       </c>
-      <c r="E44" s="30" t="s">
+      <c r="E45" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="F44" s="64"/>
-      <c r="G44" s="30" t="s">
+      <c r="F45" s="64"/>
+      <c r="G45" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I44" s="30" t="s">
+      <c r="I45" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="J44" s="30" t="s">
+      <c r="J45" s="30" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B45" s="40" t="s">
+    <row r="46" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="40" t="s">
+      <c r="D46" s="40" t="s">
         <v>658</v>
       </c>
-      <c r="E45" s="40" t="s">
+      <c r="E46" s="40" t="s">
         <v>286</v>
       </c>
-      <c r="F45" s="50"/>
-      <c r="G45" s="40" t="s">
+      <c r="F46" s="50"/>
+      <c r="G46" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="H45" s="40" t="s">
+      <c r="H46" s="40" t="s">
         <v>659</v>
       </c>
-      <c r="I45" s="40">
-        <v>0</v>
-      </c>
-      <c r="J45" s="43"/>
-      <c r="K45" s="42">
+      <c r="I46" s="40">
+        <v>0</v>
+      </c>
+      <c r="J46" s="43"/>
+      <c r="K46" s="42">
         <v>-80</v>
       </c>
-      <c r="L45" s="42">
+      <c r="L46" s="42">
         <v>80</v>
       </c>
-      <c r="M45" s="42">
-        <v>0</v>
-      </c>
-      <c r="N45" s="42">
-        <f>(L45-K45)/6</f>
+      <c r="M46" s="42">
+        <v>0</v>
+      </c>
+      <c r="N46" s="42">
+        <f>(L46-K46)/6</f>
         <v>26.666666666666668</v>
       </c>
-      <c r="O45" s="42">
+      <c r="O46" s="42">
         <v>1</v>
       </c>
-      <c r="R45" s="40" t="s">
+      <c r="R46" s="40" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="30" t="s">
+    <row r="47" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="30" t="s">
         <v>660</v>
       </c>
-      <c r="E46" s="30" t="s">
+      <c r="E47" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F46" s="64"/>
-      <c r="G46" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H46" s="30" t="s">
-        <v>659</v>
-      </c>
-      <c r="I46" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="30" t="s">
-        <v>661</v>
-      </c>
-      <c r="E47" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F47" s="63"/>
+      <c r="F47" s="64"/>
       <c r="G47" s="30" t="s">
         <v>62</v>
       </c>
@@ -8476,17 +8480,17 @@
         <v>21</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E48" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F48" s="63"/>
       <c r="G48" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H48" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I48" s="30">
         <v>0</v>
@@ -8497,16 +8501,19 @@
         <v>21</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E49" s="30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F49" s="63"/>
       <c r="G49" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I49" s="30" t="b">
+        <v>63</v>
+      </c>
+      <c r="H49" s="30" t="s">
+        <v>663</v>
+      </c>
+      <c r="I49" s="30">
         <v>0</v>
       </c>
     </row>
@@ -8515,20 +8522,17 @@
         <v>21</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E50" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F50" s="63"/>
       <c r="G50" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H50" s="30" t="s">
-        <v>663</v>
-      </c>
-      <c r="I50" s="30">
-        <v>15</v>
+        <v>61</v>
+      </c>
+      <c r="I50" s="30" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -8536,138 +8540,141 @@
         <v>21</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E51" s="30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F51" s="63"/>
       <c r="G51" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H51" s="30" t="s">
+        <v>663</v>
+      </c>
+      <c r="I51" s="30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>666</v>
+      </c>
+      <c r="E52" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F52" s="63"/>
+      <c r="G52" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H51" s="30" t="s">
+      <c r="H52" s="30" t="s">
         <v>659</v>
       </c>
-      <c r="I51" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B52" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" s="30" t="s">
+      <c r="I52" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B53" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="30" t="s">
         <v>667</v>
       </c>
-      <c r="E52" s="30" t="s">
+      <c r="E53" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F52" s="64"/>
-      <c r="G52" s="30" t="s">
+      <c r="F53" s="64"/>
+      <c r="G53" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H52" s="30" t="s">
+      <c r="H53" s="30" t="s">
         <v>663</v>
       </c>
-      <c r="I52" s="30">
+      <c r="I53" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="46" t="b">
+    <row r="54" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="B53" s="46" t="s">
+      <c r="B54" s="46" t="s">
         <v>761</v>
       </c>
-      <c r="C53" s="46" t="s">
+      <c r="C54" s="46" t="s">
         <v>762</v>
       </c>
-      <c r="D53" s="46" t="s">
+      <c r="D54" s="46" t="s">
         <v>762</v>
       </c>
-      <c r="E53" s="46" t="s">
+      <c r="E54" s="46" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B54" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D54" s="30" t="s">
+    <row r="55" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="30" t="s">
         <v>342</v>
       </c>
-      <c r="E54" s="30" t="s">
+      <c r="E55" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="F54" s="64"/>
-      <c r="G54" s="30" t="s">
+      <c r="F55" s="64"/>
+      <c r="G55" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I54" s="51" t="s">
+      <c r="I55" s="51" t="s">
         <v>415</v>
       </c>
-      <c r="J54" s="30" t="s">
+      <c r="J55" s="30" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="55" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B55" s="40" t="s">
+    <row r="56" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B56" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D55" s="40" t="s">
+      <c r="D56" s="40" t="s">
         <v>763</v>
       </c>
-      <c r="E55" s="40" t="s">
+      <c r="E56" s="40" t="s">
         <v>764</v>
       </c>
-      <c r="F55" s="50"/>
-      <c r="G55" s="40" t="s">
+      <c r="F56" s="50"/>
+      <c r="G56" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="H55" s="40" t="s">
+      <c r="H56" s="40" t="s">
         <v>659</v>
       </c>
-      <c r="I55" s="40">
+      <c r="I56" s="40">
         <v>0.8</v>
       </c>
-      <c r="J55" s="43"/>
-      <c r="K55" s="42">
+      <c r="J56" s="43"/>
+      <c r="K56" s="42">
         <v>0.78</v>
       </c>
-      <c r="L55" s="42">
+      <c r="L56" s="42">
         <v>0.98</v>
       </c>
-      <c r="M55" s="42">
+      <c r="M56" s="42">
         <v>0.8</v>
       </c>
-      <c r="N55" s="42">
-        <f>(L55-K55)/6</f>
+      <c r="N56" s="42">
+        <f>(L56-K56)/6</f>
         <v>3.3333333333333326E-2</v>
       </c>
-      <c r="O55" s="42">
+      <c r="O56" s="42">
         <v>1</v>
       </c>
-      <c r="R55" s="40" t="s">
+      <c r="R56" s="40" t="s">
         <v>654</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D56" s="30" t="s">
-        <v>347</v>
-      </c>
-      <c r="E56" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="F56" s="31"/>
-      <c r="G56" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I56" s="30" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -8675,19 +8682,16 @@
         <v>21</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>660</v>
+        <v>347</v>
       </c>
       <c r="E57" s="30" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="F57" s="31"/>
       <c r="G57" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H57" s="30" t="s">
-        <v>659</v>
-      </c>
-      <c r="I57" s="30">
+        <v>61</v>
+      </c>
+      <c r="I57" s="30" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8696,10 +8700,10 @@
         <v>21</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E58" s="30" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="F58" s="31"/>
       <c r="G58" s="30" t="s">
@@ -8717,37 +8721,40 @@
         <v>21</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E59" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F59" s="31"/>
       <c r="G59" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H59" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="I59" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>662</v>
+      </c>
+      <c r="E60" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F60" s="31"/>
+      <c r="G60" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H59" s="30" t="s">
+      <c r="H60" s="30" t="s">
         <v>663</v>
       </c>
-      <c r="I59" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B60" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60" s="30" t="s">
-        <v>664</v>
-      </c>
-      <c r="E60" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F60" s="64"/>
-      <c r="G60" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I60" s="30" t="b">
+      <c r="I60" s="30">
         <v>0</v>
       </c>
     </row>
@@ -8756,20 +8763,17 @@
         <v>21</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E61" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F61" s="64"/>
       <c r="G61" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H61" s="30" t="s">
-        <v>663</v>
-      </c>
-      <c r="I61" s="30">
-        <v>15</v>
+        <v>61</v>
+      </c>
+      <c r="I61" s="30" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8777,20 +8781,20 @@
         <v>21</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E62" s="30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F62" s="64"/>
       <c r="G62" s="30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H62" s="30" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="I62" s="30">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8798,117 +8802,120 @@
         <v>21</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E63" s="30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F63" s="64"/>
       <c r="G63" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H63" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="I63" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B64" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="30" t="s">
+        <v>667</v>
+      </c>
+      <c r="E64" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F64" s="64"/>
+      <c r="G64" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H63" s="30" t="s">
+      <c r="H64" s="30" t="s">
         <v>663</v>
       </c>
-      <c r="I63" s="30">
+      <c r="I64" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="46" t="b">
+    <row r="65" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="B64" s="46" t="s">
+      <c r="B65" s="46" t="s">
         <v>768</v>
       </c>
-      <c r="C64" s="46" t="s">
+      <c r="C65" s="46" t="s">
         <v>767</v>
       </c>
-      <c r="D64" s="46" t="s">
+      <c r="D65" s="46" t="s">
         <v>767</v>
       </c>
-      <c r="E64" s="46" t="s">
+      <c r="E65" s="46" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B65" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D65" s="30" t="s">
+    <row r="66" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B66" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="30" t="s">
         <v>769</v>
       </c>
-      <c r="E65" s="30" t="s">
+      <c r="E66" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="F65" s="64"/>
-      <c r="G65" s="30" t="s">
+      <c r="F66" s="64"/>
+      <c r="G66" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I65" s="51" t="s">
+      <c r="I66" s="51" t="s">
         <v>415</v>
       </c>
-      <c r="J65" s="30" t="s">
+      <c r="J66" s="30" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="66" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B66" s="40" t="s">
+    <row r="67" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="40" t="s">
+      <c r="D67" s="40" t="s">
         <v>770</v>
       </c>
-      <c r="E66" s="40" t="s">
+      <c r="E67" s="40" t="s">
         <v>771</v>
       </c>
-      <c r="F66" s="50"/>
-      <c r="G66" s="40" t="s">
+      <c r="F67" s="50"/>
+      <c r="G67" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="H66" s="40" t="s">
+      <c r="H67" s="40" t="s">
         <v>659</v>
       </c>
-      <c r="I66" s="40">
+      <c r="I67" s="40">
         <v>4</v>
       </c>
-      <c r="J66" s="43"/>
-      <c r="K66" s="42">
-        <v>2</v>
-      </c>
-      <c r="L66" s="42">
+      <c r="J67" s="43"/>
+      <c r="K67" s="42">
+        <v>2</v>
+      </c>
+      <c r="L67" s="42">
         <v>5</v>
       </c>
-      <c r="M66" s="42">
+      <c r="M67" s="42">
         <v>4</v>
       </c>
-      <c r="N66" s="42">
-        <f>(L66-K66)/6</f>
+      <c r="N67" s="42">
+        <f>(L67-K67)/6</f>
         <v>0.5</v>
       </c>
-      <c r="O66" s="42">
+      <c r="O67" s="42">
         <v>0.25</v>
       </c>
-      <c r="R66" s="40" t="s">
+      <c r="R67" s="40" t="s">
         <v>654</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B67" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D67" s="30" t="s">
-        <v>347</v>
-      </c>
-      <c r="E67" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="F67" s="64"/>
-      <c r="G67" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I67" s="30" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8916,19 +8923,16 @@
         <v>21</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>660</v>
+        <v>347</v>
       </c>
       <c r="E68" s="30" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="F68" s="64"/>
       <c r="G68" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H68" s="30" t="s">
-        <v>659</v>
-      </c>
-      <c r="I68" s="30">
+        <v>61</v>
+      </c>
+      <c r="I68" s="30" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8937,10 +8941,10 @@
         <v>21</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E69" s="30" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="F69" s="64"/>
       <c r="G69" s="30" t="s">
@@ -8958,17 +8962,17 @@
         <v>21</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E70" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F70" s="64"/>
       <c r="G70" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H70" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I70" s="30">
         <v>0</v>
@@ -8979,16 +8983,19 @@
         <v>21</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E71" s="30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F71" s="64"/>
       <c r="G71" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I71" s="30" t="b">
+        <v>63</v>
+      </c>
+      <c r="H71" s="30" t="s">
+        <v>663</v>
+      </c>
+      <c r="I71" s="30">
         <v>0</v>
       </c>
     </row>
@@ -8997,20 +9004,17 @@
         <v>21</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E72" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F72" s="64"/>
       <c r="G72" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H72" s="30" t="s">
-        <v>663</v>
-      </c>
-      <c r="I72" s="30">
-        <v>15</v>
+        <v>61</v>
+      </c>
+      <c r="I72" s="30" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9018,20 +9022,20 @@
         <v>21</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E73" s="30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F73" s="64"/>
       <c r="G73" s="30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H73" s="30" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="I73" s="30">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9039,99 +9043,79 @@
         <v>21</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E74" s="30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F74" s="64"/>
       <c r="G74" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H74" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="I74" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B75" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" s="30" t="s">
+        <v>667</v>
+      </c>
+      <c r="E75" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F75" s="64"/>
+      <c r="G75" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H74" s="30" t="s">
+      <c r="H75" s="30" t="s">
         <v>663</v>
       </c>
-      <c r="I74" s="30">
+      <c r="I75" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="46" t="b">
+    <row r="76" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="B75" s="46" t="s">
+      <c r="B76" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="C75" s="46" t="s">
+      <c r="C76" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="D75" s="46" t="s">
+      <c r="D76" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="E75" s="46" t="s">
+      <c r="E76" s="46" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B76" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D76" s="30" t="s">
+    <row r="77" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B77" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="E76" s="30" t="s">
+      <c r="E77" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="F76" s="64"/>
-      <c r="G76" s="30" t="s">
+      <c r="F77" s="64"/>
+      <c r="G77" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I76" s="51" t="s">
+      <c r="I77" s="51" t="s">
         <v>415</v>
       </c>
-      <c r="J76" s="30" t="s">
+      <c r="J77" s="30" t="s">
         <v>416</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B77" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D77" s="40" t="s">
-        <v>772</v>
-      </c>
-      <c r="E77" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="F77" s="50"/>
-      <c r="G77" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H77" s="40" t="s">
-        <v>659</v>
-      </c>
-      <c r="I77" s="40">
-        <v>0</v>
-      </c>
-      <c r="J77" s="43"/>
-      <c r="K77" s="42">
-        <v>-20</v>
-      </c>
-      <c r="L77" s="42">
-        <v>14</v>
-      </c>
-      <c r="M77" s="42">
-        <v>0</v>
-      </c>
-      <c r="N77" s="42">
-        <f>(L77-K77)/6</f>
-        <v>5.666666666666667</v>
-      </c>
-      <c r="O77" s="42">
-        <v>1</v>
-      </c>
-      <c r="R77" s="40" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="78" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9139,10 +9123,10 @@
         <v>22</v>
       </c>
       <c r="D78" s="40" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E78" s="40" t="s">
-        <v>774</v>
+        <v>243</v>
       </c>
       <c r="F78" s="50"/>
       <c r="G78" s="40" t="s">
@@ -9159,14 +9143,14 @@
         <v>-20</v>
       </c>
       <c r="L78" s="42">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="M78" s="42">
         <v>0</v>
       </c>
       <c r="N78" s="42">
         <f>(L78-K78)/6</f>
-        <v>8.3333333333333339</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="O78" s="42">
         <v>1</v>
@@ -9175,22 +9159,45 @@
         <v>654</v>
       </c>
     </row>
-    <row r="79" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B79" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D79" s="30" t="s">
-        <v>347</v>
-      </c>
-      <c r="E79" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="F79" s="64"/>
-      <c r="G79" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I79" s="30" t="b">
-        <v>0</v>
+    <row r="79" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B79" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" s="40" t="s">
+        <v>773</v>
+      </c>
+      <c r="E79" s="40" t="s">
+        <v>774</v>
+      </c>
+      <c r="F79" s="50"/>
+      <c r="G79" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H79" s="40" t="s">
+        <v>659</v>
+      </c>
+      <c r="I79" s="40">
+        <v>0</v>
+      </c>
+      <c r="J79" s="43"/>
+      <c r="K79" s="42">
+        <v>-20</v>
+      </c>
+      <c r="L79" s="42">
+        <v>30</v>
+      </c>
+      <c r="M79" s="42">
+        <v>0</v>
+      </c>
+      <c r="N79" s="42">
+        <f>(L79-K79)/6</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="O79" s="42">
+        <v>1</v>
+      </c>
+      <c r="R79" s="40" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9198,19 +9205,16 @@
         <v>21</v>
       </c>
       <c r="D80" s="30" t="s">
-        <v>660</v>
+        <v>347</v>
       </c>
       <c r="E80" s="30" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="F80" s="64"/>
       <c r="G80" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H80" s="30" t="s">
-        <v>659</v>
-      </c>
-      <c r="I80" s="30">
+        <v>61</v>
+      </c>
+      <c r="I80" s="30" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9219,10 +9223,10 @@
         <v>21</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E81" s="30" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="F81" s="64"/>
       <c r="G81" s="30" t="s">
@@ -9240,37 +9244,40 @@
         <v>21</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E82" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F82" s="64"/>
       <c r="G82" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H82" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="I82" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B83" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="30" t="s">
+        <v>662</v>
+      </c>
+      <c r="E83" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F83" s="64"/>
+      <c r="G83" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H82" s="30" t="s">
+      <c r="H83" s="30" t="s">
         <v>663</v>
       </c>
-      <c r="I82" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D83" s="30" t="s">
-        <v>664</v>
-      </c>
-      <c r="E83" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F83" s="63"/>
-      <c r="G83" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I83" s="30" t="b">
+      <c r="I83" s="30">
         <v>0</v>
       </c>
     </row>
@@ -9279,20 +9286,17 @@
         <v>21</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E84" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F84" s="63"/>
       <c r="G84" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H84" s="30" t="s">
-        <v>663</v>
-      </c>
-      <c r="I84" s="30">
-        <v>15</v>
+        <v>61</v>
+      </c>
+      <c r="I84" s="30" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -9300,20 +9304,20 @@
         <v>21</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E85" s="30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F85" s="63"/>
       <c r="G85" s="30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="I85" s="30">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -9321,78 +9325,58 @@
         <v>21</v>
       </c>
       <c r="D86" s="30" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E86" s="30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F86" s="63"/>
       <c r="G86" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H86" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="I86" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="30" t="s">
+        <v>667</v>
+      </c>
+      <c r="E87" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F87" s="63"/>
+      <c r="G87" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H86" s="30" t="s">
+      <c r="H87" s="30" t="s">
         <v>663</v>
       </c>
-      <c r="I86" s="30">
+      <c r="I87" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:20" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="46" t="b">
+    <row r="88" spans="1:20" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="B87" s="46" t="s">
+      <c r="B88" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="C87" s="46" t="s">
+      <c r="C88" s="46" t="s">
         <v>668</v>
       </c>
-      <c r="D87" s="46" t="s">
+      <c r="D88" s="46" t="s">
         <v>668</v>
       </c>
-      <c r="E87" s="46" t="s">
+      <c r="E88" s="46" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B88" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D88" s="40" t="s">
-        <v>669</v>
-      </c>
-      <c r="E88" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="F88" s="50"/>
-      <c r="G88" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H88" s="40" t="s">
-        <v>670</v>
-      </c>
-      <c r="I88" s="40">
-        <v>0</v>
-      </c>
-      <c r="J88" s="43"/>
-      <c r="K88" s="42">
-        <v>-6</v>
-      </c>
-      <c r="L88" s="42">
-        <v>2</v>
-      </c>
-      <c r="M88" s="42">
-        <v>0</v>
-      </c>
-      <c r="N88" s="42">
-        <f>(L88-K88)/6</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="O88" s="42">
-        <v>1</v>
-      </c>
-      <c r="R88" s="40" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="89" spans="1:20" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9400,10 +9384,10 @@
         <v>22</v>
       </c>
       <c r="D89" s="40" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E89" s="40" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F89" s="50"/>
       <c r="G89" s="40" t="s">
@@ -9417,17 +9401,17 @@
       </c>
       <c r="J89" s="43"/>
       <c r="K89" s="42">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="L89" s="42">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="M89" s="42">
         <v>0</v>
       </c>
       <c r="N89" s="42">
         <f>(L89-K89)/6</f>
-        <v>1.4833333333333334</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="O89" s="42">
         <v>1</v>
@@ -9436,113 +9420,111 @@
         <v>654</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B90" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D90" s="31" t="s">
+    <row r="90" spans="1:20" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B90" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D90" s="40" t="s">
+        <v>671</v>
+      </c>
+      <c r="E90" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="F90" s="50"/>
+      <c r="G90" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H90" s="40" t="s">
+        <v>670</v>
+      </c>
+      <c r="I90" s="40">
+        <v>0</v>
+      </c>
+      <c r="J90" s="43"/>
+      <c r="K90" s="42">
+        <v>-5</v>
+      </c>
+      <c r="L90" s="42">
+        <v>3.9</v>
+      </c>
+      <c r="M90" s="42">
+        <v>0</v>
+      </c>
+      <c r="N90" s="42">
+        <f>(L90-K90)/6</f>
+        <v>1.4833333333333334</v>
+      </c>
+      <c r="O90" s="42">
+        <v>1</v>
+      </c>
+      <c r="R90" s="40" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B91" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" s="31" t="s">
         <v>672</v>
       </c>
-      <c r="E90" s="31" t="s">
+      <c r="E91" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="F90" s="63"/>
-      <c r="G90" s="31" t="s">
+      <c r="F91" s="63"/>
+      <c r="G91" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="I90" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="K90" s="3"/>
-      <c r="L90" s="3"/>
-      <c r="M90" s="3"/>
-      <c r="N90" s="3"/>
-      <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="49" t="b">
+      <c r="I91" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="B91" s="49" t="s">
+      <c r="B92" s="49" t="s">
         <v>743</v>
       </c>
-      <c r="C91" s="49" t="s">
+      <c r="C92" s="49" t="s">
         <v>744</v>
       </c>
-      <c r="D91" s="49" t="s">
+      <c r="D92" s="49" t="s">
         <v>744</v>
       </c>
-      <c r="E91" s="46" t="s">
+      <c r="E92" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="F91" s="46"/>
-      <c r="G91" s="49"/>
-      <c r="H91" s="49"/>
-      <c r="I91" s="49"/>
-      <c r="J91" s="49"/>
-      <c r="K91" s="49"/>
-      <c r="L91" s="49"/>
-      <c r="M91" s="46"/>
-      <c r="N91" s="46"/>
-      <c r="O91" s="46"/>
-      <c r="P91" s="46"/>
-      <c r="Q91" s="46"/>
-      <c r="R91" s="46"/>
-    </row>
-    <row r="92" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="40"/>
-      <c r="B92" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C92" s="50"/>
-      <c r="D92" s="50" t="s">
-        <v>737</v>
-      </c>
-      <c r="E92" s="50" t="s">
-        <v>738</v>
-      </c>
-      <c r="F92" s="50"/>
-      <c r="G92" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H92" s="50"/>
-      <c r="I92" s="50">
-        <v>1</v>
-      </c>
-      <c r="J92" s="50"/>
-      <c r="K92" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="L92" s="50">
-        <v>4</v>
-      </c>
-      <c r="M92" s="42">
-        <v>1.75</v>
-      </c>
-      <c r="N92" s="40">
-        <f>1.5/6</f>
-        <v>0.25</v>
-      </c>
-      <c r="O92" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="P92" s="40"/>
-      <c r="Q92" s="40"/>
-      <c r="R92" s="40" t="s">
-        <v>654</v>
-      </c>
+      <c r="F92" s="46"/>
+      <c r="G92" s="49"/>
+      <c r="H92" s="49"/>
+      <c r="I92" s="49"/>
+      <c r="J92" s="49"/>
+      <c r="K92" s="49"/>
+      <c r="L92" s="49"/>
+      <c r="M92" s="46"/>
+      <c r="N92" s="46"/>
+      <c r="O92" s="46"/>
+      <c r="P92" s="46"/>
+      <c r="Q92" s="46"/>
+      <c r="R92" s="46"/>
     </row>
     <row r="93" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="50"/>
+      <c r="A93" s="40"/>
       <c r="B93" s="50" t="s">
         <v>22</v>
       </c>
       <c r="C93" s="50"/>
       <c r="D93" s="50" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E93" s="50" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F93" s="50"/>
       <c r="G93" s="50" t="s">
@@ -9554,15 +9536,16 @@
       </c>
       <c r="J93" s="50"/>
       <c r="K93" s="50">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="L93" s="50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M93" s="42">
         <v>1.75</v>
       </c>
-      <c r="N93" s="50">
+      <c r="N93" s="40">
+        <f>1.5/6</f>
         <v>0.25</v>
       </c>
       <c r="O93" s="50">
@@ -9581,10 +9564,10 @@
       </c>
       <c r="C94" s="50"/>
       <c r="D94" s="50" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E94" s="50" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F94" s="50"/>
       <c r="G94" s="50" t="s">
@@ -9596,7 +9579,7 @@
       </c>
       <c r="J94" s="50"/>
       <c r="K94" s="50">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="L94" s="50">
         <v>3</v>
@@ -9604,103 +9587,102 @@
       <c r="M94" s="42">
         <v>1.75</v>
       </c>
-      <c r="N94" s="42">
+      <c r="N94" s="50">
         <v>0.25</v>
       </c>
-      <c r="O94" s="42">
+      <c r="O94" s="50">
         <v>0.1</v>
       </c>
-      <c r="P94" s="42"/>
-      <c r="Q94" s="42"/>
+      <c r="P94" s="40"/>
+      <c r="Q94" s="40"/>
       <c r="R94" s="40" t="s">
         <v>654</v>
       </c>
-      <c r="T94" s="31"/>
-    </row>
-    <row r="95" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="49" t="b">
+    </row>
+    <row r="95" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="50"/>
+      <c r="B95" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" s="50"/>
+      <c r="D95" s="50" t="s">
+        <v>741</v>
+      </c>
+      <c r="E95" s="50" t="s">
+        <v>742</v>
+      </c>
+      <c r="F95" s="50"/>
+      <c r="G95" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="H95" s="50"/>
+      <c r="I95" s="50">
         <v>1</v>
       </c>
-      <c r="B95" s="49" t="s">
+      <c r="J95" s="50"/>
+      <c r="K95" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="L95" s="50">
+        <v>3</v>
+      </c>
+      <c r="M95" s="42">
+        <v>1.75</v>
+      </c>
+      <c r="N95" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="O95" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="P95" s="42"/>
+      <c r="Q95" s="42"/>
+      <c r="R95" s="40" t="s">
+        <v>654</v>
+      </c>
+      <c r="T95" s="31"/>
+    </row>
+    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B96" s="49" t="s">
         <v>745</v>
       </c>
-      <c r="C95" s="49" t="s">
+      <c r="C96" s="49" t="s">
         <v>746</v>
       </c>
-      <c r="D95" s="49" t="s">
+      <c r="D96" s="49" t="s">
         <v>746</v>
       </c>
-      <c r="E95" s="46" t="s">
+      <c r="E96" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="F95" s="46"/>
-      <c r="G95" s="49"/>
-      <c r="H95" s="49"/>
-      <c r="I95" s="49"/>
-      <c r="J95" s="49"/>
-      <c r="K95" s="49"/>
-      <c r="L95" s="49"/>
-      <c r="M95" s="46"/>
-      <c r="N95" s="46"/>
-      <c r="O95" s="46"/>
-      <c r="P95" s="46"/>
-      <c r="Q95" s="46"/>
-      <c r="R95" s="46"/>
-    </row>
-    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="40"/>
-      <c r="B96" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C96" s="50"/>
-      <c r="D96" s="50" t="s">
-        <v>747</v>
-      </c>
-      <c r="E96" s="50" t="s">
-        <v>738</v>
-      </c>
-      <c r="F96" s="50"/>
-      <c r="G96" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H96" s="50"/>
-      <c r="I96" s="50">
-        <v>1</v>
-      </c>
-      <c r="J96" s="50"/>
-      <c r="K96" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="L96" s="50">
-        <v>3</v>
-      </c>
-      <c r="M96" s="42">
-        <v>1.75</v>
-      </c>
-      <c r="N96" s="40">
-        <f>1.5/6</f>
-        <v>0.25</v>
-      </c>
-      <c r="O96" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="P96" s="40"/>
-      <c r="Q96" s="40"/>
-      <c r="R96" s="40" t="s">
-        <v>654</v>
-      </c>
+      <c r="F96" s="46"/>
+      <c r="G96" s="49"/>
+      <c r="H96" s="49"/>
+      <c r="I96" s="49"/>
+      <c r="J96" s="49"/>
+      <c r="K96" s="49"/>
+      <c r="L96" s="49"/>
+      <c r="M96" s="46"/>
+      <c r="N96" s="46"/>
+      <c r="O96" s="46"/>
+      <c r="P96" s="46"/>
+      <c r="Q96" s="46"/>
+      <c r="R96" s="46"/>
     </row>
     <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="50"/>
+      <c r="A97" s="40"/>
       <c r="B97" s="50" t="s">
         <v>22</v>
       </c>
       <c r="C97" s="50"/>
       <c r="D97" s="50" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E97" s="50" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F97" s="50"/>
       <c r="G97" s="50" t="s">
@@ -9715,12 +9697,13 @@
         <v>0.5</v>
       </c>
       <c r="L97" s="50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M97" s="42">
         <v>1.75</v>
       </c>
-      <c r="N97" s="50">
+      <c r="N97" s="40">
+        <f>1.5/6</f>
         <v>0.25</v>
       </c>
       <c r="O97" s="50">
@@ -9739,10 +9722,10 @@
       </c>
       <c r="C98" s="50"/>
       <c r="D98" s="50" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E98" s="50" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F98" s="50"/>
       <c r="G98" s="50" t="s">
@@ -9757,159 +9740,196 @@
         <v>0.5</v>
       </c>
       <c r="L98" s="50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M98" s="42">
         <v>1.75</v>
       </c>
-      <c r="N98" s="42">
+      <c r="N98" s="50">
         <v>0.25</v>
       </c>
-      <c r="O98" s="42">
+      <c r="O98" s="50">
         <v>0.1</v>
       </c>
-      <c r="P98" s="42"/>
-      <c r="Q98" s="42"/>
+      <c r="P98" s="40"/>
+      <c r="Q98" s="40"/>
       <c r="R98" s="40" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="99" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="46" t="b">
+    <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="50"/>
+      <c r="B99" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99" s="50"/>
+      <c r="D99" s="50" t="s">
+        <v>749</v>
+      </c>
+      <c r="E99" s="50" t="s">
+        <v>742</v>
+      </c>
+      <c r="F99" s="50"/>
+      <c r="G99" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="H99" s="50"/>
+      <c r="I99" s="50">
         <v>1</v>
       </c>
-      <c r="B99" s="46" t="s">
+      <c r="J99" s="50"/>
+      <c r="K99" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="L99" s="50">
+        <v>3</v>
+      </c>
+      <c r="M99" s="42">
+        <v>1.75</v>
+      </c>
+      <c r="N99" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="O99" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="P99" s="42"/>
+      <c r="Q99" s="42"/>
+      <c r="R99" s="40" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="B100" s="46" t="s">
         <v>776</v>
       </c>
-      <c r="C99" s="46" t="s">
+      <c r="C100" s="46" t="s">
         <v>775</v>
       </c>
-      <c r="D99" s="46" t="s">
+      <c r="D100" s="46" t="s">
         <v>775</v>
       </c>
-      <c r="E99" s="46" t="s">
+      <c r="E100" s="46" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="100" spans="1:18" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="D100" s="56" t="s">
+    <row r="101" spans="1:18" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="56" t="s">
         <v>779</v>
       </c>
-      <c r="E100" s="56" t="s">
+      <c r="E101" s="56" t="s">
         <v>777</v>
       </c>
-      <c r="F100" s="63"/>
-      <c r="G100" s="56" t="s">
+      <c r="F101" s="63"/>
+      <c r="G101" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="H100" s="56" t="s">
+      <c r="H101" s="56" t="s">
         <v>659</v>
       </c>
-      <c r="I100" s="56">
+      <c r="I101" s="56">
         <v>1</v>
       </c>
-      <c r="J100" s="59"/>
-      <c r="K100" s="58">
+      <c r="J101" s="59"/>
+      <c r="K101" s="58">
         <v>0.9</v>
       </c>
-      <c r="L100" s="58">
+      <c r="L101" s="58">
         <v>1</v>
       </c>
-      <c r="M100" s="58">
+      <c r="M101" s="58">
         <v>0.95</v>
       </c>
-      <c r="N100" s="58">
-        <f>(L100-K100)/6</f>
+      <c r="N101" s="58">
+        <f>(L101-K101)/6</f>
         <v>1.6666666666666663E-2</v>
       </c>
-      <c r="O100" s="58">
+      <c r="O101" s="58">
         <v>0.1</v>
       </c>
-      <c r="R100" s="56" t="s">
+      <c r="R101" s="56" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="101" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B101" s="40" t="s">
+    <row r="102" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B102" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D101" s="40" t="s">
+      <c r="D102" s="40" t="s">
         <v>780</v>
       </c>
-      <c r="E101" s="40" t="s">
+      <c r="E102" s="40" t="s">
         <v>778</v>
       </c>
-      <c r="F101" s="50"/>
-      <c r="G101" s="40" t="s">
+      <c r="F102" s="50"/>
+      <c r="G102" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="H101" s="40" t="s">
+      <c r="H102" s="40" t="s">
         <v>659</v>
       </c>
-      <c r="I101" s="40">
+      <c r="I102" s="40">
         <v>1450</v>
       </c>
-      <c r="J101" s="43"/>
-      <c r="K101" s="42">
-        <v>0</v>
-      </c>
-      <c r="L101" s="42">
+      <c r="J102" s="43"/>
+      <c r="K102" s="42">
+        <v>0</v>
+      </c>
+      <c r="L102" s="42">
         <v>3000</v>
       </c>
-      <c r="M101" s="42">
+      <c r="M102" s="42">
         <v>1450</v>
       </c>
-      <c r="N101" s="42">
-        <f>(L101-K101)/6</f>
+      <c r="N102" s="42">
+        <f>(L102-K102)/6</f>
         <v>500</v>
       </c>
-      <c r="O101" s="42">
+      <c r="O102" s="42">
         <v>10</v>
       </c>
-      <c r="R101" s="40" t="s">
+      <c r="R102" s="40" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A102" s="37" t="b">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A103" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B102" s="37" t="s">
+      <c r="B103" s="37" t="s">
         <v>750</v>
       </c>
-      <c r="C102" s="37" t="s">
+      <c r="C103" s="37" t="s">
         <v>751</v>
       </c>
-      <c r="D102" s="37" t="s">
+      <c r="D103" s="37" t="s">
         <v>751</v>
       </c>
-      <c r="E102" s="37" t="s">
+      <c r="E103" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="F102" s="37"/>
-      <c r="G102" s="37"/>
-      <c r="H102" s="38"/>
-      <c r="I102" s="38"/>
-      <c r="J102" s="37"/>
-      <c r="K102" s="37"/>
-      <c r="L102" s="37"/>
-      <c r="M102" s="37"/>
-      <c r="N102" s="37"/>
-      <c r="O102" s="37"/>
-      <c r="P102" s="37"/>
-      <c r="Q102" s="37"/>
-      <c r="R102" s="37"/>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F103" s="63"/>
-      <c r="I103" s="31"/>
-      <c r="J103" s="31"/>
+      <c r="F103" s="37"/>
+      <c r="G103" s="37"/>
+      <c r="H103" s="38"/>
+      <c r="I103" s="38"/>
+      <c r="J103" s="37"/>
+      <c r="K103" s="37"/>
+      <c r="L103" s="37"/>
+      <c r="M103" s="37"/>
+      <c r="N103" s="37"/>
+      <c r="O103" s="37"/>
+      <c r="P103" s="37"/>
+      <c r="Q103" s="37"/>
+      <c r="R103" s="37"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F104" s="47"/>
+      <c r="F104" s="63"/>
       <c r="I104" s="31"/>
       <c r="J104" s="31"/>
     </row>
@@ -9949,6 +9969,7 @@
       <c r="J111" s="31"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F112" s="47"/>
       <c r="I112" s="31"/>
       <c r="J112" s="31"/>
     </row>
@@ -10300,8 +10321,12 @@
       <c r="I199" s="31"/>
       <c r="J199" s="31"/>
     </row>
+    <row r="200" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I200" s="31"/>
+      <c r="J200" s="31"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:AA126"/>
+  <autoFilter ref="A2:AA127"/>
   <mergeCells count="1">
     <mergeCell ref="U1:Z1"/>
   </mergeCells>

--- a/projects/SEB_calibration_Rgenoud_2013.xlsx
+++ b/projects/SEB_calibration_Rgenoud_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -2433,9 +2433,6 @@
     <t>../Calibration_example/lib</t>
   </si>
   <si>
-    <t>1.12.4</t>
-  </si>
-  <si>
     <t>AddMonthlyJSONUtilityDataElectric</t>
   </si>
   <si>
@@ -2512,6 +2509,9 @@
   </si>
   <si>
     <t>set_runperiod</t>
+  </si>
+  <si>
+    <t>1.12.5</t>
   </si>
 </sst>
 </file>
@@ -6834,7 +6834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -6893,7 +6893,7 @@
         <v>467</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>797</v>
+        <v>823</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>612</v>
@@ -7338,7 +7338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
@@ -7503,13 +7503,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="37" t="s">
+        <v>797</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>798</v>
       </c>
-      <c r="C4" s="37" t="s">
-        <v>799</v>
-      </c>
       <c r="D4" s="37" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E4" s="37" t="s">
         <v>66</v>
@@ -7522,17 +7522,17 @@
         <v>21</v>
       </c>
       <c r="D5" s="31" t="s">
+        <v>799</v>
+      </c>
+      <c r="E5" s="31" t="s">
         <v>800</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>801</v>
       </c>
       <c r="F5" s="63"/>
       <c r="G5" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J5" s="31"/>
     </row>
@@ -7541,7 +7541,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>164</v>
@@ -7551,7 +7551,7 @@
         <v>732</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="J6" s="31"/>
     </row>
@@ -7560,17 +7560,17 @@
         <v>21</v>
       </c>
       <c r="D7" s="31" t="s">
+        <v>804</v>
+      </c>
+      <c r="E7" s="31" t="s">
         <v>805</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>806</v>
       </c>
       <c r="F7" s="63"/>
       <c r="G7" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J7" s="31"/>
     </row>
@@ -7579,10 +7579,10 @@
         <v>21</v>
       </c>
       <c r="D8" s="31" t="s">
+        <v>807</v>
+      </c>
+      <c r="E8" s="31" t="s">
         <v>808</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>809</v>
       </c>
       <c r="F8" s="63"/>
       <c r="G8" s="31" t="s">
@@ -7598,17 +7598,17 @@
         <v>21</v>
       </c>
       <c r="D9" s="31" t="s">
+        <v>809</v>
+      </c>
+      <c r="E9" s="31" t="s">
         <v>810</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>811</v>
       </c>
       <c r="F9" s="63"/>
       <c r="G9" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="J9" s="31"/>
     </row>
@@ -7655,17 +7655,17 @@
         <v>21</v>
       </c>
       <c r="D12" s="31" t="s">
+        <v>812</v>
+      </c>
+      <c r="E12" s="31" t="s">
         <v>813</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>814</v>
       </c>
       <c r="F12" s="63"/>
       <c r="G12" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="J12" s="31"/>
     </row>
@@ -7674,17 +7674,17 @@
         <v>21</v>
       </c>
       <c r="D13" s="31" t="s">
+        <v>821</v>
+      </c>
+      <c r="E13" s="31" t="s">
         <v>822</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>823</v>
       </c>
       <c r="F13" s="63"/>
       <c r="G13" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I13" s="48" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="J13" s="31"/>
     </row>
@@ -7693,13 +7693,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E14" s="37" t="s">
         <v>66</v>
@@ -7712,17 +7712,17 @@
         <v>21</v>
       </c>
       <c r="D15" s="31" t="s">
+        <v>799</v>
+      </c>
+      <c r="E15" s="31" t="s">
         <v>800</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>801</v>
       </c>
       <c r="F15" s="63"/>
       <c r="G15" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="J15" s="31"/>
     </row>
@@ -7731,7 +7731,7 @@
         <v>21</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E16" s="31" t="s">
         <v>164</v>
@@ -7741,7 +7741,7 @@
         <v>732</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="J16" s="31"/>
     </row>
@@ -7750,17 +7750,17 @@
         <v>21</v>
       </c>
       <c r="D17" s="31" t="s">
+        <v>804</v>
+      </c>
+      <c r="E17" s="31" t="s">
         <v>805</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>806</v>
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="J17" s="31"/>
     </row>
@@ -7769,10 +7769,10 @@
         <v>21</v>
       </c>
       <c r="D18" s="31" t="s">
+        <v>807</v>
+      </c>
+      <c r="E18" s="31" t="s">
         <v>808</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>809</v>
       </c>
       <c r="F18" s="63"/>
       <c r="G18" s="31" t="s">
@@ -7788,17 +7788,17 @@
         <v>21</v>
       </c>
       <c r="D19" s="31" t="s">
+        <v>809</v>
+      </c>
+      <c r="E19" s="31" t="s">
         <v>810</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>811</v>
       </c>
       <c r="F19" s="63"/>
       <c r="G19" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J19" s="31"/>
     </row>
@@ -7845,17 +7845,17 @@
         <v>21</v>
       </c>
       <c r="D22" s="31" t="s">
+        <v>812</v>
+      </c>
+      <c r="E22" s="31" t="s">
         <v>813</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>814</v>
       </c>
       <c r="F22" s="63"/>
       <c r="G22" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I22" s="48" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J22" s="31"/>
     </row>

--- a/projects/SEB_calibration_Rgenoud_2013.xlsx
+++ b/projects/SEB_calibration_Rgenoud_2013.xlsx
@@ -2511,7 +2511,7 @@
     <t>set_runperiod</t>
   </si>
   <si>
-    <t>1.12.5</t>
+    <t>1.13.4</t>
   </si>
 </sst>
 </file>

--- a/projects/SEB_calibration_Rgenoud_2013.xlsx
+++ b/projects/SEB_calibration_Rgenoud_2013.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2667" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2667" uniqueCount="823">
   <si>
     <t>type</t>
   </si>
@@ -1977,12 +1977,6 @@
     <t>Directory</t>
   </si>
   <si>
-    <t>CalibrationReports</t>
-  </si>
-  <si>
-    <t>Calibration Reports</t>
-  </si>
-  <si>
     <t>Total Electricity Consumption Modeled</t>
   </si>
   <si>
@@ -2010,12 +2004,6 @@
     <t>Lighting Power Reduction</t>
   </si>
   <si>
-    <t>calibration_reports.electric_bill_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_consumption_modeled</t>
-  </si>
-  <si>
     <t>Electric Equipment Power Reduction</t>
   </si>
   <si>
@@ -2202,12 +2190,6 @@
     <t>m2</t>
   </si>
   <si>
-    <t>calibration_reports.electric_bill_rmse</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_rmse</t>
-  </si>
-  <si>
     <t>Electric RMSE</t>
   </si>
   <si>
@@ -2217,27 +2199,15 @@
     <t>Electric CVRMSE</t>
   </si>
   <si>
-    <t>calibration_reports.electric_bill_consumption_cvrmse</t>
-  </si>
-  <si>
     <t>Electric NMBE</t>
   </si>
   <si>
-    <t>calibration_reports.electric_bill_consumption_nmbe</t>
-  </si>
-  <si>
     <t>Gas CVRMSE</t>
   </si>
   <si>
-    <t>calibration_reports.gas_bill_consumption_cvrmse</t>
-  </si>
-  <si>
     <t>Gas NMBE</t>
   </si>
   <si>
-    <t>calibration_reports.gas_bill_consumption_nmbe</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -2304,27 +2274,15 @@
     <t>Electric CVRMSE within limit</t>
   </si>
   <si>
-    <t>calibration_reports.electric_bill_cvrmse_within_limit</t>
-  </si>
-  <si>
     <t>Electric NMBE within limit</t>
   </si>
   <si>
-    <t>calibration_reports.electric_bill_nmbe_within_limit</t>
-  </si>
-  <si>
     <t>Gas CVRMSE within limit</t>
   </si>
   <si>
-    <t>calibration_reports.gas_bill_cvrmse_within_limit</t>
-  </si>
-  <si>
     <t>Gas NMBE within limit</t>
   </si>
   <si>
-    <t>calibration_reports.gas_bill_nmbe_within_limit</t>
-  </si>
-  <si>
     <t>Set Gas Burner Efficiency</t>
   </si>
   <si>
@@ -2511,7 +2469,46 @@
     <t>set_runperiod</t>
   </si>
   <si>
-    <t>1.13.4</t>
+    <t>CalibrationReportsEnhanced</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electric_bill_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.gas_bill_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electric_bill_rmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.gas_bill_rmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electric_bill_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electric_bill_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.gas_bill_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.gas_bill_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electric_bill_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electric_bill_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.gas_bill_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.gas_bill_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>1.14.1</t>
   </si>
 </sst>
 </file>
@@ -6835,7 +6832,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6871,7 +6868,7 @@
         <v>434</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>435</v>
@@ -6882,7 +6879,7 @@
         <v>454</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>792</v>
+        <v>778</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>455</v>
@@ -6893,7 +6890,7 @@
         <v>467</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>612</v>
@@ -6904,7 +6901,7 @@
         <v>468</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>790</v>
+        <v>776</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>470</v>
@@ -6975,7 +6972,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>791</v>
+        <v>777</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>469</v>
@@ -6986,10 +6983,10 @@
         <v>24</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -6997,10 +6994,10 @@
         <v>25</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -7199,7 +7196,7 @@
     </row>
     <row r="33" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="31" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="B33" s="31">
         <v>1</v>
@@ -7209,7 +7206,7 @@
     </row>
     <row r="34" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="31" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
       <c r="B34" s="30">
         <v>1</v>
@@ -7219,7 +7216,7 @@
     </row>
     <row r="35" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="31" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
       <c r="B35" s="30">
         <v>3</v>
@@ -7237,7 +7234,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>30</v>
@@ -7250,7 +7247,7 @@
         <v>28</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>794</v>
+        <v>780</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7264,7 +7261,7 @@
         <v>37</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>447</v>
@@ -7278,7 +7275,7 @@
         <v>641</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
       <c r="E41" s="2"/>
     </row>
@@ -7290,7 +7287,7 @@
         <v>33</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="13" t="s">
@@ -7305,7 +7302,7 @@
         <v>643</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7340,7 +7337,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD13"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7438,7 +7435,7 @@
         <v>35</v>
       </c>
       <c r="F3" s="62" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>11</v>
@@ -7503,13 +7500,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>797</v>
+        <v>783</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
       <c r="E4" s="37" t="s">
         <v>66</v>
@@ -7522,17 +7519,17 @@
         <v>21</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>800</v>
+        <v>786</v>
       </c>
       <c r="F5" s="63"/>
       <c r="G5" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>801</v>
+        <v>787</v>
       </c>
       <c r="J5" s="31"/>
     </row>
@@ -7541,17 +7538,17 @@
         <v>21</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>802</v>
+        <v>788</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>164</v>
       </c>
       <c r="F6" s="63"/>
       <c r="G6" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>803</v>
+        <v>789</v>
       </c>
       <c r="J6" s="31"/>
     </row>
@@ -7560,17 +7557,17 @@
         <v>21</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>805</v>
+        <v>791</v>
       </c>
       <c r="F7" s="63"/>
       <c r="G7" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
       <c r="J7" s="31"/>
     </row>
@@ -7579,17 +7576,17 @@
         <v>21</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>807</v>
+        <v>793</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>808</v>
+        <v>794</v>
       </c>
       <c r="F8" s="63"/>
       <c r="G8" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="J8" s="31"/>
     </row>
@@ -7598,17 +7595,17 @@
         <v>21</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>809</v>
+        <v>795</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>810</v>
+        <v>796</v>
       </c>
       <c r="F9" s="63"/>
       <c r="G9" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="J9" s="31"/>
     </row>
@@ -7617,17 +7614,17 @@
         <v>21</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="F10" s="63"/>
       <c r="G10" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I10" s="48" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="J10" s="31"/>
     </row>
@@ -7636,17 +7633,17 @@
         <v>21</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="F11" s="63"/>
       <c r="G11" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I11" s="48" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="J11" s="31"/>
     </row>
@@ -7655,17 +7652,17 @@
         <v>21</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>813</v>
+        <v>799</v>
       </c>
       <c r="F12" s="63"/>
       <c r="G12" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>814</v>
+        <v>800</v>
       </c>
       <c r="J12" s="31"/>
     </row>
@@ -7674,17 +7671,17 @@
         <v>21</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>821</v>
+        <v>807</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
       <c r="F13" s="63"/>
       <c r="G13" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I13" s="48" t="s">
-        <v>814</v>
+        <v>800</v>
       </c>
       <c r="J13" s="31"/>
     </row>
@@ -7693,13 +7690,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>815</v>
+        <v>801</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
       <c r="E14" s="37" t="s">
         <v>66</v>
@@ -7712,17 +7709,17 @@
         <v>21</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>800</v>
+        <v>786</v>
       </c>
       <c r="F15" s="63"/>
       <c r="G15" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
       <c r="J15" s="31"/>
     </row>
@@ -7731,17 +7728,17 @@
         <v>21</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>802</v>
+        <v>788</v>
       </c>
       <c r="E16" s="31" t="s">
         <v>164</v>
       </c>
       <c r="F16" s="63"/>
       <c r="G16" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>817</v>
+        <v>803</v>
       </c>
       <c r="J16" s="31"/>
     </row>
@@ -7750,17 +7747,17 @@
         <v>21</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>805</v>
+        <v>791</v>
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
       <c r="J17" s="31"/>
     </row>
@@ -7769,17 +7766,17 @@
         <v>21</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>807</v>
+        <v>793</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>808</v>
+        <v>794</v>
       </c>
       <c r="F18" s="63"/>
       <c r="G18" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J18" s="31"/>
     </row>
@@ -7788,17 +7785,17 @@
         <v>21</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>809</v>
+        <v>795</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>810</v>
+        <v>796</v>
       </c>
       <c r="F19" s="63"/>
       <c r="G19" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>819</v>
+        <v>805</v>
       </c>
       <c r="J19" s="31"/>
     </row>
@@ -7807,17 +7804,17 @@
         <v>21</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="F20" s="63"/>
       <c r="G20" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I20" s="48" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="J20" s="31"/>
     </row>
@@ -7826,17 +7823,17 @@
         <v>21</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="F21" s="63"/>
       <c r="G21" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I21" s="48" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="J21" s="31"/>
     </row>
@@ -7845,17 +7842,17 @@
         <v>21</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>813</v>
+        <v>799</v>
       </c>
       <c r="F22" s="63"/>
       <c r="G22" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I22" s="48" t="s">
-        <v>820</v>
+        <v>806</v>
       </c>
       <c r="J22" s="31"/>
     </row>
@@ -7864,13 +7861,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>646</v>
+        <v>809</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>645</v>
+        <v>809</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>645</v>
+        <v>809</v>
       </c>
       <c r="E23" s="37" t="s">
         <v>231</v>
@@ -7922,7 +7919,7 @@
         <v>22</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E26" s="40" t="s">
         <v>68</v>
@@ -7951,7 +7948,7 @@
         <v>1</v>
       </c>
       <c r="R26" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7959,10 +7956,10 @@
         <v>21</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="F27" s="63"/>
       <c r="G27" s="30" t="s">
@@ -7977,10 +7974,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="57" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="E28" s="56" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F28" s="63"/>
       <c r="G28" s="56" t="s">
@@ -8006,7 +8003,7 @@
         <v>0.01</v>
       </c>
       <c r="R28" s="56" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -8014,10 +8011,10 @@
         <v>21</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F29" s="63"/>
       <c r="G29" s="30" t="s">
@@ -8032,10 +8029,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F30" s="64"/>
       <c r="G30" s="30" t="s">
@@ -8152,7 +8149,7 @@
         <v>21</v>
       </c>
       <c r="D36" s="52" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E36" s="52" t="s">
         <v>44</v>
@@ -8183,7 +8180,7 @@
       </c>
       <c r="Q36" s="55"/>
       <c r="R36" s="52" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -8418,7 +8415,7 @@
         <v>22</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="E46" s="40" t="s">
         <v>286</v>
@@ -8428,7 +8425,7 @@
         <v>62</v>
       </c>
       <c r="H46" s="40" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I46" s="40">
         <v>0</v>
@@ -8451,7 +8448,7 @@
         <v>1</v>
       </c>
       <c r="R46" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="47" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8459,7 +8456,7 @@
         <v>21</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E47" s="30" t="s">
         <v>46</v>
@@ -8469,7 +8466,7 @@
         <v>62</v>
       </c>
       <c r="H47" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I47" s="30">
         <v>0</v>
@@ -8480,7 +8477,7 @@
         <v>21</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E48" s="30" t="s">
         <v>48</v>
@@ -8490,7 +8487,7 @@
         <v>62</v>
       </c>
       <c r="H48" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I48" s="30">
         <v>0</v>
@@ -8501,7 +8498,7 @@
         <v>21</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E49" s="30" t="s">
         <v>50</v>
@@ -8511,7 +8508,7 @@
         <v>63</v>
       </c>
       <c r="H49" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I49" s="30">
         <v>0</v>
@@ -8522,7 +8519,7 @@
         <v>21</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E50" s="30" t="s">
         <v>52</v>
@@ -8540,7 +8537,7 @@
         <v>21</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E51" s="30" t="s">
         <v>54</v>
@@ -8550,7 +8547,7 @@
         <v>63</v>
       </c>
       <c r="H51" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I51" s="30">
         <v>15</v>
@@ -8561,7 +8558,7 @@
         <v>21</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E52" s="30" t="s">
         <v>56</v>
@@ -8571,7 +8568,7 @@
         <v>62</v>
       </c>
       <c r="H52" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I52" s="30">
         <v>0</v>
@@ -8582,7 +8579,7 @@
         <v>21</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E53" s="30" t="s">
         <v>58</v>
@@ -8592,7 +8589,7 @@
         <v>63</v>
       </c>
       <c r="H53" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I53" s="30">
         <v>1</v>
@@ -8603,13 +8600,13 @@
         <v>1</v>
       </c>
       <c r="B54" s="46" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
       <c r="C54" s="46" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="D54" s="46" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="E54" s="46" t="s">
         <v>66</v>
@@ -8641,17 +8638,17 @@
         <v>22</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
       <c r="F56" s="50"/>
       <c r="G56" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H56" s="40" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I56" s="40">
         <v>0.8</v>
@@ -8674,7 +8671,7 @@
         <v>1</v>
       </c>
       <c r="R56" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -8700,7 +8697,7 @@
         <v>21</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E58" s="30" t="s">
         <v>126</v>
@@ -8710,7 +8707,7 @@
         <v>62</v>
       </c>
       <c r="H58" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I58" s="30">
         <v>0</v>
@@ -8721,7 +8718,7 @@
         <v>21</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E59" s="30" t="s">
         <v>48</v>
@@ -8731,7 +8728,7 @@
         <v>62</v>
       </c>
       <c r="H59" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I59" s="30">
         <v>0</v>
@@ -8742,7 +8739,7 @@
         <v>21</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E60" s="30" t="s">
         <v>50</v>
@@ -8752,7 +8749,7 @@
         <v>63</v>
       </c>
       <c r="H60" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I60" s="30">
         <v>0</v>
@@ -8763,7 +8760,7 @@
         <v>21</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E61" s="30" t="s">
         <v>52</v>
@@ -8781,7 +8778,7 @@
         <v>21</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E62" s="30" t="s">
         <v>54</v>
@@ -8791,7 +8788,7 @@
         <v>63</v>
       </c>
       <c r="H62" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I62" s="30">
         <v>15</v>
@@ -8802,7 +8799,7 @@
         <v>21</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E63" s="30" t="s">
         <v>56</v>
@@ -8812,7 +8809,7 @@
         <v>62</v>
       </c>
       <c r="H63" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I63" s="30">
         <v>0</v>
@@ -8823,7 +8820,7 @@
         <v>21</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E64" s="30" t="s">
         <v>58</v>
@@ -8833,7 +8830,7 @@
         <v>63</v>
       </c>
       <c r="H64" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I64" s="30">
         <v>1</v>
@@ -8844,13 +8841,13 @@
         <v>1</v>
       </c>
       <c r="B65" s="46" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="C65" s="46" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="D65" s="46" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="E65" s="46" t="s">
         <v>66</v>
@@ -8861,7 +8858,7 @@
         <v>21</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="E66" s="30" t="s">
         <v>124</v>
@@ -8882,17 +8879,17 @@
         <v>22</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="E67" s="40" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="F67" s="50"/>
       <c r="G67" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H67" s="40" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I67" s="40">
         <v>4</v>
@@ -8915,7 +8912,7 @@
         <v>0.25</v>
       </c>
       <c r="R67" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8941,7 +8938,7 @@
         <v>21</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E69" s="30" t="s">
         <v>126</v>
@@ -8951,7 +8948,7 @@
         <v>62</v>
       </c>
       <c r="H69" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I69" s="30">
         <v>0</v>
@@ -8962,7 +8959,7 @@
         <v>21</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E70" s="30" t="s">
         <v>48</v>
@@ -8972,7 +8969,7 @@
         <v>62</v>
       </c>
       <c r="H70" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I70" s="30">
         <v>0</v>
@@ -8983,7 +8980,7 @@
         <v>21</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E71" s="30" t="s">
         <v>50</v>
@@ -8993,7 +8990,7 @@
         <v>63</v>
       </c>
       <c r="H71" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I71" s="30">
         <v>0</v>
@@ -9004,7 +9001,7 @@
         <v>21</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E72" s="30" t="s">
         <v>52</v>
@@ -9022,7 +9019,7 @@
         <v>21</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E73" s="30" t="s">
         <v>54</v>
@@ -9032,7 +9029,7 @@
         <v>63</v>
       </c>
       <c r="H73" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I73" s="30">
         <v>15</v>
@@ -9043,7 +9040,7 @@
         <v>21</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E74" s="30" t="s">
         <v>56</v>
@@ -9053,7 +9050,7 @@
         <v>62</v>
       </c>
       <c r="H74" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I74" s="30">
         <v>0</v>
@@ -9064,7 +9061,7 @@
         <v>21</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E75" s="30" t="s">
         <v>58</v>
@@ -9074,7 +9071,7 @@
         <v>63</v>
       </c>
       <c r="H75" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I75" s="30">
         <v>1</v>
@@ -9123,7 +9120,7 @@
         <v>22</v>
       </c>
       <c r="D78" s="40" t="s">
-        <v>772</v>
+        <v>758</v>
       </c>
       <c r="E78" s="40" t="s">
         <v>243</v>
@@ -9133,7 +9130,7 @@
         <v>62</v>
       </c>
       <c r="H78" s="40" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I78" s="40">
         <v>0</v>
@@ -9156,7 +9153,7 @@
         <v>1</v>
       </c>
       <c r="R78" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="79" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9164,17 +9161,17 @@
         <v>22</v>
       </c>
       <c r="D79" s="40" t="s">
-        <v>773</v>
+        <v>759</v>
       </c>
       <c r="E79" s="40" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
       <c r="F79" s="50"/>
       <c r="G79" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H79" s="40" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I79" s="40">
         <v>0</v>
@@ -9197,7 +9194,7 @@
         <v>1</v>
       </c>
       <c r="R79" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9223,7 +9220,7 @@
         <v>21</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E81" s="30" t="s">
         <v>126</v>
@@ -9233,7 +9230,7 @@
         <v>62</v>
       </c>
       <c r="H81" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I81" s="30">
         <v>0</v>
@@ -9244,7 +9241,7 @@
         <v>21</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E82" s="30" t="s">
         <v>48</v>
@@ -9254,7 +9251,7 @@
         <v>62</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I82" s="30">
         <v>0</v>
@@ -9265,7 +9262,7 @@
         <v>21</v>
       </c>
       <c r="D83" s="30" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E83" s="30" t="s">
         <v>50</v>
@@ -9275,7 +9272,7 @@
         <v>63</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I83" s="30">
         <v>0</v>
@@ -9286,7 +9283,7 @@
         <v>21</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E84" s="30" t="s">
         <v>52</v>
@@ -9304,7 +9301,7 @@
         <v>21</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E85" s="30" t="s">
         <v>54</v>
@@ -9314,7 +9311,7 @@
         <v>63</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I85" s="30">
         <v>15</v>
@@ -9325,7 +9322,7 @@
         <v>21</v>
       </c>
       <c r="D86" s="30" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E86" s="30" t="s">
         <v>56</v>
@@ -9335,7 +9332,7 @@
         <v>62</v>
       </c>
       <c r="H86" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I86" s="30">
         <v>0</v>
@@ -9346,7 +9343,7 @@
         <v>21</v>
       </c>
       <c r="D87" s="30" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E87" s="30" t="s">
         <v>58</v>
@@ -9356,7 +9353,7 @@
         <v>63</v>
       </c>
       <c r="H87" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I87" s="30">
         <v>1</v>
@@ -9370,10 +9367,10 @@
         <v>185</v>
       </c>
       <c r="C88" s="46" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="D88" s="46" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="E88" s="46" t="s">
         <v>66</v>
@@ -9384,7 +9381,7 @@
         <v>22</v>
       </c>
       <c r="D89" s="40" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="E89" s="40" t="s">
         <v>188</v>
@@ -9394,7 +9391,7 @@
         <v>62</v>
       </c>
       <c r="H89" s="40" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="I89" s="40">
         <v>0</v>
@@ -9417,7 +9414,7 @@
         <v>1</v>
       </c>
       <c r="R89" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="90" spans="1:20" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9425,7 +9422,7 @@
         <v>22</v>
       </c>
       <c r="D90" s="40" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="E90" s="40" t="s">
         <v>190</v>
@@ -9435,7 +9432,7 @@
         <v>62</v>
       </c>
       <c r="H90" s="40" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="I90" s="40">
         <v>0</v>
@@ -9458,7 +9455,7 @@
         <v>1</v>
       </c>
       <c r="R90" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -9466,7 +9463,7 @@
         <v>21</v>
       </c>
       <c r="D91" s="31" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E91" s="31" t="s">
         <v>192</v>
@@ -9489,13 +9486,13 @@
         <v>1</v>
       </c>
       <c r="B92" s="49" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="C92" s="49" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="D92" s="49" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="E92" s="46" t="s">
         <v>66</v>
@@ -9521,10 +9518,10 @@
       </c>
       <c r="C93" s="50"/>
       <c r="D93" s="50" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="E93" s="50" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="F93" s="50"/>
       <c r="G93" s="50" t="s">
@@ -9554,7 +9551,7 @@
       <c r="P93" s="40"/>
       <c r="Q93" s="40"/>
       <c r="R93" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="94" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9564,10 +9561,10 @@
       </c>
       <c r="C94" s="50"/>
       <c r="D94" s="50" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="E94" s="50" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="F94" s="50"/>
       <c r="G94" s="50" t="s">
@@ -9596,7 +9593,7 @@
       <c r="P94" s="40"/>
       <c r="Q94" s="40"/>
       <c r="R94" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="95" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9606,10 +9603,10 @@
       </c>
       <c r="C95" s="50"/>
       <c r="D95" s="50" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="E95" s="50" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="F95" s="50"/>
       <c r="G95" s="50" t="s">
@@ -9638,7 +9635,7 @@
       <c r="P95" s="42"/>
       <c r="Q95" s="42"/>
       <c r="R95" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="T95" s="31"/>
     </row>
@@ -9647,13 +9644,13 @@
         <v>1</v>
       </c>
       <c r="B96" s="49" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="C96" s="49" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="D96" s="49" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="E96" s="46" t="s">
         <v>66</v>
@@ -9679,10 +9676,10 @@
       </c>
       <c r="C97" s="50"/>
       <c r="D97" s="50" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="E97" s="50" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="F97" s="50"/>
       <c r="G97" s="50" t="s">
@@ -9712,7 +9709,7 @@
       <c r="P97" s="40"/>
       <c r="Q97" s="40"/>
       <c r="R97" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9722,10 +9719,10 @@
       </c>
       <c r="C98" s="50"/>
       <c r="D98" s="50" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="E98" s="50" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="F98" s="50"/>
       <c r="G98" s="50" t="s">
@@ -9754,7 +9751,7 @@
       <c r="P98" s="40"/>
       <c r="Q98" s="40"/>
       <c r="R98" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9764,10 +9761,10 @@
       </c>
       <c r="C99" s="50"/>
       <c r="D99" s="50" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="E99" s="50" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="F99" s="50"/>
       <c r="G99" s="50" t="s">
@@ -9796,7 +9793,7 @@
       <c r="P99" s="42"/>
       <c r="Q99" s="42"/>
       <c r="R99" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="100" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9804,13 +9801,13 @@
         <v>1</v>
       </c>
       <c r="B100" s="46" t="s">
-        <v>776</v>
+        <v>762</v>
       </c>
       <c r="C100" s="46" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
       <c r="D100" s="46" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
       <c r="E100" s="46" t="s">
         <v>66</v>
@@ -9821,17 +9818,17 @@
         <v>21</v>
       </c>
       <c r="D101" s="56" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="E101" s="56" t="s">
-        <v>777</v>
+        <v>763</v>
       </c>
       <c r="F101" s="63"/>
       <c r="G101" s="56" t="s">
         <v>62</v>
       </c>
       <c r="H101" s="56" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I101" s="56">
         <v>1</v>
@@ -9854,7 +9851,7 @@
         <v>0.1</v>
       </c>
       <c r="R101" s="56" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="102" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9862,17 +9859,17 @@
         <v>22</v>
       </c>
       <c r="D102" s="40" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="E102" s="40" t="s">
-        <v>778</v>
+        <v>764</v>
       </c>
       <c r="F102" s="50"/>
       <c r="G102" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H102" s="40" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I102" s="40">
         <v>1450</v>
@@ -9895,7 +9892,7 @@
         <v>10</v>
       </c>
       <c r="R102" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
@@ -9903,13 +9900,13 @@
         <v>1</v>
       </c>
       <c r="B103" s="37" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="D103" s="37" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="E103" s="37" t="s">
         <v>231</v>
@@ -10344,9 +10341,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10385,7 +10382,7 @@
         <v>457</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>630</v>
@@ -10423,7 +10420,7 @@
         <v>622</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>635</v>
@@ -10521,7 +10518,7 @@
         <v>639</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>634</v>
@@ -10553,7 +10550,7 @@
         <v>640</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>633</v>
@@ -10582,12 +10579,12 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B8" s="47"/>
       <c r="C8" s="30"/>
       <c r="D8" s="30" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>466</v>
@@ -10611,12 +10608,12 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B9" s="47"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>466</v>
@@ -10640,12 +10637,12 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B10" s="47"/>
       <c r="C10" s="30"/>
       <c r="D10" s="30" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>466</v>
@@ -10668,12 +10665,12 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B11" s="47"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>466</v>
@@ -10696,12 +10693,12 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B12" s="47"/>
       <c r="C12" s="30"/>
       <c r="D12" s="30" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>466</v>
@@ -10724,12 +10721,12 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B13" s="47"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>466</v>
@@ -10752,12 +10749,12 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B14" s="47"/>
       <c r="C14" s="30"/>
       <c r="D14" s="30" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>466</v>
@@ -10781,12 +10778,12 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B15" s="47"/>
       <c r="C15" s="30"/>
       <c r="D15" s="30" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E15" s="30" t="s">
         <v>466</v>
@@ -10810,12 +10807,12 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B16" s="47"/>
       <c r="C16" s="30"/>
       <c r="D16" s="30" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>466</v>
@@ -10839,12 +10836,12 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B17" s="47"/>
       <c r="C17" s="30"/>
       <c r="D17" s="30" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="E17" s="30" t="s">
         <v>466</v>
@@ -10868,12 +10865,12 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B18" s="47"/>
       <c r="C18" s="30"/>
       <c r="D18" s="30" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="E18" s="30" t="s">
         <v>466</v>
@@ -10897,12 +10894,12 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B19" s="47"/>
       <c r="C19" s="30"/>
       <c r="D19" s="30" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>466</v>
@@ -10926,12 +10923,12 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B20" s="47"/>
       <c r="C20" s="30"/>
       <c r="D20" s="30" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>466</v>
@@ -10955,12 +10952,12 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B21" s="47"/>
       <c r="C21" s="30"/>
       <c r="D21" s="30" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="E21" s="30" t="s">
         <v>466</v>
@@ -10984,15 +10981,15 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B22" s="47"/>
       <c r="C22" s="30"/>
       <c r="D22" s="30" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>62</v>
@@ -11013,15 +11010,15 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B23" s="47"/>
       <c r="C23" s="30"/>
       <c r="D23" s="30" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>62</v>
@@ -11042,15 +11039,15 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B24" s="47"/>
       <c r="C24" s="30"/>
       <c r="D24" s="30" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>62</v>
@@ -11071,15 +11068,15 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B25" s="47"/>
       <c r="C25" s="30"/>
       <c r="D25" s="30" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>62</v>
@@ -11100,15 +11097,15 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B26" s="47"/>
       <c r="C26" s="30"/>
       <c r="D26" s="30" t="s">
-        <v>656</v>
+        <v>810</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F26" s="30" t="s">
         <v>62</v>
@@ -11129,15 +11126,15 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B27" s="47"/>
       <c r="C27" s="30"/>
       <c r="D27" s="30" t="s">
-        <v>657</v>
+        <v>811</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F27" s="30" t="s">
         <v>62</v>
@@ -11158,15 +11155,15 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="B28" s="47"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30" t="s">
-        <v>720</v>
+        <v>812</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F28" s="31" t="s">
         <v>62</v>
@@ -11186,15 +11183,15 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30" t="s">
-        <v>721</v>
+        <v>813</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F29" s="31" t="s">
         <v>62</v>
@@ -11214,15 +11211,15 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="30" t="s">
-        <v>725</v>
+        <v>814</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F30" s="31" t="s">
         <v>62</v>
@@ -11242,15 +11239,15 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30" t="s">
-        <v>727</v>
+        <v>815</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F31" s="31" t="s">
         <v>62</v>
@@ -11270,15 +11267,15 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="30" t="s">
-        <v>729</v>
+        <v>816</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F32" s="31" t="s">
         <v>62</v>
@@ -11298,15 +11295,15 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30" t="s">
-        <v>731</v>
+        <v>817</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F33" s="31" t="s">
         <v>62</v>
@@ -11326,12 +11323,12 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30" t="s">
-        <v>754</v>
+        <v>818</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="31" t="s">
@@ -11349,12 +11346,12 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="30" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30" t="s">
-        <v>756</v>
+        <v>819</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="31" t="s">
@@ -11372,12 +11369,12 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="30" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30" t="s">
-        <v>758</v>
+        <v>820</v>
       </c>
       <c r="E36" s="30"/>
       <c r="F36" s="31" t="s">
@@ -11395,11 +11392,11 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="30" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="B37" s="30"/>
       <c r="D37" s="30" t="s">
-        <v>760</v>
+        <v>821</v>
       </c>
       <c r="F37" s="31" t="s">
         <v>62</v>

--- a/projects/SEB_calibration_Rgenoud_2013.xlsx
+++ b/projects/SEB_calibration_Rgenoud_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2667" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2667" uniqueCount="824">
   <si>
     <t>type</t>
   </si>
@@ -2509,6 +2509,9 @@
   </si>
   <si>
     <t>1.14.1</t>
+  </si>
+  <si>
+    <t>Calibration Reports Enhanced</t>
   </si>
 </sst>
 </file>
@@ -6831,7 +6834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -7335,9 +7338,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7861,7 +7864,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>809</v>
+        <v>823</v>
       </c>
       <c r="C23" s="37" t="s">
         <v>809</v>

--- a/projects/SEB_calibration_Rgenoud_2013.xlsx
+++ b/projects/SEB_calibration_Rgenoud_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -2508,10 +2508,10 @@
     <t>calibration_reports_enhanced.gas_bill_nmbe_within_limit</t>
   </si>
   <si>
-    <t>1.14.1</t>
-  </si>
-  <si>
     <t>Calibration Reports Enhanced</t>
+  </si>
+  <si>
+    <t>1.14.4</t>
   </si>
 </sst>
 </file>
@@ -6834,8 +6834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6893,7 +6893,7 @@
         <v>467</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>612</v>
@@ -7338,7 +7338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
@@ -7864,7 +7864,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C23" s="37" t="s">
         <v>809</v>

--- a/projects/SEB_calibration_Rgenoud_2013.xlsx
+++ b/projects/SEB_calibration_Rgenoud_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -1998,9 +1998,6 @@
     <t>Files to include (relative to this spreadsheet or absolute path). If a directory then it will include all subfolders and files</t>
   </si>
   <si>
-    <t>uniform_uncertain</t>
-  </si>
-  <si>
     <t>Lighting Power Reduction</t>
   </si>
   <si>
@@ -2512,6 +2509,9 @@
   </si>
   <si>
     <t>1.14.4</t>
+  </si>
+  <si>
+    <t>uniform</t>
   </si>
 </sst>
 </file>
@@ -6834,7 +6834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -6871,7 +6871,7 @@
         <v>434</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>435</v>
@@ -6882,7 +6882,7 @@
         <v>454</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>455</v>
@@ -6893,7 +6893,7 @@
         <v>467</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>612</v>
@@ -6904,7 +6904,7 @@
         <v>468</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>470</v>
@@ -6975,7 +6975,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>469</v>
@@ -6986,7 +6986,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>650</v>
@@ -6997,7 +6997,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E14" s="31" t="s">
         <v>650</v>
@@ -7199,7 +7199,7 @@
     </row>
     <row r="33" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="31" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B33" s="31">
         <v>1</v>
@@ -7209,7 +7209,7 @@
     </row>
     <row r="34" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="31" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B34" s="30">
         <v>1</v>
@@ -7219,7 +7219,7 @@
     </row>
     <row r="35" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="31" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B35" s="30">
         <v>3</v>
@@ -7250,7 +7250,7 @@
         <v>28</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7278,7 +7278,7 @@
         <v>641</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E41" s="2"/>
     </row>
@@ -7305,7 +7305,7 @@
         <v>643</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7338,9 +7338,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R102" sqref="R102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7438,7 +7438,7 @@
         <v>35</v>
       </c>
       <c r="F3" s="62" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>11</v>
@@ -7503,13 +7503,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="37" t="s">
+        <v>782</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>783</v>
       </c>
-      <c r="C4" s="37" t="s">
-        <v>784</v>
-      </c>
       <c r="D4" s="37" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E4" s="37" t="s">
         <v>66</v>
@@ -7522,17 +7522,17 @@
         <v>21</v>
       </c>
       <c r="D5" s="31" t="s">
+        <v>784</v>
+      </c>
+      <c r="E5" s="31" t="s">
         <v>785</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>786</v>
       </c>
       <c r="F5" s="63"/>
       <c r="G5" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="J5" s="31"/>
     </row>
@@ -7541,17 +7541,17 @@
         <v>21</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>164</v>
       </c>
       <c r="F6" s="63"/>
       <c r="G6" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="J6" s="31"/>
     </row>
@@ -7560,17 +7560,17 @@
         <v>21</v>
       </c>
       <c r="D7" s="31" t="s">
+        <v>789</v>
+      </c>
+      <c r="E7" s="31" t="s">
         <v>790</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>791</v>
       </c>
       <c r="F7" s="63"/>
       <c r="G7" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="J7" s="31"/>
     </row>
@@ -7579,14 +7579,14 @@
         <v>21</v>
       </c>
       <c r="D8" s="31" t="s">
+        <v>792</v>
+      </c>
+      <c r="E8" s="31" t="s">
         <v>793</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>794</v>
       </c>
       <c r="F8" s="63"/>
       <c r="G8" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I8" s="31" t="s">
         <v>646</v>
@@ -7598,17 +7598,17 @@
         <v>21</v>
       </c>
       <c r="D9" s="31" t="s">
+        <v>794</v>
+      </c>
+      <c r="E9" s="31" t="s">
         <v>795</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>796</v>
       </c>
       <c r="F9" s="63"/>
       <c r="G9" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J9" s="31"/>
     </row>
@@ -7617,17 +7617,17 @@
         <v>21</v>
       </c>
       <c r="D10" s="31" t="s">
+        <v>722</v>
+      </c>
+      <c r="E10" s="31" t="s">
         <v>723</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>724</v>
       </c>
       <c r="F10" s="63"/>
       <c r="G10" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I10" s="48" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="J10" s="31"/>
     </row>
@@ -7636,17 +7636,17 @@
         <v>21</v>
       </c>
       <c r="D11" s="31" t="s">
+        <v>724</v>
+      </c>
+      <c r="E11" s="31" t="s">
         <v>725</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>726</v>
       </c>
       <c r="F11" s="63"/>
       <c r="G11" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I11" s="48" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J11" s="31"/>
     </row>
@@ -7655,17 +7655,17 @@
         <v>21</v>
       </c>
       <c r="D12" s="31" t="s">
+        <v>797</v>
+      </c>
+      <c r="E12" s="31" t="s">
         <v>798</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>799</v>
       </c>
       <c r="F12" s="63"/>
       <c r="G12" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="J12" s="31"/>
     </row>
@@ -7674,17 +7674,17 @@
         <v>21</v>
       </c>
       <c r="D13" s="31" t="s">
+        <v>806</v>
+      </c>
+      <c r="E13" s="31" t="s">
         <v>807</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>808</v>
       </c>
       <c r="F13" s="63"/>
       <c r="G13" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I13" s="48" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="J13" s="31"/>
     </row>
@@ -7693,13 +7693,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E14" s="37" t="s">
         <v>66</v>
@@ -7712,17 +7712,17 @@
         <v>21</v>
       </c>
       <c r="D15" s="31" t="s">
+        <v>784</v>
+      </c>
+      <c r="E15" s="31" t="s">
         <v>785</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>786</v>
       </c>
       <c r="F15" s="63"/>
       <c r="G15" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J15" s="31"/>
     </row>
@@ -7731,17 +7731,17 @@
         <v>21</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E16" s="31" t="s">
         <v>164</v>
       </c>
       <c r="F16" s="63"/>
       <c r="G16" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="J16" s="31"/>
     </row>
@@ -7750,17 +7750,17 @@
         <v>21</v>
       </c>
       <c r="D17" s="31" t="s">
+        <v>789</v>
+      </c>
+      <c r="E17" s="31" t="s">
         <v>790</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>791</v>
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="J17" s="31"/>
     </row>
@@ -7769,14 +7769,14 @@
         <v>21</v>
       </c>
       <c r="D18" s="31" t="s">
+        <v>792</v>
+      </c>
+      <c r="E18" s="31" t="s">
         <v>793</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>794</v>
       </c>
       <c r="F18" s="63"/>
       <c r="G18" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I18" s="31" t="s">
         <v>648</v>
@@ -7788,17 +7788,17 @@
         <v>21</v>
       </c>
       <c r="D19" s="31" t="s">
+        <v>794</v>
+      </c>
+      <c r="E19" s="31" t="s">
         <v>795</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>796</v>
       </c>
       <c r="F19" s="63"/>
       <c r="G19" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="J19" s="31"/>
     </row>
@@ -7807,17 +7807,17 @@
         <v>21</v>
       </c>
       <c r="D20" s="31" t="s">
+        <v>722</v>
+      </c>
+      <c r="E20" s="31" t="s">
         <v>723</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>724</v>
       </c>
       <c r="F20" s="63"/>
       <c r="G20" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I20" s="48" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="J20" s="31"/>
     </row>
@@ -7826,17 +7826,17 @@
         <v>21</v>
       </c>
       <c r="D21" s="31" t="s">
+        <v>724</v>
+      </c>
+      <c r="E21" s="31" t="s">
         <v>725</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>726</v>
       </c>
       <c r="F21" s="63"/>
       <c r="G21" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I21" s="48" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J21" s="31"/>
     </row>
@@ -7845,17 +7845,17 @@
         <v>21</v>
       </c>
       <c r="D22" s="31" t="s">
+        <v>797</v>
+      </c>
+      <c r="E22" s="31" t="s">
         <v>798</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>799</v>
       </c>
       <c r="F22" s="63"/>
       <c r="G22" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I22" s="48" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="J22" s="31"/>
     </row>
@@ -7864,13 +7864,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E23" s="37" t="s">
         <v>231</v>
@@ -7922,7 +7922,7 @@
         <v>22</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E26" s="40" t="s">
         <v>68</v>
@@ -7951,7 +7951,7 @@
         <v>1</v>
       </c>
       <c r="R26" s="40" t="s">
-        <v>652</v>
+        <v>823</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7959,10 +7959,10 @@
         <v>21</v>
       </c>
       <c r="D27" s="30" t="s">
+        <v>668</v>
+      </c>
+      <c r="E27" s="30" t="s">
         <v>669</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>670</v>
       </c>
       <c r="F27" s="63"/>
       <c r="G27" s="30" t="s">
@@ -7977,10 +7977,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="57" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E28" s="56" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F28" s="63"/>
       <c r="G28" s="56" t="s">
@@ -8005,8 +8005,8 @@
       <c r="O28" s="58">
         <v>0.01</v>
       </c>
-      <c r="R28" s="56" t="s">
-        <v>652</v>
+      <c r="R28" s="40" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -8014,10 +8014,10 @@
         <v>21</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F29" s="63"/>
       <c r="G29" s="30" t="s">
@@ -8032,10 +8032,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F30" s="64"/>
       <c r="G30" s="30" t="s">
@@ -8152,7 +8152,7 @@
         <v>21</v>
       </c>
       <c r="D36" s="52" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E36" s="52" t="s">
         <v>44</v>
@@ -8182,8 +8182,8 @@
         <v>1</v>
       </c>
       <c r="Q36" s="55"/>
-      <c r="R36" s="52" t="s">
-        <v>652</v>
+      <c r="R36" s="40" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -8418,7 +8418,7 @@
         <v>22</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E46" s="40" t="s">
         <v>286</v>
@@ -8428,7 +8428,7 @@
         <v>62</v>
       </c>
       <c r="H46" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I46" s="40">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>1</v>
       </c>
       <c r="R46" s="40" t="s">
-        <v>652</v>
+        <v>823</v>
       </c>
     </row>
     <row r="47" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8459,7 +8459,7 @@
         <v>21</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E47" s="30" t="s">
         <v>46</v>
@@ -8469,7 +8469,7 @@
         <v>62</v>
       </c>
       <c r="H47" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I47" s="30">
         <v>0</v>
@@ -8480,7 +8480,7 @@
         <v>21</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E48" s="30" t="s">
         <v>48</v>
@@ -8490,7 +8490,7 @@
         <v>62</v>
       </c>
       <c r="H48" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I48" s="30">
         <v>0</v>
@@ -8501,7 +8501,7 @@
         <v>21</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E49" s="30" t="s">
         <v>50</v>
@@ -8511,7 +8511,7 @@
         <v>63</v>
       </c>
       <c r="H49" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I49" s="30">
         <v>0</v>
@@ -8522,7 +8522,7 @@
         <v>21</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E50" s="30" t="s">
         <v>52</v>
@@ -8540,7 +8540,7 @@
         <v>21</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E51" s="30" t="s">
         <v>54</v>
@@ -8550,7 +8550,7 @@
         <v>63</v>
       </c>
       <c r="H51" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I51" s="30">
         <v>15</v>
@@ -8561,7 +8561,7 @@
         <v>21</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E52" s="30" t="s">
         <v>56</v>
@@ -8571,7 +8571,7 @@
         <v>62</v>
       </c>
       <c r="H52" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I52" s="30">
         <v>0</v>
@@ -8582,7 +8582,7 @@
         <v>21</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E53" s="30" t="s">
         <v>58</v>
@@ -8592,7 +8592,7 @@
         <v>63</v>
       </c>
       <c r="H53" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I53" s="30">
         <v>1</v>
@@ -8603,13 +8603,13 @@
         <v>1</v>
       </c>
       <c r="B54" s="46" t="s">
+        <v>746</v>
+      </c>
+      <c r="C54" s="46" t="s">
         <v>747</v>
       </c>
-      <c r="C54" s="46" t="s">
-        <v>748</v>
-      </c>
       <c r="D54" s="46" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E54" s="46" t="s">
         <v>66</v>
@@ -8641,17 +8641,17 @@
         <v>22</v>
       </c>
       <c r="D56" s="40" t="s">
+        <v>748</v>
+      </c>
+      <c r="E56" s="40" t="s">
         <v>749</v>
-      </c>
-      <c r="E56" s="40" t="s">
-        <v>750</v>
       </c>
       <c r="F56" s="50"/>
       <c r="G56" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H56" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I56" s="40">
         <v>0.8</v>
@@ -8674,7 +8674,7 @@
         <v>1</v>
       </c>
       <c r="R56" s="40" t="s">
-        <v>652</v>
+        <v>823</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -8700,7 +8700,7 @@
         <v>21</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E58" s="30" t="s">
         <v>126</v>
@@ -8710,7 +8710,7 @@
         <v>62</v>
       </c>
       <c r="H58" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I58" s="30">
         <v>0</v>
@@ -8721,7 +8721,7 @@
         <v>21</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E59" s="30" t="s">
         <v>48</v>
@@ -8731,7 +8731,7 @@
         <v>62</v>
       </c>
       <c r="H59" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I59" s="30">
         <v>0</v>
@@ -8742,7 +8742,7 @@
         <v>21</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E60" s="30" t="s">
         <v>50</v>
@@ -8752,7 +8752,7 @@
         <v>63</v>
       </c>
       <c r="H60" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I60" s="30">
         <v>0</v>
@@ -8763,7 +8763,7 @@
         <v>21</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E61" s="30" t="s">
         <v>52</v>
@@ -8781,7 +8781,7 @@
         <v>21</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E62" s="30" t="s">
         <v>54</v>
@@ -8791,7 +8791,7 @@
         <v>63</v>
       </c>
       <c r="H62" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I62" s="30">
         <v>15</v>
@@ -8802,7 +8802,7 @@
         <v>21</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E63" s="30" t="s">
         <v>56</v>
@@ -8812,7 +8812,7 @@
         <v>62</v>
       </c>
       <c r="H63" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I63" s="30">
         <v>0</v>
@@ -8823,7 +8823,7 @@
         <v>21</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E64" s="30" t="s">
         <v>58</v>
@@ -8833,7 +8833,7 @@
         <v>63</v>
       </c>
       <c r="H64" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I64" s="30">
         <v>1</v>
@@ -8844,13 +8844,13 @@
         <v>1</v>
       </c>
       <c r="B65" s="46" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C65" s="46" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D65" s="46" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E65" s="46" t="s">
         <v>66</v>
@@ -8861,7 +8861,7 @@
         <v>21</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E66" s="30" t="s">
         <v>124</v>
@@ -8882,17 +8882,17 @@
         <v>22</v>
       </c>
       <c r="D67" s="40" t="s">
+        <v>755</v>
+      </c>
+      <c r="E67" s="40" t="s">
         <v>756</v>
-      </c>
-      <c r="E67" s="40" t="s">
-        <v>757</v>
       </c>
       <c r="F67" s="50"/>
       <c r="G67" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H67" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I67" s="40">
         <v>4</v>
@@ -8915,7 +8915,7 @@
         <v>0.25</v>
       </c>
       <c r="R67" s="40" t="s">
-        <v>652</v>
+        <v>823</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8941,7 +8941,7 @@
         <v>21</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E69" s="30" t="s">
         <v>126</v>
@@ -8951,7 +8951,7 @@
         <v>62</v>
       </c>
       <c r="H69" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I69" s="30">
         <v>0</v>
@@ -8962,7 +8962,7 @@
         <v>21</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E70" s="30" t="s">
         <v>48</v>
@@ -8972,7 +8972,7 @@
         <v>62</v>
       </c>
       <c r="H70" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I70" s="30">
         <v>0</v>
@@ -8983,7 +8983,7 @@
         <v>21</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E71" s="30" t="s">
         <v>50</v>
@@ -8993,7 +8993,7 @@
         <v>63</v>
       </c>
       <c r="H71" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I71" s="30">
         <v>0</v>
@@ -9004,7 +9004,7 @@
         <v>21</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E72" s="30" t="s">
         <v>52</v>
@@ -9022,7 +9022,7 @@
         <v>21</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E73" s="30" t="s">
         <v>54</v>
@@ -9032,7 +9032,7 @@
         <v>63</v>
       </c>
       <c r="H73" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I73" s="30">
         <v>15</v>
@@ -9043,7 +9043,7 @@
         <v>21</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E74" s="30" t="s">
         <v>56</v>
@@ -9053,7 +9053,7 @@
         <v>62</v>
       </c>
       <c r="H74" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I74" s="30">
         <v>0</v>
@@ -9064,7 +9064,7 @@
         <v>21</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E75" s="30" t="s">
         <v>58</v>
@@ -9074,7 +9074,7 @@
         <v>63</v>
       </c>
       <c r="H75" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I75" s="30">
         <v>1</v>
@@ -9123,7 +9123,7 @@
         <v>22</v>
       </c>
       <c r="D78" s="40" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E78" s="40" t="s">
         <v>243</v>
@@ -9133,7 +9133,7 @@
         <v>62</v>
       </c>
       <c r="H78" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I78" s="40">
         <v>0</v>
@@ -9156,7 +9156,7 @@
         <v>1</v>
       </c>
       <c r="R78" s="40" t="s">
-        <v>652</v>
+        <v>823</v>
       </c>
     </row>
     <row r="79" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9164,17 +9164,17 @@
         <v>22</v>
       </c>
       <c r="D79" s="40" t="s">
+        <v>758</v>
+      </c>
+      <c r="E79" s="40" t="s">
         <v>759</v>
-      </c>
-      <c r="E79" s="40" t="s">
-        <v>760</v>
       </c>
       <c r="F79" s="50"/>
       <c r="G79" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H79" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I79" s="40">
         <v>0</v>
@@ -9197,7 +9197,7 @@
         <v>1</v>
       </c>
       <c r="R79" s="40" t="s">
-        <v>652</v>
+        <v>823</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9223,7 +9223,7 @@
         <v>21</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E81" s="30" t="s">
         <v>126</v>
@@ -9233,7 +9233,7 @@
         <v>62</v>
       </c>
       <c r="H81" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I81" s="30">
         <v>0</v>
@@ -9244,7 +9244,7 @@
         <v>21</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E82" s="30" t="s">
         <v>48</v>
@@ -9254,7 +9254,7 @@
         <v>62</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I82" s="30">
         <v>0</v>
@@ -9265,7 +9265,7 @@
         <v>21</v>
       </c>
       <c r="D83" s="30" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E83" s="30" t="s">
         <v>50</v>
@@ -9275,7 +9275,7 @@
         <v>63</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I83" s="30">
         <v>0</v>
@@ -9286,7 +9286,7 @@
         <v>21</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E84" s="30" t="s">
         <v>52</v>
@@ -9304,7 +9304,7 @@
         <v>21</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E85" s="30" t="s">
         <v>54</v>
@@ -9314,7 +9314,7 @@
         <v>63</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I85" s="30">
         <v>15</v>
@@ -9325,7 +9325,7 @@
         <v>21</v>
       </c>
       <c r="D86" s="30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E86" s="30" t="s">
         <v>56</v>
@@ -9335,7 +9335,7 @@
         <v>62</v>
       </c>
       <c r="H86" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I86" s="30">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>21</v>
       </c>
       <c r="D87" s="30" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E87" s="30" t="s">
         <v>58</v>
@@ -9356,7 +9356,7 @@
         <v>63</v>
       </c>
       <c r="H87" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I87" s="30">
         <v>1</v>
@@ -9370,10 +9370,10 @@
         <v>185</v>
       </c>
       <c r="C88" s="46" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D88" s="46" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E88" s="46" t="s">
         <v>66</v>
@@ -9384,7 +9384,7 @@
         <v>22</v>
       </c>
       <c r="D89" s="40" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E89" s="40" t="s">
         <v>188</v>
@@ -9394,7 +9394,7 @@
         <v>62</v>
       </c>
       <c r="H89" s="40" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I89" s="40">
         <v>0</v>
@@ -9417,7 +9417,7 @@
         <v>1</v>
       </c>
       <c r="R89" s="40" t="s">
-        <v>652</v>
+        <v>823</v>
       </c>
     </row>
     <row r="90" spans="1:20" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9425,7 +9425,7 @@
         <v>22</v>
       </c>
       <c r="D90" s="40" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E90" s="40" t="s">
         <v>190</v>
@@ -9435,7 +9435,7 @@
         <v>62</v>
       </c>
       <c r="H90" s="40" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I90" s="40">
         <v>0</v>
@@ -9458,7 +9458,7 @@
         <v>1</v>
       </c>
       <c r="R90" s="40" t="s">
-        <v>652</v>
+        <v>823</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -9466,7 +9466,7 @@
         <v>21</v>
       </c>
       <c r="D91" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E91" s="31" t="s">
         <v>192</v>
@@ -9489,13 +9489,13 @@
         <v>1</v>
       </c>
       <c r="B92" s="49" t="s">
+        <v>732</v>
+      </c>
+      <c r="C92" s="49" t="s">
         <v>733</v>
       </c>
-      <c r="C92" s="49" t="s">
-        <v>734</v>
-      </c>
       <c r="D92" s="49" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E92" s="46" t="s">
         <v>66</v>
@@ -9521,10 +9521,10 @@
       </c>
       <c r="C93" s="50"/>
       <c r="D93" s="50" t="s">
+        <v>726</v>
+      </c>
+      <c r="E93" s="50" t="s">
         <v>727</v>
-      </c>
-      <c r="E93" s="50" t="s">
-        <v>728</v>
       </c>
       <c r="F93" s="50"/>
       <c r="G93" s="50" t="s">
@@ -9554,7 +9554,7 @@
       <c r="P93" s="40"/>
       <c r="Q93" s="40"/>
       <c r="R93" s="40" t="s">
-        <v>652</v>
+        <v>823</v>
       </c>
     </row>
     <row r="94" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9564,10 +9564,10 @@
       </c>
       <c r="C94" s="50"/>
       <c r="D94" s="50" t="s">
+        <v>728</v>
+      </c>
+      <c r="E94" s="50" t="s">
         <v>729</v>
-      </c>
-      <c r="E94" s="50" t="s">
-        <v>730</v>
       </c>
       <c r="F94" s="50"/>
       <c r="G94" s="50" t="s">
@@ -9596,7 +9596,7 @@
       <c r="P94" s="40"/>
       <c r="Q94" s="40"/>
       <c r="R94" s="40" t="s">
-        <v>652</v>
+        <v>823</v>
       </c>
     </row>
     <row r="95" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9606,10 +9606,10 @@
       </c>
       <c r="C95" s="50"/>
       <c r="D95" s="50" t="s">
+        <v>730</v>
+      </c>
+      <c r="E95" s="50" t="s">
         <v>731</v>
-      </c>
-      <c r="E95" s="50" t="s">
-        <v>732</v>
       </c>
       <c r="F95" s="50"/>
       <c r="G95" s="50" t="s">
@@ -9638,7 +9638,7 @@
       <c r="P95" s="42"/>
       <c r="Q95" s="42"/>
       <c r="R95" s="40" t="s">
-        <v>652</v>
+        <v>823</v>
       </c>
       <c r="T95" s="31"/>
     </row>
@@ -9647,13 +9647,13 @@
         <v>1</v>
       </c>
       <c r="B96" s="49" t="s">
+        <v>734</v>
+      </c>
+      <c r="C96" s="49" t="s">
         <v>735</v>
       </c>
-      <c r="C96" s="49" t="s">
-        <v>736</v>
-      </c>
       <c r="D96" s="49" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E96" s="46" t="s">
         <v>66</v>
@@ -9679,10 +9679,10 @@
       </c>
       <c r="C97" s="50"/>
       <c r="D97" s="50" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E97" s="50" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F97" s="50"/>
       <c r="G97" s="50" t="s">
@@ -9712,7 +9712,7 @@
       <c r="P97" s="40"/>
       <c r="Q97" s="40"/>
       <c r="R97" s="40" t="s">
-        <v>652</v>
+        <v>823</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9722,10 +9722,10 @@
       </c>
       <c r="C98" s="50"/>
       <c r="D98" s="50" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E98" s="50" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F98" s="50"/>
       <c r="G98" s="50" t="s">
@@ -9754,7 +9754,7 @@
       <c r="P98" s="40"/>
       <c r="Q98" s="40"/>
       <c r="R98" s="40" t="s">
-        <v>652</v>
+        <v>823</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9764,10 +9764,10 @@
       </c>
       <c r="C99" s="50"/>
       <c r="D99" s="50" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E99" s="50" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F99" s="50"/>
       <c r="G99" s="50" t="s">
@@ -9796,7 +9796,7 @@
       <c r="P99" s="42"/>
       <c r="Q99" s="42"/>
       <c r="R99" s="40" t="s">
-        <v>652</v>
+        <v>823</v>
       </c>
     </row>
     <row r="100" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9804,13 +9804,13 @@
         <v>1</v>
       </c>
       <c r="B100" s="46" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C100" s="46" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D100" s="46" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E100" s="46" t="s">
         <v>66</v>
@@ -9821,17 +9821,17 @@
         <v>21</v>
       </c>
       <c r="D101" s="56" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E101" s="56" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F101" s="63"/>
       <c r="G101" s="56" t="s">
         <v>62</v>
       </c>
       <c r="H101" s="56" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I101" s="56">
         <v>1</v>
@@ -9853,8 +9853,8 @@
       <c r="O101" s="58">
         <v>0.1</v>
       </c>
-      <c r="R101" s="56" t="s">
-        <v>652</v>
+      <c r="R101" s="40" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="102" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9862,17 +9862,17 @@
         <v>22</v>
       </c>
       <c r="D102" s="40" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E102" s="40" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F102" s="50"/>
       <c r="G102" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H102" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I102" s="40">
         <v>1450</v>
@@ -9895,7 +9895,7 @@
         <v>10</v>
       </c>
       <c r="R102" s="40" t="s">
-        <v>652</v>
+        <v>823</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
@@ -9903,13 +9903,13 @@
         <v>1</v>
       </c>
       <c r="B103" s="37" t="s">
+        <v>739</v>
+      </c>
+      <c r="C103" s="37" t="s">
         <v>740</v>
       </c>
-      <c r="C103" s="37" t="s">
-        <v>741</v>
-      </c>
       <c r="D103" s="37" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E103" s="37" t="s">
         <v>231</v>
@@ -10385,7 +10385,7 @@
         <v>457</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>630</v>
@@ -10423,7 +10423,7 @@
         <v>622</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>635</v>
@@ -10521,7 +10521,7 @@
         <v>639</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>634</v>
@@ -10553,7 +10553,7 @@
         <v>640</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>633</v>
@@ -10582,12 +10582,12 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B8" s="47"/>
       <c r="C8" s="30"/>
       <c r="D8" s="30" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>466</v>
@@ -10611,12 +10611,12 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B9" s="47"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>466</v>
@@ -10640,12 +10640,12 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B10" s="47"/>
       <c r="C10" s="30"/>
       <c r="D10" s="30" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>466</v>
@@ -10668,12 +10668,12 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B11" s="47"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>466</v>
@@ -10696,12 +10696,12 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B12" s="47"/>
       <c r="C12" s="30"/>
       <c r="D12" s="30" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>466</v>
@@ -10724,12 +10724,12 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B13" s="47"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>466</v>
@@ -10752,12 +10752,12 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B14" s="47"/>
       <c r="C14" s="30"/>
       <c r="D14" s="30" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>466</v>
@@ -10781,12 +10781,12 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B15" s="47"/>
       <c r="C15" s="30"/>
       <c r="D15" s="30" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E15" s="30" t="s">
         <v>466</v>
@@ -10810,12 +10810,12 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B16" s="47"/>
       <c r="C16" s="30"/>
       <c r="D16" s="30" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>466</v>
@@ -10839,12 +10839,12 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B17" s="47"/>
       <c r="C17" s="30"/>
       <c r="D17" s="30" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E17" s="30" t="s">
         <v>466</v>
@@ -10868,12 +10868,12 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B18" s="47"/>
       <c r="C18" s="30"/>
       <c r="D18" s="30" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E18" s="30" t="s">
         <v>466</v>
@@ -10897,12 +10897,12 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B19" s="47"/>
       <c r="C19" s="30"/>
       <c r="D19" s="30" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>466</v>
@@ -10926,12 +10926,12 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B20" s="47"/>
       <c r="C20" s="30"/>
       <c r="D20" s="30" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>466</v>
@@ -10955,12 +10955,12 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B21" s="47"/>
       <c r="C21" s="30"/>
       <c r="D21" s="30" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E21" s="30" t="s">
         <v>466</v>
@@ -10984,15 +10984,15 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B22" s="47"/>
       <c r="C22" s="30"/>
       <c r="D22" s="30" t="s">
+        <v>706</v>
+      </c>
+      <c r="E22" s="30" t="s">
         <v>707</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>708</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>62</v>
@@ -11013,15 +11013,15 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B23" s="47"/>
       <c r="C23" s="30"/>
       <c r="D23" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>62</v>
@@ -11042,15 +11042,15 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B24" s="47"/>
       <c r="C24" s="30"/>
       <c r="D24" s="30" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>62</v>
@@ -11071,15 +11071,15 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B25" s="47"/>
       <c r="C25" s="30"/>
       <c r="D25" s="30" t="s">
+        <v>713</v>
+      </c>
+      <c r="E25" s="30" t="s">
         <v>714</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>715</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>62</v>
@@ -11105,7 +11105,7 @@
       <c r="B26" s="47"/>
       <c r="C26" s="30"/>
       <c r="D26" s="30" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E26" s="30" t="s">
         <v>646</v>
@@ -11134,7 +11134,7 @@
       <c r="B27" s="47"/>
       <c r="C27" s="30"/>
       <c r="D27" s="30" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E27" s="30" t="s">
         <v>648</v>
@@ -11158,15 +11158,15 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B28" s="47"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F28" s="31" t="s">
         <v>62</v>
@@ -11186,15 +11186,15 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F29" s="31" t="s">
         <v>62</v>
@@ -11214,15 +11214,15 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="30" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F30" s="31" t="s">
         <v>62</v>
@@ -11242,15 +11242,15 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F31" s="31" t="s">
         <v>62</v>
@@ -11270,15 +11270,15 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="30" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F32" s="31" t="s">
         <v>62</v>
@@ -11298,15 +11298,15 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F33" s="31" t="s">
         <v>62</v>
@@ -11326,12 +11326,12 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="31" t="s">
@@ -11349,12 +11349,12 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="30" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="31" t="s">
@@ -11372,12 +11372,12 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="30" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E36" s="30"/>
       <c r="F36" s="31" t="s">
@@ -11395,11 +11395,11 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="30" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B37" s="30"/>
       <c r="D37" s="30" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F37" s="31" t="s">
         <v>62</v>

--- a/projects/SEB_calibration_Rgenoud_2013.xlsx
+++ b/projects/SEB_calibration_Rgenoud_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2667" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2663" uniqueCount="821">
   <si>
     <t>type</t>
   </si>
@@ -1422,12 +1422,6 @@
     <t>true/false</t>
   </si>
   <si>
-    <t>Allow Multiple Jobs</t>
-  </si>
-  <si>
-    <t>Use Server As Worker</t>
-  </si>
-  <si>
     <t>Simulate Data Point Filename</t>
   </si>
   <si>
@@ -1860,9 +1854,6 @@
     <t>Use a minimum of 2 cores for server.</t>
   </si>
   <si>
-    <t>Enable this for certain analysis. Typically do not use the server as a worker.</t>
-  </si>
-  <si>
     <t>Problem Type</t>
   </si>
   <si>
@@ -2508,10 +2499,10 @@
     <t>Calibration Reports Enhanced</t>
   </si>
   <si>
-    <t>1.14.4</t>
-  </si>
-  <si>
     <t>uniform</t>
+  </si>
+  <si>
+    <t>1.17.0</t>
   </si>
 </sst>
 </file>
@@ -4553,7 +4544,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4600,9 +4591,6 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -6832,16 +6820,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
     <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
@@ -6850,7 +6838,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="19"/>
-      <c r="B1" s="28"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="19"/>
       <c r="D1" s="20"/>
       <c r="E1" s="20" t="s">
@@ -6861,7 +6849,7 @@
       <c r="A2" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
@@ -6870,8 +6858,8 @@
       <c r="A3" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>766</v>
+      <c r="B3" s="25" t="s">
+        <v>763</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>435</v>
@@ -6881,8 +6869,8 @@
       <c r="A4" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>777</v>
+      <c r="B4" s="24" t="s">
+        <v>774</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>455</v>
@@ -6890,57 +6878,57 @@
     </row>
     <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>822</v>
+        <v>465</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>820</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>772</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>775</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>590</v>
-      </c>
-      <c r="C7" s="33" t="str">
+      <c r="B7" s="24" t="s">
+        <v>588</v>
+      </c>
+      <c r="C7" s="32" t="str">
         <f>VLOOKUP($B7,instance_defs,2,FALSE)&amp;VLOOKUP($B7,instance_defs,4,FALSE)</f>
         <v>4 Cores - Recommended for Server</v>
       </c>
-      <c r="D7" s="33" t="str">
+      <c r="D7" s="32" t="str">
         <f>VLOOKUP($B7,instance_defs,3,FALSE)</f>
         <v>$0.28/hour</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>601</v>
-      </c>
-      <c r="C8" s="33" t="str">
+      <c r="B8" s="24" t="s">
+        <v>599</v>
+      </c>
+      <c r="C8" s="32" t="str">
         <f>VLOOKUP($B8,instance_defs,2,FALSE)&amp;VLOOKUP($B8,instance_defs,4,FALSE)</f>
         <v>16 Cores - Worker Only - Recommended for Worker</v>
       </c>
-      <c r="D8" s="33" t="str">
+      <c r="D8" s="32" t="str">
         <f>VLOOKUP($B8,instance_defs,3,FALSE)</f>
         <v>$1.68/hour</v>
       </c>
@@ -6952,20 +6940,20 @@
       <c r="A9" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="24">
         <v>1</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="33"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="27"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="11"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -6974,350 +6962,325 @@
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>776</v>
+      <c r="B12" s="24" t="s">
+        <v>773</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>778</v>
+      <c r="B13" s="24" t="s">
+        <v>775</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>741</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>650</v>
+      <c r="B14" s="24" t="s">
+        <v>738</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B15" s="26" t="b">
-        <v>1</v>
+      <c r="B15" s="25" t="s">
+        <v>461</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B16" s="24" t="b">
+        <v>462</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>540</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>604</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="13" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="25"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>607</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="30" t="s">
+        <v>557</v>
+      </c>
+      <c r="B22" s="29">
+        <v>94</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>575</v>
+      </c>
+      <c r="D22" s="34"/>
+    </row>
+    <row r="23" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="30" t="s">
+        <v>560</v>
+      </c>
+      <c r="B23" s="29">
+        <v>7</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>574</v>
+      </c>
+      <c r="D23" s="34"/>
+    </row>
+    <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="30" t="s">
+        <v>556</v>
+      </c>
+      <c r="B24" s="29">
+        <v>2</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>579</v>
+      </c>
+      <c r="D24" s="34"/>
+    </row>
+    <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="29" t="s">
+        <v>576</v>
+      </c>
+      <c r="B25" s="29">
+        <v>6</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>577</v>
+      </c>
+      <c r="D25" s="34"/>
+    </row>
+    <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="30" t="s">
+        <v>558</v>
+      </c>
+      <c r="B26" s="28">
+        <v>0.01</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>578</v>
+      </c>
+      <c r="D26" s="34"/>
+    </row>
+    <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="30" t="s">
+        <v>534</v>
+      </c>
+      <c r="B27" s="28">
+        <v>0.01</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>573</v>
+      </c>
+      <c r="D27" s="34"/>
+    </row>
+    <row r="28" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="30" t="s">
+        <v>539</v>
+      </c>
+      <c r="B28" s="28">
+        <v>0.01</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>572</v>
+      </c>
+      <c r="D28" s="34"/>
+    </row>
+    <row r="29" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="30" t="s">
+        <v>553</v>
+      </c>
+      <c r="B29" s="28">
+        <v>450360000000000</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>571</v>
+      </c>
+      <c r="D29" s="34"/>
+    </row>
+    <row r="30" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="30" t="s">
+        <v>554</v>
+      </c>
+      <c r="B30" s="29">
+        <v>3</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="D30" s="34"/>
+    </row>
+    <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="B31" s="30">
         <v>1</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>463</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>542</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>607</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="13" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="26"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>610</v>
-      </c>
-      <c r="C23" s="11" t="s">
+      <c r="C31" s="29"/>
+      <c r="D31" s="34"/>
+    </row>
+    <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="30" t="s">
+        <v>770</v>
+      </c>
+      <c r="B32" s="29">
+        <v>1</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="34"/>
+    </row>
+    <row r="33" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="30" t="s">
+        <v>769</v>
+      </c>
+      <c r="B33" s="29">
+        <v>3</v>
+      </c>
+      <c r="C33" s="33"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="29"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>646</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="13"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>638</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>777</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="41" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="13" t="s">
         <v>608</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>609</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="31" t="s">
-        <v>559</v>
-      </c>
-      <c r="B24" s="30">
-        <v>94</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>577</v>
-      </c>
-      <c r="D24" s="35"/>
-    </row>
-    <row r="25" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="31" t="s">
-        <v>562</v>
-      </c>
-      <c r="B25" s="30">
-        <v>7</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="D25" s="35"/>
-    </row>
-    <row r="26" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="31" t="s">
-        <v>558</v>
-      </c>
-      <c r="B26" s="30">
-        <v>2</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>581</v>
-      </c>
-      <c r="D26" s="35"/>
-    </row>
-    <row r="27" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30" t="s">
-        <v>578</v>
-      </c>
-      <c r="B27" s="30">
-        <v>6</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>579</v>
-      </c>
-      <c r="D27" s="35"/>
-    </row>
-    <row r="28" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="31" t="s">
-        <v>560</v>
-      </c>
-      <c r="B28" s="29">
-        <v>0.01</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>580</v>
-      </c>
-      <c r="D28" s="35"/>
-    </row>
-    <row r="29" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="31" t="s">
-        <v>536</v>
-      </c>
-      <c r="B29" s="29">
-        <v>0.01</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>575</v>
-      </c>
-      <c r="D29" s="35"/>
-    </row>
-    <row r="30" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="B30" s="29">
-        <v>0.01</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>574</v>
-      </c>
-      <c r="D30" s="35"/>
-    </row>
-    <row r="31" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="31" t="s">
-        <v>555</v>
-      </c>
-      <c r="B31" s="29">
-        <v>450360000000000</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>573</v>
-      </c>
-      <c r="D31" s="35"/>
-    </row>
-    <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="31" t="s">
-        <v>556</v>
-      </c>
-      <c r="B32" s="30">
-        <v>3</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>572</v>
-      </c>
-      <c r="D32" s="35"/>
-    </row>
-    <row r="33" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="31" t="s">
-        <v>774</v>
-      </c>
-      <c r="B33" s="31">
-        <v>1</v>
-      </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="35"/>
-    </row>
-    <row r="34" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="31" t="s">
-        <v>773</v>
-      </c>
-      <c r="B34" s="30">
-        <v>1</v>
-      </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="35"/>
-    </row>
-    <row r="35" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="31" t="s">
-        <v>772</v>
-      </c>
-      <c r="B35" s="30">
-        <v>3</v>
-      </c>
-      <c r="C35" s="34"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="30"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="27" t="s">
-        <v>649</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="13"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" s="27" t="s">
-        <v>451</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>649</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" s="31" t="s">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="30" t="s">
         <v>641</v>
       </c>
-      <c r="D41" s="31" t="s">
-        <v>780</v>
-      </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="43" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>651</v>
-      </c>
-      <c r="D43" s="11"/>
-      <c r="E43" s="13" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="31" t="s">
-        <v>644</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>643</v>
-      </c>
-      <c r="C44" s="31" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="26"/>
-      <c r="D45" s="2"/>
+      <c r="B42" s="25" t="s">
+        <v>640</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="25"/>
+      <c r="D43" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:B16">
-      <formula1>TrueFalse</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>simulate_data_point</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B7:B8">
@@ -7338,34 +7301,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R102" sqref="R102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
-    <col min="5" max="6" width="24.109375" style="31" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="30" customWidth="1"/>
+    <col min="2" max="2" width="47" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47" style="30" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" style="30" customWidth="1"/>
+    <col min="5" max="6" width="24.109375" style="30" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="30" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.44140625" style="4" customWidth="1"/>
     <col min="10" max="10" width="8.6640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" style="31" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" style="31" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" style="31" customWidth="1"/>
-    <col min="14" max="15" width="7.6640625" style="31" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" style="31"/>
-    <col min="17" max="17" width="11.44140625" style="31" customWidth="1"/>
-    <col min="18" max="18" width="23" style="31" customWidth="1"/>
-    <col min="19" max="19" width="27.6640625" style="31" customWidth="1"/>
-    <col min="20" max="20" width="46.109375" style="31" customWidth="1"/>
-    <col min="21" max="23" width="11.44140625" style="31"/>
-    <col min="24" max="24" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.44140625" style="31"/>
+    <col min="11" max="11" width="7.109375" style="30" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" style="30" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" style="30" customWidth="1"/>
+    <col min="14" max="15" width="7.6640625" style="30" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" style="30"/>
+    <col min="17" max="17" width="11.44140625" style="30" customWidth="1"/>
+    <col min="18" max="18" width="23" style="30" customWidth="1"/>
+    <col min="19" max="19" width="27.6640625" style="30" customWidth="1"/>
+    <col min="20" max="20" width="46.109375" style="30" customWidth="1"/>
+    <col min="21" max="23" width="11.44140625" style="30"/>
+    <col min="24" max="24" width="13.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="11.44140625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
@@ -7376,33 +7339,33 @@
         <v>39</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="60"/>
+      <c r="F1" s="59"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="21" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="L1" s="22"/>
       <c r="M1" s="22"/>
       <c r="N1" s="22"/>
       <c r="O1" s="22"/>
-      <c r="P1" s="36" t="s">
-        <v>472</v>
+      <c r="P1" s="35" t="s">
+        <v>470</v>
       </c>
       <c r="Q1" s="23"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="66" t="s">
+      <c r="U1" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
     </row>
     <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -7412,12 +7375,12 @@
         <v>36</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="F2" s="61"/>
+        <v>541</v>
+      </c>
+      <c r="F2" s="60"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
@@ -7437,8 +7400,8 @@
       <c r="E3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="62" t="s">
-        <v>767</v>
+      <c r="F3" s="61" t="s">
+        <v>764</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>11</v>
@@ -7465,13 +7428,13 @@
         <v>9</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="P3" s="16" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="R3" s="10" t="s">
         <v>8</v>
@@ -7498,646 +7461,646 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="b">
+    <row r="4" spans="1:26" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="36" t="s">
+        <v>779</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>780</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>780</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B5" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>781</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>782</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="F5" s="62"/>
+      <c r="G5" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I5" s="30" t="s">
         <v>783</v>
       </c>
-      <c r="D4" s="37" t="s">
-        <v>783</v>
-      </c>
-      <c r="E4" s="37" t="s">
+      <c r="J5" s="30"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B6" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>784</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" s="62"/>
+      <c r="G6" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>785</v>
+      </c>
+      <c r="J6" s="30"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>786</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>787</v>
+      </c>
+      <c r="F7" s="62"/>
+      <c r="G7" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>788</v>
+      </c>
+      <c r="J7" s="30"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B8" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>789</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>790</v>
+      </c>
+      <c r="F8" s="62"/>
+      <c r="G8" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>643</v>
+      </c>
+      <c r="J8" s="30"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B9" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>791</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="F9" s="62"/>
+      <c r="G9" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>793</v>
+      </c>
+      <c r="J9" s="30"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B10" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>719</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>720</v>
+      </c>
+      <c r="F10" s="62"/>
+      <c r="G10" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I10" s="47" t="s">
+        <v>747</v>
+      </c>
+      <c r="J10" s="30"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B11" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>721</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>722</v>
+      </c>
+      <c r="F11" s="62"/>
+      <c r="G11" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I11" s="47" t="s">
+        <v>748</v>
+      </c>
+      <c r="J11" s="30"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B12" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>794</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>795</v>
+      </c>
+      <c r="F12" s="62"/>
+      <c r="G12" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="47" t="s">
+        <v>796</v>
+      </c>
+      <c r="J12" s="30"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B13" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>803</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>804</v>
+      </c>
+      <c r="F13" s="62"/>
+      <c r="G13" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="47" t="s">
+        <v>796</v>
+      </c>
+      <c r="J13" s="30"/>
+    </row>
+    <row r="14" spans="1:26" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>797</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>780</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>780</v>
+      </c>
+      <c r="E14" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B5" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="31" t="s">
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B15" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>781</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>782</v>
+      </c>
+      <c r="F15" s="62"/>
+      <c r="G15" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>798</v>
+      </c>
+      <c r="J15" s="30"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B16" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="30" t="s">
         <v>784</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>785</v>
-      </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="31" t="s">
+      <c r="E16" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="F16" s="62"/>
+      <c r="G16" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>799</v>
+      </c>
+      <c r="J16" s="30"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B17" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>786</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>787</v>
+      </c>
+      <c r="F17" s="62"/>
+      <c r="G17" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>800</v>
+      </c>
+      <c r="J17" s="30"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B18" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>789</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>790</v>
+      </c>
+      <c r="F18" s="62"/>
+      <c r="G18" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>645</v>
+      </c>
+      <c r="J18" s="30"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B19" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>791</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="F19" s="62"/>
+      <c r="G19" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>801</v>
+      </c>
+      <c r="J19" s="30"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B20" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>719</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>720</v>
+      </c>
+      <c r="F20" s="62"/>
+      <c r="G20" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I20" s="47" t="s">
+        <v>747</v>
+      </c>
+      <c r="J20" s="30"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B21" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="30" t="s">
         <v>721</v>
       </c>
-      <c r="I5" s="31" t="s">
-        <v>786</v>
-      </c>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B6" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>787</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="F6" s="63"/>
-      <c r="G6" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>788</v>
-      </c>
-      <c r="J6" s="31"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B7" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>789</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>790</v>
-      </c>
-      <c r="F7" s="63"/>
-      <c r="G7" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>791</v>
-      </c>
-      <c r="J7" s="31"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B8" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>792</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>793</v>
-      </c>
-      <c r="F8" s="63"/>
-      <c r="G8" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>646</v>
-      </c>
-      <c r="J8" s="31"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B9" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="31" t="s">
+      <c r="E21" s="30" t="s">
+        <v>722</v>
+      </c>
+      <c r="F21" s="62"/>
+      <c r="G21" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I21" s="47" t="s">
+        <v>748</v>
+      </c>
+      <c r="J21" s="30"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B22" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="30" t="s">
         <v>794</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E22" s="30" t="s">
         <v>795</v>
       </c>
-      <c r="F9" s="63"/>
-      <c r="G9" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I9" s="31" t="s">
-        <v>796</v>
-      </c>
-      <c r="J9" s="31"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B10" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>722</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>723</v>
-      </c>
-      <c r="F10" s="63"/>
-      <c r="G10" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I10" s="48" t="s">
-        <v>750</v>
-      </c>
-      <c r="J10" s="31"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B11" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>724</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>725</v>
-      </c>
-      <c r="F11" s="63"/>
-      <c r="G11" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I11" s="48" t="s">
-        <v>751</v>
-      </c>
-      <c r="J11" s="31"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B12" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>797</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>798</v>
-      </c>
-      <c r="F12" s="63"/>
-      <c r="G12" s="31" t="s">
+      <c r="F22" s="62"/>
+      <c r="G22" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="48" t="s">
-        <v>799</v>
-      </c>
-      <c r="J12" s="31"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B13" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>806</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>807</v>
-      </c>
-      <c r="F13" s="63"/>
-      <c r="G13" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="I13" s="48" t="s">
-        <v>799</v>
-      </c>
-      <c r="J13" s="31"/>
-    </row>
-    <row r="14" spans="1:26" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="b">
+      <c r="I22" s="47" t="s">
+        <v>802</v>
+      </c>
+      <c r="J22" s="30"/>
+    </row>
+    <row r="23" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="B14" s="37" t="s">
-        <v>800</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>783</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>783</v>
-      </c>
-      <c r="E14" s="37" t="s">
+      <c r="B23" s="36" t="s">
+        <v>818</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>805</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>805</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+    </row>
+    <row r="24" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B15" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>784</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>785</v>
-      </c>
-      <c r="F15" s="63"/>
-      <c r="G15" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I15" s="31" t="s">
-        <v>801</v>
-      </c>
-      <c r="J15" s="31"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B16" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>787</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="F16" s="63"/>
-      <c r="G16" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I16" s="31" t="s">
-        <v>802</v>
-      </c>
-      <c r="J16" s="31"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>789</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>790</v>
-      </c>
-      <c r="F17" s="63"/>
-      <c r="G17" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I17" s="31" t="s">
-        <v>803</v>
-      </c>
-      <c r="J17" s="31"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>792</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>793</v>
-      </c>
-      <c r="F18" s="63"/>
-      <c r="G18" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I18" s="31" t="s">
-        <v>648</v>
-      </c>
-      <c r="J18" s="31"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>794</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>795</v>
-      </c>
-      <c r="F19" s="63"/>
-      <c r="G19" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I19" s="31" t="s">
-        <v>804</v>
-      </c>
-      <c r="J19" s="31"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>722</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>723</v>
-      </c>
-      <c r="F20" s="63"/>
-      <c r="G20" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I20" s="48" t="s">
-        <v>750</v>
-      </c>
-      <c r="J20" s="31"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>724</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>725</v>
-      </c>
-      <c r="F21" s="63"/>
-      <c r="G21" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I21" s="48" t="s">
-        <v>751</v>
-      </c>
-      <c r="J21" s="31"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>797</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>798</v>
-      </c>
-      <c r="F22" s="63"/>
-      <c r="G22" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="I22" s="48" t="s">
-        <v>805</v>
-      </c>
-      <c r="J22" s="31"/>
-    </row>
-    <row r="23" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>821</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>808</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>808</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-    </row>
-    <row r="24" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="B24" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="30" t="s">
+    </row>
+    <row r="25" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="63"/>
-      <c r="G25" s="30" t="s">
+      <c r="F25" s="62"/>
+      <c r="G25" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I25" s="30" t="s">
+      <c r="I25" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="J25" s="30" t="s">
+      <c r="J25" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="P25" s="31"/>
-    </row>
-    <row r="26" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="40" t="s">
+      <c r="P25" s="30"/>
+    </row>
+    <row r="26" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="41" t="s">
-        <v>676</v>
-      </c>
-      <c r="E26" s="40" t="s">
+      <c r="D26" s="40" t="s">
+        <v>673</v>
+      </c>
+      <c r="E26" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="50"/>
-      <c r="G26" s="40" t="s">
+      <c r="F26" s="49"/>
+      <c r="G26" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="40">
-        <v>0</v>
-      </c>
-      <c r="K26" s="42">
-        <v>0</v>
-      </c>
-      <c r="L26" s="42">
+      <c r="I26" s="39">
+        <v>0</v>
+      </c>
+      <c r="K26" s="41">
+        <v>0</v>
+      </c>
+      <c r="L26" s="41">
         <v>100</v>
       </c>
-      <c r="M26" s="42">
+      <c r="M26" s="41">
         <v>15</v>
       </c>
-      <c r="N26" s="42">
+      <c r="N26" s="41">
         <f>(L26-K26)/6</f>
         <v>16.666666666666668</v>
       </c>
-      <c r="O26" s="42">
+      <c r="O26" s="41">
         <v>1</v>
       </c>
-      <c r="R26" s="40" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="30" t="s">
+      <c r="R26" s="39" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>665</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>666</v>
+      </c>
+      <c r="F27" s="62"/>
+      <c r="G27" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="56" t="s">
         <v>668</v>
       </c>
-      <c r="E27" s="30" t="s">
-        <v>669</v>
-      </c>
-      <c r="F27" s="63"/>
-      <c r="G27" s="30" t="s">
+      <c r="E28" s="55" t="s">
+        <v>667</v>
+      </c>
+      <c r="F28" s="62"/>
+      <c r="G28" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="I27" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="57" t="s">
-        <v>671</v>
-      </c>
-      <c r="E28" s="56" t="s">
-        <v>670</v>
-      </c>
-      <c r="F28" s="63"/>
-      <c r="G28" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28" s="56">
-        <v>0</v>
-      </c>
-      <c r="K28" s="58">
-        <v>0</v>
-      </c>
-      <c r="L28" s="58">
+      <c r="I28" s="55">
+        <v>0</v>
+      </c>
+      <c r="K28" s="57">
+        <v>0</v>
+      </c>
+      <c r="L28" s="57">
         <v>0.1</v>
       </c>
-      <c r="M28" s="58">
+      <c r="M28" s="57">
         <v>0.05</v>
       </c>
-      <c r="N28" s="58">
+      <c r="N28" s="57">
         <f>(L28-K28)/6</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="O28" s="58">
+      <c r="O28" s="57">
         <v>0.01</v>
       </c>
-      <c r="R28" s="40" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>673</v>
-      </c>
-      <c r="E29" s="30" t="s">
+      <c r="R28" s="39" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>669</v>
+      </c>
+      <c r="F29" s="62"/>
+      <c r="G29" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="I29" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="29" t="s">
         <v>672</v>
       </c>
-      <c r="F29" s="63"/>
-      <c r="G29" s="30" t="s">
+      <c r="E30" s="29" t="s">
+        <v>671</v>
+      </c>
+      <c r="F30" s="63"/>
+      <c r="G30" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="I29" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>675</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>674</v>
-      </c>
-      <c r="F30" s="64"/>
-      <c r="G30" s="30" t="s">
+      <c r="I30" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="63"/>
+      <c r="G31" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="I30" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="64"/>
-      <c r="G31" s="30" t="s">
+      <c r="I31" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="63"/>
+      <c r="G32" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="I31" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" s="64"/>
-      <c r="G32" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I32" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="30" t="s">
+      <c r="I32" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="64"/>
-      <c r="G33" s="30" t="s">
+      <c r="F33" s="63"/>
+      <c r="G33" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="30">
+      <c r="I33" s="29">
         <v>1</v>
       </c>
-      <c r="P33" s="31"/>
-    </row>
-    <row r="34" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="46" t="b">
+      <c r="P33" s="30"/>
+    </row>
+    <row r="34" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="46" t="s">
+      <c r="D34" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="46" t="s">
+      <c r="E34" s="45" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30" t="s">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="30" t="s">
+      <c r="E35" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="64"/>
-      <c r="G35" s="30" t="s">
+      <c r="F35" s="63"/>
+      <c r="G35" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30" t="s">
+      <c r="H35" s="29"/>
+      <c r="I35" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="J35" s="30" t="s">
+      <c r="J35" s="29" t="s">
         <v>81</v>
       </c>
       <c r="K35" s="3"/>
@@ -8145,65 +8108,65 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
-      <c r="Q35" s="39"/>
-    </row>
-    <row r="36" spans="1:18" s="52" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="52" t="s">
-        <v>652</v>
-      </c>
-      <c r="E36" s="52" t="s">
+      <c r="Q35" s="38"/>
+    </row>
+    <row r="36" spans="1:18" s="51" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="51" t="s">
+        <v>649</v>
+      </c>
+      <c r="E36" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="F36" s="64"/>
-      <c r="G36" s="52" t="s">
+      <c r="F36" s="63"/>
+      <c r="G36" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="I36" s="52">
-        <v>0</v>
-      </c>
-      <c r="J36" s="53"/>
-      <c r="K36" s="54">
+      <c r="I36" s="51">
+        <v>0</v>
+      </c>
+      <c r="J36" s="52"/>
+      <c r="K36" s="53">
         <v>-40</v>
       </c>
-      <c r="L36" s="54">
+      <c r="L36" s="53">
         <v>40</v>
       </c>
-      <c r="M36" s="54">
-        <v>0</v>
-      </c>
-      <c r="N36" s="54">
+      <c r="M36" s="53">
+        <v>0</v>
+      </c>
+      <c r="N36" s="53">
         <f>(L36-K36)/6</f>
         <v>13.333333333333334</v>
       </c>
-      <c r="O36" s="54">
+      <c r="O36" s="53">
         <v>1</v>
       </c>
-      <c r="Q36" s="55"/>
-      <c r="R36" s="40" t="s">
-        <v>823</v>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="39" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="44" t="s">
+      <c r="A37" s="29"/>
+      <c r="B37" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="29"/>
+      <c r="D37" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="30" t="s">
+      <c r="E37" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="64"/>
-      <c r="G37" s="30" t="s">
+      <c r="F37" s="63"/>
+      <c r="G37" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30">
+      <c r="H37" s="29"/>
+      <c r="I37" s="29">
         <v>0</v>
       </c>
       <c r="K37" s="3"/>
@@ -8211,26 +8174,26 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="Q37" s="39"/>
+      <c r="Q37" s="38"/>
     </row>
     <row r="38" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30" t="s">
+      <c r="A38" s="29"/>
+      <c r="B38" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="30" t="s">
+      <c r="E38" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="64"/>
-      <c r="G38" s="30" t="s">
+      <c r="F38" s="63"/>
+      <c r="G38" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30">
+      <c r="H38" s="29"/>
+      <c r="I38" s="29">
         <v>0</v>
       </c>
       <c r="K38" s="3"/>
@@ -8238,26 +8201,26 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-      <c r="Q38" s="39"/>
+      <c r="Q38" s="38"/>
     </row>
     <row r="39" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30" t="s">
+      <c r="A39" s="29"/>
+      <c r="B39" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="30" t="s">
+      <c r="E39" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="64"/>
-      <c r="G39" s="30" t="s">
+      <c r="F39" s="63"/>
+      <c r="G39" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30">
+      <c r="H39" s="29"/>
+      <c r="I39" s="29">
         <v>0</v>
       </c>
       <c r="K39" s="3"/>
@@ -8265,26 +8228,26 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-      <c r="Q39" s="39"/>
+      <c r="Q39" s="38"/>
     </row>
     <row r="40" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30" t="s">
+      <c r="A40" s="29"/>
+      <c r="B40" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="30" t="s">
+      <c r="E40" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F40" s="64"/>
-      <c r="G40" s="30" t="s">
+      <c r="F40" s="63"/>
+      <c r="G40" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30" t="b">
+      <c r="H40" s="29"/>
+      <c r="I40" s="29" t="b">
         <v>1</v>
       </c>
       <c r="K40" s="3"/>
@@ -8292,26 +8255,26 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-      <c r="Q40" s="39"/>
+      <c r="Q40" s="38"/>
     </row>
     <row r="41" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30" t="s">
+      <c r="A41" s="29"/>
+      <c r="B41" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="30" t="s">
+      <c r="E41" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="64"/>
-      <c r="G41" s="30" t="s">
+      <c r="F41" s="63"/>
+      <c r="G41" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30">
+      <c r="H41" s="29"/>
+      <c r="I41" s="29">
         <v>15</v>
       </c>
       <c r="K41" s="3"/>
@@ -8319,26 +8282,26 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-      <c r="Q41" s="39"/>
+      <c r="Q41" s="38"/>
     </row>
     <row r="42" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30" t="s">
+      <c r="A42" s="29"/>
+      <c r="B42" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="30" t="s">
+      <c r="E42" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F42" s="64"/>
-      <c r="G42" s="30" t="s">
+      <c r="F42" s="63"/>
+      <c r="G42" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30">
+      <c r="H42" s="29"/>
+      <c r="I42" s="29">
         <v>0</v>
       </c>
       <c r="K42" s="3"/>
@@ -8346,26 +8309,26 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
-      <c r="Q42" s="39"/>
+      <c r="Q42" s="38"/>
     </row>
     <row r="43" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30" t="s">
+      <c r="A43" s="29"/>
+      <c r="B43" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="E43" s="30" t="s">
+      <c r="E43" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F43" s="64"/>
-      <c r="G43" s="30" t="s">
+      <c r="F43" s="63"/>
+      <c r="G43" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30">
+      <c r="H43" s="29"/>
+      <c r="I43" s="29">
         <v>1</v>
       </c>
       <c r="K43" s="3"/>
@@ -8373,1109 +8336,1109 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
-      <c r="Q43" s="39"/>
-    </row>
-    <row r="44" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="46" t="b">
+      <c r="Q43" s="38"/>
+    </row>
+    <row r="44" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="C44" s="46" t="s">
+      <c r="C44" s="45" t="s">
         <v>284</v>
       </c>
-      <c r="D44" s="46" t="s">
+      <c r="D44" s="45" t="s">
         <v>284</v>
       </c>
-      <c r="E44" s="46" t="s">
+      <c r="E44" s="45" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B45" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="30" t="s">
+    <row r="45" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="E45" s="30" t="s">
+      <c r="E45" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="64"/>
-      <c r="G45" s="30" t="s">
+      <c r="F45" s="63"/>
+      <c r="G45" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I45" s="30" t="s">
+      <c r="I45" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="J45" s="30" t="s">
+      <c r="J45" s="29" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="40" t="s">
+    <row r="46" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="40" t="s">
-        <v>653</v>
-      </c>
-      <c r="E46" s="40" t="s">
+      <c r="D46" s="39" t="s">
+        <v>650</v>
+      </c>
+      <c r="E46" s="39" t="s">
         <v>286</v>
       </c>
-      <c r="F46" s="50"/>
-      <c r="G46" s="40" t="s">
+      <c r="F46" s="49"/>
+      <c r="G46" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H46" s="40" t="s">
-        <v>654</v>
-      </c>
-      <c r="I46" s="40">
-        <v>0</v>
-      </c>
-      <c r="J46" s="43"/>
-      <c r="K46" s="42">
+      <c r="H46" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="I46" s="39">
+        <v>0</v>
+      </c>
+      <c r="J46" s="42"/>
+      <c r="K46" s="41">
         <v>-80</v>
       </c>
-      <c r="L46" s="42">
+      <c r="L46" s="41">
         <v>80</v>
       </c>
-      <c r="M46" s="42">
-        <v>0</v>
-      </c>
-      <c r="N46" s="42">
+      <c r="M46" s="41">
+        <v>0</v>
+      </c>
+      <c r="N46" s="41">
         <f>(L46-K46)/6</f>
         <v>26.666666666666668</v>
       </c>
-      <c r="O46" s="42">
+      <c r="O46" s="41">
         <v>1</v>
       </c>
-      <c r="R46" s="40" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B47" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="30" t="s">
+      <c r="R46" s="39" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>652</v>
+      </c>
+      <c r="E47" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" s="63"/>
+      <c r="G47" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H47" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I47" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>653</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F48" s="62"/>
+      <c r="G48" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I48" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>654</v>
+      </c>
+      <c r="E49" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" s="62"/>
+      <c r="G49" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H49" s="29" t="s">
         <v>655</v>
       </c>
-      <c r="E47" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F47" s="64"/>
-      <c r="G47" s="30" t="s">
+      <c r="I49" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>656</v>
+      </c>
+      <c r="E50" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50" s="62"/>
+      <c r="G50" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I50" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="29" t="s">
+        <v>657</v>
+      </c>
+      <c r="E51" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F51" s="62"/>
+      <c r="G51" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H51" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I51" s="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>658</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F52" s="62"/>
+      <c r="G52" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="H47" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I47" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" s="30" t="s">
-        <v>656</v>
-      </c>
-      <c r="E48" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F48" s="63"/>
-      <c r="G48" s="30" t="s">
+      <c r="H52" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I52" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B53" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="29" t="s">
+        <v>659</v>
+      </c>
+      <c r="E53" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53" s="63"/>
+      <c r="G53" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H53" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I53" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B54" s="45" t="s">
+        <v>743</v>
+      </c>
+      <c r="C54" s="45" t="s">
+        <v>744</v>
+      </c>
+      <c r="D54" s="45" t="s">
+        <v>744</v>
+      </c>
+      <c r="E54" s="45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="E55" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F55" s="63"/>
+      <c r="G55" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I55" s="50" t="s">
+        <v>415</v>
+      </c>
+      <c r="J55" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B56" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="39" t="s">
+        <v>745</v>
+      </c>
+      <c r="E56" s="39" t="s">
+        <v>746</v>
+      </c>
+      <c r="F56" s="49"/>
+      <c r="G56" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H48" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I48" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D49" s="30" t="s">
-        <v>657</v>
-      </c>
-      <c r="E49" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F49" s="63"/>
-      <c r="G49" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H49" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I49" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50" s="30" t="s">
-        <v>659</v>
-      </c>
-      <c r="E50" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F50" s="63"/>
-      <c r="G50" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I50" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>660</v>
-      </c>
-      <c r="E51" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F51" s="63"/>
-      <c r="G51" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H51" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I51" s="30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" s="30" t="s">
-        <v>661</v>
-      </c>
-      <c r="E52" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F52" s="63"/>
-      <c r="G52" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H52" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I52" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B53" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="30" t="s">
-        <v>662</v>
-      </c>
-      <c r="E53" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F53" s="64"/>
-      <c r="G53" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H53" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I53" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="B54" s="46" t="s">
-        <v>746</v>
-      </c>
-      <c r="C54" s="46" t="s">
-        <v>747</v>
-      </c>
-      <c r="D54" s="46" t="s">
-        <v>747</v>
-      </c>
-      <c r="E54" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B55" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="30" t="s">
-        <v>342</v>
-      </c>
-      <c r="E55" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="F55" s="64"/>
-      <c r="G55" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I55" s="51" t="s">
-        <v>415</v>
-      </c>
-      <c r="J55" s="30" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B56" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56" s="40" t="s">
-        <v>748</v>
-      </c>
-      <c r="E56" s="40" t="s">
-        <v>749</v>
-      </c>
-      <c r="F56" s="50"/>
-      <c r="G56" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H56" s="40" t="s">
-        <v>654</v>
-      </c>
-      <c r="I56" s="40">
+      <c r="H56" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="I56" s="39">
         <v>0.8</v>
       </c>
-      <c r="J56" s="43"/>
-      <c r="K56" s="42">
+      <c r="J56" s="42"/>
+      <c r="K56" s="41">
         <v>0.78</v>
       </c>
-      <c r="L56" s="42">
+      <c r="L56" s="41">
         <v>0.98</v>
       </c>
-      <c r="M56" s="42">
+      <c r="M56" s="41">
         <v>0.8</v>
       </c>
-      <c r="N56" s="42">
+      <c r="N56" s="41">
         <f>(L56-K56)/6</f>
         <v>3.3333333333333326E-2</v>
       </c>
-      <c r="O56" s="42">
+      <c r="O56" s="41">
         <v>1</v>
       </c>
-      <c r="R56" s="40" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D57" s="30" t="s">
+      <c r="R56" s="39" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="E57" s="30" t="s">
+      <c r="E57" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F57" s="31"/>
-      <c r="G57" s="30" t="s">
+      <c r="F57" s="30"/>
+      <c r="G57" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="I57" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D58" s="30" t="s">
+      <c r="I57" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>652</v>
+      </c>
+      <c r="E58" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F58" s="30"/>
+      <c r="G58" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H58" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I58" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="29" t="s">
+        <v>653</v>
+      </c>
+      <c r="E59" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F59" s="30"/>
+      <c r="G59" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H59" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I59" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>654</v>
+      </c>
+      <c r="E60" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F60" s="30"/>
+      <c r="G60" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H60" s="29" t="s">
         <v>655</v>
       </c>
-      <c r="E58" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="F58" s="31"/>
-      <c r="G58" s="30" t="s">
+      <c r="I60" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B61" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="29" t="s">
+        <v>656</v>
+      </c>
+      <c r="E61" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F61" s="63"/>
+      <c r="G61" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I61" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B62" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>657</v>
+      </c>
+      <c r="E62" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F62" s="63"/>
+      <c r="G62" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H62" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I62" s="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B63" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="29" t="s">
+        <v>658</v>
+      </c>
+      <c r="E63" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F63" s="63"/>
+      <c r="G63" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="H58" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I58" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59" s="30" t="s">
-        <v>656</v>
-      </c>
-      <c r="E59" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F59" s="31"/>
-      <c r="G59" s="30" t="s">
+      <c r="H63" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I63" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B64" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="29" t="s">
+        <v>659</v>
+      </c>
+      <c r="E64" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F64" s="63"/>
+      <c r="G64" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H64" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I64" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B65" s="45" t="s">
+        <v>750</v>
+      </c>
+      <c r="C65" s="45" t="s">
+        <v>749</v>
+      </c>
+      <c r="D65" s="45" t="s">
+        <v>749</v>
+      </c>
+      <c r="E65" s="45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B66" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="29" t="s">
+        <v>751</v>
+      </c>
+      <c r="E66" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F66" s="63"/>
+      <c r="G66" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I66" s="50" t="s">
+        <v>415</v>
+      </c>
+      <c r="J66" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" s="39" t="s">
+        <v>752</v>
+      </c>
+      <c r="E67" s="39" t="s">
+        <v>753</v>
+      </c>
+      <c r="F67" s="49"/>
+      <c r="G67" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H59" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I59" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60" s="30" t="s">
-        <v>657</v>
-      </c>
-      <c r="E60" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F60" s="31"/>
-      <c r="G60" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H60" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I60" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B61" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D61" s="30" t="s">
-        <v>659</v>
-      </c>
-      <c r="E61" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F61" s="64"/>
-      <c r="G61" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I61" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B62" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62" s="30" t="s">
-        <v>660</v>
-      </c>
-      <c r="E62" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F62" s="64"/>
-      <c r="G62" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H62" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I62" s="30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B63" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D63" s="30" t="s">
-        <v>661</v>
-      </c>
-      <c r="E63" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F63" s="64"/>
-      <c r="G63" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H63" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I63" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B64" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" s="30" t="s">
-        <v>662</v>
-      </c>
-      <c r="E64" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F64" s="64"/>
-      <c r="G64" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H64" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I64" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="B65" s="46" t="s">
-        <v>753</v>
-      </c>
-      <c r="C65" s="46" t="s">
-        <v>752</v>
-      </c>
-      <c r="D65" s="46" t="s">
-        <v>752</v>
-      </c>
-      <c r="E65" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B66" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D66" s="30" t="s">
-        <v>754</v>
-      </c>
-      <c r="E66" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="F66" s="64"/>
-      <c r="G66" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I66" s="51" t="s">
-        <v>415</v>
-      </c>
-      <c r="J66" s="30" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B67" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D67" s="40" t="s">
-        <v>755</v>
-      </c>
-      <c r="E67" s="40" t="s">
-        <v>756</v>
-      </c>
-      <c r="F67" s="50"/>
-      <c r="G67" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H67" s="40" t="s">
-        <v>654</v>
-      </c>
-      <c r="I67" s="40">
+      <c r="H67" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="I67" s="39">
         <v>4</v>
       </c>
-      <c r="J67" s="43"/>
-      <c r="K67" s="42">
-        <v>2</v>
-      </c>
-      <c r="L67" s="42">
+      <c r="J67" s="42"/>
+      <c r="K67" s="41">
+        <v>2</v>
+      </c>
+      <c r="L67" s="41">
         <v>5</v>
       </c>
-      <c r="M67" s="42">
+      <c r="M67" s="41">
         <v>4</v>
       </c>
-      <c r="N67" s="42">
+      <c r="N67" s="41">
         <f>(L67-K67)/6</f>
         <v>0.5</v>
       </c>
-      <c r="O67" s="42">
+      <c r="O67" s="41">
         <v>0.25</v>
       </c>
-      <c r="R67" s="40" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B68" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D68" s="30" t="s">
+      <c r="R67" s="39" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B68" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="E68" s="30" t="s">
+      <c r="E68" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F68" s="64"/>
-      <c r="G68" s="30" t="s">
+      <c r="F68" s="63"/>
+      <c r="G68" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="I68" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B69" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D69" s="30" t="s">
+      <c r="I68" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B69" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="29" t="s">
+        <v>652</v>
+      </c>
+      <c r="E69" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F69" s="63"/>
+      <c r="G69" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H69" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I69" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B70" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="29" t="s">
+        <v>653</v>
+      </c>
+      <c r="E70" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F70" s="63"/>
+      <c r="G70" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H70" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I70" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B71" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="29" t="s">
+        <v>654</v>
+      </c>
+      <c r="E71" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F71" s="63"/>
+      <c r="G71" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H71" s="29" t="s">
         <v>655</v>
       </c>
-      <c r="E69" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="F69" s="64"/>
-      <c r="G69" s="30" t="s">
+      <c r="I71" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B72" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="29" t="s">
+        <v>656</v>
+      </c>
+      <c r="E72" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F72" s="63"/>
+      <c r="G72" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I72" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B73" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="29" t="s">
+        <v>657</v>
+      </c>
+      <c r="E73" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F73" s="63"/>
+      <c r="G73" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H73" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I73" s="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B74" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="29" t="s">
+        <v>658</v>
+      </c>
+      <c r="E74" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F74" s="63"/>
+      <c r="G74" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="H69" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I69" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B70" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D70" s="30" t="s">
-        <v>656</v>
-      </c>
-      <c r="E70" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F70" s="64"/>
-      <c r="G70" s="30" t="s">
+      <c r="H74" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I74" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B75" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" s="29" t="s">
+        <v>659</v>
+      </c>
+      <c r="E75" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F75" s="63"/>
+      <c r="G75" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H75" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I75" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B76" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="C76" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="D76" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="E76" s="45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B77" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="E77" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F77" s="63"/>
+      <c r="G77" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I77" s="50" t="s">
+        <v>415</v>
+      </c>
+      <c r="J77" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B78" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" s="39" t="s">
+        <v>754</v>
+      </c>
+      <c r="E78" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="F78" s="49"/>
+      <c r="G78" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H70" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I70" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B71" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D71" s="30" t="s">
-        <v>657</v>
-      </c>
-      <c r="E71" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F71" s="64"/>
-      <c r="G71" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H71" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I71" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B72" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D72" s="30" t="s">
-        <v>659</v>
-      </c>
-      <c r="E72" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F72" s="64"/>
-      <c r="G72" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I72" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B73" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D73" s="30" t="s">
-        <v>660</v>
-      </c>
-      <c r="E73" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F73" s="64"/>
-      <c r="G73" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H73" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I73" s="30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B74" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D74" s="30" t="s">
-        <v>661</v>
-      </c>
-      <c r="E74" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F74" s="64"/>
-      <c r="G74" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H74" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I74" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B75" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75" s="30" t="s">
-        <v>662</v>
-      </c>
-      <c r="E75" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F75" s="64"/>
-      <c r="G75" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H75" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I75" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="B76" s="46" t="s">
-        <v>240</v>
-      </c>
-      <c r="C76" s="46" t="s">
-        <v>241</v>
-      </c>
-      <c r="D76" s="46" t="s">
-        <v>241</v>
-      </c>
-      <c r="E76" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B77" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D77" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="E77" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="F77" s="64"/>
-      <c r="G77" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I77" s="51" t="s">
-        <v>415</v>
-      </c>
-      <c r="J77" s="30" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B78" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D78" s="40" t="s">
-        <v>757</v>
-      </c>
-      <c r="E78" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="F78" s="50"/>
-      <c r="G78" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H78" s="40" t="s">
-        <v>654</v>
-      </c>
-      <c r="I78" s="40">
-        <v>0</v>
-      </c>
-      <c r="J78" s="43"/>
-      <c r="K78" s="42">
+      <c r="H78" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="I78" s="39">
+        <v>0</v>
+      </c>
+      <c r="J78" s="42"/>
+      <c r="K78" s="41">
         <v>-20</v>
       </c>
-      <c r="L78" s="42">
+      <c r="L78" s="41">
         <v>14</v>
       </c>
-      <c r="M78" s="42">
-        <v>0</v>
-      </c>
-      <c r="N78" s="42">
+      <c r="M78" s="41">
+        <v>0</v>
+      </c>
+      <c r="N78" s="41">
         <f>(L78-K78)/6</f>
         <v>5.666666666666667</v>
       </c>
-      <c r="O78" s="42">
+      <c r="O78" s="41">
         <v>1</v>
       </c>
-      <c r="R78" s="40" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B79" s="40" t="s">
+      <c r="R78" s="39" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B79" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D79" s="40" t="s">
-        <v>758</v>
-      </c>
-      <c r="E79" s="40" t="s">
-        <v>759</v>
-      </c>
-      <c r="F79" s="50"/>
-      <c r="G79" s="40" t="s">
+      <c r="D79" s="39" t="s">
+        <v>755</v>
+      </c>
+      <c r="E79" s="39" t="s">
+        <v>756</v>
+      </c>
+      <c r="F79" s="49"/>
+      <c r="G79" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H79" s="40" t="s">
-        <v>654</v>
-      </c>
-      <c r="I79" s="40">
-        <v>0</v>
-      </c>
-      <c r="J79" s="43"/>
-      <c r="K79" s="42">
+      <c r="H79" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="I79" s="39">
+        <v>0</v>
+      </c>
+      <c r="J79" s="42"/>
+      <c r="K79" s="41">
         <v>-20</v>
       </c>
-      <c r="L79" s="42">
+      <c r="L79" s="41">
         <v>30</v>
       </c>
-      <c r="M79" s="42">
-        <v>0</v>
-      </c>
-      <c r="N79" s="42">
+      <c r="M79" s="41">
+        <v>0</v>
+      </c>
+      <c r="N79" s="41">
         <f>(L79-K79)/6</f>
         <v>8.3333333333333339</v>
       </c>
-      <c r="O79" s="42">
+      <c r="O79" s="41">
         <v>1</v>
       </c>
-      <c r="R79" s="40" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B80" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D80" s="30" t="s">
+      <c r="R79" s="39" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B80" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="E80" s="30" t="s">
+      <c r="E80" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F80" s="64"/>
-      <c r="G80" s="30" t="s">
+      <c r="F80" s="63"/>
+      <c r="G80" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="I80" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B81" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D81" s="30" t="s">
+      <c r="I80" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B81" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="29" t="s">
+        <v>652</v>
+      </c>
+      <c r="E81" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F81" s="63"/>
+      <c r="G81" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H81" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I81" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B82" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" s="29" t="s">
+        <v>653</v>
+      </c>
+      <c r="E82" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F82" s="63"/>
+      <c r="G82" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H82" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I82" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B83" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="29" t="s">
+        <v>654</v>
+      </c>
+      <c r="E83" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F83" s="63"/>
+      <c r="G83" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H83" s="29" t="s">
         <v>655</v>
       </c>
-      <c r="E81" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="F81" s="64"/>
-      <c r="G81" s="30" t="s">
+      <c r="I83" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" s="29" t="s">
+        <v>656</v>
+      </c>
+      <c r="E84" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F84" s="62"/>
+      <c r="G84" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I84" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="29" t="s">
+        <v>657</v>
+      </c>
+      <c r="E85" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F85" s="62"/>
+      <c r="G85" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H85" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I85" s="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" s="29" t="s">
+        <v>658</v>
+      </c>
+      <c r="E86" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F86" s="62"/>
+      <c r="G86" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="H81" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I81" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B82" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D82" s="30" t="s">
-        <v>656</v>
-      </c>
-      <c r="E82" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F82" s="64"/>
-      <c r="G82" s="30" t="s">
+      <c r="H86" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I86" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="29" t="s">
+        <v>659</v>
+      </c>
+      <c r="E87" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F87" s="62"/>
+      <c r="G87" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H87" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I87" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B88" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="C88" s="45" t="s">
+        <v>660</v>
+      </c>
+      <c r="D88" s="45" t="s">
+        <v>660</v>
+      </c>
+      <c r="E88" s="45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B89" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" s="39" t="s">
+        <v>661</v>
+      </c>
+      <c r="E89" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="F89" s="49"/>
+      <c r="G89" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H82" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I82" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B83" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D83" s="30" t="s">
-        <v>657</v>
-      </c>
-      <c r="E83" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F83" s="64"/>
-      <c r="G83" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H83" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I83" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D84" s="30" t="s">
-        <v>659</v>
-      </c>
-      <c r="E84" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F84" s="63"/>
-      <c r="G84" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I84" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D85" s="30" t="s">
-        <v>660</v>
-      </c>
-      <c r="E85" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F85" s="63"/>
-      <c r="G85" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H85" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I85" s="30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D86" s="30" t="s">
-        <v>661</v>
-      </c>
-      <c r="E86" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F86" s="63"/>
-      <c r="G86" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H86" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I86" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D87" s="30" t="s">
+      <c r="H89" s="39" t="s">
         <v>662</v>
       </c>
-      <c r="E87" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F87" s="63"/>
-      <c r="G87" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H87" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I87" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="B88" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="C88" s="46" t="s">
-        <v>663</v>
-      </c>
-      <c r="D88" s="46" t="s">
-        <v>663</v>
-      </c>
-      <c r="E88" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B89" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D89" s="40" t="s">
-        <v>664</v>
-      </c>
-      <c r="E89" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="F89" s="50"/>
-      <c r="G89" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H89" s="40" t="s">
-        <v>665</v>
-      </c>
-      <c r="I89" s="40">
-        <v>0</v>
-      </c>
-      <c r="J89" s="43"/>
-      <c r="K89" s="42">
+      <c r="I89" s="39">
+        <v>0</v>
+      </c>
+      <c r="J89" s="42"/>
+      <c r="K89" s="41">
         <v>-6</v>
       </c>
-      <c r="L89" s="42">
-        <v>2</v>
-      </c>
-      <c r="M89" s="42">
-        <v>0</v>
-      </c>
-      <c r="N89" s="42">
+      <c r="L89" s="41">
+        <v>2</v>
+      </c>
+      <c r="M89" s="41">
+        <v>0</v>
+      </c>
+      <c r="N89" s="41">
         <f>(L89-K89)/6</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="O89" s="42">
+      <c r="O89" s="41">
         <v>1</v>
       </c>
-      <c r="R89" s="40" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B90" s="40" t="s">
+      <c r="R89" s="39" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B90" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D90" s="40" t="s">
-        <v>666</v>
-      </c>
-      <c r="E90" s="40" t="s">
+      <c r="D90" s="39" t="s">
+        <v>663</v>
+      </c>
+      <c r="E90" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="F90" s="50"/>
-      <c r="G90" s="40" t="s">
+      <c r="F90" s="49"/>
+      <c r="G90" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H90" s="40" t="s">
-        <v>665</v>
-      </c>
-      <c r="I90" s="40">
-        <v>0</v>
-      </c>
-      <c r="J90" s="43"/>
-      <c r="K90" s="42">
+      <c r="H90" s="39" t="s">
+        <v>662</v>
+      </c>
+      <c r="I90" s="39">
+        <v>0</v>
+      </c>
+      <c r="J90" s="42"/>
+      <c r="K90" s="41">
         <v>-5</v>
       </c>
-      <c r="L90" s="42">
+      <c r="L90" s="41">
         <v>3.9</v>
       </c>
-      <c r="M90" s="42">
-        <v>0</v>
-      </c>
-      <c r="N90" s="42">
+      <c r="M90" s="41">
+        <v>0</v>
+      </c>
+      <c r="N90" s="41">
         <f>(L90-K90)/6</f>
         <v>1.4833333333333334</v>
       </c>
-      <c r="O90" s="42">
+      <c r="O90" s="41">
         <v>1</v>
       </c>
-      <c r="R90" s="40" t="s">
-        <v>823</v>
+      <c r="R90" s="39" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B91" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D91" s="31" t="s">
-        <v>667</v>
-      </c>
-      <c r="E91" s="31" t="s">
+      <c r="B91" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" s="30" t="s">
+        <v>664</v>
+      </c>
+      <c r="E91" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="F91" s="63"/>
-      <c r="G91" s="31" t="s">
+      <c r="F91" s="62"/>
+      <c r="G91" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I91" s="31" t="b">
+      <c r="I91" s="30" t="b">
         <v>0</v>
       </c>
       <c r="K91" s="3"/>
@@ -9485,845 +9448,845 @@
       <c r="O91" s="3"/>
     </row>
     <row r="92" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="49" t="b">
+      <c r="A92" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="B92" s="49" t="s">
-        <v>732</v>
-      </c>
-      <c r="C92" s="49" t="s">
-        <v>733</v>
-      </c>
-      <c r="D92" s="49" t="s">
-        <v>733</v>
-      </c>
-      <c r="E92" s="46" t="s">
+      <c r="B92" s="48" t="s">
+        <v>729</v>
+      </c>
+      <c r="C92" s="48" t="s">
+        <v>730</v>
+      </c>
+      <c r="D92" s="48" t="s">
+        <v>730</v>
+      </c>
+      <c r="E92" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="F92" s="46"/>
-      <c r="G92" s="49"/>
-      <c r="H92" s="49"/>
-      <c r="I92" s="49"/>
-      <c r="J92" s="49"/>
-      <c r="K92" s="49"/>
-      <c r="L92" s="49"/>
-      <c r="M92" s="46"/>
-      <c r="N92" s="46"/>
-      <c r="O92" s="46"/>
-      <c r="P92" s="46"/>
-      <c r="Q92" s="46"/>
-      <c r="R92" s="46"/>
-    </row>
-    <row r="93" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="40"/>
-      <c r="B93" s="50" t="s">
+      <c r="F92" s="45"/>
+      <c r="G92" s="48"/>
+      <c r="H92" s="48"/>
+      <c r="I92" s="48"/>
+      <c r="J92" s="48"/>
+      <c r="K92" s="48"/>
+      <c r="L92" s="48"/>
+      <c r="M92" s="45"/>
+      <c r="N92" s="45"/>
+      <c r="O92" s="45"/>
+      <c r="P92" s="45"/>
+      <c r="Q92" s="45"/>
+      <c r="R92" s="45"/>
+    </row>
+    <row r="93" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="39"/>
+      <c r="B93" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C93" s="50"/>
-      <c r="D93" s="50" t="s">
-        <v>726</v>
-      </c>
-      <c r="E93" s="50" t="s">
-        <v>727</v>
-      </c>
-      <c r="F93" s="50"/>
-      <c r="G93" s="50" t="s">
+      <c r="C93" s="49"/>
+      <c r="D93" s="49" t="s">
+        <v>723</v>
+      </c>
+      <c r="E93" s="49" t="s">
+        <v>724</v>
+      </c>
+      <c r="F93" s="49"/>
+      <c r="G93" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="H93" s="50"/>
-      <c r="I93" s="50">
+      <c r="H93" s="49"/>
+      <c r="I93" s="49">
         <v>1</v>
       </c>
-      <c r="J93" s="50"/>
-      <c r="K93" s="50">
+      <c r="J93" s="49"/>
+      <c r="K93" s="49">
         <v>0.5</v>
       </c>
-      <c r="L93" s="50">
+      <c r="L93" s="49">
         <v>4</v>
       </c>
-      <c r="M93" s="42">
+      <c r="M93" s="41">
         <v>1.75</v>
       </c>
-      <c r="N93" s="40">
+      <c r="N93" s="39">
         <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O93" s="50">
+      <c r="O93" s="49">
         <v>0.1</v>
       </c>
-      <c r="P93" s="40"/>
-      <c r="Q93" s="40"/>
-      <c r="R93" s="40" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="50"/>
-      <c r="B94" s="50" t="s">
+      <c r="P93" s="39"/>
+      <c r="Q93" s="39"/>
+      <c r="R93" s="39" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="49"/>
+      <c r="B94" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C94" s="50"/>
-      <c r="D94" s="50" t="s">
+      <c r="C94" s="49"/>
+      <c r="D94" s="49" t="s">
+        <v>725</v>
+      </c>
+      <c r="E94" s="49" t="s">
+        <v>726</v>
+      </c>
+      <c r="F94" s="49"/>
+      <c r="G94" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="H94" s="49"/>
+      <c r="I94" s="49">
+        <v>1</v>
+      </c>
+      <c r="J94" s="49"/>
+      <c r="K94" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="L94" s="49">
+        <v>3</v>
+      </c>
+      <c r="M94" s="41">
+        <v>1.75</v>
+      </c>
+      <c r="N94" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="O94" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="P94" s="39"/>
+      <c r="Q94" s="39"/>
+      <c r="R94" s="39" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="49"/>
+      <c r="B95" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" s="49"/>
+      <c r="D95" s="49" t="s">
+        <v>727</v>
+      </c>
+      <c r="E95" s="49" t="s">
         <v>728</v>
       </c>
-      <c r="E94" s="50" t="s">
-        <v>729</v>
-      </c>
-      <c r="F94" s="50"/>
-      <c r="G94" s="50" t="s">
+      <c r="F95" s="49"/>
+      <c r="G95" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="H94" s="50"/>
-      <c r="I94" s="50">
+      <c r="H95" s="49"/>
+      <c r="I95" s="49">
         <v>1</v>
       </c>
-      <c r="J94" s="50"/>
-      <c r="K94" s="50">
+      <c r="J95" s="49"/>
+      <c r="K95" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="L95" s="49">
+        <v>3</v>
+      </c>
+      <c r="M95" s="41">
+        <v>1.75</v>
+      </c>
+      <c r="N95" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="O95" s="41">
         <v>0.1</v>
       </c>
-      <c r="L94" s="50">
+      <c r="P95" s="41"/>
+      <c r="Q95" s="41"/>
+      <c r="R95" s="39" t="s">
+        <v>819</v>
+      </c>
+      <c r="T95" s="30"/>
+    </row>
+    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B96" s="48" t="s">
+        <v>731</v>
+      </c>
+      <c r="C96" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="D96" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="E96" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F96" s="45"/>
+      <c r="G96" s="48"/>
+      <c r="H96" s="48"/>
+      <c r="I96" s="48"/>
+      <c r="J96" s="48"/>
+      <c r="K96" s="48"/>
+      <c r="L96" s="48"/>
+      <c r="M96" s="45"/>
+      <c r="N96" s="45"/>
+      <c r="O96" s="45"/>
+      <c r="P96" s="45"/>
+      <c r="Q96" s="45"/>
+      <c r="R96" s="45"/>
+    </row>
+    <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="39"/>
+      <c r="B97" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" s="49"/>
+      <c r="D97" s="49" t="s">
+        <v>733</v>
+      </c>
+      <c r="E97" s="49" t="s">
+        <v>724</v>
+      </c>
+      <c r="F97" s="49"/>
+      <c r="G97" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="H97" s="49"/>
+      <c r="I97" s="49">
+        <v>1</v>
+      </c>
+      <c r="J97" s="49"/>
+      <c r="K97" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="L97" s="49">
         <v>3</v>
       </c>
-      <c r="M94" s="42">
+      <c r="M97" s="41">
         <v>1.75</v>
       </c>
-      <c r="N94" s="50">
-        <v>0.25</v>
-      </c>
-      <c r="O94" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="P94" s="40"/>
-      <c r="Q94" s="40"/>
-      <c r="R94" s="40" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="50"/>
-      <c r="B95" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C95" s="50"/>
-      <c r="D95" s="50" t="s">
-        <v>730</v>
-      </c>
-      <c r="E95" s="50" t="s">
-        <v>731</v>
-      </c>
-      <c r="F95" s="50"/>
-      <c r="G95" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H95" s="50"/>
-      <c r="I95" s="50">
-        <v>1</v>
-      </c>
-      <c r="J95" s="50"/>
-      <c r="K95" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="L95" s="50">
-        <v>3</v>
-      </c>
-      <c r="M95" s="42">
-        <v>1.75</v>
-      </c>
-      <c r="N95" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="O95" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="P95" s="42"/>
-      <c r="Q95" s="42"/>
-      <c r="R95" s="40" t="s">
-        <v>823</v>
-      </c>
-      <c r="T95" s="31"/>
-    </row>
-    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B96" s="49" t="s">
-        <v>734</v>
-      </c>
-      <c r="C96" s="49" t="s">
-        <v>735</v>
-      </c>
-      <c r="D96" s="49" t="s">
-        <v>735</v>
-      </c>
-      <c r="E96" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="F96" s="46"/>
-      <c r="G96" s="49"/>
-      <c r="H96" s="49"/>
-      <c r="I96" s="49"/>
-      <c r="J96" s="49"/>
-      <c r="K96" s="49"/>
-      <c r="L96" s="49"/>
-      <c r="M96" s="46"/>
-      <c r="N96" s="46"/>
-      <c r="O96" s="46"/>
-      <c r="P96" s="46"/>
-      <c r="Q96" s="46"/>
-      <c r="R96" s="46"/>
-    </row>
-    <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
-      <c r="B97" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C97" s="50"/>
-      <c r="D97" s="50" t="s">
-        <v>736</v>
-      </c>
-      <c r="E97" s="50" t="s">
-        <v>727</v>
-      </c>
-      <c r="F97" s="50"/>
-      <c r="G97" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H97" s="50"/>
-      <c r="I97" s="50">
-        <v>1</v>
-      </c>
-      <c r="J97" s="50"/>
-      <c r="K97" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="L97" s="50">
-        <v>3</v>
-      </c>
-      <c r="M97" s="42">
-        <v>1.75</v>
-      </c>
-      <c r="N97" s="40">
+      <c r="N97" s="39">
         <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O97" s="50">
+      <c r="O97" s="49">
         <v>0.1</v>
       </c>
-      <c r="P97" s="40"/>
-      <c r="Q97" s="40"/>
-      <c r="R97" s="40" t="s">
-        <v>823</v>
+      <c r="P97" s="39"/>
+      <c r="Q97" s="39"/>
+      <c r="R97" s="39" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="50"/>
-      <c r="B98" s="50" t="s">
+      <c r="A98" s="49"/>
+      <c r="B98" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C98" s="50"/>
-      <c r="D98" s="50" t="s">
-        <v>737</v>
-      </c>
-      <c r="E98" s="50" t="s">
-        <v>729</v>
-      </c>
-      <c r="F98" s="50"/>
-      <c r="G98" s="50" t="s">
+      <c r="C98" s="49"/>
+      <c r="D98" s="49" t="s">
+        <v>734</v>
+      </c>
+      <c r="E98" s="49" t="s">
+        <v>726</v>
+      </c>
+      <c r="F98" s="49"/>
+      <c r="G98" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="H98" s="50"/>
-      <c r="I98" s="50">
+      <c r="H98" s="49"/>
+      <c r="I98" s="49">
         <v>1</v>
       </c>
-      <c r="J98" s="50"/>
-      <c r="K98" s="50">
+      <c r="J98" s="49"/>
+      <c r="K98" s="49">
         <v>0.5</v>
       </c>
-      <c r="L98" s="50">
+      <c r="L98" s="49">
         <v>4</v>
       </c>
-      <c r="M98" s="42">
+      <c r="M98" s="41">
         <v>1.75</v>
       </c>
-      <c r="N98" s="50">
+      <c r="N98" s="49">
         <v>0.25</v>
       </c>
-      <c r="O98" s="50">
+      <c r="O98" s="49">
         <v>0.1</v>
       </c>
-      <c r="P98" s="40"/>
-      <c r="Q98" s="40"/>
-      <c r="R98" s="40" t="s">
-        <v>823</v>
+      <c r="P98" s="39"/>
+      <c r="Q98" s="39"/>
+      <c r="R98" s="39" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="50"/>
-      <c r="B99" s="50" t="s">
+      <c r="A99" s="49"/>
+      <c r="B99" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C99" s="50"/>
-      <c r="D99" s="50" t="s">
-        <v>738</v>
-      </c>
-      <c r="E99" s="50" t="s">
-        <v>731</v>
-      </c>
-      <c r="F99" s="50"/>
-      <c r="G99" s="50" t="s">
+      <c r="C99" s="49"/>
+      <c r="D99" s="49" t="s">
+        <v>735</v>
+      </c>
+      <c r="E99" s="49" t="s">
+        <v>728</v>
+      </c>
+      <c r="F99" s="49"/>
+      <c r="G99" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="H99" s="50"/>
-      <c r="I99" s="50">
+      <c r="H99" s="49"/>
+      <c r="I99" s="49">
         <v>1</v>
       </c>
-      <c r="J99" s="50"/>
-      <c r="K99" s="50">
+      <c r="J99" s="49"/>
+      <c r="K99" s="49">
         <v>0.5</v>
       </c>
-      <c r="L99" s="50">
+      <c r="L99" s="49">
         <v>3</v>
       </c>
-      <c r="M99" s="42">
+      <c r="M99" s="41">
         <v>1.75</v>
       </c>
-      <c r="N99" s="42">
+      <c r="N99" s="41">
         <v>0.25</v>
       </c>
-      <c r="O99" s="42">
+      <c r="O99" s="41">
         <v>0.1</v>
       </c>
-      <c r="P99" s="42"/>
-      <c r="Q99" s="42"/>
-      <c r="R99" s="40" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="46" t="b">
+      <c r="P99" s="41"/>
+      <c r="Q99" s="41"/>
+      <c r="R99" s="39" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B100" s="46" t="s">
+      <c r="B100" s="45" t="s">
+        <v>758</v>
+      </c>
+      <c r="C100" s="45" t="s">
+        <v>757</v>
+      </c>
+      <c r="D100" s="45" t="s">
+        <v>757</v>
+      </c>
+      <c r="E100" s="45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" s="55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="55" t="s">
         <v>761</v>
       </c>
-      <c r="C100" s="46" t="s">
-        <v>760</v>
-      </c>
-      <c r="D100" s="46" t="s">
-        <v>760</v>
-      </c>
-      <c r="E100" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" s="56" t="s">
-        <v>764</v>
-      </c>
-      <c r="E101" s="56" t="s">
-        <v>762</v>
-      </c>
-      <c r="F101" s="63"/>
-      <c r="G101" s="56" t="s">
+      <c r="E101" s="55" t="s">
+        <v>759</v>
+      </c>
+      <c r="F101" s="62"/>
+      <c r="G101" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="H101" s="56" t="s">
-        <v>654</v>
-      </c>
-      <c r="I101" s="56">
+      <c r="H101" s="55" t="s">
+        <v>651</v>
+      </c>
+      <c r="I101" s="55">
         <v>1</v>
       </c>
-      <c r="J101" s="59"/>
-      <c r="K101" s="58">
+      <c r="J101" s="58"/>
+      <c r="K101" s="57">
         <v>0.9</v>
       </c>
-      <c r="L101" s="58">
+      <c r="L101" s="57">
         <v>1</v>
       </c>
-      <c r="M101" s="58">
+      <c r="M101" s="57">
         <v>0.95</v>
       </c>
-      <c r="N101" s="58">
+      <c r="N101" s="57">
         <f>(L101-K101)/6</f>
         <v>1.6666666666666663E-2</v>
       </c>
-      <c r="O101" s="58">
+      <c r="O101" s="57">
         <v>0.1</v>
       </c>
-      <c r="R101" s="40" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B102" s="40" t="s">
+      <c r="R101" s="39" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B102" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D102" s="40" t="s">
-        <v>765</v>
-      </c>
-      <c r="E102" s="40" t="s">
-        <v>763</v>
-      </c>
-      <c r="F102" s="50"/>
-      <c r="G102" s="40" t="s">
+      <c r="D102" s="39" t="s">
+        <v>762</v>
+      </c>
+      <c r="E102" s="39" t="s">
+        <v>760</v>
+      </c>
+      <c r="F102" s="49"/>
+      <c r="G102" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H102" s="40" t="s">
-        <v>654</v>
-      </c>
-      <c r="I102" s="40">
+      <c r="H102" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="I102" s="39">
         <v>1450</v>
       </c>
-      <c r="J102" s="43"/>
-      <c r="K102" s="42">
-        <v>0</v>
-      </c>
-      <c r="L102" s="42">
+      <c r="J102" s="42"/>
+      <c r="K102" s="41">
+        <v>0</v>
+      </c>
+      <c r="L102" s="41">
         <v>3000</v>
       </c>
-      <c r="M102" s="42">
+      <c r="M102" s="41">
         <v>1450</v>
       </c>
-      <c r="N102" s="42">
+      <c r="N102" s="41">
         <f>(L102-K102)/6</f>
         <v>500</v>
       </c>
-      <c r="O102" s="42">
+      <c r="O102" s="41">
         <v>10</v>
       </c>
-      <c r="R102" s="40" t="s">
-        <v>823</v>
+      <c r="R102" s="39" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A103" s="37" t="b">
+      <c r="A103" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="B103" s="37" t="s">
-        <v>739</v>
-      </c>
-      <c r="C103" s="37" t="s">
-        <v>740</v>
-      </c>
-      <c r="D103" s="37" t="s">
-        <v>740</v>
-      </c>
-      <c r="E103" s="37" t="s">
+      <c r="B103" s="36" t="s">
+        <v>736</v>
+      </c>
+      <c r="C103" s="36" t="s">
+        <v>737</v>
+      </c>
+      <c r="D103" s="36" t="s">
+        <v>737</v>
+      </c>
+      <c r="E103" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="F103" s="37"/>
-      <c r="G103" s="37"/>
-      <c r="H103" s="38"/>
-      <c r="I103" s="38"/>
-      <c r="J103" s="37"/>
-      <c r="K103" s="37"/>
-      <c r="L103" s="37"/>
-      <c r="M103" s="37"/>
-      <c r="N103" s="37"/>
-      <c r="O103" s="37"/>
-      <c r="P103" s="37"/>
-      <c r="Q103" s="37"/>
-      <c r="R103" s="37"/>
+      <c r="F103" s="36"/>
+      <c r="G103" s="36"/>
+      <c r="H103" s="37"/>
+      <c r="I103" s="37"/>
+      <c r="J103" s="36"/>
+      <c r="K103" s="36"/>
+      <c r="L103" s="36"/>
+      <c r="M103" s="36"/>
+      <c r="N103" s="36"/>
+      <c r="O103" s="36"/>
+      <c r="P103" s="36"/>
+      <c r="Q103" s="36"/>
+      <c r="R103" s="36"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F104" s="63"/>
-      <c r="I104" s="31"/>
-      <c r="J104" s="31"/>
+      <c r="F104" s="62"/>
+      <c r="I104" s="30"/>
+      <c r="J104" s="30"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F105" s="47"/>
-      <c r="I105" s="31"/>
-      <c r="J105" s="31"/>
+      <c r="F105" s="46"/>
+      <c r="I105" s="30"/>
+      <c r="J105" s="30"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F106" s="47"/>
-      <c r="I106" s="31"/>
-      <c r="J106" s="31"/>
+      <c r="F106" s="46"/>
+      <c r="I106" s="30"/>
+      <c r="J106" s="30"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F107" s="47"/>
-      <c r="I107" s="31"/>
-      <c r="J107" s="31"/>
+      <c r="F107" s="46"/>
+      <c r="I107" s="30"/>
+      <c r="J107" s="30"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F108" s="47"/>
-      <c r="I108" s="31"/>
-      <c r="J108" s="31"/>
+      <c r="F108" s="46"/>
+      <c r="I108" s="30"/>
+      <c r="J108" s="30"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F109" s="47"/>
-      <c r="I109" s="31"/>
-      <c r="J109" s="31"/>
+      <c r="F109" s="46"/>
+      <c r="I109" s="30"/>
+      <c r="J109" s="30"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F110" s="47"/>
-      <c r="I110" s="31"/>
-      <c r="J110" s="31"/>
+      <c r="F110" s="46"/>
+      <c r="I110" s="30"/>
+      <c r="J110" s="30"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F111" s="47"/>
-      <c r="I111" s="31"/>
-      <c r="J111" s="31"/>
+      <c r="F111" s="46"/>
+      <c r="I111" s="30"/>
+      <c r="J111" s="30"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F112" s="47"/>
-      <c r="I112" s="31"/>
-      <c r="J112" s="31"/>
+      <c r="F112" s="46"/>
+      <c r="I112" s="30"/>
+      <c r="J112" s="30"/>
     </row>
     <row r="113" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I113" s="31"/>
-      <c r="J113" s="31"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="30"/>
     </row>
     <row r="114" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I114" s="31"/>
-      <c r="J114" s="31"/>
+      <c r="I114" s="30"/>
+      <c r="J114" s="30"/>
     </row>
     <row r="115" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I115" s="31"/>
-      <c r="J115" s="31"/>
+      <c r="I115" s="30"/>
+      <c r="J115" s="30"/>
     </row>
     <row r="116" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I116" s="31"/>
-      <c r="J116" s="31"/>
+      <c r="I116" s="30"/>
+      <c r="J116" s="30"/>
     </row>
     <row r="117" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I117" s="31"/>
-      <c r="J117" s="31"/>
+      <c r="I117" s="30"/>
+      <c r="J117" s="30"/>
     </row>
     <row r="118" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I118" s="31"/>
-      <c r="J118" s="31"/>
+      <c r="I118" s="30"/>
+      <c r="J118" s="30"/>
     </row>
     <row r="119" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I119" s="31"/>
-      <c r="J119" s="31"/>
+      <c r="I119" s="30"/>
+      <c r="J119" s="30"/>
     </row>
     <row r="120" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I120" s="31"/>
-      <c r="J120" s="31"/>
+      <c r="I120" s="30"/>
+      <c r="J120" s="30"/>
     </row>
     <row r="121" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I121" s="31"/>
-      <c r="J121" s="31"/>
+      <c r="I121" s="30"/>
+      <c r="J121" s="30"/>
     </row>
     <row r="122" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I122" s="31"/>
-      <c r="J122" s="31"/>
+      <c r="I122" s="30"/>
+      <c r="J122" s="30"/>
     </row>
     <row r="123" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I123" s="31"/>
-      <c r="J123" s="31"/>
+      <c r="I123" s="30"/>
+      <c r="J123" s="30"/>
     </row>
     <row r="124" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I124" s="31"/>
-      <c r="J124" s="31"/>
+      <c r="I124" s="30"/>
+      <c r="J124" s="30"/>
     </row>
     <row r="125" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I125" s="31"/>
-      <c r="J125" s="31"/>
+      <c r="I125" s="30"/>
+      <c r="J125" s="30"/>
     </row>
     <row r="126" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I126" s="31"/>
-      <c r="J126" s="31"/>
+      <c r="I126" s="30"/>
+      <c r="J126" s="30"/>
     </row>
     <row r="127" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I127" s="31"/>
-      <c r="J127" s="31"/>
+      <c r="I127" s="30"/>
+      <c r="J127" s="30"/>
     </row>
     <row r="128" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I128" s="31"/>
-      <c r="J128" s="31"/>
+      <c r="I128" s="30"/>
+      <c r="J128" s="30"/>
     </row>
     <row r="129" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I129" s="31"/>
-      <c r="J129" s="31"/>
+      <c r="I129" s="30"/>
+      <c r="J129" s="30"/>
     </row>
     <row r="130" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I130" s="31"/>
-      <c r="J130" s="31"/>
+      <c r="I130" s="30"/>
+      <c r="J130" s="30"/>
     </row>
     <row r="131" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I131" s="31"/>
-      <c r="J131" s="31"/>
+      <c r="I131" s="30"/>
+      <c r="J131" s="30"/>
     </row>
     <row r="132" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I132" s="31"/>
-      <c r="J132" s="31"/>
+      <c r="I132" s="30"/>
+      <c r="J132" s="30"/>
     </row>
     <row r="133" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I133" s="31"/>
-      <c r="J133" s="31"/>
+      <c r="I133" s="30"/>
+      <c r="J133" s="30"/>
     </row>
     <row r="134" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I134" s="31"/>
-      <c r="J134" s="31"/>
+      <c r="I134" s="30"/>
+      <c r="J134" s="30"/>
     </row>
     <row r="135" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I135" s="31"/>
-      <c r="J135" s="31"/>
+      <c r="I135" s="30"/>
+      <c r="J135" s="30"/>
     </row>
     <row r="136" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I136" s="31"/>
-      <c r="J136" s="31"/>
+      <c r="I136" s="30"/>
+      <c r="J136" s="30"/>
     </row>
     <row r="137" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I137" s="31"/>
-      <c r="J137" s="31"/>
+      <c r="I137" s="30"/>
+      <c r="J137" s="30"/>
     </row>
     <row r="138" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I138" s="31"/>
-      <c r="J138" s="31"/>
+      <c r="I138" s="30"/>
+      <c r="J138" s="30"/>
     </row>
     <row r="139" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I139" s="31"/>
-      <c r="J139" s="31"/>
+      <c r="I139" s="30"/>
+      <c r="J139" s="30"/>
     </row>
     <row r="140" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I140" s="31"/>
-      <c r="J140" s="31"/>
+      <c r="I140" s="30"/>
+      <c r="J140" s="30"/>
     </row>
     <row r="141" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I141" s="31"/>
-      <c r="J141" s="31"/>
+      <c r="I141" s="30"/>
+      <c r="J141" s="30"/>
     </row>
     <row r="142" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I142" s="31"/>
-      <c r="J142" s="31"/>
+      <c r="I142" s="30"/>
+      <c r="J142" s="30"/>
     </row>
     <row r="143" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I143" s="31"/>
-      <c r="J143" s="31"/>
+      <c r="I143" s="30"/>
+      <c r="J143" s="30"/>
     </row>
     <row r="144" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I144" s="31"/>
-      <c r="J144" s="31"/>
+      <c r="I144" s="30"/>
+      <c r="J144" s="30"/>
     </row>
     <row r="145" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I145" s="31"/>
-      <c r="J145" s="31"/>
+      <c r="I145" s="30"/>
+      <c r="J145" s="30"/>
     </row>
     <row r="146" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I146" s="31"/>
-      <c r="J146" s="31"/>
+      <c r="I146" s="30"/>
+      <c r="J146" s="30"/>
     </row>
     <row r="147" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I147" s="31"/>
-      <c r="J147" s="31"/>
+      <c r="I147" s="30"/>
+      <c r="J147" s="30"/>
     </row>
     <row r="148" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I148" s="31"/>
-      <c r="J148" s="31"/>
+      <c r="I148" s="30"/>
+      <c r="J148" s="30"/>
     </row>
     <row r="149" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I149" s="31"/>
-      <c r="J149" s="31"/>
+      <c r="I149" s="30"/>
+      <c r="J149" s="30"/>
     </row>
     <row r="150" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I150" s="31"/>
-      <c r="J150" s="31"/>
+      <c r="I150" s="30"/>
+      <c r="J150" s="30"/>
     </row>
     <row r="151" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I151" s="31"/>
-      <c r="J151" s="31"/>
+      <c r="I151" s="30"/>
+      <c r="J151" s="30"/>
     </row>
     <row r="152" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I152" s="31"/>
-      <c r="J152" s="31"/>
+      <c r="I152" s="30"/>
+      <c r="J152" s="30"/>
     </row>
     <row r="153" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I153" s="31"/>
-      <c r="J153" s="31"/>
+      <c r="I153" s="30"/>
+      <c r="J153" s="30"/>
     </row>
     <row r="154" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I154" s="31"/>
-      <c r="J154" s="31"/>
+      <c r="I154" s="30"/>
+      <c r="J154" s="30"/>
     </row>
     <row r="155" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I155" s="31"/>
-      <c r="J155" s="31"/>
+      <c r="I155" s="30"/>
+      <c r="J155" s="30"/>
     </row>
     <row r="156" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I156" s="31"/>
-      <c r="J156" s="31"/>
+      <c r="I156" s="30"/>
+      <c r="J156" s="30"/>
     </row>
     <row r="157" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I157" s="31"/>
-      <c r="J157" s="31"/>
+      <c r="I157" s="30"/>
+      <c r="J157" s="30"/>
     </row>
     <row r="158" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I158" s="31"/>
-      <c r="J158" s="31"/>
+      <c r="I158" s="30"/>
+      <c r="J158" s="30"/>
     </row>
     <row r="159" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I159" s="31"/>
-      <c r="J159" s="31"/>
+      <c r="I159" s="30"/>
+      <c r="J159" s="30"/>
     </row>
     <row r="160" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I160" s="31"/>
-      <c r="J160" s="31"/>
+      <c r="I160" s="30"/>
+      <c r="J160" s="30"/>
     </row>
     <row r="161" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I161" s="31"/>
-      <c r="J161" s="31"/>
+      <c r="I161" s="30"/>
+      <c r="J161" s="30"/>
     </row>
     <row r="162" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I162" s="31"/>
-      <c r="J162" s="31"/>
+      <c r="I162" s="30"/>
+      <c r="J162" s="30"/>
     </row>
     <row r="163" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I163" s="31"/>
-      <c r="J163" s="31"/>
+      <c r="I163" s="30"/>
+      <c r="J163" s="30"/>
     </row>
     <row r="164" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I164" s="31"/>
-      <c r="J164" s="31"/>
+      <c r="I164" s="30"/>
+      <c r="J164" s="30"/>
     </row>
     <row r="165" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I165" s="31"/>
-      <c r="J165" s="31"/>
+      <c r="I165" s="30"/>
+      <c r="J165" s="30"/>
     </row>
     <row r="166" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I166" s="31"/>
-      <c r="J166" s="31"/>
+      <c r="I166" s="30"/>
+      <c r="J166" s="30"/>
     </row>
     <row r="167" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I167" s="31"/>
-      <c r="J167" s="31"/>
+      <c r="I167" s="30"/>
+      <c r="J167" s="30"/>
     </row>
     <row r="168" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I168" s="31"/>
-      <c r="J168" s="31"/>
+      <c r="I168" s="30"/>
+      <c r="J168" s="30"/>
     </row>
     <row r="169" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I169" s="31"/>
-      <c r="J169" s="31"/>
+      <c r="I169" s="30"/>
+      <c r="J169" s="30"/>
     </row>
     <row r="170" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I170" s="31"/>
-      <c r="J170" s="31"/>
+      <c r="I170" s="30"/>
+      <c r="J170" s="30"/>
     </row>
     <row r="171" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I171" s="31"/>
-      <c r="J171" s="31"/>
+      <c r="I171" s="30"/>
+      <c r="J171" s="30"/>
     </row>
     <row r="172" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I172" s="31"/>
-      <c r="J172" s="31"/>
+      <c r="I172" s="30"/>
+      <c r="J172" s="30"/>
     </row>
     <row r="173" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I173" s="31"/>
-      <c r="J173" s="31"/>
+      <c r="I173" s="30"/>
+      <c r="J173" s="30"/>
     </row>
     <row r="174" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I174" s="31"/>
-      <c r="J174" s="31"/>
+      <c r="I174" s="30"/>
+      <c r="J174" s="30"/>
     </row>
     <row r="175" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I175" s="31"/>
-      <c r="J175" s="31"/>
+      <c r="I175" s="30"/>
+      <c r="J175" s="30"/>
     </row>
     <row r="176" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I176" s="31"/>
-      <c r="J176" s="31"/>
+      <c r="I176" s="30"/>
+      <c r="J176" s="30"/>
     </row>
     <row r="177" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I177" s="31"/>
-      <c r="J177" s="31"/>
+      <c r="I177" s="30"/>
+      <c r="J177" s="30"/>
     </row>
     <row r="178" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I178" s="31"/>
-      <c r="J178" s="31"/>
+      <c r="I178" s="30"/>
+      <c r="J178" s="30"/>
     </row>
     <row r="179" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I179" s="31"/>
-      <c r="J179" s="31"/>
+      <c r="I179" s="30"/>
+      <c r="J179" s="30"/>
     </row>
     <row r="180" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I180" s="31"/>
-      <c r="J180" s="31"/>
+      <c r="I180" s="30"/>
+      <c r="J180" s="30"/>
     </row>
     <row r="181" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I181" s="31"/>
-      <c r="J181" s="31"/>
+      <c r="I181" s="30"/>
+      <c r="J181" s="30"/>
     </row>
     <row r="182" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I182" s="31"/>
-      <c r="J182" s="31"/>
+      <c r="I182" s="30"/>
+      <c r="J182" s="30"/>
     </row>
     <row r="183" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I183" s="31"/>
-      <c r="J183" s="31"/>
+      <c r="I183" s="30"/>
+      <c r="J183" s="30"/>
     </row>
     <row r="184" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I184" s="31"/>
-      <c r="J184" s="31"/>
+      <c r="I184" s="30"/>
+      <c r="J184" s="30"/>
     </row>
     <row r="185" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I185" s="31"/>
-      <c r="J185" s="31"/>
+      <c r="I185" s="30"/>
+      <c r="J185" s="30"/>
     </row>
     <row r="186" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I186" s="31"/>
-      <c r="J186" s="31"/>
+      <c r="I186" s="30"/>
+      <c r="J186" s="30"/>
     </row>
     <row r="187" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I187" s="31"/>
-      <c r="J187" s="31"/>
+      <c r="I187" s="30"/>
+      <c r="J187" s="30"/>
     </row>
     <row r="188" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I188" s="31"/>
-      <c r="J188" s="31"/>
+      <c r="I188" s="30"/>
+      <c r="J188" s="30"/>
     </row>
     <row r="189" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I189" s="31"/>
-      <c r="J189" s="31"/>
+      <c r="I189" s="30"/>
+      <c r="J189" s="30"/>
     </row>
     <row r="190" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I190" s="31"/>
-      <c r="J190" s="31"/>
+      <c r="I190" s="30"/>
+      <c r="J190" s="30"/>
     </row>
     <row r="191" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I191" s="31"/>
-      <c r="J191" s="31"/>
+      <c r="I191" s="30"/>
+      <c r="J191" s="30"/>
     </row>
     <row r="192" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I192" s="31"/>
-      <c r="J192" s="31"/>
+      <c r="I192" s="30"/>
+      <c r="J192" s="30"/>
     </row>
     <row r="193" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I193" s="31"/>
-      <c r="J193" s="31"/>
+      <c r="I193" s="30"/>
+      <c r="J193" s="30"/>
     </row>
     <row r="194" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I194" s="31"/>
-      <c r="J194" s="31"/>
+      <c r="I194" s="30"/>
+      <c r="J194" s="30"/>
     </row>
     <row r="195" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I195" s="31"/>
-      <c r="J195" s="31"/>
+      <c r="I195" s="30"/>
+      <c r="J195" s="30"/>
     </row>
     <row r="196" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I196" s="31"/>
-      <c r="J196" s="31"/>
+      <c r="I196" s="30"/>
+      <c r="J196" s="30"/>
     </row>
     <row r="197" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I197" s="31"/>
-      <c r="J197" s="31"/>
+      <c r="I197" s="30"/>
+      <c r="J197" s="30"/>
     </row>
     <row r="198" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I198" s="31"/>
-      <c r="J198" s="31"/>
+      <c r="I198" s="30"/>
+      <c r="J198" s="30"/>
     </row>
     <row r="199" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I199" s="31"/>
-      <c r="J199" s="31"/>
+      <c r="I199" s="30"/>
+      <c r="J199" s="30"/>
     </row>
     <row r="200" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I200" s="31"/>
-      <c r="J200" s="31"/>
+      <c r="I200" s="30"/>
+      <c r="J200" s="30"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:AA127"/>
@@ -10351,26 +10314,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.44140625" style="31" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="31" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" style="31" customWidth="1"/>
-    <col min="12" max="16384" width="11.44140625" style="31"/>
+    <col min="1" max="1" width="29.44140625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="71" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="30" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.44140625" style="30" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="30" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="30" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" style="30" customWidth="1"/>
+    <col min="12" max="16384" width="11.44140625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
-      <c r="B1" s="60"/>
+      <c r="B1" s="59"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
@@ -10384,11 +10347,11 @@
       <c r="A2" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="B2" s="65" t="s">
-        <v>768</v>
+      <c r="B2" s="64" t="s">
+        <v>765</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>458</v>
@@ -10400,40 +10363,40 @@
         <v>11</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>616</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>618</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>619</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>620</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
+        <v>619</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>632</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>622</v>
-      </c>
-      <c r="B3" s="65" t="s">
-        <v>769</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>635</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>625</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>459</v>
@@ -10445,1145 +10408,1145 @@
         <v>459</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="L3" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>634</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>628</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>625</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>635</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>629</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>626</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>636</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>767</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>631</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>623</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="31"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>768</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>630</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>624</v>
       </c>
-      <c r="M3" s="14" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
-        <v>637</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>631</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>628</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F4" s="30" t="s">
+      <c r="E7" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F7" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="30" t="b">
+      <c r="G7" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I4" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>638</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>632</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>629</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F5" s="30" t="s">
+      <c r="I7" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="31"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>674</v>
+      </c>
+      <c r="B8" s="46"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29" t="s">
+        <v>675</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F8" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="30" t="b">
+      <c r="G8" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I5" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
-        <v>639</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>770</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>634</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>626</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F6" s="30" t="s">
+      <c r="I8" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>676</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29" t="s">
+        <v>677</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F9" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="30" t="b">
+      <c r="G9" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I6" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="32"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
-        <v>640</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>771</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>633</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>627</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F7" s="30" t="s">
+      <c r="I9" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="B10" s="46"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29" t="s">
+        <v>679</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F10" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="30" t="b">
+      <c r="G10" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I7" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="32"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
-        <v>677</v>
-      </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30" t="s">
-        <v>678</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F8" s="30" t="s">
+      <c r="I10" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
+        <v>680</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29" t="s">
+        <v>681</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F11" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="30" t="b">
+      <c r="G11" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I8" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
-        <v>679</v>
-      </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30" t="s">
-        <v>680</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F9" s="30" t="s">
+      <c r="I11" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="29" t="s">
+        <v>682</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29" t="s">
+        <v>683</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F12" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="30" t="b">
+      <c r="G12" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I9" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
-        <v>681</v>
-      </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30" t="s">
-        <v>682</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F10" s="30" t="s">
+      <c r="I12" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="s">
+        <v>684</v>
+      </c>
+      <c r="B13" s="46"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29" t="s">
+        <v>685</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F13" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="30" t="b">
+      <c r="G13" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I10" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
-        <v>683</v>
-      </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30" t="s">
-        <v>684</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F11" s="30" t="s">
+      <c r="I13" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="29" t="s">
+        <v>686</v>
+      </c>
+      <c r="B14" s="46"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29" t="s">
+        <v>687</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F14" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="30" t="b">
+      <c r="G14" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I11" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
-        <v>685</v>
-      </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30" t="s">
-        <v>686</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F12" s="30" t="s">
+      <c r="I14" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="29" t="s">
+        <v>688</v>
+      </c>
+      <c r="B15" s="46"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F15" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" s="30" t="b">
+      <c r="G15" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I12" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
-        <v>687</v>
-      </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F13" s="30" t="s">
+      <c r="I15" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="29" t="s">
+        <v>690</v>
+      </c>
+      <c r="B16" s="46"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29" t="s">
+        <v>691</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F16" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" s="30" t="b">
+      <c r="G16" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I13" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
-        <v>689</v>
-      </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30" t="s">
-        <v>690</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F14" s="30" t="s">
+      <c r="I16" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
+        <v>692</v>
+      </c>
+      <c r="B17" s="46"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29" t="s">
+        <v>693</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F17" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="30" t="b">
+      <c r="G17" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I14" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
-        <v>691</v>
-      </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30" t="s">
-        <v>692</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F15" s="30" t="s">
+      <c r="I17" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="s">
+        <v>694</v>
+      </c>
+      <c r="B18" s="46"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29" t="s">
+        <v>695</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F18" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="30" t="b">
+      <c r="G18" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I15" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
-        <v>693</v>
-      </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30" t="s">
-        <v>694</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F16" s="30" t="s">
+      <c r="I18" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="29" t="s">
+        <v>696</v>
+      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29" t="s">
+        <v>697</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F19" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" s="30" t="b">
+      <c r="G19" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I16" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="30" t="s">
-        <v>695</v>
-      </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30" t="s">
-        <v>696</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F17" s="30" t="s">
+      <c r="I19" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="29" t="s">
+        <v>698</v>
+      </c>
+      <c r="B20" s="46"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29" t="s">
+        <v>699</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F20" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="30" t="b">
+      <c r="G20" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I17" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="30" t="s">
-        <v>697</v>
-      </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30" t="s">
-        <v>698</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F18" s="30" t="s">
+      <c r="I20" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="29" t="s">
+        <v>700</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29" t="s">
+        <v>701</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F21" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="30" t="b">
+      <c r="G21" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I18" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="30" t="s">
-        <v>699</v>
-      </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30" t="s">
-        <v>700</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F19" s="30" t="s">
+      <c r="I21" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
+        <v>702</v>
+      </c>
+      <c r="B22" s="46"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29" t="s">
+        <v>703</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>704</v>
+      </c>
+      <c r="F22" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="30" t="b">
+      <c r="G22" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I19" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="30" t="s">
-        <v>701</v>
-      </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30" t="s">
-        <v>702</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F20" s="30" t="s">
+      <c r="I22" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="29" t="s">
+        <v>705</v>
+      </c>
+      <c r="B23" s="46"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29" t="s">
+        <v>706</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>704</v>
+      </c>
+      <c r="F23" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="30" t="b">
+      <c r="G23" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I20" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
-        <v>703</v>
-      </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30" t="s">
+      <c r="I23" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="29" t="s">
+        <v>707</v>
+      </c>
+      <c r="B24" s="46"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29" t="s">
+        <v>708</v>
+      </c>
+      <c r="E24" s="29" t="s">
         <v>704</v>
       </c>
-      <c r="E21" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F21" s="30" t="s">
+      <c r="F24" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G21" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="30" t="b">
+      <c r="G24" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I21" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="30" t="s">
-        <v>705</v>
-      </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30" t="s">
-        <v>706</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>707</v>
-      </c>
-      <c r="F22" s="30" t="s">
+      <c r="I24" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="29" t="s">
+        <v>709</v>
+      </c>
+      <c r="B25" s="46"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29" t="s">
+        <v>710</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>711</v>
+      </c>
+      <c r="F25" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G22" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="30" t="b">
+      <c r="G25" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I22" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="30" t="s">
-        <v>708</v>
-      </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30" t="s">
-        <v>709</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>707</v>
-      </c>
-      <c r="F23" s="30" t="s">
+      <c r="I25" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="B26" s="46"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29" t="s">
+        <v>806</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>643</v>
+      </c>
+      <c r="F26" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G23" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="30" t="b">
+      <c r="G26" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I23" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="30" t="s">
-        <v>710</v>
-      </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30" t="s">
-        <v>711</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>707</v>
-      </c>
-      <c r="F24" s="30" t="s">
+      <c r="I26" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="29" t="s">
+        <v>644</v>
+      </c>
+      <c r="B27" s="46"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29" t="s">
+        <v>807</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>645</v>
+      </c>
+      <c r="F27" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G24" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="30" t="b">
+      <c r="G27" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I24" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="30" t="s">
+      <c r="I27" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="29" t="s">
         <v>712</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30" t="s">
+      <c r="B28" s="46"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29" t="s">
+        <v>808</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="29" t="s">
         <v>713</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29" t="s">
+        <v>809</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="29" t="s">
         <v>714</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29" t="s">
+        <v>810</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="F30" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="G25" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="30" t="b">
+      <c r="G30" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I25" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="30" t="s">
-        <v>645</v>
-      </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30" t="s">
-        <v>809</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>646</v>
-      </c>
-      <c r="F26" s="30" t="s">
+      <c r="H30" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="29" t="s">
+        <v>715</v>
+      </c>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29" t="s">
+        <v>811</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="F31" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="G26" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" s="30" t="b">
+      <c r="G31" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I26" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="30" t="s">
-        <v>647</v>
-      </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30" t="s">
-        <v>810</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>648</v>
-      </c>
-      <c r="F27" s="30" t="s">
+      <c r="H31" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="29" t="s">
+        <v>716</v>
+      </c>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29" t="s">
+        <v>812</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="F32" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="G27" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" s="30" t="b">
+      <c r="G32" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I27" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="30" t="s">
-        <v>715</v>
-      </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30" t="s">
-        <v>811</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="F28" s="31" t="s">
+      <c r="H32" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="29" t="s">
+        <v>717</v>
+      </c>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29" t="s">
+        <v>813</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="F33" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="G28" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" s="30" t="b">
+      <c r="G33" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I28" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="30" t="s">
-        <v>716</v>
-      </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30" t="s">
-        <v>812</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="F29" s="31" t="s">
+      <c r="H33" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="29" t="s">
+        <v>739</v>
+      </c>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29" t="s">
+        <v>814</v>
+      </c>
+      <c r="E34" s="29"/>
+      <c r="F34" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="G29" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" s="30" t="b">
+      <c r="G34" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I29" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="30" t="s">
-        <v>717</v>
-      </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30" t="s">
-        <v>813</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="F30" s="31" t="s">
+      <c r="H34" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="29" t="s">
+        <v>740</v>
+      </c>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29" t="s">
+        <v>815</v>
+      </c>
+      <c r="E35" s="29"/>
+      <c r="F35" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="G30" s="30" t="b">
+      <c r="G35" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="H30" s="30" t="b">
+      <c r="H35" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I30" s="30" t="b">
+      <c r="I35" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="29" t="s">
+        <v>741</v>
+      </c>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29" t="s">
+        <v>816</v>
+      </c>
+      <c r="E36" s="29"/>
+      <c r="F36" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G36" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="30" t="s">
-        <v>718</v>
-      </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30" t="s">
-        <v>814</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="F31" s="31" t="s">
+      <c r="H36" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="29" t="s">
+        <v>742</v>
+      </c>
+      <c r="B37" s="29"/>
+      <c r="D37" s="29" t="s">
+        <v>817</v>
+      </c>
+      <c r="F37" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="G31" s="30" t="b">
+      <c r="G37" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="H31" s="30" t="b">
+      <c r="H37" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I31" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="30" t="s">
-        <v>719</v>
-      </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30" t="s">
-        <v>815</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="F32" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G32" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I32" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="30" t="s">
-        <v>720</v>
-      </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30" t="s">
-        <v>816</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="F33" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="30" t="s">
-        <v>742</v>
-      </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30" t="s">
-        <v>817</v>
-      </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G34" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I34" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="30" t="s">
-        <v>743</v>
-      </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30" t="s">
-        <v>818</v>
-      </c>
-      <c r="E35" s="30"/>
-      <c r="F35" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G35" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I35" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="30" t="s">
-        <v>744</v>
-      </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30" t="s">
-        <v>819</v>
-      </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G36" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="30" t="s">
-        <v>745</v>
-      </c>
-      <c r="B37" s="30"/>
-      <c r="D37" s="30" t="s">
-        <v>820</v>
-      </c>
-      <c r="F37" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G37" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" s="30" t="b">
+      <c r="I37" s="29" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B38" s="30"/>
+      <c r="B38" s="29"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B39" s="30"/>
+      <c r="B39" s="29"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B40" s="30"/>
+      <c r="B40" s="29"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B41" s="30"/>
+      <c r="B41" s="29"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B42" s="30"/>
+      <c r="B42" s="29"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B43" s="30"/>
+      <c r="B43" s="29"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B44" s="30"/>
+      <c r="B44" s="29"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B45" s="30"/>
+      <c r="B45" s="29"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B46" s="30"/>
+      <c r="B46" s="29"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B47" s="30"/>
+      <c r="B47" s="29"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B48" s="30"/>
+      <c r="B48" s="29"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="30"/>
+      <c r="B49" s="29"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="30"/>
+      <c r="B50" s="29"/>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" s="30"/>
+      <c r="B51" s="29"/>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="30"/>
+      <c r="B52" s="29"/>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="30"/>
+      <c r="B53" s="29"/>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" s="30"/>
+      <c r="B54" s="29"/>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55" s="30"/>
+      <c r="B55" s="29"/>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" s="30"/>
+      <c r="B56" s="29"/>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B57" s="30"/>
+      <c r="B57" s="29"/>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B58" s="30"/>
+      <c r="B58" s="29"/>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B59" s="30"/>
+      <c r="B59" s="29"/>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B60" s="30"/>
+      <c r="B60" s="29"/>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B61" s="30"/>
+      <c r="B61" s="29"/>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B62" s="30"/>
+      <c r="B62" s="29"/>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B63" s="30"/>
+      <c r="B63" s="29"/>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B64" s="30"/>
+      <c r="B64" s="29"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" s="30"/>
+      <c r="B65" s="29"/>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B66" s="30"/>
+      <c r="B66" s="29"/>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B67" s="30"/>
+      <c r="B67" s="29"/>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B68" s="30"/>
+      <c r="B68" s="29"/>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B69" s="30"/>
+      <c r="B69" s="29"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B70" s="30"/>
+      <c r="B70" s="29"/>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B71" s="30"/>
+      <c r="B71" s="29"/>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B72" s="30"/>
+      <c r="B72" s="29"/>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B73" s="30"/>
+      <c r="B73" s="29"/>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B74" s="30"/>
+      <c r="B74" s="29"/>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B75" s="30"/>
+      <c r="B75" s="29"/>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B76" s="30"/>
+      <c r="B76" s="29"/>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B77" s="30"/>
+      <c r="B77" s="29"/>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B78" s="30"/>
+      <c r="B78" s="29"/>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B79" s="30"/>
+      <c r="B79" s="29"/>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B80" s="30"/>
+      <c r="B80" s="29"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" s="30"/>
+      <c r="B81" s="29"/>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" s="30"/>
+      <c r="B82" s="29"/>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" s="30"/>
+      <c r="B83" s="29"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" s="30"/>
+      <c r="B84" s="29"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" s="30"/>
+      <c r="B85" s="29"/>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B86" s="30"/>
+      <c r="B86" s="29"/>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B87" s="30"/>
+      <c r="B87" s="29"/>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B88" s="30"/>
+      <c r="B88" s="29"/>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B89" s="30"/>
+      <c r="B89" s="29"/>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B90" s="30"/>
+      <c r="B90" s="29"/>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B91" s="30"/>
+      <c r="B91" s="29"/>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B92" s="30"/>
+      <c r="B92" s="29"/>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B93" s="30"/>
+      <c r="B93" s="29"/>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B94" s="30"/>
+      <c r="B94" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18956,10 +18919,10 @@
         <v>0</v>
       </c>
       <c r="B328" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C328" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D328" t="s">
         <v>66</v>
@@ -18970,10 +18933,10 @@
         <v>21</v>
       </c>
       <c r="C329" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D329" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E329" t="s">
         <v>2</v>
@@ -18982,10 +18945,10 @@
         <v>60</v>
       </c>
       <c r="H329" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="I329" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -18993,10 +18956,10 @@
         <v>21</v>
       </c>
       <c r="C330" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D330" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E330" t="s">
         <v>2</v>
@@ -19013,10 +18976,10 @@
         <v>21</v>
       </c>
       <c r="C331" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D331" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E331" t="s">
         <v>2</v>
@@ -19033,10 +18996,10 @@
         <v>21</v>
       </c>
       <c r="C332" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D332" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E332" t="s">
         <v>2</v>
@@ -19053,10 +19016,10 @@
         <v>21</v>
       </c>
       <c r="C333" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D333" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E333" t="s">
         <v>2</v>
@@ -19070,10 +19033,10 @@
         <v>21</v>
       </c>
       <c r="C334" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D334" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E334" t="s">
         <v>2</v>
@@ -19082,10 +19045,10 @@
         <v>60</v>
       </c>
       <c r="H334" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="I334" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -19093,10 +19056,10 @@
         <v>21</v>
       </c>
       <c r="C335" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D335" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E335" t="s">
         <v>2</v>
@@ -19105,10 +19068,10 @@
         <v>60</v>
       </c>
       <c r="H335" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I335" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -19116,10 +19079,10 @@
         <v>0</v>
       </c>
       <c r="B336" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C336" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D336" t="s">
         <v>66</v>
@@ -19130,10 +19093,10 @@
         <v>21</v>
       </c>
       <c r="C337" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D337" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E337" t="s">
         <v>2</v>
@@ -19142,10 +19105,10 @@
         <v>60</v>
       </c>
       <c r="H337" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="I337" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="338" spans="1:16" x14ac:dyDescent="0.3">
@@ -19153,10 +19116,10 @@
         <v>21</v>
       </c>
       <c r="C338" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D338" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E338" t="s">
         <v>2</v>
@@ -19165,10 +19128,10 @@
         <v>60</v>
       </c>
       <c r="H338" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I338" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="339" spans="1:16" x14ac:dyDescent="0.3">
@@ -19176,10 +19139,10 @@
         <v>21</v>
       </c>
       <c r="C339" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D339" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E339" t="s">
         <v>2</v>
@@ -19196,10 +19159,10 @@
         <v>21</v>
       </c>
       <c r="C340" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D340" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E340" t="s">
         <v>2</v>
@@ -19216,10 +19179,10 @@
         <v>21</v>
       </c>
       <c r="C341" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D341" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E341" t="s">
         <v>2</v>
@@ -19233,10 +19196,10 @@
         <v>0</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D342" s="1" t="s">
         <v>66</v>
@@ -19260,10 +19223,10 @@
         <v>21</v>
       </c>
       <c r="C343" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D343" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E343" t="s">
         <v>2</v>
@@ -19272,10 +19235,10 @@
         <v>60</v>
       </c>
       <c r="H343" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="I343" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="L343" s="1"/>
       <c r="M343" s="1"/>
@@ -19289,10 +19252,10 @@
         <v>21</v>
       </c>
       <c r="C344" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D344" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E344" t="s">
         <v>2</v>
@@ -19327,10 +19290,10 @@
         <v>0</v>
       </c>
       <c r="B345" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C345" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>66</v>
@@ -19341,10 +19304,10 @@
         <v>21</v>
       </c>
       <c r="C346" t="s">
+        <v>516</v>
+      </c>
+      <c r="D346" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="D346" s="1" t="s">
-        <v>520</v>
       </c>
       <c r="E346" t="s">
         <v>2</v>
@@ -19555,10 +19518,10 @@
         <v>0</v>
       </c>
       <c r="B357" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C357" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D357" t="s">
         <v>66</v>
@@ -19569,10 +19532,10 @@
         <v>21</v>
       </c>
       <c r="C358" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D358" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E358" t="s">
         <v>2</v>
@@ -19589,10 +19552,10 @@
         <v>21</v>
       </c>
       <c r="C359" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D359" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E359" t="s">
         <v>2</v>
@@ -19609,10 +19572,10 @@
         <v>0</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>66</v>
@@ -19625,10 +19588,10 @@
         <v>21</v>
       </c>
       <c r="C361" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D361" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E361" t="s">
         <v>2</v>
@@ -19638,10 +19601,10 @@
       </c>
       <c r="G361"/>
       <c r="H361" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="I361" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J361"/>
       <c r="K361"/>
@@ -19652,10 +19615,10 @@
         <v>22</v>
       </c>
       <c r="C362" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D362" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E362" t="s">
         <v>15</v>
@@ -19692,10 +19655,10 @@
         <v>0</v>
       </c>
       <c r="B363" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C363" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>66</v>
@@ -19706,10 +19669,10 @@
         <v>21</v>
       </c>
       <c r="C364" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D364" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E364" t="s">
         <v>2</v>
@@ -19726,10 +19689,10 @@
         <v>0</v>
       </c>
       <c r="B365" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C365" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D365" s="1" t="s">
         <v>66</v>
@@ -19740,10 +19703,10 @@
         <v>21</v>
       </c>
       <c r="C366" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D366" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E366" t="s">
         <v>2</v>
@@ -19795,130 +19758,130 @@
         <v>437</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>585</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>586</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>587</v>
       </c>
-      <c r="B2" s="30" t="s">
+    </row>
+    <row r="3" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>588</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>589</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>590</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>445</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>591</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>592</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>443</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>588</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
-        <v>590</v>
-      </c>
-      <c r="B3" s="30" t="s">
+      <c r="C5" s="29" t="s">
+        <v>593</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>594</v>
+      </c>
+      <c r="B6" s="29" t="s">
         <v>444</v>
       </c>
-      <c r="C3" s="30" t="s">
-        <v>591</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
-        <v>592</v>
-      </c>
-      <c r="B4" s="30" t="s">
+      <c r="C6" s="29" t="s">
+        <v>595</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="B7" s="29" t="s">
         <v>445</v>
       </c>
-      <c r="C4" s="30" t="s">
-        <v>593</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>594</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>443</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>595</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="C7" s="29" t="s">
         <v>596</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>444</v>
-      </c>
-      <c r="C6" s="30" t="s">
+      <c r="D7" s="29" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
         <v>597</v>
       </c>
-      <c r="D6" s="30" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
-        <v>438</v>
-      </c>
-      <c r="B7" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>445</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C8" s="29" t="s">
         <v>598</v>
       </c>
-      <c r="D7" s="30" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
+      <c r="D8" s="29" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
         <v>599</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>445</v>
-      </c>
-      <c r="C8" s="30" t="s">
+      <c r="B9" s="29" t="s">
+        <v>446</v>
+      </c>
+      <c r="C9" s="29" t="s">
         <v>600</v>
       </c>
-      <c r="D8" s="30" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
+      <c r="D9" s="29" t="s">
         <v>601</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>446</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>602</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>565</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="E11" t="s">
+        <v>550</v>
+      </c>
+      <c r="G11" t="s">
         <v>567</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>551</v>
-      </c>
-      <c r="E11" t="s">
-        <v>552</v>
-      </c>
-      <c r="G11" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -19929,10 +19892,10 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G12" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -19943,66 +19906,66 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C16" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F16" t="s">
         <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="L16" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O16" t="s">
-        <v>561</v>
-      </c>
-      <c r="R16" s="30" t="s">
-        <v>549</v>
-      </c>
-      <c r="U16" s="30" t="s">
-        <v>550</v>
+        <v>559</v>
+      </c>
+      <c r="R16" s="29" t="s">
+        <v>547</v>
+      </c>
+      <c r="U16" s="29" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F17" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G17" t="s">
         <v>452</v>
       </c>
       <c r="H17" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="J17" s="29">
+        <v>534</v>
+      </c>
+      <c r="J17" s="28">
         <v>0.01</v>
       </c>
-      <c r="K17" s="31" t="s">
-        <v>575</v>
+      <c r="K17" s="30" t="s">
+        <v>573</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="M17">
         <v>30</v>
       </c>
       <c r="N17" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="O17" t="s">
         <v>4</v>
@@ -20010,8 +19973,8 @@
       <c r="P17">
         <v>30</v>
       </c>
-      <c r="Q17" s="30" t="s">
-        <v>577</v>
+      <c r="Q17" s="29" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -20025,232 +19988,232 @@
         <v>30</v>
       </c>
       <c r="H18" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="J18" s="29">
+        <v>539</v>
+      </c>
+      <c r="J18" s="28">
         <v>0.01</v>
       </c>
       <c r="K18" t="s">
-        <v>574</v>
-      </c>
-      <c r="L18" s="31" t="s">
-        <v>562</v>
+        <v>572</v>
+      </c>
+      <c r="L18" s="30" t="s">
+        <v>560</v>
       </c>
       <c r="M18">
         <v>5</v>
       </c>
-      <c r="N18" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="O18" s="31" t="s">
-        <v>562</v>
+      <c r="N18" s="29" t="s">
+        <v>574</v>
+      </c>
+      <c r="O18" s="30" t="s">
+        <v>560</v>
       </c>
       <c r="P18">
         <v>3</v>
       </c>
       <c r="Q18" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="J19" s="29">
+        <v>553</v>
+      </c>
+      <c r="J19" s="28">
         <v>45036000000000</v>
       </c>
       <c r="K19" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="M19">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>581</v>
-      </c>
-      <c r="O19" s="31" t="s">
-        <v>563</v>
+        <v>579</v>
+      </c>
+      <c r="O19" s="30" t="s">
+        <v>561</v>
       </c>
       <c r="P19">
         <v>0.85</v>
       </c>
       <c r="Q19" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J20">
         <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="L20" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="M20">
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>579</v>
-      </c>
-      <c r="O20" s="31" t="s">
-        <v>564</v>
+        <v>577</v>
+      </c>
+      <c r="O20" s="30" t="s">
+        <v>562</v>
       </c>
       <c r="P20">
         <v>2</v>
       </c>
       <c r="Q20" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="J21" s="31" t="s">
-        <v>538</v>
+        <v>535</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>536</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="M21" s="29">
+        <v>558</v>
+      </c>
+      <c r="M21" s="28">
         <v>0.01</v>
       </c>
-      <c r="N21" s="31" t="s">
-        <v>580</v>
-      </c>
-      <c r="O21" s="31" t="s">
-        <v>565</v>
+      <c r="N21" s="30" t="s">
+        <v>578</v>
+      </c>
+      <c r="O21" s="30" t="s">
+        <v>563</v>
       </c>
       <c r="P21">
         <v>2</v>
       </c>
-      <c r="Q21" s="30" t="s">
-        <v>585</v>
+      <c r="Q21" s="29" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="J22" s="31">
+        <v>537</v>
+      </c>
+      <c r="J22" s="30">
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="M22" s="29">
+        <v>534</v>
+      </c>
+      <c r="M22" s="28">
         <v>0.01</v>
       </c>
-      <c r="N22" s="31" t="s">
-        <v>575</v>
-      </c>
-      <c r="O22" s="31" t="s">
-        <v>566</v>
+      <c r="N22" s="30" t="s">
+        <v>573</v>
+      </c>
+      <c r="O22" s="30" t="s">
+        <v>564</v>
       </c>
       <c r="P22">
         <v>0.8</v>
       </c>
       <c r="Q22" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="M23" s="29">
+        <v>539</v>
+      </c>
+      <c r="M23" s="28">
         <v>0.01</v>
       </c>
-      <c r="N23" s="30" t="s">
-        <v>574</v>
-      </c>
-      <c r="O23" s="31" t="s">
-        <v>537</v>
-      </c>
-      <c r="P23" s="31" t="s">
-        <v>538</v>
+      <c r="N23" s="29" t="s">
+        <v>572</v>
+      </c>
+      <c r="O23" s="30" t="s">
+        <v>535</v>
+      </c>
+      <c r="P23" s="30" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="M24" s="29">
+        <v>553</v>
+      </c>
+      <c r="M24" s="28">
         <v>45036000000000</v>
       </c>
-      <c r="N24" s="30" t="s">
-        <v>573</v>
-      </c>
-      <c r="O24" s="31" t="s">
-        <v>539</v>
-      </c>
-      <c r="P24" s="31">
-        <v>2</v>
-      </c>
-      <c r="Q24" s="30" t="s">
+      <c r="N24" s="29" t="s">
         <v>571</v>
+      </c>
+      <c r="O24" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="P24" s="30">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="29" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L25" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="M25" s="30">
+        <v>554</v>
+      </c>
+      <c r="M25" s="29">
         <v>100</v>
       </c>
-      <c r="N25" s="30" t="s">
-        <v>572</v>
+      <c r="N25" s="29" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L26" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="M26" s="31" t="s">
-        <v>538</v>
+        <v>535</v>
+      </c>
+      <c r="M26" s="30" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L27" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="M27" s="31">
-        <v>2</v>
-      </c>
-      <c r="N27" s="30" t="s">
-        <v>571</v>
+        <v>537</v>
+      </c>
+      <c r="M27" s="30">
+        <v>2</v>
+      </c>
+      <c r="N27" s="29" t="s">
+        <v>569</v>
       </c>
     </row>
   </sheetData>

--- a/projects/SEB_calibration_Rgenoud_2013.xlsx
+++ b/projects/SEB_calibration_Rgenoud_2013.xlsx
@@ -2502,7 +2502,7 @@
     <t>uniform</t>
   </si>
   <si>
-    <t>1.17.0</t>
+    <t>1.21.14</t>
   </si>
 </sst>
 </file>
@@ -6823,7 +6823,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6941,7 +6941,7 @@
         <v>456</v>
       </c>
       <c r="B9" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="32"/>

--- a/projects/SEB_calibration_Rgenoud_2013.xlsx
+++ b/projects/SEB_calibration_Rgenoud_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2663" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2659" uniqueCount="819">
   <si>
     <t>type</t>
   </si>
@@ -2250,12 +2250,6 @@
     <t>Roof thermal mass multiplier</t>
   </si>
   <si>
-    <t>Server Directory Cleanup</t>
-  </si>
-  <si>
-    <t>ServerDirectoryCleanup</t>
-  </si>
-  <si>
     <t>../analysis</t>
   </si>
   <si>
@@ -2457,45 +2451,6 @@
     <t>set_runperiod</t>
   </si>
   <si>
-    <t>CalibrationReportsEnhanced</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.electric_bill_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.gas_bill_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.electric_bill_rmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.gas_bill_rmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.electric_bill_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.electric_bill_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.gas_bill_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.gas_bill_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.electric_bill_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.electric_bill_nmbe_within_limit</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.gas_bill_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.gas_bill_nmbe_within_limit</t>
-  </si>
-  <si>
     <t>Calibration Reports Enhanced</t>
   </si>
   <si>
@@ -2503,6 +2458,45 @@
   </si>
   <si>
     <t>1.21.14</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.electricity_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.gas_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.electricity_rmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.gas_rmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.electricity_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.electricity_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.gas_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.gas_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.electricity_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.electricity_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.gas_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.gas_nmbe_within_limit</t>
   </si>
 </sst>
 </file>
@@ -6822,8 +6816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6859,7 +6853,7 @@
         <v>434</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>435</v>
@@ -6870,7 +6864,7 @@
         <v>454</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>455</v>
@@ -6881,7 +6875,7 @@
         <v>465</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>820</v>
+        <v>805</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>609</v>
@@ -6892,7 +6886,7 @@
         <v>466</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>468</v>
@@ -6963,7 +6957,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>467</v>
@@ -6974,7 +6968,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>647</v>
@@ -6985,7 +6979,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>647</v>
@@ -7060,7 +7054,7 @@
         <v>557</v>
       </c>
       <c r="B22" s="29">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>575</v>
@@ -7072,7 +7066,7 @@
         <v>560</v>
       </c>
       <c r="B23" s="29">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C23" s="29" t="s">
         <v>574</v>
@@ -7165,7 +7159,7 @@
     </row>
     <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B31" s="30">
         <v>1</v>
@@ -7175,7 +7169,7 @@
     </row>
     <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B32" s="29">
         <v>1</v>
@@ -7185,7 +7179,7 @@
     </row>
     <row r="33" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B33" s="29">
         <v>3</v>
@@ -7216,7 +7210,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7244,7 +7238,7 @@
         <v>638</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E39" s="2"/>
     </row>
@@ -7271,7 +7265,7 @@
         <v>640</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7301,9 +7295,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R102" sqref="R102"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7401,7 +7395,7 @@
         <v>35</v>
       </c>
       <c r="F3" s="61" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>11</v>
@@ -7466,13 +7460,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E4" s="36" t="s">
         <v>66</v>
@@ -7485,17 +7479,17 @@
         <v>21</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="F5" s="62"/>
       <c r="G5" s="30" t="s">
         <v>718</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="J5" s="30"/>
     </row>
@@ -7504,7 +7498,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>164</v>
@@ -7514,7 +7508,7 @@
         <v>718</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="J6" s="30"/>
     </row>
@@ -7523,17 +7517,17 @@
         <v>21</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F7" s="62"/>
       <c r="G7" s="30" t="s">
         <v>718</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="J7" s="30"/>
     </row>
@@ -7542,10 +7536,10 @@
         <v>21</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F8" s="62"/>
       <c r="G8" s="30" t="s">
@@ -7561,17 +7555,17 @@
         <v>21</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="F9" s="62"/>
       <c r="G9" s="30" t="s">
         <v>718</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="J9" s="30"/>
     </row>
@@ -7590,7 +7584,7 @@
         <v>718</v>
       </c>
       <c r="I10" s="47" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="J10" s="30"/>
     </row>
@@ -7609,7 +7603,7 @@
         <v>718</v>
       </c>
       <c r="I11" s="47" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="J11" s="30"/>
     </row>
@@ -7618,17 +7612,17 @@
         <v>21</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F12" s="62"/>
       <c r="G12" s="30" t="s">
         <v>61</v>
       </c>
       <c r="I12" s="47" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="J12" s="30"/>
     </row>
@@ -7637,17 +7631,17 @@
         <v>21</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="F13" s="62"/>
       <c r="G13" s="30" t="s">
         <v>61</v>
       </c>
       <c r="I13" s="47" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="J13" s="30"/>
     </row>
@@ -7656,13 +7650,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E14" s="36" t="s">
         <v>66</v>
@@ -7675,17 +7669,17 @@
         <v>21</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="F15" s="62"/>
       <c r="G15" s="30" t="s">
         <v>718</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="J15" s="30"/>
     </row>
@@ -7694,7 +7688,7 @@
         <v>21</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>164</v>
@@ -7704,7 +7698,7 @@
         <v>718</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="J16" s="30"/>
     </row>
@@ -7713,17 +7707,17 @@
         <v>21</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F17" s="62"/>
       <c r="G17" s="30" t="s">
         <v>718</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J17" s="30"/>
     </row>
@@ -7732,10 +7726,10 @@
         <v>21</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F18" s="62"/>
       <c r="G18" s="30" t="s">
@@ -7751,17 +7745,17 @@
         <v>21</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="F19" s="62"/>
       <c r="G19" s="30" t="s">
         <v>718</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="J19" s="30"/>
     </row>
@@ -7780,7 +7774,7 @@
         <v>718</v>
       </c>
       <c r="I20" s="47" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="J20" s="30"/>
     </row>
@@ -7799,7 +7793,7 @@
         <v>718</v>
       </c>
       <c r="I21" s="47" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="J21" s="30"/>
     </row>
@@ -7808,17 +7802,17 @@
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F22" s="62"/>
       <c r="G22" s="30" t="s">
         <v>61</v>
       </c>
       <c r="I22" s="47" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="J22" s="30"/>
     </row>
@@ -7827,13 +7821,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>818</v>
+        <v>803</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E23" s="36" t="s">
         <v>231</v>
@@ -7914,7 +7908,7 @@
         <v>1</v>
       </c>
       <c r="R26" s="39" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7969,7 +7963,7 @@
         <v>0.01</v>
       </c>
       <c r="R28" s="39" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8146,7 +8140,7 @@
       </c>
       <c r="Q36" s="54"/>
       <c r="R36" s="39" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -8414,7 +8408,7 @@
         <v>1</v>
       </c>
       <c r="R46" s="39" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
     </row>
     <row r="47" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8566,13 +8560,13 @@
         <v>1</v>
       </c>
       <c r="B54" s="45" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C54" s="45" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D54" s="45" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E54" s="45" t="s">
         <v>66</v>
@@ -8604,10 +8598,10 @@
         <v>22</v>
       </c>
       <c r="D56" s="39" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E56" s="39" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F56" s="49"/>
       <c r="G56" s="39" t="s">
@@ -8637,7 +8631,7 @@
         <v>1</v>
       </c>
       <c r="R56" s="39" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8807,13 +8801,13 @@
         <v>1</v>
       </c>
       <c r="B65" s="45" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C65" s="45" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D65" s="45" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E65" s="45" t="s">
         <v>66</v>
@@ -8824,7 +8818,7 @@
         <v>21</v>
       </c>
       <c r="D66" s="29" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E66" s="29" t="s">
         <v>124</v>
@@ -8845,10 +8839,10 @@
         <v>22</v>
       </c>
       <c r="D67" s="39" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E67" s="39" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F67" s="49"/>
       <c r="G67" s="39" t="s">
@@ -8878,7 +8872,7 @@
         <v>0.25</v>
       </c>
       <c r="R67" s="39" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9086,7 +9080,7 @@
         <v>22</v>
       </c>
       <c r="D78" s="39" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E78" s="39" t="s">
         <v>243</v>
@@ -9119,7 +9113,7 @@
         <v>1</v>
       </c>
       <c r="R78" s="39" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
     </row>
     <row r="79" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9127,10 +9121,10 @@
         <v>22</v>
       </c>
       <c r="D79" s="39" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E79" s="39" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F79" s="49"/>
       <c r="G79" s="39" t="s">
@@ -9160,7 +9154,7 @@
         <v>1</v>
       </c>
       <c r="R79" s="39" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9380,7 +9374,7 @@
         <v>1</v>
       </c>
       <c r="R89" s="39" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
     </row>
     <row r="90" spans="1:20" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9421,7 +9415,7 @@
         <v>1</v>
       </c>
       <c r="R90" s="39" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -9517,7 +9511,7 @@
       <c r="P93" s="39"/>
       <c r="Q93" s="39"/>
       <c r="R93" s="39" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
     </row>
     <row r="94" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9559,7 +9553,7 @@
       <c r="P94" s="39"/>
       <c r="Q94" s="39"/>
       <c r="R94" s="39" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
     </row>
     <row r="95" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9601,7 +9595,7 @@
       <c r="P95" s="41"/>
       <c r="Q95" s="41"/>
       <c r="R95" s="39" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
       <c r="T95" s="30"/>
     </row>
@@ -9675,7 +9669,7 @@
       <c r="P97" s="39"/>
       <c r="Q97" s="39"/>
       <c r="R97" s="39" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9717,7 +9711,7 @@
       <c r="P98" s="39"/>
       <c r="Q98" s="39"/>
       <c r="R98" s="39" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9759,7 +9753,7 @@
       <c r="P99" s="41"/>
       <c r="Q99" s="41"/>
       <c r="R99" s="39" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
     </row>
     <row r="100" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9767,13 +9761,13 @@
         <v>1</v>
       </c>
       <c r="B100" s="45" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C100" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D100" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E100" s="45" t="s">
         <v>66</v>
@@ -9784,10 +9778,10 @@
         <v>21</v>
       </c>
       <c r="D101" s="55" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E101" s="55" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F101" s="62"/>
       <c r="G101" s="55" t="s">
@@ -9817,7 +9811,7 @@
         <v>0.1</v>
       </c>
       <c r="R101" s="39" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
     </row>
     <row r="102" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9825,10 +9819,10 @@
         <v>22</v>
       </c>
       <c r="D102" s="39" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E102" s="39" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F102" s="49"/>
       <c r="G102" s="39" t="s">
@@ -9858,25 +9852,15 @@
         <v>10</v>
       </c>
       <c r="R102" s="39" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A103" s="36" t="b">
-        <v>1</v>
-      </c>
-      <c r="B103" s="36" t="s">
-        <v>736</v>
-      </c>
-      <c r="C103" s="36" t="s">
-        <v>737</v>
-      </c>
-      <c r="D103" s="36" t="s">
-        <v>737</v>
-      </c>
-      <c r="E103" s="36" t="s">
-        <v>231</v>
-      </c>
+      <c r="A103" s="36"/>
+      <c r="B103" s="36"/>
+      <c r="C103" s="36"/>
+      <c r="D103" s="36"/>
+      <c r="E103" s="36"/>
       <c r="F103" s="36"/>
       <c r="G103" s="36"/>
       <c r="H103" s="37"/>
@@ -10307,7 +10291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD37"/>
     </sheetView>
@@ -10348,7 +10332,7 @@
         <v>457</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>627</v>
@@ -10386,7 +10370,7 @@
         <v>619</v>
       </c>
       <c r="B3" s="64" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>632</v>
@@ -10484,7 +10468,7 @@
         <v>636</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>631</v>
@@ -10516,7 +10500,7 @@
         <v>637</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>630</v>
@@ -11068,7 +11052,7 @@
       <c r="B26" s="46"/>
       <c r="C26" s="29"/>
       <c r="D26" s="29" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="E26" s="29" t="s">
         <v>643</v>
@@ -11097,7 +11081,7 @@
       <c r="B27" s="46"/>
       <c r="C27" s="29"/>
       <c r="D27" s="29" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="E27" s="29" t="s">
         <v>645</v>
@@ -11126,7 +11110,7 @@
       <c r="B28" s="46"/>
       <c r="C28" s="29"/>
       <c r="D28" s="29" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E28" s="29" t="s">
         <v>651</v>
@@ -11154,7 +11138,7 @@
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
       <c r="D29" s="29" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E29" s="29" t="s">
         <v>651</v>
@@ -11182,7 +11166,7 @@
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
       <c r="D30" s="29" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="E30" s="29" t="s">
         <v>651</v>
@@ -11210,7 +11194,7 @@
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
       <c r="D31" s="29" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E31" s="29" t="s">
         <v>651</v>
@@ -11238,7 +11222,7 @@
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
       <c r="D32" s="29" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="E32" s="29" t="s">
         <v>651</v>
@@ -11266,7 +11250,7 @@
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
       <c r="D33" s="29" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="E33" s="29" t="s">
         <v>651</v>
@@ -11289,12 +11273,12 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
       <c r="D34" s="29" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="E34" s="29"/>
       <c r="F34" s="30" t="s">
@@ -11312,12 +11296,12 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B35" s="29"/>
       <c r="C35" s="29"/>
       <c r="D35" s="29" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="E35" s="29"/>
       <c r="F35" s="30" t="s">
@@ -11335,12 +11319,12 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
       <c r="D36" s="29" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="30" t="s">
@@ -11358,11 +11342,11 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="29" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B37" s="29"/>
       <c r="D37" s="29" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F37" s="30" t="s">
         <v>62</v>

--- a/projects/SEB_calibration_Rgenoud_2013.xlsx
+++ b/projects/SEB_calibration_Rgenoud_2013.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2659" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2570" uniqueCount="770">
   <si>
     <t>type</t>
   </si>
@@ -1911,33 +1911,15 @@
     <t>Measure/Variable Unique Name</t>
   </si>
   <si>
-    <t>standard_report_legacy.total_natural_gas</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.total_electricity</t>
-  </si>
-  <si>
     <t>standard_report_legacy.total_energy</t>
   </si>
   <si>
-    <t>standard_report_legacy.total_source_energy</t>
-  </si>
-  <si>
     <t>Taxonomy Identifier</t>
   </si>
   <si>
     <t>total_site_energy_intensity</t>
   </si>
   <si>
-    <t>total_source_energy_intensity</t>
-  </si>
-  <si>
-    <t>total_electricity_intensity</t>
-  </si>
-  <si>
-    <t>total_natural_gas_intensity</t>
-  </si>
-  <si>
     <t>Machine Name thats Link to Dencity Taxonomy</t>
   </si>
   <si>
@@ -1947,15 +1929,6 @@
     <t>Total Site Energy Intensity</t>
   </si>
   <si>
-    <t>Total Source Energy Intensity</t>
-  </si>
-  <si>
-    <t>Total Natural Gas Intensity</t>
-  </si>
-  <si>
-    <t>Total Electricity Intensity</t>
-  </si>
-  <si>
     <t>OSM</t>
   </si>
   <si>
@@ -2064,120 +2037,6 @@
     <t>Space Infiltration Reduction</t>
   </si>
   <si>
-    <t>Natural Gas Heating Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.heating_natural_gas</t>
-  </si>
-  <si>
-    <t>Cooling Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.cooling_electricity</t>
-  </si>
-  <si>
-    <t>Interior Lighting Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.interior_lighting_electricity</t>
-  </si>
-  <si>
-    <t>Exterior Lighting Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.exterior_lighting_electricity</t>
-  </si>
-  <si>
-    <t>Equipment Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.interior_equipment_electricity</t>
-  </si>
-  <si>
-    <t>Equipment Natural Gas Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.interior_equipment_natural_gas</t>
-  </si>
-  <si>
-    <t>Experior Equipment Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.exterior_equipment_electricity</t>
-  </si>
-  <si>
-    <t>Fans Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.fans_electricity</t>
-  </si>
-  <si>
-    <t>Pumps Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.pumps_electricity</t>
-  </si>
-  <si>
-    <t>Heat Rejection Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.heat_rejection_electricity</t>
-  </si>
-  <si>
-    <t>Humidification Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.humidification_electricity</t>
-  </si>
-  <si>
-    <t>Water Systems Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.water_systems_electricity</t>
-  </si>
-  <si>
-    <t>Water Systems Natural Gas Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.water_systems_natural_gas</t>
-  </si>
-  <si>
-    <t>Refrigeration Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.refrigeration_electricity</t>
-  </si>
-  <si>
-    <t>Unmet Cooling Hours</t>
-  </si>
-  <si>
-    <t>standard_report.time_setpoint_not_met_during_occupied_cooling</t>
-  </si>
-  <si>
-    <t>hrs</t>
-  </si>
-  <si>
-    <t>Unmet Heating Hours</t>
-  </si>
-  <si>
-    <t>standard_report.time_setpoint_not_met_during_occupied_heating</t>
-  </si>
-  <si>
-    <t>Total Unmet Hours</t>
-  </si>
-  <si>
-    <t>standard_report.time_setpoint_not_met_during_occupied_hours</t>
-  </si>
-  <si>
-    <t>Building Area</t>
-  </si>
-  <si>
-    <t>standard_report.total_building_area</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
     <t>Electric RMSE</t>
   </si>
   <si>
@@ -2335,12 +2194,6 @@
   </si>
   <si>
     <t>Short display names are used for plots and exported to metadata</t>
-  </si>
-  <si>
-    <t>NG EUI</t>
-  </si>
-  <si>
-    <t>Elec EUI</t>
   </si>
   <si>
     <t>printLevel</t>
@@ -4538,7 +4391,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4600,7 +4453,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -6853,7 +6705,7 @@
         <v>434</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>761</v>
+        <v>714</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>435</v>
@@ -6864,7 +6716,7 @@
         <v>454</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>772</v>
+        <v>723</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>455</v>
@@ -6875,7 +6727,7 @@
         <v>465</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>805</v>
+        <v>756</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>609</v>
@@ -6886,7 +6738,7 @@
         <v>466</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>770</v>
+        <v>721</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>468</v>
@@ -6899,11 +6751,11 @@
       <c r="B7" s="24" t="s">
         <v>588</v>
       </c>
-      <c r="C7" s="32" t="str">
+      <c r="C7" s="31" t="str">
         <f>VLOOKUP($B7,instance_defs,2,FALSE)&amp;VLOOKUP($B7,instance_defs,4,FALSE)</f>
         <v>4 Cores - Recommended for Server</v>
       </c>
-      <c r="D7" s="32" t="str">
+      <c r="D7" s="31" t="str">
         <f>VLOOKUP($B7,instance_defs,3,FALSE)</f>
         <v>$0.28/hour</v>
       </c>
@@ -6918,11 +6770,11 @@
       <c r="B8" s="24" t="s">
         <v>599</v>
       </c>
-      <c r="C8" s="32" t="str">
+      <c r="C8" s="31" t="str">
         <f>VLOOKUP($B8,instance_defs,2,FALSE)&amp;VLOOKUP($B8,instance_defs,4,FALSE)</f>
         <v>16 Cores - Worker Only - Recommended for Worker</v>
       </c>
-      <c r="D8" s="32" t="str">
+      <c r="D8" s="31" t="str">
         <f>VLOOKUP($B8,instance_defs,3,FALSE)</f>
         <v>$1.68/hour</v>
       </c>
@@ -6938,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="32"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="2" t="s">
         <v>602</v>
       </c>
@@ -6957,7 +6809,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>771</v>
+        <v>722</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>467</v>
@@ -6968,10 +6820,10 @@
         <v>24</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>773</v>
+        <v>724</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -6979,10 +6831,10 @@
         <v>25</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>736</v>
+        <v>689</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -7059,7 +6911,7 @@
       <c r="C22" s="29" t="s">
         <v>575</v>
       </c>
-      <c r="D22" s="34"/>
+      <c r="D22" s="33"/>
     </row>
     <row r="23" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
@@ -7071,7 +6923,7 @@
       <c r="C23" s="29" t="s">
         <v>574</v>
       </c>
-      <c r="D23" s="34"/>
+      <c r="D23" s="33"/>
     </row>
     <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
@@ -7083,7 +6935,7 @@
       <c r="C24" s="29" t="s">
         <v>579</v>
       </c>
-      <c r="D24" s="34"/>
+      <c r="D24" s="33"/>
     </row>
     <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
@@ -7095,7 +6947,7 @@
       <c r="C25" s="29" t="s">
         <v>577</v>
       </c>
-      <c r="D25" s="34"/>
+      <c r="D25" s="33"/>
     </row>
     <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
@@ -7107,7 +6959,7 @@
       <c r="C26" s="30" t="s">
         <v>578</v>
       </c>
-      <c r="D26" s="34"/>
+      <c r="D26" s="33"/>
     </row>
     <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
@@ -7119,7 +6971,7 @@
       <c r="C27" s="30" t="s">
         <v>573</v>
       </c>
-      <c r="D27" s="34"/>
+      <c r="D27" s="33"/>
     </row>
     <row r="28" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
@@ -7131,7 +6983,7 @@
       <c r="C28" s="29" t="s">
         <v>572</v>
       </c>
-      <c r="D28" s="34"/>
+      <c r="D28" s="33"/>
     </row>
     <row r="29" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
@@ -7143,7 +6995,7 @@
       <c r="C29" s="29" t="s">
         <v>571</v>
       </c>
-      <c r="D29" s="34"/>
+      <c r="D29" s="33"/>
     </row>
     <row r="30" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
@@ -7155,41 +7007,41 @@
       <c r="C30" s="29" t="s">
         <v>570</v>
       </c>
-      <c r="D30" s="34"/>
+      <c r="D30" s="33"/>
     </row>
     <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
-        <v>769</v>
+        <v>720</v>
       </c>
       <c r="B31" s="30">
         <v>1</v>
       </c>
       <c r="C31" s="29"/>
-      <c r="D31" s="34"/>
+      <c r="D31" s="33"/>
     </row>
     <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
-        <v>768</v>
+        <v>719</v>
       </c>
       <c r="B32" s="29">
         <v>1</v>
       </c>
       <c r="C32" s="29"/>
-      <c r="D32" s="34"/>
+      <c r="D32" s="33"/>
     </row>
     <row r="33" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
-        <v>767</v>
+        <v>718</v>
       </c>
       <c r="B33" s="29">
         <v>3</v>
       </c>
-      <c r="C33" s="33"/>
+      <c r="C33" s="32"/>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="29"/>
-      <c r="C34" s="33"/>
+      <c r="C34" s="32"/>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7197,7 +7049,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>30</v>
@@ -7210,7 +7062,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>774</v>
+        <v>725</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7224,7 +7076,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>447</v>
@@ -7235,10 +7087,10 @@
         <v>31</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>775</v>
+        <v>726</v>
       </c>
       <c r="E39" s="2"/>
     </row>
@@ -7250,7 +7102,7 @@
         <v>33</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="13" t="s">
@@ -7259,13 +7111,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="30" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>776</v>
+        <v>727</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7333,7 +7185,7 @@
         <v>39</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="59"/>
+      <c r="F1" s="58"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="6"/>
@@ -7345,21 +7197,21 @@
       <c r="M1" s="22"/>
       <c r="N1" s="22"/>
       <c r="O1" s="22"/>
-      <c r="P1" s="35" t="s">
+      <c r="P1" s="34" t="s">
         <v>470</v>
       </c>
       <c r="Q1" s="23"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="65" t="s">
+      <c r="U1" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
     </row>
     <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -7374,7 +7226,7 @@
       <c r="D2" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="F2" s="60"/>
+      <c r="F2" s="59"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
@@ -7394,8 +7246,8 @@
       <c r="E3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="61" t="s">
-        <v>762</v>
+      <c r="F3" s="60" t="s">
+        <v>715</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>11</v>
@@ -7455,41 +7307,41 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="b">
+    <row r="4" spans="1:26" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>777</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>778</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>778</v>
-      </c>
-      <c r="E4" s="36" t="s">
+      <c r="B4" s="35" t="s">
+        <v>728</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>729</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>729</v>
+      </c>
+      <c r="E4" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>779</v>
+        <v>730</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>780</v>
-      </c>
-      <c r="F5" s="62"/>
+        <v>731</v>
+      </c>
+      <c r="F5" s="61"/>
       <c r="G5" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>781</v>
+        <v>732</v>
       </c>
       <c r="J5" s="30"/>
     </row>
@@ -7498,17 +7350,17 @@
         <v>21</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>782</v>
+        <v>733</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="62"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>783</v>
+        <v>734</v>
       </c>
       <c r="J6" s="30"/>
     </row>
@@ -7517,17 +7369,17 @@
         <v>21</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>784</v>
+        <v>735</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>785</v>
-      </c>
-      <c r="F7" s="62"/>
+        <v>736</v>
+      </c>
+      <c r="F7" s="61"/>
       <c r="G7" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>786</v>
+        <v>737</v>
       </c>
       <c r="J7" s="30"/>
     </row>
@@ -7536,17 +7388,17 @@
         <v>21</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>787</v>
+        <v>738</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>788</v>
-      </c>
-      <c r="F8" s="62"/>
+        <v>739</v>
+      </c>
+      <c r="F8" s="61"/>
       <c r="G8" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="J8" s="30"/>
     </row>
@@ -7555,17 +7407,17 @@
         <v>21</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>789</v>
+        <v>740</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>790</v>
-      </c>
-      <c r="F9" s="62"/>
+        <v>741</v>
+      </c>
+      <c r="F9" s="61"/>
       <c r="G9" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>791</v>
+        <v>742</v>
       </c>
       <c r="J9" s="30"/>
     </row>
@@ -7574,17 +7426,17 @@
         <v>21</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>719</v>
+        <v>672</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>720</v>
-      </c>
-      <c r="F10" s="62"/>
+        <v>673</v>
+      </c>
+      <c r="F10" s="61"/>
       <c r="G10" s="30" t="s">
-        <v>718</v>
-      </c>
-      <c r="I10" s="47" t="s">
-        <v>745</v>
+        <v>671</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>698</v>
       </c>
       <c r="J10" s="30"/>
     </row>
@@ -7593,17 +7445,17 @@
         <v>21</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>721</v>
+        <v>674</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>722</v>
-      </c>
-      <c r="F11" s="62"/>
+        <v>675</v>
+      </c>
+      <c r="F11" s="61"/>
       <c r="G11" s="30" t="s">
-        <v>718</v>
-      </c>
-      <c r="I11" s="47" t="s">
-        <v>746</v>
+        <v>671</v>
+      </c>
+      <c r="I11" s="46" t="s">
+        <v>699</v>
       </c>
       <c r="J11" s="30"/>
     </row>
@@ -7612,17 +7464,17 @@
         <v>21</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>792</v>
+        <v>743</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>793</v>
-      </c>
-      <c r="F12" s="62"/>
+        <v>744</v>
+      </c>
+      <c r="F12" s="61"/>
       <c r="G12" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="47" t="s">
-        <v>794</v>
+      <c r="I12" s="46" t="s">
+        <v>745</v>
       </c>
       <c r="J12" s="30"/>
     </row>
@@ -7631,55 +7483,55 @@
         <v>21</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>801</v>
+        <v>752</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>802</v>
-      </c>
-      <c r="F13" s="62"/>
+        <v>753</v>
+      </c>
+      <c r="F13" s="61"/>
       <c r="G13" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="47" t="s">
-        <v>794</v>
+      <c r="I13" s="46" t="s">
+        <v>745</v>
       </c>
       <c r="J13" s="30"/>
     </row>
-    <row r="14" spans="1:26" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36" t="b">
+    <row r="14" spans="1:26" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>795</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>778</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>778</v>
-      </c>
-      <c r="E14" s="36" t="s">
+      <c r="B14" s="35" t="s">
+        <v>746</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>729</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>729</v>
+      </c>
+      <c r="E14" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B15" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>779</v>
+        <v>730</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>780</v>
-      </c>
-      <c r="F15" s="62"/>
+        <v>731</v>
+      </c>
+      <c r="F15" s="61"/>
       <c r="G15" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>796</v>
+        <v>747</v>
       </c>
       <c r="J15" s="30"/>
     </row>
@@ -7688,17 +7540,17 @@
         <v>21</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>782</v>
+        <v>733</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="F16" s="62"/>
+      <c r="F16" s="61"/>
       <c r="G16" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>797</v>
+        <v>748</v>
       </c>
       <c r="J16" s="30"/>
     </row>
@@ -7707,17 +7559,17 @@
         <v>21</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>784</v>
+        <v>735</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>785</v>
-      </c>
-      <c r="F17" s="62"/>
+        <v>736</v>
+      </c>
+      <c r="F17" s="61"/>
       <c r="G17" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>798</v>
+        <v>749</v>
       </c>
       <c r="J17" s="30"/>
     </row>
@@ -7726,17 +7578,17 @@
         <v>21</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>787</v>
+        <v>738</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>788</v>
-      </c>
-      <c r="F18" s="62"/>
+        <v>739</v>
+      </c>
+      <c r="F18" s="61"/>
       <c r="G18" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="J18" s="30"/>
     </row>
@@ -7745,17 +7597,17 @@
         <v>21</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>789</v>
+        <v>740</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>790</v>
-      </c>
-      <c r="F19" s="62"/>
+        <v>741</v>
+      </c>
+      <c r="F19" s="61"/>
       <c r="G19" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>799</v>
+        <v>750</v>
       </c>
       <c r="J19" s="30"/>
     </row>
@@ -7764,17 +7616,17 @@
         <v>21</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>719</v>
+        <v>672</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>720</v>
-      </c>
-      <c r="F20" s="62"/>
+        <v>673</v>
+      </c>
+      <c r="F20" s="61"/>
       <c r="G20" s="30" t="s">
-        <v>718</v>
-      </c>
-      <c r="I20" s="47" t="s">
-        <v>745</v>
+        <v>671</v>
+      </c>
+      <c r="I20" s="46" t="s">
+        <v>698</v>
       </c>
       <c r="J20" s="30"/>
     </row>
@@ -7783,17 +7635,17 @@
         <v>21</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>721</v>
+        <v>674</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>722</v>
-      </c>
-      <c r="F21" s="62"/>
+        <v>675</v>
+      </c>
+      <c r="F21" s="61"/>
       <c r="G21" s="30" t="s">
-        <v>718</v>
-      </c>
-      <c r="I21" s="47" t="s">
-        <v>746</v>
+        <v>671</v>
+      </c>
+      <c r="I21" s="46" t="s">
+        <v>699</v>
       </c>
       <c r="J21" s="30"/>
     </row>
@@ -7802,53 +7654,53 @@
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>792</v>
+        <v>743</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>793</v>
-      </c>
-      <c r="F22" s="62"/>
+        <v>744</v>
+      </c>
+      <c r="F22" s="61"/>
       <c r="G22" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I22" s="47" t="s">
-        <v>800</v>
+      <c r="I22" s="46" t="s">
+        <v>751</v>
       </c>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="36" t="b">
+    <row r="23" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="B23" s="36" t="s">
-        <v>803</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>806</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>806</v>
-      </c>
-      <c r="E23" s="36" t="s">
+      <c r="B23" s="35" t="s">
+        <v>754</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>757</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>757</v>
+      </c>
+      <c r="E23" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-    </row>
-    <row r="24" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="44" t="b">
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+    </row>
+    <row r="24" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="43" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7862,7 +7714,7 @@
       <c r="E25" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="62"/>
+      <c r="F25" s="61"/>
       <c r="G25" s="29" t="s">
         <v>60</v>
       </c>
@@ -7874,41 +7726,41 @@
       </c>
       <c r="P25" s="30"/>
     </row>
-    <row r="26" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="39" t="s">
+    <row r="26" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="40" t="s">
-        <v>673</v>
-      </c>
-      <c r="E26" s="39" t="s">
+      <c r="D26" s="39" t="s">
+        <v>664</v>
+      </c>
+      <c r="E26" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="49"/>
-      <c r="G26" s="39" t="s">
+      <c r="F26" s="48"/>
+      <c r="G26" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="39">
-        <v>0</v>
-      </c>
-      <c r="K26" s="41">
-        <v>0</v>
-      </c>
-      <c r="L26" s="41">
+      <c r="I26" s="38">
+        <v>0</v>
+      </c>
+      <c r="K26" s="40">
+        <v>0</v>
+      </c>
+      <c r="L26" s="40">
         <v>100</v>
       </c>
-      <c r="M26" s="41">
+      <c r="M26" s="40">
         <v>15</v>
       </c>
-      <c r="N26" s="41">
+      <c r="N26" s="40">
         <f>(L26-K26)/6</f>
         <v>16.666666666666668</v>
       </c>
-      <c r="O26" s="41">
+      <c r="O26" s="40">
         <v>1</v>
       </c>
-      <c r="R26" s="39" t="s">
-        <v>804</v>
+      <c r="R26" s="38" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7916,12 +7768,12 @@
         <v>21</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>666</v>
-      </c>
-      <c r="F27" s="62"/>
+        <v>657</v>
+      </c>
+      <c r="F27" s="61"/>
       <c r="G27" s="29" t="s">
         <v>62</v>
       </c>
@@ -7929,41 +7781,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="56" t="s">
-        <v>668</v>
-      </c>
-      <c r="E28" s="55" t="s">
-        <v>667</v>
-      </c>
-      <c r="F28" s="62"/>
-      <c r="G28" s="55" t="s">
+    <row r="28" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="55" t="s">
+        <v>659</v>
+      </c>
+      <c r="E28" s="54" t="s">
+        <v>658</v>
+      </c>
+      <c r="F28" s="61"/>
+      <c r="G28" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="I28" s="55">
-        <v>0</v>
-      </c>
-      <c r="K28" s="57">
-        <v>0</v>
-      </c>
-      <c r="L28" s="57">
+      <c r="I28" s="54">
+        <v>0</v>
+      </c>
+      <c r="K28" s="56">
+        <v>0</v>
+      </c>
+      <c r="L28" s="56">
         <v>0.1</v>
       </c>
-      <c r="M28" s="57">
+      <c r="M28" s="56">
         <v>0.05</v>
       </c>
-      <c r="N28" s="57">
+      <c r="N28" s="56">
         <f>(L28-K28)/6</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="O28" s="57">
+      <c r="O28" s="56">
         <v>0.01</v>
       </c>
-      <c r="R28" s="39" t="s">
-        <v>804</v>
+      <c r="R28" s="38" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7971,12 +7823,12 @@
         <v>21</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>669</v>
-      </c>
-      <c r="F29" s="62"/>
+        <v>660</v>
+      </c>
+      <c r="F29" s="61"/>
       <c r="G29" s="29" t="s">
         <v>62</v>
       </c>
@@ -7989,12 +7841,12 @@
         <v>21</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>671</v>
-      </c>
-      <c r="F30" s="63"/>
+        <v>662</v>
+      </c>
+      <c r="F30" s="62"/>
       <c r="G30" s="29" t="s">
         <v>62</v>
       </c>
@@ -8012,7 +7864,7 @@
       <c r="E31" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="63"/>
+      <c r="F31" s="62"/>
       <c r="G31" s="29" t="s">
         <v>62</v>
       </c>
@@ -8030,7 +7882,7 @@
       <c r="E32" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="63"/>
+      <c r="F32" s="62"/>
       <c r="G32" s="29" t="s">
         <v>62</v>
       </c>
@@ -8048,7 +7900,7 @@
       <c r="E33" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="63"/>
+      <c r="F33" s="62"/>
       <c r="G33" s="29" t="s">
         <v>63</v>
       </c>
@@ -8057,20 +7909,20 @@
       </c>
       <c r="P33" s="30"/>
     </row>
-    <row r="34" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="45" t="b">
+    <row r="34" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="45" t="s">
+      <c r="D34" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="45" t="s">
+      <c r="E34" s="44" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8086,7 +7938,7 @@
       <c r="E35" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="63"/>
+      <c r="F35" s="62"/>
       <c r="G35" s="29" t="s">
         <v>60</v>
       </c>
@@ -8102,45 +7954,45 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
-      <c r="Q35" s="38"/>
-    </row>
-    <row r="36" spans="1:18" s="51" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="51" t="s">
-        <v>649</v>
-      </c>
-      <c r="E36" s="51" t="s">
+      <c r="Q35" s="37"/>
+    </row>
+    <row r="36" spans="1:18" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>640</v>
+      </c>
+      <c r="E36" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="F36" s="63"/>
-      <c r="G36" s="51" t="s">
+      <c r="F36" s="62"/>
+      <c r="G36" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="I36" s="51">
-        <v>0</v>
-      </c>
-      <c r="J36" s="52"/>
-      <c r="K36" s="53">
+      <c r="I36" s="50">
+        <v>0</v>
+      </c>
+      <c r="J36" s="51"/>
+      <c r="K36" s="52">
         <v>-40</v>
       </c>
-      <c r="L36" s="53">
+      <c r="L36" s="52">
         <v>40</v>
       </c>
-      <c r="M36" s="53">
-        <v>0</v>
-      </c>
-      <c r="N36" s="53">
+      <c r="M36" s="52">
+        <v>0</v>
+      </c>
+      <c r="N36" s="52">
         <f>(L36-K36)/6</f>
         <v>13.333333333333334</v>
       </c>
-      <c r="O36" s="53">
+      <c r="O36" s="52">
         <v>1</v>
       </c>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="39" t="s">
-        <v>804</v>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="38" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -8149,13 +8001,13 @@
         <v>21</v>
       </c>
       <c r="C37" s="29"/>
-      <c r="D37" s="43" t="s">
+      <c r="D37" s="42" t="s">
         <v>45</v>
       </c>
       <c r="E37" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="63"/>
+      <c r="F37" s="62"/>
       <c r="G37" s="29" t="s">
         <v>62</v>
       </c>
@@ -8168,7 +8020,7 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="Q37" s="38"/>
+      <c r="Q37" s="37"/>
     </row>
     <row r="38" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="29"/>
@@ -8182,7 +8034,7 @@
       <c r="E38" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="63"/>
+      <c r="F38" s="62"/>
       <c r="G38" s="29" t="s">
         <v>62</v>
       </c>
@@ -8195,7 +8047,7 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-      <c r="Q38" s="38"/>
+      <c r="Q38" s="37"/>
     </row>
     <row r="39" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="29"/>
@@ -8209,7 +8061,7 @@
       <c r="E39" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="63"/>
+      <c r="F39" s="62"/>
       <c r="G39" s="29" t="s">
         <v>63</v>
       </c>
@@ -8222,7 +8074,7 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-      <c r="Q39" s="38"/>
+      <c r="Q39" s="37"/>
     </row>
     <row r="40" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="29"/>
@@ -8236,7 +8088,7 @@
       <c r="E40" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F40" s="63"/>
+      <c r="F40" s="62"/>
       <c r="G40" s="29" t="s">
         <v>61</v>
       </c>
@@ -8249,7 +8101,7 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-      <c r="Q40" s="38"/>
+      <c r="Q40" s="37"/>
     </row>
     <row r="41" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="29"/>
@@ -8263,7 +8115,7 @@
       <c r="E41" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="63"/>
+      <c r="F41" s="62"/>
       <c r="G41" s="29" t="s">
         <v>63</v>
       </c>
@@ -8276,7 +8128,7 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-      <c r="Q41" s="38"/>
+      <c r="Q41" s="37"/>
     </row>
     <row r="42" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="29"/>
@@ -8290,7 +8142,7 @@
       <c r="E42" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F42" s="63"/>
+      <c r="F42" s="62"/>
       <c r="G42" s="29" t="s">
         <v>62</v>
       </c>
@@ -8303,7 +8155,7 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
-      <c r="Q42" s="38"/>
+      <c r="Q42" s="37"/>
     </row>
     <row r="43" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="29"/>
@@ -8317,7 +8169,7 @@
       <c r="E43" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F43" s="63"/>
+      <c r="F43" s="62"/>
       <c r="G43" s="29" t="s">
         <v>63</v>
       </c>
@@ -8330,22 +8182,22 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
-      <c r="Q43" s="38"/>
-    </row>
-    <row r="44" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="45" t="b">
+      <c r="Q43" s="37"/>
+    </row>
+    <row r="44" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="44" t="s">
         <v>283</v>
       </c>
-      <c r="C44" s="45" t="s">
+      <c r="C44" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="D44" s="45" t="s">
+      <c r="D44" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="E44" s="45" t="s">
+      <c r="E44" s="44" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8359,7 +8211,7 @@
       <c r="E45" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="63"/>
+      <c r="F45" s="62"/>
       <c r="G45" s="29" t="s">
         <v>60</v>
       </c>
@@ -8370,45 +8222,45 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="39" t="s">
+    <row r="46" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="39" t="s">
-        <v>650</v>
-      </c>
-      <c r="E46" s="39" t="s">
+      <c r="D46" s="38" t="s">
+        <v>641</v>
+      </c>
+      <c r="E46" s="38" t="s">
         <v>286</v>
       </c>
-      <c r="F46" s="49"/>
-      <c r="G46" s="39" t="s">
+      <c r="F46" s="48"/>
+      <c r="G46" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H46" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="I46" s="39">
-        <v>0</v>
-      </c>
-      <c r="J46" s="42"/>
-      <c r="K46" s="41">
+      <c r="H46" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I46" s="38">
+        <v>0</v>
+      </c>
+      <c r="J46" s="41"/>
+      <c r="K46" s="40">
         <v>-80</v>
       </c>
-      <c r="L46" s="41">
+      <c r="L46" s="40">
         <v>80</v>
       </c>
-      <c r="M46" s="41">
-        <v>0</v>
-      </c>
-      <c r="N46" s="41">
+      <c r="M46" s="40">
+        <v>0</v>
+      </c>
+      <c r="N46" s="40">
         <f>(L46-K46)/6</f>
         <v>26.666666666666668</v>
       </c>
-      <c r="O46" s="41">
+      <c r="O46" s="40">
         <v>1</v>
       </c>
-      <c r="R46" s="39" t="s">
-        <v>804</v>
+      <c r="R46" s="38" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="47" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8416,17 +8268,17 @@
         <v>21</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="E47" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F47" s="63"/>
+      <c r="F47" s="62"/>
       <c r="G47" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H47" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I47" s="29">
         <v>0</v>
@@ -8437,17 +8289,17 @@
         <v>21</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="E48" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F48" s="62"/>
+      <c r="F48" s="61"/>
       <c r="G48" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H48" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I48" s="29">
         <v>0</v>
@@ -8458,17 +8310,17 @@
         <v>21</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="E49" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F49" s="62"/>
+      <c r="F49" s="61"/>
       <c r="G49" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H49" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I49" s="29">
         <v>0</v>
@@ -8479,12 +8331,12 @@
         <v>21</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="E50" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F50" s="62"/>
+      <c r="F50" s="61"/>
       <c r="G50" s="29" t="s">
         <v>61</v>
       </c>
@@ -8497,17 +8349,17 @@
         <v>21</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="E51" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F51" s="62"/>
+      <c r="F51" s="61"/>
       <c r="G51" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H51" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I51" s="29">
         <v>15</v>
@@ -8518,17 +8370,17 @@
         <v>21</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="E52" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F52" s="62"/>
+      <c r="F52" s="61"/>
       <c r="G52" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H52" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I52" s="29">
         <v>0</v>
@@ -8539,36 +8391,36 @@
         <v>21</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="E53" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F53" s="63"/>
+      <c r="F53" s="62"/>
       <c r="G53" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H53" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I53" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="45" t="b">
+    <row r="54" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B54" s="45" t="s">
-        <v>741</v>
-      </c>
-      <c r="C54" s="45" t="s">
-        <v>742</v>
-      </c>
-      <c r="D54" s="45" t="s">
-        <v>742</v>
-      </c>
-      <c r="E54" s="45" t="s">
+      <c r="B54" s="44" t="s">
+        <v>694</v>
+      </c>
+      <c r="C54" s="44" t="s">
+        <v>695</v>
+      </c>
+      <c r="D54" s="44" t="s">
+        <v>695</v>
+      </c>
+      <c r="E54" s="44" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8582,56 +8434,56 @@
       <c r="E55" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F55" s="63"/>
+      <c r="F55" s="62"/>
       <c r="G55" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I55" s="50" t="s">
+      <c r="I55" s="49" t="s">
         <v>415</v>
       </c>
       <c r="J55" s="29" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="56" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B56" s="39" t="s">
+    <row r="56" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B56" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="39" t="s">
-        <v>743</v>
-      </c>
-      <c r="E56" s="39" t="s">
-        <v>744</v>
-      </c>
-      <c r="F56" s="49"/>
-      <c r="G56" s="39" t="s">
+      <c r="D56" s="38" t="s">
+        <v>696</v>
+      </c>
+      <c r="E56" s="38" t="s">
+        <v>697</v>
+      </c>
+      <c r="F56" s="48"/>
+      <c r="G56" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H56" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="I56" s="39">
+      <c r="H56" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I56" s="38">
         <v>0.8</v>
       </c>
-      <c r="J56" s="42"/>
-      <c r="K56" s="41">
+      <c r="J56" s="41"/>
+      <c r="K56" s="40">
         <v>0.78</v>
       </c>
-      <c r="L56" s="41">
+      <c r="L56" s="40">
         <v>0.98</v>
       </c>
-      <c r="M56" s="41">
+      <c r="M56" s="40">
         <v>0.8</v>
       </c>
-      <c r="N56" s="41">
+      <c r="N56" s="40">
         <f>(L56-K56)/6</f>
         <v>3.3333333333333326E-2</v>
       </c>
-      <c r="O56" s="41">
+      <c r="O56" s="40">
         <v>1</v>
       </c>
-      <c r="R56" s="39" t="s">
-        <v>804</v>
+      <c r="R56" s="38" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8657,7 +8509,7 @@
         <v>21</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="E58" s="29" t="s">
         <v>126</v>
@@ -8667,7 +8519,7 @@
         <v>62</v>
       </c>
       <c r="H58" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I58" s="29">
         <v>0</v>
@@ -8678,7 +8530,7 @@
         <v>21</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="E59" s="29" t="s">
         <v>48</v>
@@ -8688,7 +8540,7 @@
         <v>62</v>
       </c>
       <c r="H59" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I59" s="29">
         <v>0</v>
@@ -8699,7 +8551,7 @@
         <v>21</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="E60" s="29" t="s">
         <v>50</v>
@@ -8709,7 +8561,7 @@
         <v>63</v>
       </c>
       <c r="H60" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I60" s="29">
         <v>0</v>
@@ -8720,12 +8572,12 @@
         <v>21</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="E61" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F61" s="63"/>
+      <c r="F61" s="62"/>
       <c r="G61" s="29" t="s">
         <v>61</v>
       </c>
@@ -8738,17 +8590,17 @@
         <v>21</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="E62" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F62" s="63"/>
+      <c r="F62" s="62"/>
       <c r="G62" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H62" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I62" s="29">
         <v>15</v>
@@ -8759,17 +8611,17 @@
         <v>21</v>
       </c>
       <c r="D63" s="29" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="E63" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F63" s="63"/>
+      <c r="F63" s="62"/>
       <c r="G63" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H63" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I63" s="29">
         <v>0</v>
@@ -8780,36 +8632,36 @@
         <v>21</v>
       </c>
       <c r="D64" s="29" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="E64" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F64" s="63"/>
+      <c r="F64" s="62"/>
       <c r="G64" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H64" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I64" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="45" t="b">
+    <row r="65" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B65" s="45" t="s">
-        <v>748</v>
-      </c>
-      <c r="C65" s="45" t="s">
-        <v>747</v>
-      </c>
-      <c r="D65" s="45" t="s">
-        <v>747</v>
-      </c>
-      <c r="E65" s="45" t="s">
+      <c r="B65" s="44" t="s">
+        <v>701</v>
+      </c>
+      <c r="C65" s="44" t="s">
+        <v>700</v>
+      </c>
+      <c r="D65" s="44" t="s">
+        <v>700</v>
+      </c>
+      <c r="E65" s="44" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8818,61 +8670,61 @@
         <v>21</v>
       </c>
       <c r="D66" s="29" t="s">
-        <v>749</v>
+        <v>702</v>
       </c>
       <c r="E66" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F66" s="63"/>
+      <c r="F66" s="62"/>
       <c r="G66" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I66" s="50" t="s">
+      <c r="I66" s="49" t="s">
         <v>415</v>
       </c>
       <c r="J66" s="29" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="67" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B67" s="39" t="s">
+    <row r="67" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D67" s="39" t="s">
-        <v>750</v>
-      </c>
-      <c r="E67" s="39" t="s">
-        <v>751</v>
-      </c>
-      <c r="F67" s="49"/>
-      <c r="G67" s="39" t="s">
+      <c r="D67" s="38" t="s">
+        <v>703</v>
+      </c>
+      <c r="E67" s="38" t="s">
+        <v>704</v>
+      </c>
+      <c r="F67" s="48"/>
+      <c r="G67" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H67" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="I67" s="39">
+      <c r="H67" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I67" s="38">
         <v>4</v>
       </c>
-      <c r="J67" s="42"/>
-      <c r="K67" s="41">
-        <v>2</v>
-      </c>
-      <c r="L67" s="41">
+      <c r="J67" s="41"/>
+      <c r="K67" s="40">
+        <v>2</v>
+      </c>
+      <c r="L67" s="40">
         <v>5</v>
       </c>
-      <c r="M67" s="41">
+      <c r="M67" s="40">
         <v>4</v>
       </c>
-      <c r="N67" s="41">
+      <c r="N67" s="40">
         <f>(L67-K67)/6</f>
         <v>0.5</v>
       </c>
-      <c r="O67" s="41">
+      <c r="O67" s="40">
         <v>0.25</v>
       </c>
-      <c r="R67" s="39" t="s">
-        <v>804</v>
+      <c r="R67" s="38" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8885,7 +8737,7 @@
       <c r="E68" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F68" s="63"/>
+      <c r="F68" s="62"/>
       <c r="G68" s="29" t="s">
         <v>61</v>
       </c>
@@ -8898,17 +8750,17 @@
         <v>21</v>
       </c>
       <c r="D69" s="29" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="E69" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="F69" s="63"/>
+      <c r="F69" s="62"/>
       <c r="G69" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H69" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I69" s="29">
         <v>0</v>
@@ -8919,17 +8771,17 @@
         <v>21</v>
       </c>
       <c r="D70" s="29" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="E70" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F70" s="63"/>
+      <c r="F70" s="62"/>
       <c r="G70" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H70" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I70" s="29">
         <v>0</v>
@@ -8940,17 +8792,17 @@
         <v>21</v>
       </c>
       <c r="D71" s="29" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="E71" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F71" s="63"/>
+      <c r="F71" s="62"/>
       <c r="G71" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H71" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I71" s="29">
         <v>0</v>
@@ -8961,12 +8813,12 @@
         <v>21</v>
       </c>
       <c r="D72" s="29" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="E72" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F72" s="63"/>
+      <c r="F72" s="62"/>
       <c r="G72" s="29" t="s">
         <v>61</v>
       </c>
@@ -8979,17 +8831,17 @@
         <v>21</v>
       </c>
       <c r="D73" s="29" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="E73" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F73" s="63"/>
+      <c r="F73" s="62"/>
       <c r="G73" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H73" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I73" s="29">
         <v>15</v>
@@ -9000,17 +8852,17 @@
         <v>21</v>
       </c>
       <c r="D74" s="29" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="E74" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F74" s="63"/>
+      <c r="F74" s="62"/>
       <c r="G74" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H74" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I74" s="29">
         <v>0</v>
@@ -9021,36 +8873,36 @@
         <v>21</v>
       </c>
       <c r="D75" s="29" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="E75" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F75" s="63"/>
+      <c r="F75" s="62"/>
       <c r="G75" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H75" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I75" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="45" t="b">
+    <row r="76" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B76" s="45" t="s">
+      <c r="B76" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="C76" s="45" t="s">
+      <c r="C76" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="D76" s="45" t="s">
+      <c r="D76" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="E76" s="45" t="s">
+      <c r="E76" s="44" t="s">
         <v>66</v>
       </c>
     </row>
@@ -9064,97 +8916,97 @@
       <c r="E77" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F77" s="63"/>
+      <c r="F77" s="62"/>
       <c r="G77" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I77" s="50" t="s">
+      <c r="I77" s="49" t="s">
         <v>415</v>
       </c>
       <c r="J77" s="29" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="78" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B78" s="39" t="s">
+    <row r="78" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B78" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="39" t="s">
-        <v>752</v>
-      </c>
-      <c r="E78" s="39" t="s">
+      <c r="D78" s="38" t="s">
+        <v>705</v>
+      </c>
+      <c r="E78" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="F78" s="49"/>
-      <c r="G78" s="39" t="s">
+      <c r="F78" s="48"/>
+      <c r="G78" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H78" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="I78" s="39">
-        <v>0</v>
-      </c>
-      <c r="J78" s="42"/>
-      <c r="K78" s="41">
+      <c r="H78" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I78" s="38">
+        <v>0</v>
+      </c>
+      <c r="J78" s="41"/>
+      <c r="K78" s="40">
         <v>-20</v>
       </c>
-      <c r="L78" s="41">
+      <c r="L78" s="40">
         <v>14</v>
       </c>
-      <c r="M78" s="41">
-        <v>0</v>
-      </c>
-      <c r="N78" s="41">
+      <c r="M78" s="40">
+        <v>0</v>
+      </c>
+      <c r="N78" s="40">
         <f>(L78-K78)/6</f>
         <v>5.666666666666667</v>
       </c>
-      <c r="O78" s="41">
+      <c r="O78" s="40">
         <v>1</v>
       </c>
-      <c r="R78" s="39" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B79" s="39" t="s">
+      <c r="R78" s="38" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B79" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D79" s="39" t="s">
-        <v>753</v>
-      </c>
-      <c r="E79" s="39" t="s">
-        <v>754</v>
-      </c>
-      <c r="F79" s="49"/>
-      <c r="G79" s="39" t="s">
+      <c r="D79" s="38" t="s">
+        <v>706</v>
+      </c>
+      <c r="E79" s="38" t="s">
+        <v>707</v>
+      </c>
+      <c r="F79" s="48"/>
+      <c r="G79" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H79" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="I79" s="39">
-        <v>0</v>
-      </c>
-      <c r="J79" s="42"/>
-      <c r="K79" s="41">
+      <c r="H79" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I79" s="38">
+        <v>0</v>
+      </c>
+      <c r="J79" s="41"/>
+      <c r="K79" s="40">
         <v>-20</v>
       </c>
-      <c r="L79" s="41">
+      <c r="L79" s="40">
         <v>30</v>
       </c>
-      <c r="M79" s="41">
-        <v>0</v>
-      </c>
-      <c r="N79" s="41">
+      <c r="M79" s="40">
+        <v>0</v>
+      </c>
+      <c r="N79" s="40">
         <f>(L79-K79)/6</f>
         <v>8.3333333333333339</v>
       </c>
-      <c r="O79" s="41">
+      <c r="O79" s="40">
         <v>1</v>
       </c>
-      <c r="R79" s="39" t="s">
-        <v>804</v>
+      <c r="R79" s="38" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9167,7 +9019,7 @@
       <c r="E80" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F80" s="63"/>
+      <c r="F80" s="62"/>
       <c r="G80" s="29" t="s">
         <v>61</v>
       </c>
@@ -9180,17 +9032,17 @@
         <v>21</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="E81" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="F81" s="63"/>
+      <c r="F81" s="62"/>
       <c r="G81" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H81" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I81" s="29">
         <v>0</v>
@@ -9201,17 +9053,17 @@
         <v>21</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="E82" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F82" s="63"/>
+      <c r="F82" s="62"/>
       <c r="G82" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H82" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I82" s="29">
         <v>0</v>
@@ -9222,17 +9074,17 @@
         <v>21</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="E83" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F83" s="63"/>
+      <c r="F83" s="62"/>
       <c r="G83" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H83" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I83" s="29">
         <v>0</v>
@@ -9243,12 +9095,12 @@
         <v>21</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="E84" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F84" s="62"/>
+      <c r="F84" s="61"/>
       <c r="G84" s="29" t="s">
         <v>61</v>
       </c>
@@ -9261,17 +9113,17 @@
         <v>21</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="E85" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F85" s="62"/>
+      <c r="F85" s="61"/>
       <c r="G85" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H85" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I85" s="29">
         <v>15</v>
@@ -9282,17 +9134,17 @@
         <v>21</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="E86" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F86" s="62"/>
+      <c r="F86" s="61"/>
       <c r="G86" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H86" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I86" s="29">
         <v>0</v>
@@ -9303,119 +9155,119 @@
         <v>21</v>
       </c>
       <c r="D87" s="29" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="E87" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F87" s="62"/>
+      <c r="F87" s="61"/>
       <c r="G87" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H87" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I87" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:20" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="45" t="b">
+    <row r="88" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B88" s="45" t="s">
+      <c r="B88" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="C88" s="45" t="s">
-        <v>660</v>
-      </c>
-      <c r="D88" s="45" t="s">
-        <v>660</v>
-      </c>
-      <c r="E88" s="45" t="s">
+      <c r="C88" s="44" t="s">
+        <v>651</v>
+      </c>
+      <c r="D88" s="44" t="s">
+        <v>651</v>
+      </c>
+      <c r="E88" s="44" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="1:20" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B89" s="39" t="s">
+    <row r="89" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B89" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D89" s="39" t="s">
-        <v>661</v>
-      </c>
-      <c r="E89" s="39" t="s">
+      <c r="D89" s="38" t="s">
+        <v>652</v>
+      </c>
+      <c r="E89" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="F89" s="49"/>
-      <c r="G89" s="39" t="s">
+      <c r="F89" s="48"/>
+      <c r="G89" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H89" s="39" t="s">
-        <v>662</v>
-      </c>
-      <c r="I89" s="39">
-        <v>0</v>
-      </c>
-      <c r="J89" s="42"/>
-      <c r="K89" s="41">
+      <c r="H89" s="38" t="s">
+        <v>653</v>
+      </c>
+      <c r="I89" s="38">
+        <v>0</v>
+      </c>
+      <c r="J89" s="41"/>
+      <c r="K89" s="40">
         <v>-6</v>
       </c>
-      <c r="L89" s="41">
-        <v>2</v>
-      </c>
-      <c r="M89" s="41">
-        <v>0</v>
-      </c>
-      <c r="N89" s="41">
+      <c r="L89" s="40">
+        <v>2</v>
+      </c>
+      <c r="M89" s="40">
+        <v>0</v>
+      </c>
+      <c r="N89" s="40">
         <f>(L89-K89)/6</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="O89" s="41">
+      <c r="O89" s="40">
         <v>1</v>
       </c>
-      <c r="R89" s="39" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B90" s="39" t="s">
+      <c r="R89" s="38" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B90" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D90" s="39" t="s">
-        <v>663</v>
-      </c>
-      <c r="E90" s="39" t="s">
+      <c r="D90" s="38" t="s">
+        <v>654</v>
+      </c>
+      <c r="E90" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="F90" s="49"/>
-      <c r="G90" s="39" t="s">
+      <c r="F90" s="48"/>
+      <c r="G90" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H90" s="39" t="s">
-        <v>662</v>
-      </c>
-      <c r="I90" s="39">
-        <v>0</v>
-      </c>
-      <c r="J90" s="42"/>
-      <c r="K90" s="41">
+      <c r="H90" s="38" t="s">
+        <v>653</v>
+      </c>
+      <c r="I90" s="38">
+        <v>0</v>
+      </c>
+      <c r="J90" s="41"/>
+      <c r="K90" s="40">
         <v>-5</v>
       </c>
-      <c r="L90" s="41">
+      <c r="L90" s="40">
         <v>3.9</v>
       </c>
-      <c r="M90" s="41">
-        <v>0</v>
-      </c>
-      <c r="N90" s="41">
+      <c r="M90" s="40">
+        <v>0</v>
+      </c>
+      <c r="N90" s="40">
         <f>(L90-K90)/6</f>
         <v>1.4833333333333334</v>
       </c>
-      <c r="O90" s="41">
+      <c r="O90" s="40">
         <v>1</v>
       </c>
-      <c r="R90" s="39" t="s">
-        <v>804</v>
+      <c r="R90" s="38" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -9423,12 +9275,12 @@
         <v>21</v>
       </c>
       <c r="D91" s="30" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="E91" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="F91" s="62"/>
+      <c r="F91" s="61"/>
       <c r="G91" s="30" t="s">
         <v>61</v>
       </c>
@@ -9442,481 +9294,481 @@
       <c r="O91" s="3"/>
     </row>
     <row r="92" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="48" t="b">
+      <c r="A92" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="B92" s="48" t="s">
-        <v>729</v>
-      </c>
-      <c r="C92" s="48" t="s">
-        <v>730</v>
-      </c>
-      <c r="D92" s="48" t="s">
-        <v>730</v>
-      </c>
-      <c r="E92" s="45" t="s">
+      <c r="B92" s="47" t="s">
+        <v>682</v>
+      </c>
+      <c r="C92" s="47" t="s">
+        <v>683</v>
+      </c>
+      <c r="D92" s="47" t="s">
+        <v>683</v>
+      </c>
+      <c r="E92" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="F92" s="45"/>
-      <c r="G92" s="48"/>
-      <c r="H92" s="48"/>
-      <c r="I92" s="48"/>
-      <c r="J92" s="48"/>
-      <c r="K92" s="48"/>
-      <c r="L92" s="48"/>
-      <c r="M92" s="45"/>
-      <c r="N92" s="45"/>
-      <c r="O92" s="45"/>
-      <c r="P92" s="45"/>
-      <c r="Q92" s="45"/>
-      <c r="R92" s="45"/>
+      <c r="F92" s="44"/>
+      <c r="G92" s="47"/>
+      <c r="H92" s="47"/>
+      <c r="I92" s="47"/>
+      <c r="J92" s="47"/>
+      <c r="K92" s="47"/>
+      <c r="L92" s="47"/>
+      <c r="M92" s="44"/>
+      <c r="N92" s="44"/>
+      <c r="O92" s="44"/>
+      <c r="P92" s="44"/>
+      <c r="Q92" s="44"/>
+      <c r="R92" s="44"/>
     </row>
     <row r="93" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="39"/>
-      <c r="B93" s="49" t="s">
+      <c r="A93" s="38"/>
+      <c r="B93" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C93" s="49"/>
-      <c r="D93" s="49" t="s">
-        <v>723</v>
-      </c>
-      <c r="E93" s="49" t="s">
-        <v>724</v>
-      </c>
-      <c r="F93" s="49"/>
-      <c r="G93" s="49" t="s">
+      <c r="C93" s="48"/>
+      <c r="D93" s="48" t="s">
+        <v>676</v>
+      </c>
+      <c r="E93" s="48" t="s">
+        <v>677</v>
+      </c>
+      <c r="F93" s="48"/>
+      <c r="G93" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H93" s="49"/>
-      <c r="I93" s="49">
+      <c r="H93" s="48"/>
+      <c r="I93" s="48">
         <v>1</v>
       </c>
-      <c r="J93" s="49"/>
-      <c r="K93" s="49">
+      <c r="J93" s="48"/>
+      <c r="K93" s="48">
         <v>0.5</v>
       </c>
-      <c r="L93" s="49">
+      <c r="L93" s="48">
         <v>4</v>
       </c>
-      <c r="M93" s="41">
+      <c r="M93" s="40">
         <v>1.75</v>
       </c>
-      <c r="N93" s="39">
+      <c r="N93" s="38">
         <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O93" s="49">
+      <c r="O93" s="48">
         <v>0.1</v>
       </c>
-      <c r="P93" s="39"/>
-      <c r="Q93" s="39"/>
-      <c r="R93" s="39" t="s">
-        <v>804</v>
+      <c r="P93" s="38"/>
+      <c r="Q93" s="38"/>
+      <c r="R93" s="38" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="94" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="49"/>
-      <c r="B94" s="49" t="s">
+      <c r="A94" s="48"/>
+      <c r="B94" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C94" s="49"/>
-      <c r="D94" s="49" t="s">
-        <v>725</v>
-      </c>
-      <c r="E94" s="49" t="s">
-        <v>726</v>
-      </c>
-      <c r="F94" s="49"/>
-      <c r="G94" s="49" t="s">
+      <c r="C94" s="48"/>
+      <c r="D94" s="48" t="s">
+        <v>678</v>
+      </c>
+      <c r="E94" s="48" t="s">
+        <v>679</v>
+      </c>
+      <c r="F94" s="48"/>
+      <c r="G94" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H94" s="49"/>
-      <c r="I94" s="49">
+      <c r="H94" s="48"/>
+      <c r="I94" s="48">
         <v>1</v>
       </c>
-      <c r="J94" s="49"/>
-      <c r="K94" s="49">
+      <c r="J94" s="48"/>
+      <c r="K94" s="48">
         <v>0.1</v>
       </c>
-      <c r="L94" s="49">
+      <c r="L94" s="48">
         <v>3</v>
       </c>
-      <c r="M94" s="41">
+      <c r="M94" s="40">
         <v>1.75</v>
       </c>
-      <c r="N94" s="49">
+      <c r="N94" s="48">
         <v>0.25</v>
       </c>
-      <c r="O94" s="49">
+      <c r="O94" s="48">
         <v>0.1</v>
       </c>
-      <c r="P94" s="39"/>
-      <c r="Q94" s="39"/>
-      <c r="R94" s="39" t="s">
-        <v>804</v>
+      <c r="P94" s="38"/>
+      <c r="Q94" s="38"/>
+      <c r="R94" s="38" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="95" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="49"/>
-      <c r="B95" s="49" t="s">
+      <c r="A95" s="48"/>
+      <c r="B95" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="49"/>
-      <c r="D95" s="49" t="s">
-        <v>727</v>
-      </c>
-      <c r="E95" s="49" t="s">
-        <v>728</v>
-      </c>
-      <c r="F95" s="49"/>
-      <c r="G95" s="49" t="s">
+      <c r="C95" s="48"/>
+      <c r="D95" s="48" t="s">
+        <v>680</v>
+      </c>
+      <c r="E95" s="48" t="s">
+        <v>681</v>
+      </c>
+      <c r="F95" s="48"/>
+      <c r="G95" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H95" s="49"/>
-      <c r="I95" s="49">
+      <c r="H95" s="48"/>
+      <c r="I95" s="48">
         <v>1</v>
       </c>
-      <c r="J95" s="49"/>
-      <c r="K95" s="49">
+      <c r="J95" s="48"/>
+      <c r="K95" s="48">
         <v>0.5</v>
       </c>
-      <c r="L95" s="49">
+      <c r="L95" s="48">
         <v>3</v>
       </c>
-      <c r="M95" s="41">
+      <c r="M95" s="40">
         <v>1.75</v>
       </c>
-      <c r="N95" s="41">
+      <c r="N95" s="40">
         <v>0.25</v>
       </c>
-      <c r="O95" s="41">
+      <c r="O95" s="40">
         <v>0.1</v>
       </c>
-      <c r="P95" s="41"/>
-      <c r="Q95" s="41"/>
-      <c r="R95" s="39" t="s">
-        <v>804</v>
+      <c r="P95" s="40"/>
+      <c r="Q95" s="40"/>
+      <c r="R95" s="38" t="s">
+        <v>755</v>
       </c>
       <c r="T95" s="30"/>
     </row>
     <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="48" t="b">
+      <c r="A96" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="B96" s="48" t="s">
-        <v>731</v>
-      </c>
-      <c r="C96" s="48" t="s">
-        <v>732</v>
-      </c>
-      <c r="D96" s="48" t="s">
-        <v>732</v>
-      </c>
-      <c r="E96" s="45" t="s">
+      <c r="B96" s="47" t="s">
+        <v>684</v>
+      </c>
+      <c r="C96" s="47" t="s">
+        <v>685</v>
+      </c>
+      <c r="D96" s="47" t="s">
+        <v>685</v>
+      </c>
+      <c r="E96" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="F96" s="45"/>
-      <c r="G96" s="48"/>
-      <c r="H96" s="48"/>
-      <c r="I96" s="48"/>
-      <c r="J96" s="48"/>
-      <c r="K96" s="48"/>
-      <c r="L96" s="48"/>
-      <c r="M96" s="45"/>
-      <c r="N96" s="45"/>
-      <c r="O96" s="45"/>
-      <c r="P96" s="45"/>
-      <c r="Q96" s="45"/>
-      <c r="R96" s="45"/>
+      <c r="F96" s="44"/>
+      <c r="G96" s="47"/>
+      <c r="H96" s="47"/>
+      <c r="I96" s="47"/>
+      <c r="J96" s="47"/>
+      <c r="K96" s="47"/>
+      <c r="L96" s="47"/>
+      <c r="M96" s="44"/>
+      <c r="N96" s="44"/>
+      <c r="O96" s="44"/>
+      <c r="P96" s="44"/>
+      <c r="Q96" s="44"/>
+      <c r="R96" s="44"/>
     </row>
     <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="39"/>
-      <c r="B97" s="49" t="s">
+      <c r="A97" s="38"/>
+      <c r="B97" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C97" s="49"/>
-      <c r="D97" s="49" t="s">
-        <v>733</v>
-      </c>
-      <c r="E97" s="49" t="s">
-        <v>724</v>
-      </c>
-      <c r="F97" s="49"/>
-      <c r="G97" s="49" t="s">
+      <c r="C97" s="48"/>
+      <c r="D97" s="48" t="s">
+        <v>686</v>
+      </c>
+      <c r="E97" s="48" t="s">
+        <v>677</v>
+      </c>
+      <c r="F97" s="48"/>
+      <c r="G97" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H97" s="49"/>
-      <c r="I97" s="49">
+      <c r="H97" s="48"/>
+      <c r="I97" s="48">
         <v>1</v>
       </c>
-      <c r="J97" s="49"/>
-      <c r="K97" s="49">
+      <c r="J97" s="48"/>
+      <c r="K97" s="48">
         <v>0.5</v>
       </c>
-      <c r="L97" s="49">
+      <c r="L97" s="48">
         <v>3</v>
       </c>
-      <c r="M97" s="41">
+      <c r="M97" s="40">
         <v>1.75</v>
       </c>
-      <c r="N97" s="39">
+      <c r="N97" s="38">
         <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O97" s="49">
+      <c r="O97" s="48">
         <v>0.1</v>
       </c>
-      <c r="P97" s="39"/>
-      <c r="Q97" s="39"/>
-      <c r="R97" s="39" t="s">
-        <v>804</v>
+      <c r="P97" s="38"/>
+      <c r="Q97" s="38"/>
+      <c r="R97" s="38" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="49"/>
-      <c r="B98" s="49" t="s">
+      <c r="A98" s="48"/>
+      <c r="B98" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C98" s="49"/>
-      <c r="D98" s="49" t="s">
-        <v>734</v>
-      </c>
-      <c r="E98" s="49" t="s">
-        <v>726</v>
-      </c>
-      <c r="F98" s="49"/>
-      <c r="G98" s="49" t="s">
+      <c r="C98" s="48"/>
+      <c r="D98" s="48" t="s">
+        <v>687</v>
+      </c>
+      <c r="E98" s="48" t="s">
+        <v>679</v>
+      </c>
+      <c r="F98" s="48"/>
+      <c r="G98" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H98" s="49"/>
-      <c r="I98" s="49">
+      <c r="H98" s="48"/>
+      <c r="I98" s="48">
         <v>1</v>
       </c>
-      <c r="J98" s="49"/>
-      <c r="K98" s="49">
+      <c r="J98" s="48"/>
+      <c r="K98" s="48">
         <v>0.5</v>
       </c>
-      <c r="L98" s="49">
+      <c r="L98" s="48">
         <v>4</v>
       </c>
-      <c r="M98" s="41">
+      <c r="M98" s="40">
         <v>1.75</v>
       </c>
-      <c r="N98" s="49">
+      <c r="N98" s="48">
         <v>0.25</v>
       </c>
-      <c r="O98" s="49">
+      <c r="O98" s="48">
         <v>0.1</v>
       </c>
-      <c r="P98" s="39"/>
-      <c r="Q98" s="39"/>
-      <c r="R98" s="39" t="s">
-        <v>804</v>
+      <c r="P98" s="38"/>
+      <c r="Q98" s="38"/>
+      <c r="R98" s="38" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="49"/>
-      <c r="B99" s="49" t="s">
+      <c r="A99" s="48"/>
+      <c r="B99" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C99" s="49"/>
-      <c r="D99" s="49" t="s">
-        <v>735</v>
-      </c>
-      <c r="E99" s="49" t="s">
-        <v>728</v>
-      </c>
-      <c r="F99" s="49"/>
-      <c r="G99" s="49" t="s">
+      <c r="C99" s="48"/>
+      <c r="D99" s="48" t="s">
+        <v>688</v>
+      </c>
+      <c r="E99" s="48" t="s">
+        <v>681</v>
+      </c>
+      <c r="F99" s="48"/>
+      <c r="G99" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H99" s="49"/>
-      <c r="I99" s="49">
+      <c r="H99" s="48"/>
+      <c r="I99" s="48">
         <v>1</v>
       </c>
-      <c r="J99" s="49"/>
-      <c r="K99" s="49">
+      <c r="J99" s="48"/>
+      <c r="K99" s="48">
         <v>0.5</v>
       </c>
-      <c r="L99" s="49">
+      <c r="L99" s="48">
         <v>3</v>
       </c>
-      <c r="M99" s="41">
+      <c r="M99" s="40">
         <v>1.75</v>
       </c>
-      <c r="N99" s="41">
+      <c r="N99" s="40">
         <v>0.25</v>
       </c>
-      <c r="O99" s="41">
+      <c r="O99" s="40">
         <v>0.1</v>
       </c>
-      <c r="P99" s="41"/>
-      <c r="Q99" s="41"/>
-      <c r="R99" s="39" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="45" t="b">
+      <c r="P99" s="40"/>
+      <c r="Q99" s="40"/>
+      <c r="R99" s="38" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B100" s="45" t="s">
-        <v>756</v>
-      </c>
-      <c r="C100" s="45" t="s">
-        <v>755</v>
-      </c>
-      <c r="D100" s="45" t="s">
-        <v>755</v>
-      </c>
-      <c r="E100" s="45" t="s">
+      <c r="B100" s="44" t="s">
+        <v>709</v>
+      </c>
+      <c r="C100" s="44" t="s">
+        <v>708</v>
+      </c>
+      <c r="D100" s="44" t="s">
+        <v>708</v>
+      </c>
+      <c r="E100" s="44" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="101" spans="1:18" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" s="55" t="s">
-        <v>759</v>
-      </c>
-      <c r="E101" s="55" t="s">
-        <v>757</v>
-      </c>
-      <c r="F101" s="62"/>
-      <c r="G101" s="55" t="s">
+    <row r="101" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="54" t="s">
+        <v>712</v>
+      </c>
+      <c r="E101" s="54" t="s">
+        <v>710</v>
+      </c>
+      <c r="F101" s="61"/>
+      <c r="G101" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="H101" s="55" t="s">
-        <v>651</v>
-      </c>
-      <c r="I101" s="55">
+      <c r="H101" s="54" t="s">
+        <v>642</v>
+      </c>
+      <c r="I101" s="54">
         <v>1</v>
       </c>
-      <c r="J101" s="58"/>
-      <c r="K101" s="57">
+      <c r="J101" s="57"/>
+      <c r="K101" s="56">
         <v>0.9</v>
       </c>
-      <c r="L101" s="57">
+      <c r="L101" s="56">
         <v>1</v>
       </c>
-      <c r="M101" s="57">
+      <c r="M101" s="56">
         <v>0.95</v>
       </c>
-      <c r="N101" s="57">
+      <c r="N101" s="56">
         <f>(L101-K101)/6</f>
         <v>1.6666666666666663E-2</v>
       </c>
-      <c r="O101" s="57">
+      <c r="O101" s="56">
         <v>0.1</v>
       </c>
-      <c r="R101" s="39" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B102" s="39" t="s">
+      <c r="R101" s="38" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B102" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D102" s="39" t="s">
-        <v>760</v>
-      </c>
-      <c r="E102" s="39" t="s">
-        <v>758</v>
-      </c>
-      <c r="F102" s="49"/>
-      <c r="G102" s="39" t="s">
+      <c r="D102" s="38" t="s">
+        <v>713</v>
+      </c>
+      <c r="E102" s="38" t="s">
+        <v>711</v>
+      </c>
+      <c r="F102" s="48"/>
+      <c r="G102" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H102" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="I102" s="39">
+      <c r="H102" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I102" s="38">
         <v>1450</v>
       </c>
-      <c r="J102" s="42"/>
-      <c r="K102" s="41">
-        <v>0</v>
-      </c>
-      <c r="L102" s="41">
+      <c r="J102" s="41"/>
+      <c r="K102" s="40">
+        <v>0</v>
+      </c>
+      <c r="L102" s="40">
         <v>3000</v>
       </c>
-      <c r="M102" s="41">
+      <c r="M102" s="40">
         <v>1450</v>
       </c>
-      <c r="N102" s="41">
+      <c r="N102" s="40">
         <f>(L102-K102)/6</f>
         <v>500</v>
       </c>
-      <c r="O102" s="41">
+      <c r="O102" s="40">
         <v>10</v>
       </c>
-      <c r="R102" s="39" t="s">
-        <v>804</v>
+      <c r="R102" s="38" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A103" s="36"/>
-      <c r="B103" s="36"/>
-      <c r="C103" s="36"/>
-      <c r="D103" s="36"/>
-      <c r="E103" s="36"/>
-      <c r="F103" s="36"/>
-      <c r="G103" s="36"/>
-      <c r="H103" s="37"/>
-      <c r="I103" s="37"/>
-      <c r="J103" s="36"/>
-      <c r="K103" s="36"/>
-      <c r="L103" s="36"/>
-      <c r="M103" s="36"/>
-      <c r="N103" s="36"/>
-      <c r="O103" s="36"/>
-      <c r="P103" s="36"/>
-      <c r="Q103" s="36"/>
-      <c r="R103" s="36"/>
+      <c r="A103" s="35"/>
+      <c r="B103" s="35"/>
+      <c r="C103" s="35"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="35"/>
+      <c r="F103" s="35"/>
+      <c r="G103" s="35"/>
+      <c r="H103" s="36"/>
+      <c r="I103" s="36"/>
+      <c r="J103" s="35"/>
+      <c r="K103" s="35"/>
+      <c r="L103" s="35"/>
+      <c r="M103" s="35"/>
+      <c r="N103" s="35"/>
+      <c r="O103" s="35"/>
+      <c r="P103" s="35"/>
+      <c r="Q103" s="35"/>
+      <c r="R103" s="35"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F104" s="62"/>
+      <c r="F104" s="61"/>
       <c r="I104" s="30"/>
       <c r="J104" s="30"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F105" s="46"/>
+      <c r="F105" s="45"/>
       <c r="I105" s="30"/>
       <c r="J105" s="30"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F106" s="46"/>
+      <c r="F106" s="45"/>
       <c r="I106" s="30"/>
       <c r="J106" s="30"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F107" s="46"/>
+      <c r="F107" s="45"/>
       <c r="I107" s="30"/>
       <c r="J107" s="30"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F108" s="46"/>
+      <c r="F108" s="45"/>
       <c r="I108" s="30"/>
       <c r="J108" s="30"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F109" s="46"/>
+      <c r="F109" s="45"/>
       <c r="I109" s="30"/>
       <c r="J109" s="30"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F110" s="46"/>
+      <c r="F110" s="45"/>
       <c r="I110" s="30"/>
       <c r="J110" s="30"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F111" s="46"/>
+      <c r="F111" s="45"/>
       <c r="I111" s="30"/>
       <c r="J111" s="30"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F112" s="46"/>
+      <c r="F112" s="45"/>
       <c r="I112" s="30"/>
       <c r="J112" s="30"/>
     </row>
@@ -10289,11 +10141,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M94"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD37"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10313,7 +10165,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
-      <c r="B1" s="59"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="7" t="s">
@@ -10331,11 +10183,11 @@
       <c r="A2" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="B2" s="64" t="s">
-        <v>763</v>
+      <c r="B2" s="63" t="s">
+        <v>716</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>458</v>
@@ -10369,11 +10221,11 @@
       <c r="A3" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="B3" s="64" t="s">
-        <v>764</v>
+      <c r="B3" s="63" t="s">
+        <v>717</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>622</v>
@@ -10401,18 +10253,18 @@
         <v>621</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E4" s="29" t="s">
         <v>464</v>
@@ -10435,16 +10287,15 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
-        <v>635</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>629</v>
-      </c>
+        <v>633</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="29" t="s">
-        <v>626</v>
+        <v>758</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>464</v>
+        <v>634</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>62</v>
@@ -10465,19 +10316,15 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
+        <v>635</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29" t="s">
+        <v>759</v>
+      </c>
+      <c r="E6" s="29" t="s">
         <v>636</v>
-      </c>
-      <c r="B6" s="46" t="s">
-        <v>765</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>631</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>623</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>464</v>
       </c>
       <c r="F6" s="29" t="s">
         <v>62</v>
@@ -10491,27 +10338,24 @@
       <c r="I6" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="J6" s="31"/>
+      <c r="J6" s="29"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>637</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>766</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>630</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="29" t="s">
-        <v>624</v>
+        <v>760</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F7" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="F7" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G7" s="29" t="b">
@@ -10523,23 +10367,23 @@
       <c r="I7" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="J7" s="31"/>
       <c r="K7" s="29"/>
       <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
-        <v>674</v>
-      </c>
-      <c r="B8" s="46"/>
+        <v>666</v>
+      </c>
+      <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
-        <v>675</v>
+        <v>761</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F8" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="F8" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G8" s="29" t="b">
@@ -10551,63 +10395,61 @@
       <c r="I8" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="J8" s="29"/>
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
-        <v>676</v>
-      </c>
-      <c r="B9" s="46"/>
+        <v>667</v>
+      </c>
+      <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29" t="s">
-        <v>677</v>
+        <v>762</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F9" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="F9" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G9" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I9" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="29"/>
+        <v>1</v>
+      </c>
       <c r="K9" s="29"/>
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
-        <v>678</v>
-      </c>
-      <c r="B10" s="46"/>
+        <v>668</v>
+      </c>
+      <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
-        <v>679</v>
+        <v>763</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F10" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="F10" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G10" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I10" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
@@ -10615,27 +10457,27 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
-        <v>680</v>
-      </c>
-      <c r="B11" s="46"/>
+        <v>669</v>
+      </c>
+      <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29" t="s">
-        <v>681</v>
+        <v>764</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F11" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="F11" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G11" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I11" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="29"/>
       <c r="L11" s="29"/>
@@ -10643,27 +10485,27 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
-        <v>682</v>
-      </c>
-      <c r="B12" s="46"/>
+        <v>670</v>
+      </c>
+      <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29" t="s">
-        <v>683</v>
+        <v>765</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F12" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="F12" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G12" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I12" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
@@ -10671,21 +10513,19 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
-        <v>684</v>
-      </c>
-      <c r="B13" s="46"/>
+        <v>690</v>
+      </c>
+      <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29" t="s">
-        <v>685</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F13" s="29" t="s">
+        <v>766</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G13" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="29" t="b">
         <v>1</v>
@@ -10693,27 +10533,22 @@
       <c r="I13" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
-        <v>686</v>
-      </c>
-      <c r="B14" s="46"/>
+        <v>691</v>
+      </c>
+      <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29" t="s">
-        <v>687</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F14" s="29" t="s">
+        <v>767</v>
+      </c>
+      <c r="E14" s="29"/>
+      <c r="F14" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G14" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="29" t="b">
         <v>1</v>
@@ -10721,28 +10556,22 @@
       <c r="I14" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
-        <v>688</v>
-      </c>
-      <c r="B15" s="46"/>
+        <v>692</v>
+      </c>
+      <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29" t="s">
-        <v>689</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F15" s="29" t="s">
+        <v>768</v>
+      </c>
+      <c r="E15" s="29"/>
+      <c r="F15" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G15" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="29" t="b">
         <v>1</v>
@@ -10750,28 +10579,20 @@
       <c r="I15" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
-        <v>690</v>
-      </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="29"/>
+        <v>693</v>
+      </c>
+      <c r="B16" s="29"/>
       <c r="D16" s="29" t="s">
-        <v>691</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F16" s="29" t="s">
+        <v>769</v>
+      </c>
+      <c r="F16" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G16" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="29" t="b">
         <v>1</v>
@@ -10779,619 +10600,101 @@
       <c r="I16" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
-        <v>692</v>
-      </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29" t="s">
-        <v>693</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
-        <v>694</v>
-      </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29" t="s">
-        <v>695</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="29" t="s">
-        <v>696</v>
-      </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29" t="s">
-        <v>697</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
-        <v>698</v>
-      </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29" t="s">
-        <v>699</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
-        <v>700</v>
-      </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29" t="s">
-        <v>701</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
-        <v>702</v>
-      </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29" t="s">
-        <v>703</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>704</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="29" t="s">
-        <v>705</v>
-      </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29" t="s">
-        <v>706</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>704</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
-        <v>707</v>
-      </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29" t="s">
-        <v>708</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>704</v>
-      </c>
-      <c r="F24" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
-        <v>709</v>
-      </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29" t="s">
-        <v>710</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>711</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="29" t="s">
-        <v>642</v>
-      </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29" t="s">
-        <v>807</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>643</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I26" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="s">
-        <v>644</v>
-      </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29" t="s">
-        <v>808</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>645</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
-        <v>712</v>
-      </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29" t="s">
-        <v>809</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>651</v>
-      </c>
-      <c r="F28" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="29" t="s">
-        <v>713</v>
-      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="29"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="29"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="29"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="29"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="29"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="29"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="29"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="29"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="29"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="29"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="29"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="29"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29" t="s">
-        <v>810</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>651</v>
-      </c>
-      <c r="F29" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="29" t="s">
-        <v>714</v>
-      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29" t="s">
-        <v>811</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>651</v>
-      </c>
-      <c r="F30" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G30" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I30" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="29" t="s">
-        <v>715</v>
-      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29" t="s">
-        <v>812</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>651</v>
-      </c>
-      <c r="F31" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G31" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I31" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="29" t="s">
-        <v>716</v>
-      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29" t="s">
-        <v>813</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>651</v>
-      </c>
-      <c r="F32" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G32" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I32" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="29" t="s">
-        <v>717</v>
-      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29" t="s">
-        <v>814</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>651</v>
-      </c>
-      <c r="F33" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="29" t="s">
-        <v>737</v>
-      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29" t="s">
-        <v>815</v>
-      </c>
-      <c r="E34" s="29"/>
-      <c r="F34" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G34" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I34" s="29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="29" t="s">
-        <v>738</v>
-      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29" t="s">
-        <v>816</v>
-      </c>
-      <c r="E35" s="29"/>
-      <c r="F35" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G35" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I35" s="29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="29" t="s">
-        <v>739</v>
-      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29" t="s">
-        <v>817</v>
-      </c>
-      <c r="E36" s="29"/>
-      <c r="F36" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G36" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" s="29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="29" t="s">
-        <v>740</v>
-      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="29"/>
-      <c r="D37" s="29" t="s">
-        <v>818</v>
-      </c>
-      <c r="F37" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G37" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" s="29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="29"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="29"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="29"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="29"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="29"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="29"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="29"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="29"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="29"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="29"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="29"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
@@ -11468,69 +10771,6 @@
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="29"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B74" s="29"/>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B75" s="29"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B76" s="29"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B77" s="29"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B78" s="29"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B79" s="29"/>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B80" s="29"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" s="29"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" s="29"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" s="29"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" s="29"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" s="29"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B86" s="29"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B87" s="29"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B88" s="29"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B89" s="29"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B90" s="29"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B91" s="29"/>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B92" s="29"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B93" s="29"/>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B94" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20149,7 +19389,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>553</v>

--- a/projects/SEB_calibration_Rgenoud_2013.xlsx
+++ b/projects/SEB_calibration_Rgenoud_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2570" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2570" uniqueCount="771">
   <si>
     <t>type</t>
   </si>
@@ -2350,6 +2350,9 @@
   </si>
   <si>
     <t>calibration_reports_enhanced20.gas_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>popsize</t>
   </si>
 </sst>
 </file>
@@ -6668,8 +6671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6903,10 +6906,10 @@
     </row>
     <row r="22" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
-        <v>557</v>
+        <v>770</v>
       </c>
       <c r="B22" s="29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>575</v>
@@ -10143,7 +10146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>

--- a/projects/SEB_calibration_Rgenoud_2013.xlsx
+++ b/projects/SEB_calibration_Rgenoud_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -2316,43 +2316,43 @@
     <t>CalibrationReportsEnhanced20</t>
   </si>
   <si>
-    <t>calibration_reports_enhanced20.electricity_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.gas_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.electricity_rmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.gas_rmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.electricity_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.electricity_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.gas_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.gas_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.electricity_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.electricity_nmbe_within_limit</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.gas_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.gas_nmbe_within_limit</t>
-  </si>
-  <si>
     <t>popsize</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_consumption_modeled</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_consumption_modeled</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_rmse</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_rmse</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_nmbe_within_limit</t>
   </si>
 </sst>
 </file>
@@ -6671,7 +6671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -6906,7 +6906,7 @@
     </row>
     <row r="22" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
-        <v>770</v>
+        <v>758</v>
       </c>
       <c r="B22" s="29">
         <v>5</v>
@@ -10146,9 +10146,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10295,7 +10295,7 @@
       <c r="B5" s="45"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>634</v>
@@ -10324,7 +10324,7 @@
       <c r="B6" s="45"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>636</v>
@@ -10353,7 +10353,7 @@
       <c r="B7" s="45"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>642</v>
@@ -10381,7 +10381,7 @@
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>642</v>
@@ -10409,7 +10409,7 @@
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>642</v>
@@ -10437,7 +10437,7 @@
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>642</v>
@@ -10465,7 +10465,7 @@
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>642</v>
@@ -10493,7 +10493,7 @@
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>642</v>
@@ -10521,7 +10521,7 @@
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="30" t="s">
@@ -10544,7 +10544,7 @@
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="30" t="s">
@@ -10567,7 +10567,7 @@
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="30" t="s">
@@ -10589,7 +10589,7 @@
       </c>
       <c r="B16" s="29"/>
       <c r="D16" s="29" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="F16" s="30" t="s">
         <v>62</v>

--- a/projects/SEB_calibration_Rgenoud_2013.xlsx
+++ b/projects/SEB_calibration_Rgenoud_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2570" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2578" uniqueCount="775">
   <si>
     <t>type</t>
   </si>
@@ -2202,9 +2202,6 @@
     <t>debugFlag</t>
   </si>
   <si>
-    <t>balance</t>
-  </si>
-  <si>
     <t>default</t>
   </si>
   <si>
@@ -2353,6 +2350,21 @@
   </si>
   <si>
     <t>CalibrationReportsEnhanced20.natural_gas_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>exit_on_guideline14</t>
+  </si>
+  <si>
+    <t>1 is true</t>
+  </si>
+  <si>
+    <t>Failed F Value</t>
+  </si>
+  <si>
+    <t>Debug Messages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 or 0 </t>
   </si>
 </sst>
 </file>
@@ -4394,7 +4406,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4518,6 +4530,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1851">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -6669,10 +6682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6719,7 +6732,7 @@
         <v>454</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>455</v>
@@ -6730,7 +6743,7 @@
         <v>465</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>609</v>
@@ -6741,7 +6754,7 @@
         <v>466</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>468</v>
@@ -6812,7 +6825,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>467</v>
@@ -6823,7 +6836,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>638</v>
@@ -6906,7 +6919,7 @@
     </row>
     <row r="22" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B22" s="29">
         <v>5</v>
@@ -7014,9 +7027,9 @@
     </row>
     <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
-        <v>720</v>
-      </c>
-      <c r="B31" s="30">
+        <v>719</v>
+      </c>
+      <c r="B31" s="29">
         <v>1</v>
       </c>
       <c r="C31" s="29"/>
@@ -7024,108 +7037,154 @@
     </row>
     <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B32" s="29">
-        <v>1</v>
-      </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="33"/>
+        <v>3</v>
+      </c>
+      <c r="C32" s="32"/>
+      <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
-        <v>718</v>
-      </c>
-      <c r="B33" s="29">
-        <v>3</v>
-      </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="2"/>
+        <v>535</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>536</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="33"/>
     </row>
     <row r="34" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="29"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
+      <c r="A34" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="B34" s="30">
+        <v>2</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>569</v>
+      </c>
+      <c r="D34" s="33"/>
+    </row>
+    <row r="35" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="30" t="s">
+        <v>770</v>
+      </c>
+      <c r="B35" s="29">
+        <v>0</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>771</v>
+      </c>
+      <c r="D35" s="33"/>
+    </row>
+    <row r="36" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="30" t="s">
+        <v>772</v>
+      </c>
+      <c r="B36" s="28">
+        <v>1E+20</v>
+      </c>
+      <c r="C36" s="29"/>
+      <c r="D36" s="33"/>
+    </row>
+    <row r="37" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="30" t="s">
+        <v>773</v>
+      </c>
+      <c r="B37" s="29">
+        <v>0</v>
+      </c>
+      <c r="C37" s="65" t="s">
+        <v>774</v>
+      </c>
+      <c r="D37" s="33"/>
+    </row>
+    <row r="38" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="29"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B39" s="26" t="s">
         <v>637</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C39" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="13"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="D39" s="11"/>
+      <c r="E39" s="13"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B40" s="24" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>629</v>
+      </c>
+      <c r="D43" s="30" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>451</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>637</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>629</v>
-      </c>
-      <c r="D39" s="30" t="s">
+      <c r="E43" s="2"/>
+    </row>
+    <row r="45" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" s="13" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="30" t="s">
+        <v>632</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>631</v>
+      </c>
+      <c r="C46" s="30" t="s">
         <v>726</v>
       </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="41" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>639</v>
-      </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="13" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="30" t="s">
-        <v>632</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>631</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="25"/>
-      <c r="D43" s="2"/>
+    </row>
+    <row r="47" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="25"/>
+      <c r="D47" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -7315,13 +7374,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="35" t="s">
+        <v>727</v>
+      </c>
+      <c r="C4" s="35" t="s">
         <v>728</v>
       </c>
-      <c r="C4" s="35" t="s">
-        <v>729</v>
-      </c>
       <c r="D4" s="35" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E4" s="35" t="s">
         <v>66</v>
@@ -7334,17 +7393,17 @@
         <v>21</v>
       </c>
       <c r="D5" s="30" t="s">
+        <v>729</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>730</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>731</v>
       </c>
       <c r="F5" s="61"/>
       <c r="G5" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="J5" s="30"/>
     </row>
@@ -7353,7 +7412,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>164</v>
@@ -7363,7 +7422,7 @@
         <v>671</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J6" s="30"/>
     </row>
@@ -7372,17 +7431,17 @@
         <v>21</v>
       </c>
       <c r="D7" s="30" t="s">
+        <v>734</v>
+      </c>
+      <c r="E7" s="30" t="s">
         <v>735</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>736</v>
       </c>
       <c r="F7" s="61"/>
       <c r="G7" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="J7" s="30"/>
     </row>
@@ -7391,10 +7450,10 @@
         <v>21</v>
       </c>
       <c r="D8" s="30" t="s">
+        <v>737</v>
+      </c>
+      <c r="E8" s="30" t="s">
         <v>738</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>739</v>
       </c>
       <c r="F8" s="61"/>
       <c r="G8" s="30" t="s">
@@ -7410,17 +7469,17 @@
         <v>21</v>
       </c>
       <c r="D9" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="E9" s="30" t="s">
         <v>740</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>741</v>
       </c>
       <c r="F9" s="61"/>
       <c r="G9" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J9" s="30"/>
     </row>
@@ -7467,17 +7526,17 @@
         <v>21</v>
       </c>
       <c r="D12" s="30" t="s">
+        <v>742</v>
+      </c>
+      <c r="E12" s="30" t="s">
         <v>743</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>744</v>
       </c>
       <c r="F12" s="61"/>
       <c r="G12" s="30" t="s">
         <v>61</v>
       </c>
       <c r="I12" s="46" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J12" s="30"/>
     </row>
@@ -7486,17 +7545,17 @@
         <v>21</v>
       </c>
       <c r="D13" s="30" t="s">
+        <v>751</v>
+      </c>
+      <c r="E13" s="30" t="s">
         <v>752</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>753</v>
       </c>
       <c r="F13" s="61"/>
       <c r="G13" s="30" t="s">
         <v>61</v>
       </c>
       <c r="I13" s="46" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J13" s="30"/>
     </row>
@@ -7505,13 +7564,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E14" s="35" t="s">
         <v>66</v>
@@ -7524,17 +7583,17 @@
         <v>21</v>
       </c>
       <c r="D15" s="30" t="s">
+        <v>729</v>
+      </c>
+      <c r="E15" s="30" t="s">
         <v>730</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>731</v>
       </c>
       <c r="F15" s="61"/>
       <c r="G15" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J15" s="30"/>
     </row>
@@ -7543,7 +7602,7 @@
         <v>21</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>164</v>
@@ -7553,7 +7612,7 @@
         <v>671</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J16" s="30"/>
     </row>
@@ -7562,17 +7621,17 @@
         <v>21</v>
       </c>
       <c r="D17" s="30" t="s">
+        <v>734</v>
+      </c>
+      <c r="E17" s="30" t="s">
         <v>735</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>736</v>
       </c>
       <c r="F17" s="61"/>
       <c r="G17" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J17" s="30"/>
     </row>
@@ -7581,10 +7640,10 @@
         <v>21</v>
       </c>
       <c r="D18" s="30" t="s">
+        <v>737</v>
+      </c>
+      <c r="E18" s="30" t="s">
         <v>738</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>739</v>
       </c>
       <c r="F18" s="61"/>
       <c r="G18" s="30" t="s">
@@ -7600,17 +7659,17 @@
         <v>21</v>
       </c>
       <c r="D19" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="E19" s="30" t="s">
         <v>740</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>741</v>
       </c>
       <c r="F19" s="61"/>
       <c r="G19" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J19" s="30"/>
     </row>
@@ -7657,17 +7716,17 @@
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
+        <v>742</v>
+      </c>
+      <c r="E22" s="30" t="s">
         <v>743</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>744</v>
       </c>
       <c r="F22" s="61"/>
       <c r="G22" s="30" t="s">
         <v>61</v>
       </c>
       <c r="I22" s="46" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="J22" s="30"/>
     </row>
@@ -7676,13 +7735,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E23" s="35" t="s">
         <v>231</v>
@@ -7763,7 +7822,7 @@
         <v>1</v>
       </c>
       <c r="R26" s="38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7818,7 +7877,7 @@
         <v>0.01</v>
       </c>
       <c r="R28" s="38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7995,7 +8054,7 @@
       </c>
       <c r="Q36" s="53"/>
       <c r="R36" s="38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -8263,7 +8322,7 @@
         <v>1</v>
       </c>
       <c r="R46" s="38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="47" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8486,7 +8545,7 @@
         <v>1</v>
       </c>
       <c r="R56" s="38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8727,7 +8786,7 @@
         <v>0.25</v>
       </c>
       <c r="R67" s="38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8968,7 +9027,7 @@
         <v>1</v>
       </c>
       <c r="R78" s="38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="79" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9009,7 +9068,7 @@
         <v>1</v>
       </c>
       <c r="R79" s="38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9229,7 +9288,7 @@
         <v>1</v>
       </c>
       <c r="R89" s="38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="90" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9270,7 +9329,7 @@
         <v>1</v>
       </c>
       <c r="R90" s="38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -9366,7 +9425,7 @@
       <c r="P93" s="38"/>
       <c r="Q93" s="38"/>
       <c r="R93" s="38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="94" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9408,7 +9467,7 @@
       <c r="P94" s="38"/>
       <c r="Q94" s="38"/>
       <c r="R94" s="38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="95" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9450,7 +9509,7 @@
       <c r="P95" s="40"/>
       <c r="Q95" s="40"/>
       <c r="R95" s="38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="T95" s="30"/>
     </row>
@@ -9524,7 +9583,7 @@
       <c r="P97" s="38"/>
       <c r="Q97" s="38"/>
       <c r="R97" s="38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9566,7 +9625,7 @@
       <c r="P98" s="38"/>
       <c r="Q98" s="38"/>
       <c r="R98" s="38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9608,7 +9667,7 @@
       <c r="P99" s="40"/>
       <c r="Q99" s="40"/>
       <c r="R99" s="38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="100" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9666,7 +9725,7 @@
         <v>0.1</v>
       </c>
       <c r="R101" s="38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="102" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9707,7 +9766,7 @@
         <v>10</v>
       </c>
       <c r="R102" s="38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
@@ -10146,7 +10205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD16"/>
     </sheetView>
@@ -10295,7 +10354,7 @@
       <c r="B5" s="45"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>634</v>
@@ -10324,7 +10383,7 @@
       <c r="B6" s="45"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>636</v>
@@ -10353,7 +10412,7 @@
       <c r="B7" s="45"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>642</v>
@@ -10381,7 +10440,7 @@
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>642</v>
@@ -10409,7 +10468,7 @@
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>642</v>
@@ -10437,7 +10496,7 @@
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>642</v>
@@ -10465,7 +10524,7 @@
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>642</v>
@@ -10493,7 +10552,7 @@
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>642</v>
@@ -10521,7 +10580,7 @@
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="30" t="s">
@@ -10544,7 +10603,7 @@
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="30" t="s">
@@ -10567,7 +10626,7 @@
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="30" t="s">
@@ -10589,7 +10648,7 @@
       </c>
       <c r="B16" s="29"/>
       <c r="D16" s="29" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F16" s="30" t="s">
         <v>62</v>

--- a/projects/SEB_calibration_Rgenoud_2013.xlsx
+++ b/projects/SEB_calibration_Rgenoud_2013.xlsx
@@ -4527,10 +4527,10 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1851">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -6685,7 +6685,7 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7084,7 +7084,7 @@
         <v>772</v>
       </c>
       <c r="B36" s="28">
-        <v>1E+20</v>
+        <v>1E+18</v>
       </c>
       <c r="C36" s="29"/>
       <c r="D36" s="33"/>
@@ -7096,7 +7096,7 @@
       <c r="B37" s="29">
         <v>0</v>
       </c>
-      <c r="C37" s="65" t="s">
+      <c r="C37" s="64" t="s">
         <v>774</v>
       </c>
       <c r="D37" s="33"/>
@@ -7266,14 +7266,14 @@
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="64" t="s">
+      <c r="U1" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
     </row>
     <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">

--- a/projects/SEB_calibration_Rgenoud_2013.xlsx
+++ b/projects/SEB_calibration_Rgenoud_2013.xlsx
@@ -2199,9 +2199,6 @@
     <t>printLevel</t>
   </si>
   <si>
-    <t>debugFlag</t>
-  </si>
-  <si>
     <t>default</t>
   </si>
   <si>
@@ -2365,6 +2362,9 @@
   </si>
   <si>
     <t xml:space="preserve">1 or 0 </t>
+  </si>
+  <si>
+    <t>R Genoud Debug Flag</t>
   </si>
 </sst>
 </file>
@@ -6684,8 +6684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6732,7 +6732,7 @@
         <v>454</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>455</v>
@@ -6743,7 +6743,7 @@
         <v>465</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>609</v>
@@ -6754,7 +6754,7 @@
         <v>466</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>468</v>
@@ -6825,7 +6825,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>467</v>
@@ -6836,7 +6836,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>638</v>
@@ -6919,7 +6919,7 @@
     </row>
     <row r="22" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B22" s="29">
         <v>5</v>
@@ -7027,7 +7027,7 @@
     </row>
     <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
-        <v>719</v>
+        <v>774</v>
       </c>
       <c r="B31" s="29">
         <v>1</v>
@@ -7069,19 +7069,19 @@
     </row>
     <row r="35" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="30" t="s">
+        <v>769</v>
+      </c>
+      <c r="B35" s="29">
+        <v>0</v>
+      </c>
+      <c r="C35" s="32" t="s">
         <v>770</v>
-      </c>
-      <c r="B35" s="29">
-        <v>0</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>771</v>
       </c>
       <c r="D35" s="33"/>
     </row>
     <row r="36" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="30" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B36" s="28">
         <v>1E+18</v>
@@ -7091,13 +7091,13 @@
     </row>
     <row r="37" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="30" t="s">
+        <v>772</v>
+      </c>
+      <c r="B37" s="29">
+        <v>0</v>
+      </c>
+      <c r="C37" s="64" t="s">
         <v>773</v>
-      </c>
-      <c r="B37" s="29">
-        <v>0</v>
-      </c>
-      <c r="C37" s="64" t="s">
-        <v>774</v>
       </c>
       <c r="D37" s="33"/>
     </row>
@@ -7124,7 +7124,7 @@
         <v>28</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7152,7 +7152,7 @@
         <v>629</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E43" s="2"/>
     </row>
@@ -7179,7 +7179,7 @@
         <v>631</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7374,13 +7374,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="35" t="s">
+        <v>726</v>
+      </c>
+      <c r="C4" s="35" t="s">
         <v>727</v>
       </c>
-      <c r="C4" s="35" t="s">
-        <v>728</v>
-      </c>
       <c r="D4" s="35" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E4" s="35" t="s">
         <v>66</v>
@@ -7393,17 +7393,17 @@
         <v>21</v>
       </c>
       <c r="D5" s="30" t="s">
+        <v>728</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>729</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>730</v>
       </c>
       <c r="F5" s="61"/>
       <c r="G5" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J5" s="30"/>
     </row>
@@ -7412,7 +7412,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>164</v>
@@ -7422,7 +7422,7 @@
         <v>671</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="J6" s="30"/>
     </row>
@@ -7431,17 +7431,17 @@
         <v>21</v>
       </c>
       <c r="D7" s="30" t="s">
+        <v>733</v>
+      </c>
+      <c r="E7" s="30" t="s">
         <v>734</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>735</v>
       </c>
       <c r="F7" s="61"/>
       <c r="G7" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J7" s="30"/>
     </row>
@@ -7450,10 +7450,10 @@
         <v>21</v>
       </c>
       <c r="D8" s="30" t="s">
+        <v>736</v>
+      </c>
+      <c r="E8" s="30" t="s">
         <v>737</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>738</v>
       </c>
       <c r="F8" s="61"/>
       <c r="G8" s="30" t="s">
@@ -7469,17 +7469,17 @@
         <v>21</v>
       </c>
       <c r="D9" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="E9" s="30" t="s">
         <v>739</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>740</v>
       </c>
       <c r="F9" s="61"/>
       <c r="G9" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J9" s="30"/>
     </row>
@@ -7526,17 +7526,17 @@
         <v>21</v>
       </c>
       <c r="D12" s="30" t="s">
+        <v>741</v>
+      </c>
+      <c r="E12" s="30" t="s">
         <v>742</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>743</v>
       </c>
       <c r="F12" s="61"/>
       <c r="G12" s="30" t="s">
         <v>61</v>
       </c>
       <c r="I12" s="46" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J12" s="30"/>
     </row>
@@ -7545,17 +7545,17 @@
         <v>21</v>
       </c>
       <c r="D13" s="30" t="s">
+        <v>750</v>
+      </c>
+      <c r="E13" s="30" t="s">
         <v>751</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>752</v>
       </c>
       <c r="F13" s="61"/>
       <c r="G13" s="30" t="s">
         <v>61</v>
       </c>
       <c r="I13" s="46" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J13" s="30"/>
     </row>
@@ -7564,13 +7564,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E14" s="35" t="s">
         <v>66</v>
@@ -7583,17 +7583,17 @@
         <v>21</v>
       </c>
       <c r="D15" s="30" t="s">
+        <v>728</v>
+      </c>
+      <c r="E15" s="30" t="s">
         <v>729</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>730</v>
       </c>
       <c r="F15" s="61"/>
       <c r="G15" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J15" s="30"/>
     </row>
@@ -7602,7 +7602,7 @@
         <v>21</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>164</v>
@@ -7612,7 +7612,7 @@
         <v>671</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J16" s="30"/>
     </row>
@@ -7621,17 +7621,17 @@
         <v>21</v>
       </c>
       <c r="D17" s="30" t="s">
+        <v>733</v>
+      </c>
+      <c r="E17" s="30" t="s">
         <v>734</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>735</v>
       </c>
       <c r="F17" s="61"/>
       <c r="G17" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J17" s="30"/>
     </row>
@@ -7640,10 +7640,10 @@
         <v>21</v>
       </c>
       <c r="D18" s="30" t="s">
+        <v>736</v>
+      </c>
+      <c r="E18" s="30" t="s">
         <v>737</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>738</v>
       </c>
       <c r="F18" s="61"/>
       <c r="G18" s="30" t="s">
@@ -7659,17 +7659,17 @@
         <v>21</v>
       </c>
       <c r="D19" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="E19" s="30" t="s">
         <v>739</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>740</v>
       </c>
       <c r="F19" s="61"/>
       <c r="G19" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J19" s="30"/>
     </row>
@@ -7716,17 +7716,17 @@
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
+        <v>741</v>
+      </c>
+      <c r="E22" s="30" t="s">
         <v>742</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>743</v>
       </c>
       <c r="F22" s="61"/>
       <c r="G22" s="30" t="s">
         <v>61</v>
       </c>
       <c r="I22" s="46" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J22" s="30"/>
     </row>
@@ -7735,13 +7735,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E23" s="35" t="s">
         <v>231</v>
@@ -7822,7 +7822,7 @@
         <v>1</v>
       </c>
       <c r="R26" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7877,7 +7877,7 @@
         <v>0.01</v>
       </c>
       <c r="R28" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8054,7 +8054,7 @@
       </c>
       <c r="Q36" s="53"/>
       <c r="R36" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -8322,7 +8322,7 @@
         <v>1</v>
       </c>
       <c r="R46" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="47" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8545,7 +8545,7 @@
         <v>1</v>
       </c>
       <c r="R56" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8786,7 +8786,7 @@
         <v>0.25</v>
       </c>
       <c r="R67" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9027,7 +9027,7 @@
         <v>1</v>
       </c>
       <c r="R78" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="79" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9068,7 +9068,7 @@
         <v>1</v>
       </c>
       <c r="R79" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9288,7 +9288,7 @@
         <v>1</v>
       </c>
       <c r="R89" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="90" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9329,7 +9329,7 @@
         <v>1</v>
       </c>
       <c r="R90" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -9425,7 +9425,7 @@
       <c r="P93" s="38"/>
       <c r="Q93" s="38"/>
       <c r="R93" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="94" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9467,7 +9467,7 @@
       <c r="P94" s="38"/>
       <c r="Q94" s="38"/>
       <c r="R94" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="95" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9509,7 +9509,7 @@
       <c r="P95" s="40"/>
       <c r="Q95" s="40"/>
       <c r="R95" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="T95" s="30"/>
     </row>
@@ -9583,7 +9583,7 @@
       <c r="P97" s="38"/>
       <c r="Q97" s="38"/>
       <c r="R97" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9625,7 +9625,7 @@
       <c r="P98" s="38"/>
       <c r="Q98" s="38"/>
       <c r="R98" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9667,7 +9667,7 @@
       <c r="P99" s="40"/>
       <c r="Q99" s="40"/>
       <c r="R99" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="100" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9725,7 +9725,7 @@
         <v>0.1</v>
       </c>
       <c r="R101" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="102" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9766,7 +9766,7 @@
         <v>10</v>
       </c>
       <c r="R102" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
@@ -10354,7 +10354,7 @@
       <c r="B5" s="45"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>634</v>
@@ -10383,7 +10383,7 @@
       <c r="B6" s="45"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>636</v>
@@ -10412,7 +10412,7 @@
       <c r="B7" s="45"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>642</v>
@@ -10440,7 +10440,7 @@
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>642</v>
@@ -10468,7 +10468,7 @@
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>642</v>
@@ -10496,7 +10496,7 @@
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>642</v>
@@ -10524,7 +10524,7 @@
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>642</v>
@@ -10552,7 +10552,7 @@
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>642</v>
@@ -10580,7 +10580,7 @@
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="30" t="s">
@@ -10603,7 +10603,7 @@
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="30" t="s">
@@ -10626,7 +10626,7 @@
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="30" t="s">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B16" s="29"/>
       <c r="D16" s="29" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F16" s="30" t="s">
         <v>62</v>

--- a/projects/SEB_calibration_Rgenoud_2013.xlsx
+++ b/projects/SEB_calibration_Rgenoud_2013.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2578" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2582" uniqueCount="778">
   <si>
     <t>type</t>
   </si>
@@ -2352,19 +2352,28 @@
     <t>exit_on_guideline14</t>
   </si>
   <si>
-    <t>1 is true</t>
-  </si>
-  <si>
     <t>Failed F Value</t>
   </si>
   <si>
     <t>Debug Messages</t>
   </si>
   <si>
-    <t xml:space="preserve">1 or 0 </t>
-  </si>
-  <si>
     <t>R Genoud Debug Flag</t>
+  </si>
+  <si>
+    <t>"minkowski", "maximum", "euclidean", "binary", "manhattan"</t>
+  </si>
+  <si>
+    <t>1 or 0 (True or False)</t>
+  </si>
+  <si>
+    <t>Return Value for F(x) if F fails</t>
+  </si>
+  <si>
+    <t>0 (minimal printing), 1 (normal), 2 (detailed), and 3 (debug)</t>
+  </si>
+  <si>
+    <t>Lp norm power (must be non-negative)</t>
   </si>
 </sst>
 </file>
@@ -2449,6 +2458,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4406,7 +4416,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4527,7 +4537,6 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6685,7 +6694,7 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7027,12 +7036,14 @@
     </row>
     <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
+        <v>772</v>
+      </c>
+      <c r="B31" s="29">
+        <v>0</v>
+      </c>
+      <c r="C31" s="29" t="s">
         <v>774</v>
       </c>
-      <c r="B31" s="29">
-        <v>1</v>
-      </c>
-      <c r="C31" s="29"/>
       <c r="D31" s="33"/>
     </row>
     <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7042,7 +7053,9 @@
       <c r="B32" s="29">
         <v>3</v>
       </c>
-      <c r="C32" s="32"/>
+      <c r="C32" t="s">
+        <v>776</v>
+      </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7052,7 +7065,9 @@
       <c r="B33" s="30" t="s">
         <v>536</v>
       </c>
-      <c r="C33" s="29"/>
+      <c r="C33" s="29" t="s">
+        <v>773</v>
+      </c>
       <c r="D33" s="33"/>
     </row>
     <row r="34" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7063,7 +7078,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>569</v>
+        <v>777</v>
       </c>
       <c r="D34" s="33"/>
     </row>
@@ -7074,30 +7089,32 @@
       <c r="B35" s="29">
         <v>0</v>
       </c>
-      <c r="C35" s="32" t="s">
-        <v>770</v>
+      <c r="C35" s="29" t="s">
+        <v>774</v>
       </c>
       <c r="D35" s="33"/>
     </row>
     <row r="36" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="30" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B36" s="28">
         <v>1E+18</v>
       </c>
-      <c r="C36" s="29"/>
+      <c r="C36" s="29" t="s">
+        <v>775</v>
+      </c>
       <c r="D36" s="33"/>
     </row>
     <row r="37" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="30" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B37" s="29">
         <v>0</v>
       </c>
-      <c r="C37" s="64" t="s">
-        <v>773</v>
+      <c r="C37" s="29" t="s">
+        <v>774</v>
       </c>
       <c r="D37" s="33"/>
     </row>
@@ -7266,14 +7283,14 @@
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="65" t="s">
+      <c r="U1" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
     </row>
     <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">

--- a/projects/SEB_calibration_Rgenoud_2013.xlsx
+++ b/projects/SEB_calibration_Rgenoud_2013.xlsx
@@ -6694,7 +6694,7 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7111,7 +7111,7 @@
         <v>771</v>
       </c>
       <c r="B37" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" s="29" t="s">
         <v>774</v>

--- a/projects/SEB_calibration_Rgenoud_2013.xlsx
+++ b/projects/SEB_calibration_Rgenoud_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Outputs!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$2:$AA$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$2:$AA$126</definedName>
     <definedName name="AnalysisType">Lookups!$A$17:$A$23</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$D$9</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$9</definedName>
@@ -6693,7 +6693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
@@ -7224,11 +7224,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z200"/>
+  <dimension ref="A1:Z199"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7747,167 +7747,166 @@
       </c>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="b">
+    <row r="23" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B23" s="35" t="s">
-        <v>752</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>755</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>755</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-    </row>
-    <row r="24" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="43" t="b">
+      <c r="B23" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="61"/>
+      <c r="G24" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P24" s="30"/>
+    </row>
+    <row r="25" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>664</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="48"/>
+      <c r="G25" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="38">
+        <v>0</v>
+      </c>
+      <c r="K25" s="40">
+        <v>0</v>
+      </c>
+      <c r="L25" s="40">
+        <v>100</v>
+      </c>
+      <c r="M25" s="40">
+        <v>15</v>
+      </c>
+      <c r="N25" s="40">
+        <f>(L25-K25)/6</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="O25" s="40">
         <v>1</v>
       </c>
-      <c r="B24" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="61"/>
-      <c r="G25" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I25" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="J25" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="P25" s="30"/>
-    </row>
-    <row r="26" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>664</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="48"/>
-      <c r="G26" s="38" t="s">
+      <c r="R25" s="38" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>656</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>657</v>
+      </c>
+      <c r="F26" s="61"/>
+      <c r="G26" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="38">
-        <v>0</v>
-      </c>
-      <c r="K26" s="40">
-        <v>0</v>
-      </c>
-      <c r="L26" s="40">
-        <v>100</v>
-      </c>
-      <c r="M26" s="40">
-        <v>15</v>
-      </c>
-      <c r="N26" s="40">
-        <f>(L26-K26)/6</f>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="O26" s="40">
+      <c r="I26" s="29">
         <v>1</v>
       </c>
-      <c r="R26" s="38" t="s">
+    </row>
+    <row r="27" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="55" t="s">
+        <v>659</v>
+      </c>
+      <c r="E27" s="54" t="s">
+        <v>658</v>
+      </c>
+      <c r="F27" s="61"/>
+      <c r="G27" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="54">
+        <v>0</v>
+      </c>
+      <c r="K27" s="56">
+        <v>0</v>
+      </c>
+      <c r="L27" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="M27" s="56">
+        <v>0.05</v>
+      </c>
+      <c r="N27" s="56">
+        <f>(L27-K27)/6</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="O27" s="56">
+        <v>0.01</v>
+      </c>
+      <c r="R27" s="38" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>656</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>657</v>
-      </c>
-      <c r="F27" s="61"/>
-      <c r="G27" s="29" t="s">
+    <row r="28" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>661</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>660</v>
+      </c>
+      <c r="F28" s="61"/>
+      <c r="G28" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="I27" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="55" t="s">
-        <v>659</v>
-      </c>
-      <c r="E28" s="54" t="s">
-        <v>658</v>
-      </c>
-      <c r="F28" s="61"/>
-      <c r="G28" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28" s="54">
-        <v>0</v>
-      </c>
-      <c r="K28" s="56">
-        <v>0</v>
-      </c>
-      <c r="L28" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="M28" s="56">
-        <v>0.05</v>
-      </c>
-      <c r="N28" s="56">
-        <f>(L28-K28)/6</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="O28" s="56">
-        <v>0.01</v>
-      </c>
-      <c r="R28" s="38" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I28" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>660</v>
-      </c>
-      <c r="F29" s="61"/>
+        <v>662</v>
+      </c>
+      <c r="F29" s="62"/>
       <c r="G29" s="29" t="s">
         <v>62</v>
       </c>
@@ -7920,10 +7919,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>663</v>
+        <v>69</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>662</v>
+        <v>46</v>
       </c>
       <c r="F30" s="62"/>
       <c r="G30" s="29" t="s">
@@ -7938,10 +7937,10 @@
         <v>21</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F31" s="62"/>
       <c r="G31" s="29" t="s">
@@ -7956,123 +7955,132 @@
         <v>21</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F32" s="62"/>
       <c r="G32" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32" s="29">
+        <v>1</v>
+      </c>
+      <c r="P32" s="30"/>
+    </row>
+    <row r="33" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="29"/>
+      <c r="B34" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="62"/>
+      <c r="G34" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J34" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="Q34" s="37"/>
+    </row>
+    <row r="35" spans="1:18" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>640</v>
+      </c>
+      <c r="E35" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="62"/>
+      <c r="G35" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="I32" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="62"/>
-      <c r="G33" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="29">
+      <c r="I35" s="50">
+        <v>0</v>
+      </c>
+      <c r="J35" s="51"/>
+      <c r="K35" s="52">
+        <v>-40</v>
+      </c>
+      <c r="L35" s="52">
+        <v>40</v>
+      </c>
+      <c r="M35" s="52">
+        <v>0</v>
+      </c>
+      <c r="N35" s="52">
+        <f>(L35-K35)/6</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="O35" s="52">
         <v>1</v>
       </c>
-      <c r="P33" s="30"/>
-    </row>
-    <row r="34" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="B34" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35" s="62"/>
-      <c r="G35" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="J35" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="Q35" s="37"/>
-    </row>
-    <row r="36" spans="1:18" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="50" t="s">
-        <v>640</v>
-      </c>
-      <c r="E36" s="50" t="s">
-        <v>44</v>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="38" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="29"/>
+      <c r="B36" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="29"/>
+      <c r="D36" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>46</v>
       </c>
       <c r="F36" s="62"/>
-      <c r="G36" s="50" t="s">
+      <c r="G36" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="I36" s="50">
-        <v>0</v>
-      </c>
-      <c r="J36" s="51"/>
-      <c r="K36" s="52">
-        <v>-40</v>
-      </c>
-      <c r="L36" s="52">
-        <v>40</v>
-      </c>
-      <c r="M36" s="52">
-        <v>0</v>
-      </c>
-      <c r="N36" s="52">
-        <f>(L36-K36)/6</f>
-        <v>13.333333333333334</v>
-      </c>
-      <c r="O36" s="52">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="38" t="s">
-        <v>753</v>
-      </c>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29">
+        <v>0</v>
+      </c>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="Q36" s="37"/>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="29"/>
@@ -8080,11 +8088,11 @@
         <v>21</v>
       </c>
       <c r="C37" s="29"/>
-      <c r="D37" s="42" t="s">
-        <v>45</v>
+      <c r="D37" s="29" t="s">
+        <v>47</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F37" s="62"/>
       <c r="G37" s="29" t="s">
@@ -8108,14 +8116,14 @@
       </c>
       <c r="C38" s="29"/>
       <c r="D38" s="29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F38" s="62"/>
       <c r="G38" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H38" s="29"/>
       <c r="I38" s="29">
@@ -8135,18 +8143,18 @@
       </c>
       <c r="C39" s="29"/>
       <c r="D39" s="29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F39" s="62"/>
       <c r="G39" s="29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H39" s="29"/>
-      <c r="I39" s="29">
-        <v>0</v>
+      <c r="I39" s="29" t="b">
+        <v>1</v>
       </c>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -8162,18 +8170,18 @@
       </c>
       <c r="C40" s="29"/>
       <c r="D40" s="29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F40" s="62"/>
       <c r="G40" s="29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H40" s="29"/>
-      <c r="I40" s="29" t="b">
-        <v>1</v>
+      <c r="I40" s="29">
+        <v>15</v>
       </c>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -8189,18 +8197,18 @@
       </c>
       <c r="C41" s="29"/>
       <c r="D41" s="29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F41" s="62"/>
       <c r="G41" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H41" s="29"/>
       <c r="I41" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -8216,18 +8224,18 @@
       </c>
       <c r="C42" s="29"/>
       <c r="D42" s="29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F42" s="62"/>
       <c r="G42" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H42" s="29"/>
       <c r="I42" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -8236,123 +8244,117 @@
       <c r="O42" s="3"/>
       <c r="Q42" s="37"/>
     </row>
-    <row r="43" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E43" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F43" s="62"/>
-      <c r="G43" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29">
+    <row r="43" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="Q43" s="37"/>
-    </row>
-    <row r="44" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="44" t="b">
+      <c r="B43" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="C43" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="D43" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="E43" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="62"/>
+      <c r="G44" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I44" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J44" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>641</v>
+      </c>
+      <c r="E45" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="F45" s="48"/>
+      <c r="G45" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="H45" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I45" s="38">
+        <v>0</v>
+      </c>
+      <c r="J45" s="41"/>
+      <c r="K45" s="40">
+        <v>-80</v>
+      </c>
+      <c r="L45" s="40">
+        <v>80</v>
+      </c>
+      <c r="M45" s="40">
+        <v>0</v>
+      </c>
+      <c r="N45" s="40">
+        <f>(L45-K45)/6</f>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="O45" s="40">
         <v>1</v>
       </c>
-      <c r="B44" s="44" t="s">
-        <v>283</v>
-      </c>
-      <c r="C44" s="44" t="s">
-        <v>284</v>
-      </c>
-      <c r="D44" s="44" t="s">
-        <v>284</v>
-      </c>
-      <c r="E44" s="44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B45" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="E45" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F45" s="62"/>
-      <c r="G45" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I45" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="J45" s="29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="38" t="s">
-        <v>641</v>
-      </c>
-      <c r="E46" s="38" t="s">
-        <v>286</v>
-      </c>
-      <c r="F46" s="48"/>
-      <c r="G46" s="38" t="s">
+      <c r="R45" s="38" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>643</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" s="62"/>
+      <c r="G46" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="H46" s="38" t="s">
+      <c r="H46" s="29" t="s">
         <v>642</v>
       </c>
-      <c r="I46" s="38">
-        <v>0</v>
-      </c>
-      <c r="J46" s="41"/>
-      <c r="K46" s="40">
-        <v>-80</v>
-      </c>
-      <c r="L46" s="40">
-        <v>80</v>
-      </c>
-      <c r="M46" s="40">
-        <v>0</v>
-      </c>
-      <c r="N46" s="40">
-        <f>(L46-K46)/6</f>
-        <v>26.666666666666668</v>
-      </c>
-      <c r="O46" s="40">
-        <v>1</v>
-      </c>
-      <c r="R46" s="38" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I46" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F47" s="62"/>
+        <v>48</v>
+      </c>
+      <c r="F47" s="61"/>
       <c r="G47" s="29" t="s">
         <v>62</v>
       </c>
@@ -8368,17 +8370,17 @@
         <v>21</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F48" s="61"/>
       <c r="G48" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H48" s="29" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="I48" s="29">
         <v>0</v>
@@ -8389,19 +8391,16 @@
         <v>21</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F49" s="61"/>
       <c r="G49" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H49" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I49" s="29">
+        <v>61</v>
+      </c>
+      <c r="I49" s="29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8410,17 +8409,20 @@
         <v>21</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F50" s="61"/>
       <c r="G50" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I50" s="29" t="b">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H50" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I50" s="29">
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8428,141 +8430,138 @@
         <v>21</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F51" s="61"/>
       <c r="G51" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H51" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="I51" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B52" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>650</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52" s="62"/>
+      <c r="G52" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H51" s="29" t="s">
+      <c r="H52" s="29" t="s">
         <v>646</v>
       </c>
-      <c r="I51" s="29">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" s="29" t="s">
-        <v>649</v>
-      </c>
-      <c r="E52" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F52" s="61"/>
-      <c r="G52" s="29" t="s">
+      <c r="I52" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="B53" s="44" t="s">
+        <v>694</v>
+      </c>
+      <c r="C53" s="44" t="s">
+        <v>695</v>
+      </c>
+      <c r="D53" s="44" t="s">
+        <v>695</v>
+      </c>
+      <c r="E53" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B54" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="E54" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F54" s="62"/>
+      <c r="G54" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I54" s="49" t="s">
+        <v>415</v>
+      </c>
+      <c r="J54" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="38" t="s">
+        <v>696</v>
+      </c>
+      <c r="E55" s="38" t="s">
+        <v>697</v>
+      </c>
+      <c r="F55" s="48"/>
+      <c r="G55" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H52" s="29" t="s">
+      <c r="H55" s="38" t="s">
         <v>642</v>
       </c>
-      <c r="I52" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B53" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="29" t="s">
-        <v>650</v>
-      </c>
-      <c r="E53" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F53" s="62"/>
-      <c r="G53" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H53" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I53" s="29">
+      <c r="I55" s="38">
+        <v>0.8</v>
+      </c>
+      <c r="J55" s="41"/>
+      <c r="K55" s="40">
+        <v>0.78</v>
+      </c>
+      <c r="L55" s="40">
+        <v>0.98</v>
+      </c>
+      <c r="M55" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="N55" s="40">
+        <f>(L55-K55)/6</f>
+        <v>3.3333333333333326E-2</v>
+      </c>
+      <c r="O55" s="40">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="B54" s="44" t="s">
-        <v>694</v>
-      </c>
-      <c r="C54" s="44" t="s">
-        <v>695</v>
-      </c>
-      <c r="D54" s="44" t="s">
-        <v>695</v>
-      </c>
-      <c r="E54" s="44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B55" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="29" t="s">
-        <v>342</v>
-      </c>
-      <c r="E55" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="F55" s="62"/>
-      <c r="G55" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I55" s="49" t="s">
-        <v>415</v>
-      </c>
-      <c r="J55" s="29" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B56" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56" s="38" t="s">
-        <v>696</v>
-      </c>
-      <c r="E56" s="38" t="s">
-        <v>697</v>
-      </c>
-      <c r="F56" s="48"/>
-      <c r="G56" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="H56" s="38" t="s">
-        <v>642</v>
-      </c>
-      <c r="I56" s="38">
-        <v>0.8</v>
-      </c>
-      <c r="J56" s="41"/>
-      <c r="K56" s="40">
-        <v>0.78</v>
-      </c>
-      <c r="L56" s="40">
-        <v>0.98</v>
-      </c>
-      <c r="M56" s="40">
-        <v>0.8</v>
-      </c>
-      <c r="N56" s="40">
-        <f>(L56-K56)/6</f>
-        <v>3.3333333333333326E-2</v>
-      </c>
-      <c r="O56" s="40">
-        <v>1</v>
-      </c>
-      <c r="R56" s="38" t="s">
+      <c r="R55" s="38" t="s">
         <v>753</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="E56" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F56" s="30"/>
+      <c r="G56" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I56" s="29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8570,16 +8569,19 @@
         <v>21</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>347</v>
+        <v>643</v>
       </c>
       <c r="E57" s="29" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="F57" s="30"/>
       <c r="G57" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I57" s="29" t="b">
+        <v>62</v>
+      </c>
+      <c r="H57" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="I57" s="29">
         <v>0</v>
       </c>
     </row>
@@ -8588,10 +8590,10 @@
         <v>21</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E58" s="29" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="F58" s="30"/>
       <c r="G58" s="29" t="s">
@@ -8609,40 +8611,37 @@
         <v>21</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E59" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F59" s="30"/>
       <c r="G59" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H59" s="29" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="I59" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B60" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="F60" s="30"/>
+        <v>52</v>
+      </c>
+      <c r="F60" s="62"/>
       <c r="G60" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H60" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I60" s="29">
+        <v>61</v>
+      </c>
+      <c r="I60" s="29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8651,17 +8650,20 @@
         <v>21</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E61" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F61" s="62"/>
       <c r="G61" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I61" s="29" t="b">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H61" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I61" s="29">
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8669,20 +8671,20 @@
         <v>21</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F62" s="62"/>
       <c r="G62" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H62" s="29" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="I62" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8690,120 +8692,117 @@
         <v>21</v>
       </c>
       <c r="D63" s="29" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E63" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F63" s="62"/>
       <c r="G63" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H63" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I63" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="B64" s="44" t="s">
+        <v>701</v>
+      </c>
+      <c r="C64" s="44" t="s">
+        <v>700</v>
+      </c>
+      <c r="D64" s="44" t="s">
+        <v>700</v>
+      </c>
+      <c r="E64" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B65" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="29" t="s">
+        <v>702</v>
+      </c>
+      <c r="E65" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" s="62"/>
+      <c r="G65" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I65" s="49" t="s">
+        <v>415</v>
+      </c>
+      <c r="J65" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B66" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="38" t="s">
+        <v>703</v>
+      </c>
+      <c r="E66" s="38" t="s">
+        <v>704</v>
+      </c>
+      <c r="F66" s="48"/>
+      <c r="G66" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H63" s="29" t="s">
+      <c r="H66" s="38" t="s">
         <v>642</v>
       </c>
-      <c r="I63" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B64" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" s="29" t="s">
-        <v>650</v>
-      </c>
-      <c r="E64" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F64" s="62"/>
-      <c r="G64" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H64" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I64" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="B65" s="44" t="s">
-        <v>701</v>
-      </c>
-      <c r="C65" s="44" t="s">
-        <v>700</v>
-      </c>
-      <c r="D65" s="44" t="s">
-        <v>700</v>
-      </c>
-      <c r="E65" s="44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B66" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D66" s="29" t="s">
-        <v>702</v>
-      </c>
-      <c r="E66" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="F66" s="62"/>
-      <c r="G66" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I66" s="49" t="s">
-        <v>415</v>
-      </c>
-      <c r="J66" s="29" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B67" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D67" s="38" t="s">
-        <v>703</v>
-      </c>
-      <c r="E67" s="38" t="s">
-        <v>704</v>
-      </c>
-      <c r="F67" s="48"/>
-      <c r="G67" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="H67" s="38" t="s">
-        <v>642</v>
-      </c>
-      <c r="I67" s="38">
+      <c r="I66" s="38">
         <v>4</v>
       </c>
-      <c r="J67" s="41"/>
-      <c r="K67" s="40">
-        <v>2</v>
-      </c>
-      <c r="L67" s="40">
+      <c r="J66" s="41"/>
+      <c r="K66" s="40">
+        <v>2</v>
+      </c>
+      <c r="L66" s="40">
         <v>5</v>
       </c>
-      <c r="M67" s="40">
+      <c r="M66" s="40">
         <v>4</v>
       </c>
-      <c r="N67" s="40">
-        <f>(L67-K67)/6</f>
+      <c r="N66" s="40">
+        <f>(L66-K66)/6</f>
         <v>0.5</v>
       </c>
-      <c r="O67" s="40">
+      <c r="O66" s="40">
         <v>0.25</v>
       </c>
-      <c r="R67" s="38" t="s">
+      <c r="R66" s="38" t="s">
         <v>753</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="E67" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F67" s="62"/>
+      <c r="G67" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I67" s="29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8811,16 +8810,19 @@
         <v>21</v>
       </c>
       <c r="D68" s="29" t="s">
-        <v>347</v>
+        <v>643</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="F68" s="62"/>
       <c r="G68" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I68" s="29" t="b">
+        <v>62</v>
+      </c>
+      <c r="H68" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="I68" s="29">
         <v>0</v>
       </c>
     </row>
@@ -8829,10 +8831,10 @@
         <v>21</v>
       </c>
       <c r="D69" s="29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E69" s="29" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="F69" s="62"/>
       <c r="G69" s="29" t="s">
@@ -8850,17 +8852,17 @@
         <v>21</v>
       </c>
       <c r="D70" s="29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E70" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F70" s="62"/>
       <c r="G70" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H70" s="29" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="I70" s="29">
         <v>0</v>
@@ -8871,19 +8873,16 @@
         <v>21</v>
       </c>
       <c r="D71" s="29" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E71" s="29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F71" s="62"/>
       <c r="G71" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H71" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I71" s="29">
+        <v>61</v>
+      </c>
+      <c r="I71" s="29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8892,17 +8891,20 @@
         <v>21</v>
       </c>
       <c r="D72" s="29" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E72" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F72" s="62"/>
       <c r="G72" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I72" s="29" t="b">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H72" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I72" s="29">
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8910,20 +8912,20 @@
         <v>21</v>
       </c>
       <c r="D73" s="29" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E73" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F73" s="62"/>
       <c r="G73" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H73" s="29" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="I73" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8931,79 +8933,99 @@
         <v>21</v>
       </c>
       <c r="D74" s="29" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E74" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F74" s="62"/>
       <c r="G74" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H74" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I74" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="B75" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="C75" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="D75" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="E75" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B76" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="E76" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F76" s="62"/>
+      <c r="G76" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I76" s="49" t="s">
+        <v>415</v>
+      </c>
+      <c r="J76" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B77" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="38" t="s">
+        <v>705</v>
+      </c>
+      <c r="E77" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="F77" s="48"/>
+      <c r="G77" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H74" s="29" t="s">
+      <c r="H77" s="38" t="s">
         <v>642</v>
       </c>
-      <c r="I74" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B75" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75" s="29" t="s">
-        <v>650</v>
-      </c>
-      <c r="E75" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F75" s="62"/>
-      <c r="G75" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H75" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I75" s="29">
+      <c r="I77" s="38">
+        <v>0</v>
+      </c>
+      <c r="J77" s="41"/>
+      <c r="K77" s="40">
+        <v>-20</v>
+      </c>
+      <c r="L77" s="40">
+        <v>14</v>
+      </c>
+      <c r="M77" s="40">
+        <v>0</v>
+      </c>
+      <c r="N77" s="40">
+        <f>(L77-K77)/6</f>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="O77" s="40">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="B76" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="C76" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="D76" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="E76" s="44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B77" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D77" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="E77" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="F77" s="62"/>
-      <c r="G77" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I77" s="49" t="s">
-        <v>415</v>
-      </c>
-      <c r="J77" s="29" t="s">
-        <v>416</v>
+      <c r="R77" s="38" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="78" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9011,10 +9033,10 @@
         <v>22</v>
       </c>
       <c r="D78" s="38" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E78" s="38" t="s">
-        <v>243</v>
+        <v>707</v>
       </c>
       <c r="F78" s="48"/>
       <c r="G78" s="38" t="s">
@@ -9031,14 +9053,14 @@
         <v>-20</v>
       </c>
       <c r="L78" s="40">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M78" s="40">
         <v>0</v>
       </c>
       <c r="N78" s="40">
         <f>(L78-K78)/6</f>
-        <v>5.666666666666667</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="O78" s="40">
         <v>1</v>
@@ -9047,45 +9069,22 @@
         <v>753</v>
       </c>
     </row>
-    <row r="79" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B79" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D79" s="38" t="s">
-        <v>706</v>
-      </c>
-      <c r="E79" s="38" t="s">
-        <v>707</v>
-      </c>
-      <c r="F79" s="48"/>
-      <c r="G79" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="H79" s="38" t="s">
-        <v>642</v>
-      </c>
-      <c r="I79" s="38">
-        <v>0</v>
-      </c>
-      <c r="J79" s="41"/>
-      <c r="K79" s="40">
-        <v>-20</v>
-      </c>
-      <c r="L79" s="40">
-        <v>30</v>
-      </c>
-      <c r="M79" s="40">
-        <v>0</v>
-      </c>
-      <c r="N79" s="40">
-        <f>(L79-K79)/6</f>
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="O79" s="40">
-        <v>1</v>
-      </c>
-      <c r="R79" s="38" t="s">
-        <v>753</v>
+    <row r="79" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B79" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="E79" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F79" s="62"/>
+      <c r="G79" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I79" s="29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9093,16 +9092,19 @@
         <v>21</v>
       </c>
       <c r="D80" s="29" t="s">
-        <v>347</v>
+        <v>643</v>
       </c>
       <c r="E80" s="29" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="F80" s="62"/>
       <c r="G80" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I80" s="29" t="b">
+        <v>62</v>
+      </c>
+      <c r="H80" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="I80" s="29">
         <v>0</v>
       </c>
     </row>
@@ -9111,10 +9113,10 @@
         <v>21</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E81" s="29" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="F81" s="62"/>
       <c r="G81" s="29" t="s">
@@ -9132,40 +9134,37 @@
         <v>21</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E82" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F82" s="62"/>
       <c r="G82" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H82" s="29" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="I82" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B83" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E83" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="F83" s="62"/>
+        <v>52</v>
+      </c>
+      <c r="F83" s="61"/>
       <c r="G83" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H83" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I83" s="29">
+        <v>61</v>
+      </c>
+      <c r="I83" s="29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9174,17 +9173,20 @@
         <v>21</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E84" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F84" s="61"/>
       <c r="G84" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I84" s="29" t="b">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H84" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I84" s="29">
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -9192,20 +9194,20 @@
         <v>21</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E85" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F85" s="61"/>
       <c r="G85" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H85" s="29" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="I85" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -9213,58 +9215,78 @@
         <v>21</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E86" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F86" s="61"/>
       <c r="G86" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H86" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I86" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="B87" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="C87" s="44" t="s">
+        <v>651</v>
+      </c>
+      <c r="D87" s="44" t="s">
+        <v>651</v>
+      </c>
+      <c r="E87" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B88" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D88" s="38" t="s">
+        <v>652</v>
+      </c>
+      <c r="E88" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="F88" s="48"/>
+      <c r="G88" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H86" s="29" t="s">
-        <v>642</v>
-      </c>
-      <c r="I86" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D87" s="29" t="s">
-        <v>650</v>
-      </c>
-      <c r="E87" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F87" s="61"/>
-      <c r="G87" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H87" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I87" s="29">
+      <c r="H88" s="38" t="s">
+        <v>653</v>
+      </c>
+      <c r="I88" s="38">
+        <v>0</v>
+      </c>
+      <c r="J88" s="41"/>
+      <c r="K88" s="40">
+        <v>-6</v>
+      </c>
+      <c r="L88" s="40">
+        <v>2</v>
+      </c>
+      <c r="M88" s="40">
+        <v>0</v>
+      </c>
+      <c r="N88" s="40">
+        <f>(L88-K88)/6</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="O88" s="40">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="B88" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="C88" s="44" t="s">
-        <v>651</v>
-      </c>
-      <c r="D88" s="44" t="s">
-        <v>651</v>
-      </c>
-      <c r="E88" s="44" t="s">
-        <v>66</v>
+      <c r="R88" s="38" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="89" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9272,10 +9294,10 @@
         <v>22</v>
       </c>
       <c r="D89" s="38" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E89" s="38" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F89" s="48"/>
       <c r="G89" s="38" t="s">
@@ -9289,17 +9311,17 @@
       </c>
       <c r="J89" s="41"/>
       <c r="K89" s="40">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="L89" s="40">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="M89" s="40">
         <v>0</v>
       </c>
       <c r="N89" s="40">
         <f>(L89-K89)/6</f>
-        <v>1.3333333333333333</v>
+        <v>1.4833333333333334</v>
       </c>
       <c r="O89" s="40">
         <v>1</v>
@@ -9308,111 +9330,113 @@
         <v>753</v>
       </c>
     </row>
-    <row r="90" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B90" s="38" t="s">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B90" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="30" t="s">
+        <v>655</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="F90" s="61"/>
+      <c r="G90" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I90" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="B91" s="47" t="s">
+        <v>682</v>
+      </c>
+      <c r="C91" s="47" t="s">
+        <v>683</v>
+      </c>
+      <c r="D91" s="47" t="s">
+        <v>683</v>
+      </c>
+      <c r="E91" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F91" s="44"/>
+      <c r="G91" s="47"/>
+      <c r="H91" s="47"/>
+      <c r="I91" s="47"/>
+      <c r="J91" s="47"/>
+      <c r="K91" s="47"/>
+      <c r="L91" s="47"/>
+      <c r="M91" s="44"/>
+      <c r="N91" s="44"/>
+      <c r="O91" s="44"/>
+      <c r="P91" s="44"/>
+      <c r="Q91" s="44"/>
+      <c r="R91" s="44"/>
+    </row>
+    <row r="92" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="38"/>
+      <c r="B92" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D90" s="38" t="s">
-        <v>654</v>
-      </c>
-      <c r="E90" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="F90" s="48"/>
-      <c r="G90" s="38" t="s">
+      <c r="C92" s="48"/>
+      <c r="D92" s="48" t="s">
+        <v>676</v>
+      </c>
+      <c r="E92" s="48" t="s">
+        <v>677</v>
+      </c>
+      <c r="F92" s="48"/>
+      <c r="G92" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H90" s="38" t="s">
-        <v>653</v>
-      </c>
-      <c r="I90" s="38">
-        <v>0</v>
-      </c>
-      <c r="J90" s="41"/>
-      <c r="K90" s="40">
-        <v>-5</v>
-      </c>
-      <c r="L90" s="40">
-        <v>3.9</v>
-      </c>
-      <c r="M90" s="40">
-        <v>0</v>
-      </c>
-      <c r="N90" s="40">
-        <f>(L90-K90)/6</f>
-        <v>1.4833333333333334</v>
-      </c>
-      <c r="O90" s="40">
+      <c r="H92" s="48"/>
+      <c r="I92" s="48">
         <v>1</v>
       </c>
-      <c r="R90" s="38" t="s">
+      <c r="J92" s="48"/>
+      <c r="K92" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="L92" s="48">
+        <v>4</v>
+      </c>
+      <c r="M92" s="40">
+        <v>1.75</v>
+      </c>
+      <c r="N92" s="38">
+        <f>1.5/6</f>
+        <v>0.25</v>
+      </c>
+      <c r="O92" s="48">
+        <v>0.1</v>
+      </c>
+      <c r="P92" s="38"/>
+      <c r="Q92" s="38"/>
+      <c r="R92" s="38" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B91" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D91" s="30" t="s">
-        <v>655</v>
-      </c>
-      <c r="E91" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="F91" s="61"/>
-      <c r="G91" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I91" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
-      <c r="N91" s="3"/>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="B92" s="47" t="s">
-        <v>682</v>
-      </c>
-      <c r="C92" s="47" t="s">
-        <v>683</v>
-      </c>
-      <c r="D92" s="47" t="s">
-        <v>683</v>
-      </c>
-      <c r="E92" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="F92" s="44"/>
-      <c r="G92" s="47"/>
-      <c r="H92" s="47"/>
-      <c r="I92" s="47"/>
-      <c r="J92" s="47"/>
-      <c r="K92" s="47"/>
-      <c r="L92" s="47"/>
-      <c r="M92" s="44"/>
-      <c r="N92" s="44"/>
-      <c r="O92" s="44"/>
-      <c r="P92" s="44"/>
-      <c r="Q92" s="44"/>
-      <c r="R92" s="44"/>
-    </row>
     <row r="93" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="38"/>
+      <c r="A93" s="48"/>
       <c r="B93" s="48" t="s">
         <v>22</v>
       </c>
       <c r="C93" s="48"/>
       <c r="D93" s="48" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E93" s="48" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F93" s="48"/>
       <c r="G93" s="48" t="s">
@@ -9424,16 +9448,15 @@
       </c>
       <c r="J93" s="48"/>
       <c r="K93" s="48">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="L93" s="48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M93" s="40">
         <v>1.75</v>
       </c>
-      <c r="N93" s="38">
-        <f>1.5/6</f>
+      <c r="N93" s="48">
         <v>0.25</v>
       </c>
       <c r="O93" s="48">
@@ -9452,10 +9475,10 @@
       </c>
       <c r="C94" s="48"/>
       <c r="D94" s="48" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="E94" s="48" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F94" s="48"/>
       <c r="G94" s="48" t="s">
@@ -9467,7 +9490,7 @@
       </c>
       <c r="J94" s="48"/>
       <c r="K94" s="48">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="L94" s="48">
         <v>3</v>
@@ -9475,102 +9498,103 @@
       <c r="M94" s="40">
         <v>1.75</v>
       </c>
-      <c r="N94" s="48">
+      <c r="N94" s="40">
         <v>0.25</v>
       </c>
-      <c r="O94" s="48">
+      <c r="O94" s="40">
         <v>0.1</v>
       </c>
-      <c r="P94" s="38"/>
-      <c r="Q94" s="38"/>
+      <c r="P94" s="40"/>
+      <c r="Q94" s="40"/>
       <c r="R94" s="38" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="95" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="48"/>
-      <c r="B95" s="48" t="s">
+      <c r="T94" s="30"/>
+    </row>
+    <row r="95" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="B95" s="47" t="s">
+        <v>684</v>
+      </c>
+      <c r="C95" s="47" t="s">
+        <v>685</v>
+      </c>
+      <c r="D95" s="47" t="s">
+        <v>685</v>
+      </c>
+      <c r="E95" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F95" s="44"/>
+      <c r="G95" s="47"/>
+      <c r="H95" s="47"/>
+      <c r="I95" s="47"/>
+      <c r="J95" s="47"/>
+      <c r="K95" s="47"/>
+      <c r="L95" s="47"/>
+      <c r="M95" s="44"/>
+      <c r="N95" s="44"/>
+      <c r="O95" s="44"/>
+      <c r="P95" s="44"/>
+      <c r="Q95" s="44"/>
+      <c r="R95" s="44"/>
+    </row>
+    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="38"/>
+      <c r="B96" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="48"/>
-      <c r="D95" s="48" t="s">
-        <v>680</v>
-      </c>
-      <c r="E95" s="48" t="s">
-        <v>681</v>
-      </c>
-      <c r="F95" s="48"/>
-      <c r="G95" s="48" t="s">
+      <c r="C96" s="48"/>
+      <c r="D96" s="48" t="s">
+        <v>686</v>
+      </c>
+      <c r="E96" s="48" t="s">
+        <v>677</v>
+      </c>
+      <c r="F96" s="48"/>
+      <c r="G96" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H95" s="48"/>
-      <c r="I95" s="48">
+      <c r="H96" s="48"/>
+      <c r="I96" s="48">
         <v>1</v>
       </c>
-      <c r="J95" s="48"/>
-      <c r="K95" s="48">
+      <c r="J96" s="48"/>
+      <c r="K96" s="48">
         <v>0.5</v>
       </c>
-      <c r="L95" s="48">
+      <c r="L96" s="48">
         <v>3</v>
       </c>
-      <c r="M95" s="40">
+      <c r="M96" s="40">
         <v>1.75</v>
       </c>
-      <c r="N95" s="40">
+      <c r="N96" s="38">
+        <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O95" s="40">
+      <c r="O96" s="48">
         <v>0.1</v>
       </c>
-      <c r="P95" s="40"/>
-      <c r="Q95" s="40"/>
-      <c r="R95" s="38" t="s">
+      <c r="P96" s="38"/>
+      <c r="Q96" s="38"/>
+      <c r="R96" s="38" t="s">
         <v>753</v>
       </c>
-      <c r="T95" s="30"/>
-    </row>
-    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="B96" s="47" t="s">
-        <v>684</v>
-      </c>
-      <c r="C96" s="47" t="s">
-        <v>685</v>
-      </c>
-      <c r="D96" s="47" t="s">
-        <v>685</v>
-      </c>
-      <c r="E96" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="F96" s="44"/>
-      <c r="G96" s="47"/>
-      <c r="H96" s="47"/>
-      <c r="I96" s="47"/>
-      <c r="J96" s="47"/>
-      <c r="K96" s="47"/>
-      <c r="L96" s="47"/>
-      <c r="M96" s="44"/>
-      <c r="N96" s="44"/>
-      <c r="O96" s="44"/>
-      <c r="P96" s="44"/>
-      <c r="Q96" s="44"/>
-      <c r="R96" s="44"/>
     </row>
     <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="38"/>
+      <c r="A97" s="48"/>
       <c r="B97" s="48" t="s">
         <v>22</v>
       </c>
       <c r="C97" s="48"/>
       <c r="D97" s="48" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E97" s="48" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F97" s="48"/>
       <c r="G97" s="48" t="s">
@@ -9585,13 +9609,12 @@
         <v>0.5</v>
       </c>
       <c r="L97" s="48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M97" s="40">
         <v>1.75</v>
       </c>
-      <c r="N97" s="38">
-        <f>1.5/6</f>
+      <c r="N97" s="48">
         <v>0.25</v>
       </c>
       <c r="O97" s="48">
@@ -9610,10 +9633,10 @@
       </c>
       <c r="C98" s="48"/>
       <c r="D98" s="48" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E98" s="48" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F98" s="48"/>
       <c r="G98" s="48" t="s">
@@ -9628,186 +9651,148 @@
         <v>0.5</v>
       </c>
       <c r="L98" s="48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M98" s="40">
         <v>1.75</v>
       </c>
-      <c r="N98" s="48">
+      <c r="N98" s="40">
         <v>0.25</v>
       </c>
-      <c r="O98" s="48">
+      <c r="O98" s="40">
         <v>0.1</v>
       </c>
-      <c r="P98" s="38"/>
-      <c r="Q98" s="38"/>
+      <c r="P98" s="40"/>
+      <c r="Q98" s="40"/>
       <c r="R98" s="38" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="48"/>
-      <c r="B99" s="48" t="s">
+    <row r="99" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="B99" s="44" t="s">
+        <v>709</v>
+      </c>
+      <c r="C99" s="44" t="s">
+        <v>708</v>
+      </c>
+      <c r="D99" s="44" t="s">
+        <v>708</v>
+      </c>
+      <c r="E99" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="54" t="s">
+        <v>712</v>
+      </c>
+      <c r="E100" s="54" t="s">
+        <v>710</v>
+      </c>
+      <c r="F100" s="61"/>
+      <c r="G100" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="H100" s="54" t="s">
+        <v>642</v>
+      </c>
+      <c r="I100" s="54">
+        <v>1</v>
+      </c>
+      <c r="J100" s="57"/>
+      <c r="K100" s="56">
+        <v>0.9</v>
+      </c>
+      <c r="L100" s="56">
+        <v>1</v>
+      </c>
+      <c r="M100" s="56">
+        <v>0.95</v>
+      </c>
+      <c r="N100" s="56">
+        <f>(L100-K100)/6</f>
+        <v>1.6666666666666663E-2</v>
+      </c>
+      <c r="O100" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="R100" s="38" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B101" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C99" s="48"/>
-      <c r="D99" s="48" t="s">
-        <v>688</v>
-      </c>
-      <c r="E99" s="48" t="s">
-        <v>681</v>
-      </c>
-      <c r="F99" s="48"/>
-      <c r="G99" s="48" t="s">
+      <c r="D101" s="38" t="s">
+        <v>713</v>
+      </c>
+      <c r="E101" s="38" t="s">
+        <v>711</v>
+      </c>
+      <c r="F101" s="48"/>
+      <c r="G101" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H99" s="48"/>
-      <c r="I99" s="48">
-        <v>1</v>
-      </c>
-      <c r="J99" s="48"/>
-      <c r="K99" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="L99" s="48">
-        <v>3</v>
-      </c>
-      <c r="M99" s="40">
-        <v>1.75</v>
-      </c>
-      <c r="N99" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="O99" s="40">
-        <v>0.1</v>
-      </c>
-      <c r="P99" s="40"/>
-      <c r="Q99" s="40"/>
-      <c r="R99" s="38" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="B100" s="44" t="s">
-        <v>709</v>
-      </c>
-      <c r="C100" s="44" t="s">
-        <v>708</v>
-      </c>
-      <c r="D100" s="44" t="s">
-        <v>708</v>
-      </c>
-      <c r="E100" s="44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" s="54" t="s">
-        <v>712</v>
-      </c>
-      <c r="E101" s="54" t="s">
-        <v>710</v>
-      </c>
-      <c r="F101" s="61"/>
-      <c r="G101" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="H101" s="54" t="s">
+      <c r="H101" s="38" t="s">
         <v>642</v>
       </c>
-      <c r="I101" s="54">
-        <v>1</v>
-      </c>
-      <c r="J101" s="57"/>
-      <c r="K101" s="56">
-        <v>0.9</v>
-      </c>
-      <c r="L101" s="56">
-        <v>1</v>
-      </c>
-      <c r="M101" s="56">
-        <v>0.95</v>
-      </c>
-      <c r="N101" s="56">
+      <c r="I101" s="38">
+        <v>1450</v>
+      </c>
+      <c r="J101" s="41"/>
+      <c r="K101" s="40">
+        <v>0</v>
+      </c>
+      <c r="L101" s="40">
+        <v>3000</v>
+      </c>
+      <c r="M101" s="40">
+        <v>1450</v>
+      </c>
+      <c r="N101" s="40">
         <f>(L101-K101)/6</f>
-        <v>1.6666666666666663E-2</v>
-      </c>
-      <c r="O101" s="56">
-        <v>0.1</v>
+        <v>500</v>
+      </c>
+      <c r="O101" s="40">
+        <v>10</v>
       </c>
       <c r="R101" s="38" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="102" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B102" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D102" s="38" t="s">
-        <v>713</v>
-      </c>
-      <c r="E102" s="38" t="s">
-        <v>711</v>
-      </c>
-      <c r="F102" s="48"/>
-      <c r="G102" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="H102" s="38" t="s">
-        <v>642</v>
-      </c>
-      <c r="I102" s="38">
-        <v>1450</v>
-      </c>
-      <c r="J102" s="41"/>
-      <c r="K102" s="40">
-        <v>0</v>
-      </c>
-      <c r="L102" s="40">
-        <v>3000</v>
-      </c>
-      <c r="M102" s="40">
-        <v>1450</v>
-      </c>
-      <c r="N102" s="40">
-        <f>(L102-K102)/6</f>
-        <v>500</v>
-      </c>
-      <c r="O102" s="40">
-        <v>10</v>
-      </c>
-      <c r="R102" s="38" t="s">
-        <v>753</v>
-      </c>
+    <row r="102" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="B102" s="35" t="s">
+        <v>752</v>
+      </c>
+      <c r="C102" s="35" t="s">
+        <v>755</v>
+      </c>
+      <c r="D102" s="35" t="s">
+        <v>755</v>
+      </c>
+      <c r="E102" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="H102" s="36"/>
+      <c r="I102" s="36"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A103" s="35"/>
-      <c r="B103" s="35"/>
-      <c r="C103" s="35"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="35"/>
-      <c r="F103" s="35"/>
-      <c r="G103" s="35"/>
-      <c r="H103" s="36"/>
-      <c r="I103" s="36"/>
-      <c r="J103" s="35"/>
-      <c r="K103" s="35"/>
-      <c r="L103" s="35"/>
-      <c r="M103" s="35"/>
-      <c r="N103" s="35"/>
-      <c r="O103" s="35"/>
-      <c r="P103" s="35"/>
-      <c r="Q103" s="35"/>
-      <c r="R103" s="35"/>
+      <c r="F103" s="61"/>
+      <c r="I103" s="30"/>
+      <c r="J103" s="30"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F104" s="61"/>
+      <c r="F104" s="45"/>
       <c r="I104" s="30"/>
       <c r="J104" s="30"/>
     </row>
@@ -9847,7 +9832,6 @@
       <c r="J111" s="30"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F112" s="45"/>
       <c r="I112" s="30"/>
       <c r="J112" s="30"/>
     </row>
@@ -10199,12 +10183,8 @@
       <c r="I199" s="30"/>
       <c r="J199" s="30"/>
     </row>
-    <row r="200" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I200" s="30"/>
-      <c r="J200" s="30"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:AA127"/>
+  <autoFilter ref="A2:AA126"/>
   <mergeCells count="1">
     <mergeCell ref="U1:Z1"/>
   </mergeCells>

--- a/projects/SEB_calibration_Rgenoud_2013.xlsx
+++ b/projects/SEB_calibration_Rgenoud_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -2202,9 +2202,6 @@
     <t>default</t>
   </si>
   <si>
-    <t>SEB4 baseboard Rgenoud 2013 no balance</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -2374,6 +2371,9 @@
   </si>
   <si>
     <t>Lp norm power (must be non-negative)</t>
+  </si>
+  <si>
+    <t>SEB4 baseboard Rgenoud 2013  no max queued</t>
   </si>
 </sst>
 </file>
@@ -4416,7 +4416,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4480,9 +4480,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -6693,8 +6690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6741,7 +6738,7 @@
         <v>454</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>455</v>
@@ -6752,7 +6749,7 @@
         <v>465</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>609</v>
@@ -6834,7 +6831,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>720</v>
+        <v>777</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>467</v>
@@ -6845,7 +6842,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>638</v>
@@ -6928,7 +6925,7 @@
     </row>
     <row r="22" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B22" s="29">
         <v>5</v>
@@ -6936,43 +6933,43 @@
       <c r="C22" s="29" t="s">
         <v>575</v>
       </c>
-      <c r="D22" s="33"/>
+      <c r="D22" s="32"/>
     </row>
     <row r="23" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
         <v>560</v>
       </c>
       <c r="B23" s="29">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C23" s="29" t="s">
         <v>574</v>
       </c>
-      <c r="D23" s="33"/>
+      <c r="D23" s="32"/>
     </row>
     <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
         <v>556</v>
       </c>
       <c r="B24" s="29">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C24" s="29" t="s">
         <v>579</v>
       </c>
-      <c r="D24" s="33"/>
+      <c r="D24" s="32"/>
     </row>
     <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>576</v>
       </c>
       <c r="B25" s="29">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C25" s="29" t="s">
         <v>577</v>
       </c>
-      <c r="D25" s="33"/>
+      <c r="D25" s="32"/>
     </row>
     <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
@@ -6984,7 +6981,7 @@
       <c r="C26" s="30" t="s">
         <v>578</v>
       </c>
-      <c r="D26" s="33"/>
+      <c r="D26" s="32"/>
     </row>
     <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
@@ -6996,7 +6993,7 @@
       <c r="C27" s="30" t="s">
         <v>573</v>
       </c>
-      <c r="D27" s="33"/>
+      <c r="D27" s="32"/>
     </row>
     <row r="28" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
@@ -7008,7 +7005,7 @@
       <c r="C28" s="29" t="s">
         <v>572</v>
       </c>
-      <c r="D28" s="33"/>
+      <c r="D28" s="32"/>
     </row>
     <row r="29" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
@@ -7020,7 +7017,7 @@
       <c r="C29" s="29" t="s">
         <v>571</v>
       </c>
-      <c r="D29" s="33"/>
+      <c r="D29" s="32"/>
     </row>
     <row r="30" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
@@ -7032,19 +7029,19 @@
       <c r="C30" s="29" t="s">
         <v>570</v>
       </c>
-      <c r="D30" s="33"/>
+      <c r="D30" s="32"/>
     </row>
     <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B31" s="29">
         <v>0</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>774</v>
-      </c>
-      <c r="D31" s="33"/>
+        <v>773</v>
+      </c>
+      <c r="D31" s="32"/>
     </row>
     <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
@@ -7054,7 +7051,7 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D32" s="2"/>
     </row>
@@ -7066,9 +7063,9 @@
         <v>536</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>773</v>
-      </c>
-      <c r="D33" s="33"/>
+        <v>772</v>
+      </c>
+      <c r="D33" s="32"/>
     </row>
     <row r="34" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
@@ -7078,49 +7075,47 @@
         <v>2</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>777</v>
-      </c>
-      <c r="D34" s="33"/>
+        <v>776</v>
+      </c>
+      <c r="D34" s="32"/>
     </row>
     <row r="35" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="30" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B35" s="29">
         <v>0</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>774</v>
-      </c>
-      <c r="D35" s="33"/>
+        <v>773</v>
+      </c>
+      <c r="D35" s="32"/>
     </row>
     <row r="36" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="30" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B36" s="28">
         <v>1E+18</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>775</v>
-      </c>
-      <c r="D36" s="33"/>
+        <v>774</v>
+      </c>
+      <c r="D36" s="32"/>
     </row>
     <row r="37" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="30" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B37" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>774</v>
-      </c>
-      <c r="D37" s="33"/>
+        <v>773</v>
+      </c>
+      <c r="D37" s="32"/>
     </row>
     <row r="38" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="29"/>
-      <c r="C38" s="32"/>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7141,7 +7136,7 @@
         <v>28</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7169,7 +7164,7 @@
         <v>629</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E43" s="2"/>
     </row>
@@ -7196,7 +7191,7 @@
         <v>631</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7226,7 +7221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z199"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
@@ -7264,7 +7259,7 @@
         <v>39</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="58"/>
+      <c r="F1" s="57"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="6"/>
@@ -7276,21 +7271,21 @@
       <c r="M1" s="22"/>
       <c r="N1" s="22"/>
       <c r="O1" s="22"/>
-      <c r="P1" s="34" t="s">
+      <c r="P1" s="33" t="s">
         <v>470</v>
       </c>
       <c r="Q1" s="23"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="64" t="s">
+      <c r="U1" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
     </row>
     <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -7305,7 +7300,7 @@
       <c r="D2" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="F2" s="59"/>
+      <c r="F2" s="58"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
@@ -7325,7 +7320,7 @@
       <c r="E3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="59" t="s">
         <v>715</v>
       </c>
       <c r="G3" s="15" t="s">
@@ -7386,41 +7381,41 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="b">
+    <row r="4" spans="1:26" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="34" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
+        <v>725</v>
+      </c>
+      <c r="C4" s="34" t="s">
         <v>726</v>
       </c>
-      <c r="C4" s="35" t="s">
-        <v>727</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>727</v>
-      </c>
-      <c r="E4" s="35" t="s">
+      <c r="D4" s="34" t="s">
+        <v>726</v>
+      </c>
+      <c r="E4" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="30" t="s">
+        <v>727</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>728</v>
       </c>
-      <c r="E5" s="30" t="s">
-        <v>729</v>
-      </c>
-      <c r="F5" s="61"/>
+      <c r="F5" s="60"/>
       <c r="G5" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J5" s="30"/>
     </row>
@@ -7429,17 +7424,17 @@
         <v>21</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="61"/>
+      <c r="F6" s="60"/>
       <c r="G6" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="J6" s="30"/>
     </row>
@@ -7448,17 +7443,17 @@
         <v>21</v>
       </c>
       <c r="D7" s="30" t="s">
+        <v>732</v>
+      </c>
+      <c r="E7" s="30" t="s">
         <v>733</v>
       </c>
-      <c r="E7" s="30" t="s">
-        <v>734</v>
-      </c>
-      <c r="F7" s="61"/>
+      <c r="F7" s="60"/>
       <c r="G7" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="J7" s="30"/>
     </row>
@@ -7467,12 +7462,12 @@
         <v>21</v>
       </c>
       <c r="D8" s="30" t="s">
+        <v>735</v>
+      </c>
+      <c r="E8" s="30" t="s">
         <v>736</v>
       </c>
-      <c r="E8" s="30" t="s">
-        <v>737</v>
-      </c>
-      <c r="F8" s="61"/>
+      <c r="F8" s="60"/>
       <c r="G8" s="30" t="s">
         <v>671</v>
       </c>
@@ -7486,17 +7481,17 @@
         <v>21</v>
       </c>
       <c r="D9" s="30" t="s">
+        <v>737</v>
+      </c>
+      <c r="E9" s="30" t="s">
         <v>738</v>
       </c>
-      <c r="E9" s="30" t="s">
-        <v>739</v>
-      </c>
-      <c r="F9" s="61"/>
+      <c r="F9" s="60"/>
       <c r="G9" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="J9" s="30"/>
     </row>
@@ -7510,11 +7505,11 @@
       <c r="E10" s="30" t="s">
         <v>673</v>
       </c>
-      <c r="F10" s="61"/>
+      <c r="F10" s="60"/>
       <c r="G10" s="30" t="s">
         <v>671</v>
       </c>
-      <c r="I10" s="46" t="s">
+      <c r="I10" s="45" t="s">
         <v>698</v>
       </c>
       <c r="J10" s="30"/>
@@ -7529,11 +7524,11 @@
       <c r="E11" s="30" t="s">
         <v>675</v>
       </c>
-      <c r="F11" s="61"/>
+      <c r="F11" s="60"/>
       <c r="G11" s="30" t="s">
         <v>671</v>
       </c>
-      <c r="I11" s="46" t="s">
+      <c r="I11" s="45" t="s">
         <v>699</v>
       </c>
       <c r="J11" s="30"/>
@@ -7543,17 +7538,17 @@
         <v>21</v>
       </c>
       <c r="D12" s="30" t="s">
+        <v>740</v>
+      </c>
+      <c r="E12" s="30" t="s">
         <v>741</v>
       </c>
-      <c r="E12" s="30" t="s">
-        <v>742</v>
-      </c>
-      <c r="F12" s="61"/>
+      <c r="F12" s="60"/>
       <c r="G12" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="46" t="s">
-        <v>743</v>
+      <c r="I12" s="45" t="s">
+        <v>742</v>
       </c>
       <c r="J12" s="30"/>
     </row>
@@ -7562,55 +7557,55 @@
         <v>21</v>
       </c>
       <c r="D13" s="30" t="s">
+        <v>749</v>
+      </c>
+      <c r="E13" s="30" t="s">
         <v>750</v>
       </c>
-      <c r="E13" s="30" t="s">
-        <v>751</v>
-      </c>
-      <c r="F13" s="61"/>
+      <c r="F13" s="60"/>
       <c r="G13" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="46" t="s">
+      <c r="I13" s="45" t="s">
+        <v>742</v>
+      </c>
+      <c r="J13" s="30"/>
+    </row>
+    <row r="14" spans="1:26" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="B14" s="34" t="s">
         <v>743</v>
       </c>
-      <c r="J13" s="30"/>
-    </row>
-    <row r="14" spans="1:26" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="b">
-        <v>1</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>744</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>727</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>727</v>
-      </c>
-      <c r="E14" s="35" t="s">
+      <c r="C14" s="34" t="s">
+        <v>726</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>726</v>
+      </c>
+      <c r="E14" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B15" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="30" t="s">
+        <v>727</v>
+      </c>
+      <c r="E15" s="30" t="s">
         <v>728</v>
       </c>
-      <c r="E15" s="30" t="s">
-        <v>729</v>
-      </c>
-      <c r="F15" s="61"/>
+      <c r="F15" s="60"/>
       <c r="G15" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J15" s="30"/>
     </row>
@@ -7619,17 +7614,17 @@
         <v>21</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="F16" s="61"/>
+      <c r="F16" s="60"/>
       <c r="G16" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J16" s="30"/>
     </row>
@@ -7638,17 +7633,17 @@
         <v>21</v>
       </c>
       <c r="D17" s="30" t="s">
+        <v>732</v>
+      </c>
+      <c r="E17" s="30" t="s">
         <v>733</v>
       </c>
-      <c r="E17" s="30" t="s">
-        <v>734</v>
-      </c>
-      <c r="F17" s="61"/>
+      <c r="F17" s="60"/>
       <c r="G17" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J17" s="30"/>
     </row>
@@ -7657,12 +7652,12 @@
         <v>21</v>
       </c>
       <c r="D18" s="30" t="s">
+        <v>735</v>
+      </c>
+      <c r="E18" s="30" t="s">
         <v>736</v>
       </c>
-      <c r="E18" s="30" t="s">
-        <v>737</v>
-      </c>
-      <c r="F18" s="61"/>
+      <c r="F18" s="60"/>
       <c r="G18" s="30" t="s">
         <v>671</v>
       </c>
@@ -7676,17 +7671,17 @@
         <v>21</v>
       </c>
       <c r="D19" s="30" t="s">
+        <v>737</v>
+      </c>
+      <c r="E19" s="30" t="s">
         <v>738</v>
       </c>
-      <c r="E19" s="30" t="s">
-        <v>739</v>
-      </c>
-      <c r="F19" s="61"/>
+      <c r="F19" s="60"/>
       <c r="G19" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J19" s="30"/>
     </row>
@@ -7700,11 +7695,11 @@
       <c r="E20" s="30" t="s">
         <v>673</v>
       </c>
-      <c r="F20" s="61"/>
+      <c r="F20" s="60"/>
       <c r="G20" s="30" t="s">
         <v>671</v>
       </c>
-      <c r="I20" s="46" t="s">
+      <c r="I20" s="45" t="s">
         <v>698</v>
       </c>
       <c r="J20" s="30"/>
@@ -7719,11 +7714,11 @@
       <c r="E21" s="30" t="s">
         <v>675</v>
       </c>
-      <c r="F21" s="61"/>
+      <c r="F21" s="60"/>
       <c r="G21" s="30" t="s">
         <v>671</v>
       </c>
-      <c r="I21" s="46" t="s">
+      <c r="I21" s="45" t="s">
         <v>699</v>
       </c>
       <c r="J21" s="30"/>
@@ -7733,34 +7728,34 @@
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
+        <v>740</v>
+      </c>
+      <c r="E22" s="30" t="s">
         <v>741</v>
       </c>
-      <c r="E22" s="30" t="s">
-        <v>742</v>
-      </c>
-      <c r="F22" s="61"/>
+      <c r="F22" s="60"/>
       <c r="G22" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I22" s="46" t="s">
-        <v>749</v>
+      <c r="I22" s="45" t="s">
+        <v>748</v>
       </c>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="43" t="b">
+    <row r="23" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="43" t="s">
+      <c r="E23" s="42" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7774,7 +7769,7 @@
       <c r="E24" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="61"/>
+      <c r="F24" s="60"/>
       <c r="G24" s="29" t="s">
         <v>60</v>
       </c>
@@ -7786,41 +7781,41 @@
       </c>
       <c r="P24" s="30"/>
     </row>
-    <row r="25" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="38" t="s">
+    <row r="25" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="38" t="s">
         <v>664</v>
       </c>
-      <c r="E25" s="38" t="s">
+      <c r="E25" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="48"/>
-      <c r="G25" s="38" t="s">
+      <c r="F25" s="47"/>
+      <c r="G25" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="I25" s="38">
-        <v>0</v>
-      </c>
-      <c r="K25" s="40">
-        <v>0</v>
-      </c>
-      <c r="L25" s="40">
+      <c r="I25" s="37">
+        <v>0</v>
+      </c>
+      <c r="K25" s="39">
+        <v>0</v>
+      </c>
+      <c r="L25" s="39">
         <v>100</v>
       </c>
-      <c r="M25" s="40">
+      <c r="M25" s="39">
         <v>15</v>
       </c>
-      <c r="N25" s="40">
+      <c r="N25" s="39">
         <f>(L25-K25)/6</f>
         <v>16.666666666666668</v>
       </c>
-      <c r="O25" s="40">
+      <c r="O25" s="39">
         <v>1</v>
       </c>
-      <c r="R25" s="38" t="s">
-        <v>753</v>
+      <c r="R25" s="37" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="26" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7833,7 +7828,7 @@
       <c r="E26" s="29" t="s">
         <v>657</v>
       </c>
-      <c r="F26" s="61"/>
+      <c r="F26" s="60"/>
       <c r="G26" s="29" t="s">
         <v>62</v>
       </c>
@@ -7841,41 +7836,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="55" t="s">
+    <row r="27" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="54" t="s">
         <v>659</v>
       </c>
-      <c r="E27" s="54" t="s">
+      <c r="E27" s="53" t="s">
         <v>658</v>
       </c>
-      <c r="F27" s="61"/>
-      <c r="G27" s="54" t="s">
+      <c r="F27" s="60"/>
+      <c r="G27" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I27" s="54">
-        <v>0</v>
-      </c>
-      <c r="K27" s="56">
-        <v>0</v>
-      </c>
-      <c r="L27" s="56">
+      <c r="I27" s="53">
+        <v>0</v>
+      </c>
+      <c r="K27" s="55">
+        <v>0</v>
+      </c>
+      <c r="L27" s="55">
         <v>0.1</v>
       </c>
-      <c r="M27" s="56">
+      <c r="M27" s="55">
         <v>0.05</v>
       </c>
-      <c r="N27" s="56">
+      <c r="N27" s="55">
         <f>(L27-K27)/6</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="O27" s="56">
+      <c r="O27" s="55">
         <v>0.01</v>
       </c>
-      <c r="R27" s="38" t="s">
-        <v>753</v>
+      <c r="R27" s="37" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="28" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7888,7 +7883,7 @@
       <c r="E28" s="29" t="s">
         <v>660</v>
       </c>
-      <c r="F28" s="61"/>
+      <c r="F28" s="60"/>
       <c r="G28" s="29" t="s">
         <v>62</v>
       </c>
@@ -7906,7 +7901,7 @@
       <c r="E29" s="29" t="s">
         <v>662</v>
       </c>
-      <c r="F29" s="62"/>
+      <c r="F29" s="61"/>
       <c r="G29" s="29" t="s">
         <v>62</v>
       </c>
@@ -7924,7 +7919,7 @@
       <c r="E30" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="62"/>
+      <c r="F30" s="61"/>
       <c r="G30" s="29" t="s">
         <v>62</v>
       </c>
@@ -7942,7 +7937,7 @@
       <c r="E31" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="62"/>
+      <c r="F31" s="61"/>
       <c r="G31" s="29" t="s">
         <v>62</v>
       </c>
@@ -7960,7 +7955,7 @@
       <c r="E32" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="62"/>
+      <c r="F32" s="61"/>
       <c r="G32" s="29" t="s">
         <v>63</v>
       </c>
@@ -7969,20 +7964,20 @@
       </c>
       <c r="P32" s="30"/>
     </row>
-    <row r="33" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="44" t="b">
+    <row r="33" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="44" t="s">
+      <c r="D33" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="44" t="s">
+      <c r="E33" s="43" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7998,7 +7993,7 @@
       <c r="E34" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="62"/>
+      <c r="F34" s="61"/>
       <c r="G34" s="29" t="s">
         <v>60</v>
       </c>
@@ -8014,45 +8009,45 @@
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
-      <c r="Q34" s="37"/>
-    </row>
-    <row r="35" spans="1:18" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B35" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="50" t="s">
+      <c r="Q34" s="36"/>
+    </row>
+    <row r="35" spans="1:18" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="49" t="s">
         <v>640</v>
       </c>
-      <c r="E35" s="50" t="s">
+      <c r="E35" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="F35" s="62"/>
-      <c r="G35" s="50" t="s">
+      <c r="F35" s="61"/>
+      <c r="G35" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="I35" s="50">
-        <v>0</v>
-      </c>
-      <c r="J35" s="51"/>
-      <c r="K35" s="52">
+      <c r="I35" s="49">
+        <v>0</v>
+      </c>
+      <c r="J35" s="50"/>
+      <c r="K35" s="51">
         <v>-40</v>
       </c>
-      <c r="L35" s="52">
+      <c r="L35" s="51">
         <v>40</v>
       </c>
-      <c r="M35" s="52">
-        <v>0</v>
-      </c>
-      <c r="N35" s="52">
+      <c r="M35" s="51">
+        <v>0</v>
+      </c>
+      <c r="N35" s="51">
         <f>(L35-K35)/6</f>
         <v>13.333333333333334</v>
       </c>
-      <c r="O35" s="52">
+      <c r="O35" s="51">
         <v>1</v>
       </c>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="38" t="s">
-        <v>753</v>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="37" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -8061,13 +8056,13 @@
         <v>21</v>
       </c>
       <c r="C36" s="29"/>
-      <c r="D36" s="42" t="s">
+      <c r="D36" s="41" t="s">
         <v>45</v>
       </c>
       <c r="E36" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F36" s="62"/>
+      <c r="F36" s="61"/>
       <c r="G36" s="29" t="s">
         <v>62</v>
       </c>
@@ -8080,7 +8075,7 @@
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
-      <c r="Q36" s="37"/>
+      <c r="Q36" s="36"/>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="29"/>
@@ -8094,7 +8089,7 @@
       <c r="E37" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F37" s="62"/>
+      <c r="F37" s="61"/>
       <c r="G37" s="29" t="s">
         <v>62</v>
       </c>
@@ -8107,7 +8102,7 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="Q37" s="37"/>
+      <c r="Q37" s="36"/>
     </row>
     <row r="38" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="29"/>
@@ -8121,7 +8116,7 @@
       <c r="E38" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="62"/>
+      <c r="F38" s="61"/>
       <c r="G38" s="29" t="s">
         <v>63</v>
       </c>
@@ -8134,7 +8129,7 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-      <c r="Q38" s="37"/>
+      <c r="Q38" s="36"/>
     </row>
     <row r="39" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="29"/>
@@ -8148,7 +8143,7 @@
       <c r="E39" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F39" s="62"/>
+      <c r="F39" s="61"/>
       <c r="G39" s="29" t="s">
         <v>61</v>
       </c>
@@ -8161,7 +8156,7 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-      <c r="Q39" s="37"/>
+      <c r="Q39" s="36"/>
     </row>
     <row r="40" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="29"/>
@@ -8175,7 +8170,7 @@
       <c r="E40" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F40" s="62"/>
+      <c r="F40" s="61"/>
       <c r="G40" s="29" t="s">
         <v>63</v>
       </c>
@@ -8188,7 +8183,7 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-      <c r="Q40" s="37"/>
+      <c r="Q40" s="36"/>
     </row>
     <row r="41" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="29"/>
@@ -8202,7 +8197,7 @@
       <c r="E41" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="62"/>
+      <c r="F41" s="61"/>
       <c r="G41" s="29" t="s">
         <v>62</v>
       </c>
@@ -8215,7 +8210,7 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-      <c r="Q41" s="37"/>
+      <c r="Q41" s="36"/>
     </row>
     <row r="42" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="29"/>
@@ -8229,7 +8224,7 @@
       <c r="E42" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F42" s="62"/>
+      <c r="F42" s="61"/>
       <c r="G42" s="29" t="s">
         <v>63</v>
       </c>
@@ -8242,22 +8237,22 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
-      <c r="Q42" s="37"/>
-    </row>
-    <row r="43" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="44" t="b">
+      <c r="Q42" s="36"/>
+    </row>
+    <row r="43" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="43" t="s">
         <v>283</v>
       </c>
-      <c r="C43" s="44" t="s">
+      <c r="C43" s="43" t="s">
         <v>284</v>
       </c>
-      <c r="D43" s="44" t="s">
+      <c r="D43" s="43" t="s">
         <v>284</v>
       </c>
-      <c r="E43" s="44" t="s">
+      <c r="E43" s="43" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8271,7 +8266,7 @@
       <c r="E44" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F44" s="62"/>
+      <c r="F44" s="61"/>
       <c r="G44" s="29" t="s">
         <v>60</v>
       </c>
@@ -8282,45 +8277,45 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B45" s="38" t="s">
+    <row r="45" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="38" t="s">
+      <c r="D45" s="37" t="s">
         <v>641</v>
       </c>
-      <c r="E45" s="38" t="s">
+      <c r="E45" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="F45" s="48"/>
-      <c r="G45" s="38" t="s">
+      <c r="F45" s="47"/>
+      <c r="G45" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H45" s="38" t="s">
+      <c r="H45" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="I45" s="38">
-        <v>0</v>
-      </c>
-      <c r="J45" s="41"/>
-      <c r="K45" s="40">
+      <c r="I45" s="37">
+        <v>0</v>
+      </c>
+      <c r="J45" s="40"/>
+      <c r="K45" s="39">
         <v>-80</v>
       </c>
-      <c r="L45" s="40">
+      <c r="L45" s="39">
         <v>80</v>
       </c>
-      <c r="M45" s="40">
-        <v>0</v>
-      </c>
-      <c r="N45" s="40">
+      <c r="M45" s="39">
+        <v>0</v>
+      </c>
+      <c r="N45" s="39">
         <f>(L45-K45)/6</f>
         <v>26.666666666666668</v>
       </c>
-      <c r="O45" s="40">
+      <c r="O45" s="39">
         <v>1</v>
       </c>
-      <c r="R45" s="38" t="s">
-        <v>753</v>
+      <c r="R45" s="37" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="46" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8333,7 +8328,7 @@
       <c r="E46" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F46" s="62"/>
+      <c r="F46" s="61"/>
       <c r="G46" s="29" t="s">
         <v>62</v>
       </c>
@@ -8354,7 +8349,7 @@
       <c r="E47" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F47" s="61"/>
+      <c r="F47" s="60"/>
       <c r="G47" s="29" t="s">
         <v>62</v>
       </c>
@@ -8375,7 +8370,7 @@
       <c r="E48" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F48" s="61"/>
+      <c r="F48" s="60"/>
       <c r="G48" s="29" t="s">
         <v>63</v>
       </c>
@@ -8396,7 +8391,7 @@
       <c r="E49" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F49" s="61"/>
+      <c r="F49" s="60"/>
       <c r="G49" s="29" t="s">
         <v>61</v>
       </c>
@@ -8414,7 +8409,7 @@
       <c r="E50" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F50" s="61"/>
+      <c r="F50" s="60"/>
       <c r="G50" s="29" t="s">
         <v>63</v>
       </c>
@@ -8435,7 +8430,7 @@
       <c r="E51" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F51" s="61"/>
+      <c r="F51" s="60"/>
       <c r="G51" s="29" t="s">
         <v>62</v>
       </c>
@@ -8456,7 +8451,7 @@
       <c r="E52" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F52" s="62"/>
+      <c r="F52" s="61"/>
       <c r="G52" s="29" t="s">
         <v>63</v>
       </c>
@@ -8467,20 +8462,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="44" t="b">
+    <row r="53" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B53" s="44" t="s">
+      <c r="B53" s="43" t="s">
         <v>694</v>
       </c>
-      <c r="C53" s="44" t="s">
+      <c r="C53" s="43" t="s">
         <v>695</v>
       </c>
-      <c r="D53" s="44" t="s">
+      <c r="D53" s="43" t="s">
         <v>695</v>
       </c>
-      <c r="E53" s="44" t="s">
+      <c r="E53" s="43" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8494,56 +8489,56 @@
       <c r="E54" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F54" s="62"/>
+      <c r="F54" s="61"/>
       <c r="G54" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I54" s="49" t="s">
+      <c r="I54" s="48" t="s">
         <v>415</v>
       </c>
       <c r="J54" s="29" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="55" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B55" s="38" t="s">
+    <row r="55" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D55" s="38" t="s">
+      <c r="D55" s="37" t="s">
         <v>696</v>
       </c>
-      <c r="E55" s="38" t="s">
+      <c r="E55" s="37" t="s">
         <v>697</v>
       </c>
-      <c r="F55" s="48"/>
-      <c r="G55" s="38" t="s">
+      <c r="F55" s="47"/>
+      <c r="G55" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H55" s="38" t="s">
+      <c r="H55" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="I55" s="38">
+      <c r="I55" s="37">
         <v>0.8</v>
       </c>
-      <c r="J55" s="41"/>
-      <c r="K55" s="40">
+      <c r="J55" s="40"/>
+      <c r="K55" s="39">
         <v>0.78</v>
       </c>
-      <c r="L55" s="40">
+      <c r="L55" s="39">
         <v>0.98</v>
       </c>
-      <c r="M55" s="40">
+      <c r="M55" s="39">
         <v>0.8</v>
       </c>
-      <c r="N55" s="40">
+      <c r="N55" s="39">
         <f>(L55-K55)/6</f>
         <v>3.3333333333333326E-2</v>
       </c>
-      <c r="O55" s="40">
+      <c r="O55" s="39">
         <v>1</v>
       </c>
-      <c r="R55" s="38" t="s">
-        <v>753</v>
+      <c r="R55" s="37" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="56" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8637,7 +8632,7 @@
       <c r="E60" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F60" s="62"/>
+      <c r="F60" s="61"/>
       <c r="G60" s="29" t="s">
         <v>61</v>
       </c>
@@ -8655,7 +8650,7 @@
       <c r="E61" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F61" s="62"/>
+      <c r="F61" s="61"/>
       <c r="G61" s="29" t="s">
         <v>63</v>
       </c>
@@ -8676,7 +8671,7 @@
       <c r="E62" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F62" s="62"/>
+      <c r="F62" s="61"/>
       <c r="G62" s="29" t="s">
         <v>62</v>
       </c>
@@ -8697,7 +8692,7 @@
       <c r="E63" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F63" s="62"/>
+      <c r="F63" s="61"/>
       <c r="G63" s="29" t="s">
         <v>63</v>
       </c>
@@ -8708,20 +8703,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="44" t="b">
+    <row r="64" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B64" s="44" t="s">
+      <c r="B64" s="43" t="s">
         <v>701</v>
       </c>
-      <c r="C64" s="44" t="s">
+      <c r="C64" s="43" t="s">
         <v>700</v>
       </c>
-      <c r="D64" s="44" t="s">
+      <c r="D64" s="43" t="s">
         <v>700</v>
       </c>
-      <c r="E64" s="44" t="s">
+      <c r="E64" s="43" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8735,56 +8730,56 @@
       <c r="E65" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F65" s="62"/>
+      <c r="F65" s="61"/>
       <c r="G65" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I65" s="49" t="s">
+      <c r="I65" s="48" t="s">
         <v>415</v>
       </c>
       <c r="J65" s="29" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="66" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B66" s="38" t="s">
+    <row r="66" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B66" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="38" t="s">
+      <c r="D66" s="37" t="s">
         <v>703</v>
       </c>
-      <c r="E66" s="38" t="s">
+      <c r="E66" s="37" t="s">
         <v>704</v>
       </c>
-      <c r="F66" s="48"/>
-      <c r="G66" s="38" t="s">
+      <c r="F66" s="47"/>
+      <c r="G66" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H66" s="38" t="s">
+      <c r="H66" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="I66" s="38">
+      <c r="I66" s="37">
         <v>4</v>
       </c>
-      <c r="J66" s="41"/>
-      <c r="K66" s="40">
-        <v>2</v>
-      </c>
-      <c r="L66" s="40">
+      <c r="J66" s="40"/>
+      <c r="K66" s="39">
+        <v>2</v>
+      </c>
+      <c r="L66" s="39">
         <v>5</v>
       </c>
-      <c r="M66" s="40">
+      <c r="M66" s="39">
         <v>4</v>
       </c>
-      <c r="N66" s="40">
+      <c r="N66" s="39">
         <f>(L66-K66)/6</f>
         <v>0.5</v>
       </c>
-      <c r="O66" s="40">
+      <c r="O66" s="39">
         <v>0.25</v>
       </c>
-      <c r="R66" s="38" t="s">
-        <v>753</v>
+      <c r="R66" s="37" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="67" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8797,7 +8792,7 @@
       <c r="E67" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F67" s="62"/>
+      <c r="F67" s="61"/>
       <c r="G67" s="29" t="s">
         <v>61</v>
       </c>
@@ -8815,7 +8810,7 @@
       <c r="E68" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="F68" s="62"/>
+      <c r="F68" s="61"/>
       <c r="G68" s="29" t="s">
         <v>62</v>
       </c>
@@ -8836,7 +8831,7 @@
       <c r="E69" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F69" s="62"/>
+      <c r="F69" s="61"/>
       <c r="G69" s="29" t="s">
         <v>62</v>
       </c>
@@ -8857,7 +8852,7 @@
       <c r="E70" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F70" s="62"/>
+      <c r="F70" s="61"/>
       <c r="G70" s="29" t="s">
         <v>63</v>
       </c>
@@ -8878,7 +8873,7 @@
       <c r="E71" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F71" s="62"/>
+      <c r="F71" s="61"/>
       <c r="G71" s="29" t="s">
         <v>61</v>
       </c>
@@ -8896,7 +8891,7 @@
       <c r="E72" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F72" s="62"/>
+      <c r="F72" s="61"/>
       <c r="G72" s="29" t="s">
         <v>63</v>
       </c>
@@ -8917,7 +8912,7 @@
       <c r="E73" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F73" s="62"/>
+      <c r="F73" s="61"/>
       <c r="G73" s="29" t="s">
         <v>62</v>
       </c>
@@ -8938,7 +8933,7 @@
       <c r="E74" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F74" s="62"/>
+      <c r="F74" s="61"/>
       <c r="G74" s="29" t="s">
         <v>63</v>
       </c>
@@ -8949,20 +8944,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="44" t="b">
+    <row r="75" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B75" s="44" t="s">
+      <c r="B75" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="C75" s="44" t="s">
+      <c r="C75" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="D75" s="44" t="s">
+      <c r="D75" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="E75" s="44" t="s">
+      <c r="E75" s="43" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8976,97 +8971,97 @@
       <c r="E76" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F76" s="62"/>
+      <c r="F76" s="61"/>
       <c r="G76" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I76" s="49" t="s">
+      <c r="I76" s="48" t="s">
         <v>415</v>
       </c>
       <c r="J76" s="29" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="77" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B77" s="38" t="s">
+    <row r="77" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B77" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D77" s="38" t="s">
+      <c r="D77" s="37" t="s">
         <v>705</v>
       </c>
-      <c r="E77" s="38" t="s">
+      <c r="E77" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="F77" s="48"/>
-      <c r="G77" s="38" t="s">
+      <c r="F77" s="47"/>
+      <c r="G77" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H77" s="38" t="s">
+      <c r="H77" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="I77" s="38">
-        <v>0</v>
-      </c>
-      <c r="J77" s="41"/>
-      <c r="K77" s="40">
+      <c r="I77" s="37">
+        <v>0</v>
+      </c>
+      <c r="J77" s="40"/>
+      <c r="K77" s="39">
         <v>-20</v>
       </c>
-      <c r="L77" s="40">
+      <c r="L77" s="39">
         <v>14</v>
       </c>
-      <c r="M77" s="40">
-        <v>0</v>
-      </c>
-      <c r="N77" s="40">
+      <c r="M77" s="39">
+        <v>0</v>
+      </c>
+      <c r="N77" s="39">
         <f>(L77-K77)/6</f>
         <v>5.666666666666667</v>
       </c>
-      <c r="O77" s="40">
+      <c r="O77" s="39">
         <v>1</v>
       </c>
-      <c r="R77" s="38" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B78" s="38" t="s">
+      <c r="R77" s="37" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B78" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="38" t="s">
+      <c r="D78" s="37" t="s">
         <v>706</v>
       </c>
-      <c r="E78" s="38" t="s">
+      <c r="E78" s="37" t="s">
         <v>707</v>
       </c>
-      <c r="F78" s="48"/>
-      <c r="G78" s="38" t="s">
+      <c r="F78" s="47"/>
+      <c r="G78" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H78" s="38" t="s">
+      <c r="H78" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="I78" s="38">
-        <v>0</v>
-      </c>
-      <c r="J78" s="41"/>
-      <c r="K78" s="40">
+      <c r="I78" s="37">
+        <v>0</v>
+      </c>
+      <c r="J78" s="40"/>
+      <c r="K78" s="39">
         <v>-20</v>
       </c>
-      <c r="L78" s="40">
+      <c r="L78" s="39">
         <v>30</v>
       </c>
-      <c r="M78" s="40">
-        <v>0</v>
-      </c>
-      <c r="N78" s="40">
+      <c r="M78" s="39">
+        <v>0</v>
+      </c>
+      <c r="N78" s="39">
         <f>(L78-K78)/6</f>
         <v>8.3333333333333339</v>
       </c>
-      <c r="O78" s="40">
+      <c r="O78" s="39">
         <v>1</v>
       </c>
-      <c r="R78" s="38" t="s">
-        <v>753</v>
+      <c r="R78" s="37" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="79" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9079,7 +9074,7 @@
       <c r="E79" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F79" s="62"/>
+      <c r="F79" s="61"/>
       <c r="G79" s="29" t="s">
         <v>61</v>
       </c>
@@ -9097,7 +9092,7 @@
       <c r="E80" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="F80" s="62"/>
+      <c r="F80" s="61"/>
       <c r="G80" s="29" t="s">
         <v>62</v>
       </c>
@@ -9118,7 +9113,7 @@
       <c r="E81" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F81" s="62"/>
+      <c r="F81" s="61"/>
       <c r="G81" s="29" t="s">
         <v>62</v>
       </c>
@@ -9139,7 +9134,7 @@
       <c r="E82" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F82" s="62"/>
+      <c r="F82" s="61"/>
       <c r="G82" s="29" t="s">
         <v>63</v>
       </c>
@@ -9160,7 +9155,7 @@
       <c r="E83" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F83" s="61"/>
+      <c r="F83" s="60"/>
       <c r="G83" s="29" t="s">
         <v>61</v>
       </c>
@@ -9178,7 +9173,7 @@
       <c r="E84" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F84" s="61"/>
+      <c r="F84" s="60"/>
       <c r="G84" s="29" t="s">
         <v>63</v>
       </c>
@@ -9199,7 +9194,7 @@
       <c r="E85" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F85" s="61"/>
+      <c r="F85" s="60"/>
       <c r="G85" s="29" t="s">
         <v>62</v>
       </c>
@@ -9220,7 +9215,7 @@
       <c r="E86" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F86" s="61"/>
+      <c r="F86" s="60"/>
       <c r="G86" s="29" t="s">
         <v>63</v>
       </c>
@@ -9231,103 +9226,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="44" t="b">
+    <row r="87" spans="1:20" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B87" s="44" t="s">
+      <c r="B87" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="C87" s="44" t="s">
+      <c r="C87" s="43" t="s">
         <v>651</v>
       </c>
-      <c r="D87" s="44" t="s">
+      <c r="D87" s="43" t="s">
         <v>651</v>
       </c>
-      <c r="E87" s="44" t="s">
+      <c r="E87" s="43" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="88" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B88" s="38" t="s">
+    <row r="88" spans="1:20" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B88" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D88" s="38" t="s">
+      <c r="D88" s="37" t="s">
         <v>652</v>
       </c>
-      <c r="E88" s="38" t="s">
+      <c r="E88" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="F88" s="48"/>
-      <c r="G88" s="38" t="s">
+      <c r="F88" s="47"/>
+      <c r="G88" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H88" s="38" t="s">
+      <c r="H88" s="37" t="s">
         <v>653</v>
       </c>
-      <c r="I88" s="38">
-        <v>0</v>
-      </c>
-      <c r="J88" s="41"/>
-      <c r="K88" s="40">
+      <c r="I88" s="37">
+        <v>0</v>
+      </c>
+      <c r="J88" s="40"/>
+      <c r="K88" s="39">
         <v>-6</v>
       </c>
-      <c r="L88" s="40">
-        <v>2</v>
-      </c>
-      <c r="M88" s="40">
-        <v>0</v>
-      </c>
-      <c r="N88" s="40">
+      <c r="L88" s="39">
+        <v>2</v>
+      </c>
+      <c r="M88" s="39">
+        <v>0</v>
+      </c>
+      <c r="N88" s="39">
         <f>(L88-K88)/6</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="O88" s="40">
+      <c r="O88" s="39">
         <v>1</v>
       </c>
-      <c r="R88" s="38" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B89" s="38" t="s">
+      <c r="R88" s="37" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B89" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D89" s="38" t="s">
+      <c r="D89" s="37" t="s">
         <v>654</v>
       </c>
-      <c r="E89" s="38" t="s">
+      <c r="E89" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="F89" s="48"/>
-      <c r="G89" s="38" t="s">
+      <c r="F89" s="47"/>
+      <c r="G89" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H89" s="38" t="s">
+      <c r="H89" s="37" t="s">
         <v>653</v>
       </c>
-      <c r="I89" s="38">
-        <v>0</v>
-      </c>
-      <c r="J89" s="41"/>
-      <c r="K89" s="40">
+      <c r="I89" s="37">
+        <v>0</v>
+      </c>
+      <c r="J89" s="40"/>
+      <c r="K89" s="39">
         <v>-5</v>
       </c>
-      <c r="L89" s="40">
+      <c r="L89" s="39">
         <v>3.9</v>
       </c>
-      <c r="M89" s="40">
-        <v>0</v>
-      </c>
-      <c r="N89" s="40">
+      <c r="M89" s="39">
+        <v>0</v>
+      </c>
+      <c r="N89" s="39">
         <f>(L89-K89)/6</f>
         <v>1.4833333333333334</v>
       </c>
-      <c r="O89" s="40">
+      <c r="O89" s="39">
         <v>1</v>
       </c>
-      <c r="R89" s="38" t="s">
-        <v>753</v>
+      <c r="R89" s="37" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
@@ -9340,7 +9335,7 @@
       <c r="E90" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="F90" s="61"/>
+      <c r="F90" s="60"/>
       <c r="G90" s="30" t="s">
         <v>61</v>
       </c>
@@ -9354,480 +9349,480 @@
       <c r="O90" s="3"/>
     </row>
     <row r="91" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="47" t="b">
+      <c r="A91" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="B91" s="47" t="s">
+      <c r="B91" s="46" t="s">
         <v>682</v>
       </c>
-      <c r="C91" s="47" t="s">
+      <c r="C91" s="46" t="s">
         <v>683</v>
       </c>
-      <c r="D91" s="47" t="s">
+      <c r="D91" s="46" t="s">
         <v>683</v>
       </c>
-      <c r="E91" s="44" t="s">
+      <c r="E91" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="F91" s="44"/>
-      <c r="G91" s="47"/>
-      <c r="H91" s="47"/>
-      <c r="I91" s="47"/>
-      <c r="J91" s="47"/>
-      <c r="K91" s="47"/>
-      <c r="L91" s="47"/>
-      <c r="M91" s="44"/>
-      <c r="N91" s="44"/>
-      <c r="O91" s="44"/>
-      <c r="P91" s="44"/>
-      <c r="Q91" s="44"/>
-      <c r="R91" s="44"/>
+      <c r="F91" s="43"/>
+      <c r="G91" s="46"/>
+      <c r="H91" s="46"/>
+      <c r="I91" s="46"/>
+      <c r="J91" s="46"/>
+      <c r="K91" s="46"/>
+      <c r="L91" s="46"/>
+      <c r="M91" s="43"/>
+      <c r="N91" s="43"/>
+      <c r="O91" s="43"/>
+      <c r="P91" s="43"/>
+      <c r="Q91" s="43"/>
+      <c r="R91" s="43"/>
     </row>
     <row r="92" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="38"/>
-      <c r="B92" s="48" t="s">
+      <c r="A92" s="37"/>
+      <c r="B92" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C92" s="48"/>
-      <c r="D92" s="48" t="s">
+      <c r="C92" s="47"/>
+      <c r="D92" s="47" t="s">
         <v>676</v>
       </c>
-      <c r="E92" s="48" t="s">
+      <c r="E92" s="47" t="s">
         <v>677</v>
       </c>
-      <c r="F92" s="48"/>
-      <c r="G92" s="48" t="s">
+      <c r="F92" s="47"/>
+      <c r="G92" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="H92" s="48"/>
-      <c r="I92" s="48">
+      <c r="H92" s="47"/>
+      <c r="I92" s="47">
         <v>1</v>
       </c>
-      <c r="J92" s="48"/>
-      <c r="K92" s="48">
+      <c r="J92" s="47"/>
+      <c r="K92" s="47">
         <v>0.5</v>
       </c>
-      <c r="L92" s="48">
+      <c r="L92" s="47">
         <v>4</v>
       </c>
-      <c r="M92" s="40">
+      <c r="M92" s="39">
         <v>1.75</v>
       </c>
-      <c r="N92" s="38">
+      <c r="N92" s="37">
         <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O92" s="48">
+      <c r="O92" s="47">
         <v>0.1</v>
       </c>
-      <c r="P92" s="38"/>
-      <c r="Q92" s="38"/>
-      <c r="R92" s="38" t="s">
-        <v>753</v>
+      <c r="P92" s="37"/>
+      <c r="Q92" s="37"/>
+      <c r="R92" s="37" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="93" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="48"/>
-      <c r="B93" s="48" t="s">
+      <c r="A93" s="47"/>
+      <c r="B93" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C93" s="48"/>
-      <c r="D93" s="48" t="s">
+      <c r="C93" s="47"/>
+      <c r="D93" s="47" t="s">
         <v>678</v>
       </c>
-      <c r="E93" s="48" t="s">
+      <c r="E93" s="47" t="s">
         <v>679</v>
       </c>
-      <c r="F93" s="48"/>
-      <c r="G93" s="48" t="s">
+      <c r="F93" s="47"/>
+      <c r="G93" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="H93" s="48"/>
-      <c r="I93" s="48">
+      <c r="H93" s="47"/>
+      <c r="I93" s="47">
         <v>1</v>
       </c>
-      <c r="J93" s="48"/>
-      <c r="K93" s="48">
+      <c r="J93" s="47"/>
+      <c r="K93" s="47">
         <v>0.1</v>
       </c>
-      <c r="L93" s="48">
+      <c r="L93" s="47">
         <v>3</v>
       </c>
-      <c r="M93" s="40">
+      <c r="M93" s="39">
         <v>1.75</v>
       </c>
-      <c r="N93" s="48">
+      <c r="N93" s="47">
         <v>0.25</v>
       </c>
-      <c r="O93" s="48">
+      <c r="O93" s="47">
         <v>0.1</v>
       </c>
-      <c r="P93" s="38"/>
-      <c r="Q93" s="38"/>
-      <c r="R93" s="38" t="s">
-        <v>753</v>
+      <c r="P93" s="37"/>
+      <c r="Q93" s="37"/>
+      <c r="R93" s="37" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="94" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="48"/>
-      <c r="B94" s="48" t="s">
+      <c r="A94" s="47"/>
+      <c r="B94" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C94" s="48"/>
-      <c r="D94" s="48" t="s">
+      <c r="C94" s="47"/>
+      <c r="D94" s="47" t="s">
         <v>680</v>
       </c>
-      <c r="E94" s="48" t="s">
+      <c r="E94" s="47" t="s">
         <v>681</v>
       </c>
-      <c r="F94" s="48"/>
-      <c r="G94" s="48" t="s">
+      <c r="F94" s="47"/>
+      <c r="G94" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="H94" s="48"/>
-      <c r="I94" s="48">
+      <c r="H94" s="47"/>
+      <c r="I94" s="47">
         <v>1</v>
       </c>
-      <c r="J94" s="48"/>
-      <c r="K94" s="48">
+      <c r="J94" s="47"/>
+      <c r="K94" s="47">
         <v>0.5</v>
       </c>
-      <c r="L94" s="48">
+      <c r="L94" s="47">
         <v>3</v>
       </c>
-      <c r="M94" s="40">
+      <c r="M94" s="39">
         <v>1.75</v>
       </c>
-      <c r="N94" s="40">
+      <c r="N94" s="39">
         <v>0.25</v>
       </c>
-      <c r="O94" s="40">
+      <c r="O94" s="39">
         <v>0.1</v>
       </c>
-      <c r="P94" s="40"/>
-      <c r="Q94" s="40"/>
-      <c r="R94" s="38" t="s">
-        <v>753</v>
+      <c r="P94" s="39"/>
+      <c r="Q94" s="39"/>
+      <c r="R94" s="37" t="s">
+        <v>752</v>
       </c>
       <c r="T94" s="30"/>
     </row>
     <row r="95" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="47" t="b">
+      <c r="A95" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="B95" s="47" t="s">
+      <c r="B95" s="46" t="s">
         <v>684</v>
       </c>
-      <c r="C95" s="47" t="s">
+      <c r="C95" s="46" t="s">
         <v>685</v>
       </c>
-      <c r="D95" s="47" t="s">
+      <c r="D95" s="46" t="s">
         <v>685</v>
       </c>
-      <c r="E95" s="44" t="s">
+      <c r="E95" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="F95" s="44"/>
-      <c r="G95" s="47"/>
-      <c r="H95" s="47"/>
-      <c r="I95" s="47"/>
-      <c r="J95" s="47"/>
-      <c r="K95" s="47"/>
-      <c r="L95" s="47"/>
-      <c r="M95" s="44"/>
-      <c r="N95" s="44"/>
-      <c r="O95" s="44"/>
-      <c r="P95" s="44"/>
-      <c r="Q95" s="44"/>
-      <c r="R95" s="44"/>
+      <c r="F95" s="43"/>
+      <c r="G95" s="46"/>
+      <c r="H95" s="46"/>
+      <c r="I95" s="46"/>
+      <c r="J95" s="46"/>
+      <c r="K95" s="46"/>
+      <c r="L95" s="46"/>
+      <c r="M95" s="43"/>
+      <c r="N95" s="43"/>
+      <c r="O95" s="43"/>
+      <c r="P95" s="43"/>
+      <c r="Q95" s="43"/>
+      <c r="R95" s="43"/>
     </row>
     <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="38"/>
-      <c r="B96" s="48" t="s">
+      <c r="A96" s="37"/>
+      <c r="B96" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C96" s="48"/>
-      <c r="D96" s="48" t="s">
+      <c r="C96" s="47"/>
+      <c r="D96" s="47" t="s">
         <v>686</v>
       </c>
-      <c r="E96" s="48" t="s">
+      <c r="E96" s="47" t="s">
         <v>677</v>
       </c>
-      <c r="F96" s="48"/>
-      <c r="G96" s="48" t="s">
+      <c r="F96" s="47"/>
+      <c r="G96" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="H96" s="48"/>
-      <c r="I96" s="48">
+      <c r="H96" s="47"/>
+      <c r="I96" s="47">
         <v>1</v>
       </c>
-      <c r="J96" s="48"/>
-      <c r="K96" s="48">
+      <c r="J96" s="47"/>
+      <c r="K96" s="47">
         <v>0.5</v>
       </c>
-      <c r="L96" s="48">
+      <c r="L96" s="47">
         <v>3</v>
       </c>
-      <c r="M96" s="40">
+      <c r="M96" s="39">
         <v>1.75</v>
       </c>
-      <c r="N96" s="38">
+      <c r="N96" s="37">
         <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O96" s="48">
+      <c r="O96" s="47">
         <v>0.1</v>
       </c>
-      <c r="P96" s="38"/>
-      <c r="Q96" s="38"/>
-      <c r="R96" s="38" t="s">
-        <v>753</v>
+      <c r="P96" s="37"/>
+      <c r="Q96" s="37"/>
+      <c r="R96" s="37" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="48"/>
-      <c r="B97" s="48" t="s">
+      <c r="A97" s="47"/>
+      <c r="B97" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C97" s="48"/>
-      <c r="D97" s="48" t="s">
+      <c r="C97" s="47"/>
+      <c r="D97" s="47" t="s">
         <v>687</v>
       </c>
-      <c r="E97" s="48" t="s">
+      <c r="E97" s="47" t="s">
         <v>679</v>
       </c>
-      <c r="F97" s="48"/>
-      <c r="G97" s="48" t="s">
+      <c r="F97" s="47"/>
+      <c r="G97" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="H97" s="48"/>
-      <c r="I97" s="48">
+      <c r="H97" s="47"/>
+      <c r="I97" s="47">
         <v>1</v>
       </c>
-      <c r="J97" s="48"/>
-      <c r="K97" s="48">
+      <c r="J97" s="47"/>
+      <c r="K97" s="47">
         <v>0.5</v>
       </c>
-      <c r="L97" s="48">
+      <c r="L97" s="47">
         <v>4</v>
       </c>
-      <c r="M97" s="40">
+      <c r="M97" s="39">
         <v>1.75</v>
       </c>
-      <c r="N97" s="48">
+      <c r="N97" s="47">
         <v>0.25</v>
       </c>
-      <c r="O97" s="48">
+      <c r="O97" s="47">
         <v>0.1</v>
       </c>
-      <c r="P97" s="38"/>
-      <c r="Q97" s="38"/>
-      <c r="R97" s="38" t="s">
-        <v>753</v>
+      <c r="P97" s="37"/>
+      <c r="Q97" s="37"/>
+      <c r="R97" s="37" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="48"/>
-      <c r="B98" s="48" t="s">
+      <c r="A98" s="47"/>
+      <c r="B98" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C98" s="48"/>
-      <c r="D98" s="48" t="s">
+      <c r="C98" s="47"/>
+      <c r="D98" s="47" t="s">
         <v>688</v>
       </c>
-      <c r="E98" s="48" t="s">
+      <c r="E98" s="47" t="s">
         <v>681</v>
       </c>
-      <c r="F98" s="48"/>
-      <c r="G98" s="48" t="s">
+      <c r="F98" s="47"/>
+      <c r="G98" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="H98" s="48"/>
-      <c r="I98" s="48">
+      <c r="H98" s="47"/>
+      <c r="I98" s="47">
         <v>1</v>
       </c>
-      <c r="J98" s="48"/>
-      <c r="K98" s="48">
+      <c r="J98" s="47"/>
+      <c r="K98" s="47">
         <v>0.5</v>
       </c>
-      <c r="L98" s="48">
+      <c r="L98" s="47">
         <v>3</v>
       </c>
-      <c r="M98" s="40">
+      <c r="M98" s="39">
         <v>1.75</v>
       </c>
-      <c r="N98" s="40">
+      <c r="N98" s="39">
         <v>0.25</v>
       </c>
-      <c r="O98" s="40">
+      <c r="O98" s="39">
         <v>0.1</v>
       </c>
-      <c r="P98" s="40"/>
-      <c r="Q98" s="40"/>
-      <c r="R98" s="38" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="44" t="b">
+      <c r="P98" s="39"/>
+      <c r="Q98" s="39"/>
+      <c r="R98" s="37" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B99" s="44" t="s">
+      <c r="B99" s="43" t="s">
         <v>709</v>
       </c>
-      <c r="C99" s="44" t="s">
+      <c r="C99" s="43" t="s">
         <v>708</v>
       </c>
-      <c r="D99" s="44" t="s">
+      <c r="D99" s="43" t="s">
         <v>708</v>
       </c>
-      <c r="E99" s="44" t="s">
+      <c r="E99" s="43" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="100" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="D100" s="54" t="s">
+    <row r="100" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="53" t="s">
         <v>712</v>
       </c>
-      <c r="E100" s="54" t="s">
+      <c r="E100" s="53" t="s">
         <v>710</v>
       </c>
-      <c r="F100" s="61"/>
-      <c r="G100" s="54" t="s">
+      <c r="F100" s="60"/>
+      <c r="G100" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="H100" s="54" t="s">
+      <c r="H100" s="53" t="s">
         <v>642</v>
       </c>
-      <c r="I100" s="54">
+      <c r="I100" s="53">
         <v>1</v>
       </c>
-      <c r="J100" s="57"/>
-      <c r="K100" s="56">
+      <c r="J100" s="56"/>
+      <c r="K100" s="55">
         <v>0.9</v>
       </c>
-      <c r="L100" s="56">
+      <c r="L100" s="55">
         <v>1</v>
       </c>
-      <c r="M100" s="56">
+      <c r="M100" s="55">
         <v>0.95</v>
       </c>
-      <c r="N100" s="56">
+      <c r="N100" s="55">
         <f>(L100-K100)/6</f>
         <v>1.6666666666666663E-2</v>
       </c>
-      <c r="O100" s="56">
+      <c r="O100" s="55">
         <v>0.1</v>
       </c>
-      <c r="R100" s="38" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B101" s="38" t="s">
+      <c r="R100" s="37" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B101" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D101" s="38" t="s">
+      <c r="D101" s="37" t="s">
         <v>713</v>
       </c>
-      <c r="E101" s="38" t="s">
+      <c r="E101" s="37" t="s">
         <v>711</v>
       </c>
-      <c r="F101" s="48"/>
-      <c r="G101" s="38" t="s">
+      <c r="F101" s="47"/>
+      <c r="G101" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H101" s="38" t="s">
+      <c r="H101" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="I101" s="38">
+      <c r="I101" s="37">
         <v>1450</v>
       </c>
-      <c r="J101" s="41"/>
-      <c r="K101" s="40">
-        <v>0</v>
-      </c>
-      <c r="L101" s="40">
+      <c r="J101" s="40"/>
+      <c r="K101" s="39">
+        <v>0</v>
+      </c>
+      <c r="L101" s="39">
         <v>3000</v>
       </c>
-      <c r="M101" s="40">
+      <c r="M101" s="39">
         <v>1450</v>
       </c>
-      <c r="N101" s="40">
+      <c r="N101" s="39">
         <f>(L101-K101)/6</f>
         <v>500</v>
       </c>
-      <c r="O101" s="40">
+      <c r="O101" s="39">
         <v>10</v>
       </c>
-      <c r="R101" s="38" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="35" t="b">
+      <c r="R101" s="37" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="34" t="b">
         <v>1</v>
       </c>
-      <c r="B102" s="35" t="s">
-        <v>752</v>
-      </c>
-      <c r="C102" s="35" t="s">
-        <v>755</v>
-      </c>
-      <c r="D102" s="35" t="s">
-        <v>755</v>
-      </c>
-      <c r="E102" s="35" t="s">
+      <c r="B102" s="34" t="s">
+        <v>751</v>
+      </c>
+      <c r="C102" s="34" t="s">
+        <v>754</v>
+      </c>
+      <c r="D102" s="34" t="s">
+        <v>754</v>
+      </c>
+      <c r="E102" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="H102" s="36"/>
-      <c r="I102" s="36"/>
+      <c r="H102" s="35"/>
+      <c r="I102" s="35"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F103" s="61"/>
+      <c r="F103" s="60"/>
       <c r="I103" s="30"/>
       <c r="J103" s="30"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F104" s="45"/>
+      <c r="F104" s="44"/>
       <c r="I104" s="30"/>
       <c r="J104" s="30"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F105" s="45"/>
+      <c r="F105" s="44"/>
       <c r="I105" s="30"/>
       <c r="J105" s="30"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F106" s="45"/>
+      <c r="F106" s="44"/>
       <c r="I106" s="30"/>
       <c r="J106" s="30"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F107" s="45"/>
+      <c r="F107" s="44"/>
       <c r="I107" s="30"/>
       <c r="J107" s="30"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F108" s="45"/>
+      <c r="F108" s="44"/>
       <c r="I108" s="30"/>
       <c r="J108" s="30"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F109" s="45"/>
+      <c r="F109" s="44"/>
       <c r="I109" s="30"/>
       <c r="J109" s="30"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F110" s="45"/>
+      <c r="F110" s="44"/>
       <c r="I110" s="30"/>
       <c r="J110" s="30"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F111" s="45"/>
+      <c r="F111" s="44"/>
       <c r="I111" s="30"/>
       <c r="J111" s="30"/>
     </row>
@@ -10224,7 +10219,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
-      <c r="B1" s="58"/>
+      <c r="B1" s="57"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="7" t="s">
@@ -10242,7 +10237,7 @@
       <c r="A2" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="62" t="s">
         <v>716</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -10280,7 +10275,7 @@
       <c r="A3" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="62" t="s">
         <v>717</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -10348,10 +10343,10 @@
       <c r="A5" s="29" t="s">
         <v>633</v>
       </c>
-      <c r="B5" s="45"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>634</v>
@@ -10377,10 +10372,10 @@
       <c r="A6" s="29" t="s">
         <v>635</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>636</v>
@@ -10406,10 +10401,10 @@
       <c r="A7" s="29" t="s">
         <v>665</v>
       </c>
-      <c r="B7" s="45"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>642</v>
@@ -10437,7 +10432,7 @@
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>642</v>
@@ -10465,7 +10460,7 @@
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>642</v>
@@ -10493,7 +10488,7 @@
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>642</v>
@@ -10521,7 +10516,7 @@
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>642</v>
@@ -10549,7 +10544,7 @@
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>642</v>
@@ -10577,7 +10572,7 @@
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="30" t="s">
@@ -10600,7 +10595,7 @@
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="30" t="s">
@@ -10623,7 +10618,7 @@
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="30" t="s">
@@ -10645,7 +10640,7 @@
       </c>
       <c r="B16" s="29"/>
       <c r="D16" s="29" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F16" s="30" t="s">
         <v>62</v>

--- a/projects/SEB_calibration_Rgenoud_2013.xlsx
+++ b/projects/SEB_calibration_Rgenoud_2013.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="720" yWindow="0" windowWidth="23260" windowHeight="13180" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="TrueFalse">Lookups!$C$12:$C$13</definedName>
     <definedName name="Workflow">Lookups!$E$12:$E$13</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2582" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2583" uniqueCount="780">
   <si>
     <t>type</t>
   </si>
@@ -2205,175 +2205,181 @@
     <t>SEB4 baseboard Rgenoud 2013 no balance</t>
   </si>
   <si>
+    <t>../Calibration_example/measures</t>
+  </si>
+  <si>
+    <t>../Calibration_example/weather/SRRL_2013AMY_60min.epw</t>
+  </si>
+  <si>
+    <t>../Calibration_example/seeds/SEB4_baseboard.osm</t>
+  </si>
+  <si>
+    <t>../Calibration_example/lib</t>
+  </si>
+  <si>
+    <t>AddMonthlyJSONUtilityDataElectric</t>
+  </si>
+  <si>
+    <t>AddMonthlyJSONUtilityData</t>
+  </si>
+  <si>
+    <t>Path to JSON</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>../../../lib/calibration_data/electric.json</t>
+  </si>
+  <si>
+    <t>Variable Name</t>
+  </si>
+  <si>
+    <t>Electric Bill</t>
+  </si>
+  <si>
+    <t>Fuel Type</t>
+  </si>
+  <si>
+    <t>fuel_type</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Consumption Unit</t>
+  </si>
+  <si>
+    <t>consumption_unit</t>
+  </si>
+  <si>
+    <t>data key name</t>
+  </si>
+  <si>
+    <t>data_key_name</t>
+  </si>
+  <si>
+    <t>tot_kwh</t>
+  </si>
+  <si>
+    <t>remove existing Utility Bill data</t>
+  </si>
+  <si>
+    <t>remove_existing_data</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>AddMonthlyJSONUtilityDataGas</t>
+  </si>
+  <si>
+    <t>../../../lib/calibration_data/gas.json</t>
+  </si>
+  <si>
+    <t>Gas Bill</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>tot_therms</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>Set RunPeriod</t>
+  </si>
+  <si>
+    <t>set_runperiod</t>
+  </si>
+  <si>
+    <t>Calibration Reports Enhanced</t>
+  </si>
+  <si>
+    <t>uniform</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20</t>
+  </si>
+  <si>
+    <t>popsize</t>
+  </si>
+  <si>
+    <t>exit_on_guideline14</t>
+  </si>
+  <si>
+    <t>Failed F Value</t>
+  </si>
+  <si>
+    <t>Debug Messages</t>
+  </si>
+  <si>
+    <t>R Genoud Debug Flag</t>
+  </si>
+  <si>
+    <t>"minkowski", "maximum", "euclidean", "binary", "manhattan"</t>
+  </si>
+  <si>
+    <t>1 or 0 (True or False)</t>
+  </si>
+  <si>
+    <t>Return Value for F(x) if F fails</t>
+  </si>
+  <si>
+    <t>0 (minimal printing), 1 (normal), 2 (detailed), and 3 (debug)</t>
+  </si>
+  <si>
+    <t>Lp norm power (must be non-negative)</t>
+  </si>
+  <si>
+    <t>max queued jobs</t>
+  </si>
+  <si>
+    <t>32 Cores</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_rmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_rmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>2.2.0</t>
+  </si>
+  <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>../Calibration_example/measures</t>
-  </si>
-  <si>
-    <t>../Calibration_example/weather/SRRL_2013AMY_60min.epw</t>
-  </si>
-  <si>
-    <t>../Calibration_example/seeds/SEB4_baseboard.osm</t>
-  </si>
-  <si>
-    <t>../Calibration_example/lib</t>
-  </si>
-  <si>
-    <t>AddMonthlyJSONUtilityDataElectric</t>
-  </si>
-  <si>
-    <t>AddMonthlyJSONUtilityData</t>
-  </si>
-  <si>
-    <t>Path to JSON</t>
-  </si>
-  <si>
-    <t>json</t>
-  </si>
-  <si>
-    <t>../../../lib/calibration_data/electric.json</t>
-  </si>
-  <si>
-    <t>Variable Name</t>
-  </si>
-  <si>
-    <t>Electric Bill</t>
-  </si>
-  <si>
-    <t>Fuel Type</t>
-  </si>
-  <si>
-    <t>fuel_type</t>
-  </si>
-  <si>
-    <t>Electricity</t>
-  </si>
-  <si>
-    <t>Consumption Unit</t>
-  </si>
-  <si>
-    <t>consumption_unit</t>
-  </si>
-  <si>
-    <t>data key name</t>
-  </si>
-  <si>
-    <t>data_key_name</t>
-  </si>
-  <si>
-    <t>tot_kwh</t>
-  </si>
-  <si>
-    <t>remove existing Utility Bill data</t>
-  </si>
-  <si>
-    <t>remove_existing_data</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>AddMonthlyJSONUtilityDataGas</t>
-  </si>
-  <si>
-    <t>../../../lib/calibration_data/gas.json</t>
-  </si>
-  <si>
-    <t>Gas Bill</t>
-  </si>
-  <si>
-    <t>Gas</t>
-  </si>
-  <si>
-    <t>tot_therms</t>
-  </si>
-  <si>
-    <t>FALSE</t>
-  </si>
-  <si>
-    <t>Set RunPeriod</t>
-  </si>
-  <si>
-    <t>set_runperiod</t>
-  </si>
-  <si>
-    <t>Calibration Reports Enhanced</t>
-  </si>
-  <si>
-    <t>uniform</t>
-  </si>
-  <si>
-    <t>1.21.14</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20</t>
-  </si>
-  <si>
-    <t>popsize</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_consumption_modeled</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_consumption_modeled</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_rmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_rmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_nmbe_within_limit</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_nmbe_within_limit</t>
-  </si>
-  <si>
-    <t>exit_on_guideline14</t>
-  </si>
-  <si>
-    <t>Failed F Value</t>
-  </si>
-  <si>
-    <t>Debug Messages</t>
-  </si>
-  <si>
-    <t>R Genoud Debug Flag</t>
-  </si>
-  <si>
-    <t>"minkowski", "maximum", "euclidean", "binary", "manhattan"</t>
-  </si>
-  <si>
-    <t>1 or 0 (True or False)</t>
-  </si>
-  <si>
-    <t>Return Value for F(x) if F fails</t>
-  </si>
-  <si>
-    <t>0 (minimal printing), 1 (normal), 2 (detailed), and 3 (debug)</t>
-  </si>
-  <si>
-    <t>Lp norm power (must be non-negative)</t>
   </si>
 </sst>
 </file>
@@ -2563,8 +2569,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1851">
+  <cellStyleXfs count="1853">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4541,7 +4549,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1851">
+  <cellStyles count="1853">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -5467,6 +5475,7 @@
     <cellStyle name="Followed Hyperlink" xfId="1846" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1848" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1850" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1852" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6392,6 +6401,7 @@
     <cellStyle name="Hyperlink" xfId="1845" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1847" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1849" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1851" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6693,21 +6703,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="19"/>
       <c r="B1" s="27"/>
       <c r="C1" s="19"/>
@@ -6716,7 +6726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="12" customFormat="1">
       <c r="A2" s="11" t="s">
         <v>433</v>
       </c>
@@ -6725,7 +6735,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>434</v>
       </c>
@@ -6736,29 +6746,29 @@
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="28">
       <c r="A4" s="1" t="s">
         <v>454</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>721</v>
+        <v>779</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="42">
       <c r="A5" s="1" t="s">
         <v>465</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>754</v>
+        <v>778</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="46.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>466</v>
       </c>
@@ -6769,26 +6779,26 @@
         <v>468</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>440</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C7" s="31" t="str">
         <f>VLOOKUP($B7,instance_defs,2,FALSE)&amp;VLOOKUP($B7,instance_defs,4,FALSE)</f>
-        <v>4 Cores - Recommended for Server</v>
+        <v>8 Cores - Recommended for Server</v>
       </c>
       <c r="D7" s="31" t="str">
         <f>VLOOKUP($B7,instance_defs,3,FALSE)</f>
-        <v>$0.28/hour</v>
+        <v>$0.56/hour</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="28">
       <c r="A8" s="1" t="s">
         <v>441</v>
       </c>
@@ -6797,7 +6807,7 @@
       </c>
       <c r="C8" s="31" t="str">
         <f>VLOOKUP($B8,instance_defs,2,FALSE)&amp;VLOOKUP($B8,instance_defs,4,FALSE)</f>
-        <v>16 Cores - Worker Only - Recommended for Worker</v>
+        <v>32 Cores - Worker Only - Recommended for Worker</v>
       </c>
       <c r="D8" s="31" t="str">
         <f>VLOOKUP($B8,instance_defs,3,FALSE)</f>
@@ -6807,12 +6817,12 @@
         <v>442</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>456</v>
       </c>
       <c r="B9" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="31"/>
@@ -6820,7 +6830,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="12" customFormat="1">
       <c r="A11" s="11" t="s">
         <v>27</v>
       </c>
@@ -6829,7 +6839,7 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -6840,18 +6850,18 @@
         <v>467</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -6862,7 +6872,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>460</v>
       </c>
@@ -6873,7 +6883,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>462</v>
       </c>
@@ -6884,7 +6894,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A18" s="11" t="s">
         <v>26</v>
       </c>
@@ -6897,7 +6907,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>449</v>
       </c>
@@ -6905,11 +6915,11 @@
         <v>546</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="30" customFormat="1">
       <c r="B20" s="25"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A21" s="11" t="s">
         <v>448</v>
       </c>
@@ -6926,55 +6936,55 @@
         <v>453</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="30" customFormat="1">
       <c r="A22" s="30" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B22" s="29">
-        <v>5</v>
+        <v>184</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>575</v>
       </c>
       <c r="D22" s="33"/>
     </row>
-    <row r="23" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="30" customFormat="1">
       <c r="A23" s="30" t="s">
         <v>560</v>
       </c>
       <c r="B23" s="29">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="C23" s="29" t="s">
         <v>574</v>
       </c>
       <c r="D23" s="33"/>
     </row>
-    <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" s="30" customFormat="1">
       <c r="A24" s="30" t="s">
         <v>556</v>
       </c>
       <c r="B24" s="29">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="C24" s="29" t="s">
         <v>579</v>
       </c>
       <c r="D24" s="33"/>
     </row>
-    <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" s="30" customFormat="1">
       <c r="A25" s="29" t="s">
         <v>576</v>
       </c>
       <c r="B25" s="29">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="C25" s="29" t="s">
         <v>577</v>
       </c>
       <c r="D25" s="33"/>
     </row>
-    <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" s="30" customFormat="1">
       <c r="A26" s="30" t="s">
         <v>558</v>
       </c>
@@ -6986,7 +6996,7 @@
       </c>
       <c r="D26" s="33"/>
     </row>
-    <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="30" customFormat="1">
       <c r="A27" s="30" t="s">
         <v>534</v>
       </c>
@@ -6998,7 +7008,7 @@
       </c>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="30" customFormat="1">
       <c r="A28" s="30" t="s">
         <v>539</v>
       </c>
@@ -7010,7 +7020,7 @@
       </c>
       <c r="D28" s="33"/>
     </row>
-    <row r="29" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="30" customFormat="1">
       <c r="A29" s="30" t="s">
         <v>553</v>
       </c>
@@ -7022,7 +7032,7 @@
       </c>
       <c r="D29" s="33"/>
     </row>
-    <row r="30" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="30" customFormat="1">
       <c r="A30" s="30" t="s">
         <v>554</v>
       </c>
@@ -7034,19 +7044,19 @@
       </c>
       <c r="D30" s="33"/>
     </row>
-    <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="30" customFormat="1">
       <c r="A31" s="30" t="s">
-        <v>772</v>
+        <v>758</v>
       </c>
       <c r="B31" s="29">
         <v>0</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
       <c r="D31" s="33"/>
     </row>
-    <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="30" customFormat="1">
       <c r="A32" s="30" t="s">
         <v>718</v>
       </c>
@@ -7054,11 +7064,11 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>776</v>
+        <v>762</v>
       </c>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" s="30" customFormat="1">
       <c r="A33" s="30" t="s">
         <v>535</v>
       </c>
@@ -7066,11 +7076,11 @@
         <v>536</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>773</v>
+        <v>759</v>
       </c>
       <c r="D33" s="33"/>
     </row>
-    <row r="34" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="30" customFormat="1">
       <c r="A34" s="30" t="s">
         <v>537</v>
       </c>
@@ -7078,52 +7088,57 @@
         <v>2</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>777</v>
+        <v>763</v>
       </c>
       <c r="D34" s="33"/>
     </row>
-    <row r="35" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="30" customFormat="1">
       <c r="A35" s="30" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="B35" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
       <c r="D35" s="33"/>
     </row>
-    <row r="36" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" s="30" customFormat="1">
       <c r="A36" s="30" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="B36" s="28">
         <v>1E+18</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
       <c r="D36" s="33"/>
     </row>
-    <row r="37" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" s="30" customFormat="1">
       <c r="A37" s="30" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="B37" s="29">
         <v>1</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
       <c r="D37" s="33"/>
     </row>
-    <row r="38" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="29"/>
+    <row r="38" spans="1:5" s="30" customFormat="1">
+      <c r="A38" s="30" t="s">
+        <v>764</v>
+      </c>
+      <c r="B38" s="30">
+        <v>184</v>
+      </c>
       <c r="C38" s="32"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A39" s="11" t="s">
         <v>32</v>
       </c>
@@ -7136,15 +7151,15 @@
       <c r="D39" s="11"/>
       <c r="E39" s="13"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A42" s="11" t="s">
         <v>29</v>
       </c>
@@ -7161,7 +7176,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" s="30" customFormat="1">
       <c r="A43" s="30" t="s">
         <v>31</v>
       </c>
@@ -7169,11 +7184,11 @@
         <v>629</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E43" s="2"/>
     </row>
-    <row r="45" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" s="2" customFormat="1" ht="56">
       <c r="A45" s="11" t="s">
         <v>34</v>
       </c>
@@ -7188,7 +7203,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5">
       <c r="A46" s="30" t="s">
         <v>632</v>
       </c>
@@ -7196,10 +7211,10 @@
         <v>631</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="30" customFormat="1">
       <c r="B47" s="25"/>
       <c r="D47" s="2"/>
     </row>
@@ -7213,7 +7228,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7226,37 +7240,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z199"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="30" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="30" customWidth="1"/>
     <col min="2" max="2" width="47" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="30" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="30" customWidth="1"/>
-    <col min="5" max="6" width="24.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="30" customWidth="1"/>
+    <col min="5" max="6" width="24.1640625" style="30" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="30" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="4" customWidth="1"/>
     <col min="10" max="10" width="8.6640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" style="30" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" style="30" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" style="30" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" style="30" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" style="30" customWidth="1"/>
     <col min="14" max="15" width="7.6640625" style="30" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" style="30"/>
-    <col min="17" max="17" width="11.44140625" style="30" customWidth="1"/>
+    <col min="16" max="16" width="11.5" style="30"/>
+    <col min="17" max="17" width="11.5" style="30" customWidth="1"/>
     <col min="18" max="18" width="23" style="30" customWidth="1"/>
     <col min="19" max="19" width="27.6640625" style="30" customWidth="1"/>
-    <col min="20" max="20" width="46.109375" style="30" customWidth="1"/>
-    <col min="21" max="23" width="11.44140625" style="30"/>
+    <col min="20" max="20" width="46.1640625" style="30" customWidth="1"/>
+    <col min="21" max="23" width="11.5" style="30"/>
     <col min="24" max="24" width="13.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.44140625" style="30"/>
+    <col min="25" max="16384" width="11.5" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7292,7 +7306,7 @@
       <c r="Y1" s="64"/>
       <c r="Z1" s="64"/>
     </row>
-    <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7309,7 +7323,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:26" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="14" customFormat="1" ht="45">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7386,18 +7400,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" s="35" customFormat="1">
       <c r="A4" s="35" t="b">
         <v>1</v>
       </c>
       <c r="B4" s="35" t="s">
+        <v>725</v>
+      </c>
+      <c r="C4" s="35" t="s">
         <v>726</v>
       </c>
-      <c r="C4" s="35" t="s">
-        <v>727</v>
-      </c>
       <c r="D4" s="35" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E4" s="35" t="s">
         <v>66</v>
@@ -7405,31 +7419,31 @@
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="30" t="s">
+        <v>727</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>728</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>729</v>
       </c>
       <c r="F5" s="61"/>
       <c r="G5" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I5" s="30" t="s">
+        <v>729</v>
+      </c>
+      <c r="J5" s="30"/>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="B6" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="30" t="s">
         <v>730</v>
-      </c>
-      <c r="J5" s="30"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B6" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>731</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>164</v>
@@ -7439,38 +7453,38 @@
         <v>671</v>
       </c>
       <c r="I6" s="30" t="s">
+        <v>731</v>
+      </c>
+      <c r="J6" s="30"/>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="B7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="30" t="s">
         <v>732</v>
       </c>
-      <c r="J6" s="30"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B7" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="30" t="s">
+      <c r="E7" s="30" t="s">
         <v>733</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>734</v>
       </c>
       <c r="F7" s="61"/>
       <c r="G7" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I7" s="30" t="s">
+        <v>734</v>
+      </c>
+      <c r="J7" s="30"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="B8" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="30" t="s">
         <v>735</v>
       </c>
-      <c r="J7" s="30"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B8" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="30" t="s">
+      <c r="E8" s="30" t="s">
         <v>736</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>737</v>
       </c>
       <c r="F8" s="61"/>
       <c r="G8" s="30" t="s">
@@ -7481,26 +7495,26 @@
       </c>
       <c r="J8" s="30"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26">
       <c r="B9" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="30" t="s">
+        <v>737</v>
+      </c>
+      <c r="E9" s="30" t="s">
         <v>738</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>739</v>
       </c>
       <c r="F9" s="61"/>
       <c r="G9" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="J9" s="30"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26">
       <c r="B10" s="30" t="s">
         <v>21</v>
       </c>
@@ -7519,7 +7533,7 @@
       </c>
       <c r="J10" s="30"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26">
       <c r="B11" s="30" t="s">
         <v>21</v>
       </c>
@@ -7538,56 +7552,56 @@
       </c>
       <c r="J11" s="30"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26">
       <c r="B12" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="30" t="s">
+        <v>740</v>
+      </c>
+      <c r="E12" s="30" t="s">
         <v>741</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>742</v>
       </c>
       <c r="F12" s="61"/>
       <c r="G12" s="30" t="s">
         <v>61</v>
       </c>
       <c r="I12" s="46" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J12" s="30"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26">
       <c r="B13" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="30" t="s">
+        <v>749</v>
+      </c>
+      <c r="E13" s="30" t="s">
         <v>750</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>751</v>
       </c>
       <c r="F13" s="61"/>
       <c r="G13" s="30" t="s">
         <v>61</v>
       </c>
       <c r="I13" s="46" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J13" s="30"/>
     </row>
-    <row r="14" spans="1:26" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" s="35" customFormat="1">
       <c r="A14" s="35" t="b">
         <v>1</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E14" s="35" t="s">
         <v>66</v>
@@ -7595,31 +7609,31 @@
       <c r="H14" s="36"/>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26">
       <c r="B15" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="30" t="s">
+        <v>727</v>
+      </c>
+      <c r="E15" s="30" t="s">
         <v>728</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>729</v>
       </c>
       <c r="F15" s="61"/>
       <c r="G15" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J15" s="30"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26">
       <c r="B16" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>164</v>
@@ -7629,38 +7643,38 @@
         <v>671</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J16" s="30"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18">
       <c r="B17" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="30" t="s">
+        <v>732</v>
+      </c>
+      <c r="E17" s="30" t="s">
         <v>733</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>734</v>
       </c>
       <c r="F17" s="61"/>
       <c r="G17" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J17" s="30"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18">
       <c r="B18" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="30" t="s">
+        <v>735</v>
+      </c>
+      <c r="E18" s="30" t="s">
         <v>736</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>737</v>
       </c>
       <c r="F18" s="61"/>
       <c r="G18" s="30" t="s">
@@ -7671,26 +7685,26 @@
       </c>
       <c r="J18" s="30"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18">
       <c r="B19" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="30" t="s">
+        <v>737</v>
+      </c>
+      <c r="E19" s="30" t="s">
         <v>738</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>739</v>
       </c>
       <c r="F19" s="61"/>
       <c r="G19" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18">
       <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
@@ -7709,7 +7723,7 @@
       </c>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18">
       <c r="B21" s="30" t="s">
         <v>21</v>
       </c>
@@ -7728,26 +7742,26 @@
       </c>
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18">
       <c r="B22" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
+        <v>740</v>
+      </c>
+      <c r="E22" s="30" t="s">
         <v>741</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>742</v>
       </c>
       <c r="F22" s="61"/>
       <c r="G22" s="30" t="s">
         <v>61</v>
       </c>
       <c r="I22" s="46" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" s="43" customFormat="1">
       <c r="A23" s="43" t="b">
         <v>1</v>
       </c>
@@ -7764,7 +7778,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" s="29" customFormat="1">
       <c r="B24" s="29" t="s">
         <v>21</v>
       </c>
@@ -7786,7 +7800,7 @@
       </c>
       <c r="P24" s="30"/>
     </row>
-    <row r="25" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B25" s="38" t="s">
         <v>22</v>
       </c>
@@ -7820,10 +7834,10 @@
         <v>1</v>
       </c>
       <c r="R25" s="38" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="29" customFormat="1">
       <c r="B26" s="29" t="s">
         <v>21</v>
       </c>
@@ -7841,7 +7855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" s="54" customFormat="1">
       <c r="B27" s="54" t="s">
         <v>21</v>
       </c>
@@ -7875,10 +7889,10 @@
         <v>0.01</v>
       </c>
       <c r="R27" s="38" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="29" customFormat="1">
       <c r="B28" s="29" t="s">
         <v>21</v>
       </c>
@@ -7896,7 +7910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B29" s="29" t="s">
         <v>21</v>
       </c>
@@ -7914,7 +7928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B30" s="29" t="s">
         <v>21</v>
       </c>
@@ -7932,7 +7946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B31" s="29" t="s">
         <v>21</v>
       </c>
@@ -7950,7 +7964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B32" s="29" t="s">
         <v>21</v>
       </c>
@@ -7969,7 +7983,7 @@
       </c>
       <c r="P32" s="30"/>
     </row>
-    <row r="33" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" s="44" customFormat="1">
       <c r="A33" s="44" t="b">
         <v>1</v>
       </c>
@@ -7986,7 +8000,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="15">
       <c r="A34" s="29"/>
       <c r="B34" s="29" t="s">
         <v>21</v>
@@ -8016,7 +8030,7 @@
       <c r="O34" s="3"/>
       <c r="Q34" s="37"/>
     </row>
-    <row r="35" spans="1:18" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" s="50" customFormat="1" ht="15">
       <c r="B35" s="50" t="s">
         <v>21</v>
       </c>
@@ -8052,10 +8066,10 @@
       </c>
       <c r="Q35" s="53"/>
       <c r="R35" s="38" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="15">
       <c r="A36" s="29"/>
       <c r="B36" s="29" t="s">
         <v>21</v>
@@ -8082,7 +8096,7 @@
       <c r="O36" s="3"/>
       <c r="Q36" s="37"/>
     </row>
-    <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="15">
       <c r="A37" s="29"/>
       <c r="B37" s="29" t="s">
         <v>21</v>
@@ -8109,7 +8123,7 @@
       <c r="O37" s="3"/>
       <c r="Q37" s="37"/>
     </row>
-    <row r="38" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="15">
       <c r="A38" s="29"/>
       <c r="B38" s="29" t="s">
         <v>21</v>
@@ -8136,7 +8150,7 @@
       <c r="O38" s="3"/>
       <c r="Q38" s="37"/>
     </row>
-    <row r="39" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="15">
       <c r="A39" s="29"/>
       <c r="B39" s="29" t="s">
         <v>21</v>
@@ -8163,7 +8177,7 @@
       <c r="O39" s="3"/>
       <c r="Q39" s="37"/>
     </row>
-    <row r="40" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="15">
       <c r="A40" s="29"/>
       <c r="B40" s="29" t="s">
         <v>21</v>
@@ -8190,7 +8204,7 @@
       <c r="O40" s="3"/>
       <c r="Q40" s="37"/>
     </row>
-    <row r="41" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="15">
       <c r="A41" s="29"/>
       <c r="B41" s="29" t="s">
         <v>21</v>
@@ -8217,7 +8231,7 @@
       <c r="O41" s="3"/>
       <c r="Q41" s="37"/>
     </row>
-    <row r="42" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="15">
       <c r="A42" s="29"/>
       <c r="B42" s="29" t="s">
         <v>21</v>
@@ -8244,7 +8258,7 @@
       <c r="O42" s="3"/>
       <c r="Q42" s="37"/>
     </row>
-    <row r="43" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" s="44" customFormat="1">
       <c r="A43" s="44" t="b">
         <v>1</v>
       </c>
@@ -8261,7 +8275,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B44" s="29" t="s">
         <v>21</v>
       </c>
@@ -8282,7 +8296,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B45" s="38" t="s">
         <v>22</v>
       </c>
@@ -8320,10 +8334,10 @@
         <v>1</v>
       </c>
       <c r="R45" s="38" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B46" s="29" t="s">
         <v>21</v>
       </c>
@@ -8344,7 +8358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" s="29" customFormat="1">
       <c r="B47" s="29" t="s">
         <v>21</v>
       </c>
@@ -8365,7 +8379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" s="29" customFormat="1">
       <c r="B48" s="29" t="s">
         <v>21</v>
       </c>
@@ -8386,7 +8400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" s="29" customFormat="1">
       <c r="B49" s="29" t="s">
         <v>21</v>
       </c>
@@ -8404,7 +8418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" s="29" customFormat="1">
       <c r="B50" s="29" t="s">
         <v>21</v>
       </c>
@@ -8425,7 +8439,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" s="29" customFormat="1">
       <c r="B51" s="29" t="s">
         <v>21</v>
       </c>
@@ -8446,7 +8460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B52" s="29" t="s">
         <v>21</v>
       </c>
@@ -8467,7 +8481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A53" s="44" t="b">
         <v>1</v>
       </c>
@@ -8484,7 +8498,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B54" s="29" t="s">
         <v>21</v>
       </c>
@@ -8505,7 +8519,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="55" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B55" s="38" t="s">
         <v>22</v>
       </c>
@@ -8543,10 +8557,10 @@
         <v>1</v>
       </c>
       <c r="R55" s="38" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" s="29" customFormat="1">
       <c r="B56" s="29" t="s">
         <v>21</v>
       </c>
@@ -8564,7 +8578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" s="29" customFormat="1">
       <c r="B57" s="29" t="s">
         <v>21</v>
       </c>
@@ -8585,7 +8599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" s="29" customFormat="1">
       <c r="B58" s="29" t="s">
         <v>21</v>
       </c>
@@ -8606,7 +8620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" s="29" customFormat="1">
       <c r="B59" s="29" t="s">
         <v>21</v>
       </c>
@@ -8627,7 +8641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B60" s="29" t="s">
         <v>21</v>
       </c>
@@ -8645,7 +8659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B61" s="29" t="s">
         <v>21</v>
       </c>
@@ -8666,7 +8680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B62" s="29" t="s">
         <v>21</v>
       </c>
@@ -8687,7 +8701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B63" s="29" t="s">
         <v>21</v>
       </c>
@@ -8708,7 +8722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="44" t="b">
         <v>1</v>
       </c>
@@ -8725,7 +8739,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B65" s="29" t="s">
         <v>21</v>
       </c>
@@ -8746,7 +8760,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="66" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B66" s="38" t="s">
         <v>22</v>
       </c>
@@ -8784,10 +8798,10 @@
         <v>0.25</v>
       </c>
       <c r="R66" s="38" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B67" s="29" t="s">
         <v>21</v>
       </c>
@@ -8805,7 +8819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B68" s="29" t="s">
         <v>21</v>
       </c>
@@ -8826,7 +8840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B69" s="29" t="s">
         <v>21</v>
       </c>
@@ -8847,7 +8861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B70" s="29" t="s">
         <v>21</v>
       </c>
@@ -8868,7 +8882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B71" s="29" t="s">
         <v>21</v>
       </c>
@@ -8886,7 +8900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B72" s="29" t="s">
         <v>21</v>
       </c>
@@ -8907,7 +8921,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B73" s="29" t="s">
         <v>21</v>
       </c>
@@ -8928,7 +8942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B74" s="29" t="s">
         <v>21</v>
       </c>
@@ -8949,7 +8963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A75" s="44" t="b">
         <v>1</v>
       </c>
@@ -8966,7 +8980,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B76" s="29" t="s">
         <v>21</v>
       </c>
@@ -8987,7 +9001,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="77" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B77" s="38" t="s">
         <v>22</v>
       </c>
@@ -9025,10 +9039,10 @@
         <v>1</v>
       </c>
       <c r="R77" s="38" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B78" s="38" t="s">
         <v>22</v>
       </c>
@@ -9066,10 +9080,10 @@
         <v>1</v>
       </c>
       <c r="R78" s="38" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B79" s="29" t="s">
         <v>21</v>
       </c>
@@ -9087,7 +9101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B80" s="29" t="s">
         <v>21</v>
       </c>
@@ -9108,7 +9122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="B81" s="29" t="s">
         <v>21</v>
       </c>
@@ -9129,7 +9143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="B82" s="29" t="s">
         <v>21</v>
       </c>
@@ -9150,7 +9164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" s="29" customFormat="1">
       <c r="B83" s="29" t="s">
         <v>21</v>
       </c>
@@ -9168,7 +9182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" s="29" customFormat="1">
       <c r="B84" s="29" t="s">
         <v>21</v>
       </c>
@@ -9189,7 +9203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" s="29" customFormat="1">
       <c r="B85" s="29" t="s">
         <v>21</v>
       </c>
@@ -9210,7 +9224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" s="29" customFormat="1">
       <c r="B86" s="29" t="s">
         <v>21</v>
       </c>
@@ -9231,7 +9245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" s="44" customFormat="1">
       <c r="A87" s="44" t="b">
         <v>1</v>
       </c>
@@ -9248,7 +9262,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="88" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" s="38" customFormat="1" ht="15">
       <c r="B88" s="38" t="s">
         <v>22</v>
       </c>
@@ -9286,10 +9300,10 @@
         <v>1</v>
       </c>
       <c r="R88" s="38" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" s="38" customFormat="1" ht="15">
       <c r="B89" s="38" t="s">
         <v>22</v>
       </c>
@@ -9327,10 +9341,10 @@
         <v>1</v>
       </c>
       <c r="R89" s="38" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20">
       <c r="B90" s="30" t="s">
         <v>21</v>
       </c>
@@ -9353,7 +9367,7 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" ht="15">
       <c r="A91" s="47" t="b">
         <v>1</v>
       </c>
@@ -9383,7 +9397,7 @@
       <c r="Q91" s="44"/>
       <c r="R91" s="44"/>
     </row>
-    <row r="92" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="A92" s="38"/>
       <c r="B92" s="48" t="s">
         <v>22</v>
@@ -9423,10 +9437,10 @@
       <c r="P92" s="38"/>
       <c r="Q92" s="38"/>
       <c r="R92" s="38" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="A93" s="48"/>
       <c r="B93" s="48" t="s">
         <v>22</v>
@@ -9465,10 +9479,10 @@
       <c r="P93" s="38"/>
       <c r="Q93" s="38"/>
       <c r="R93" s="38" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="A94" s="48"/>
       <c r="B94" s="48" t="s">
         <v>22</v>
@@ -9507,11 +9521,11 @@
       <c r="P94" s="40"/>
       <c r="Q94" s="40"/>
       <c r="R94" s="38" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="T94" s="30"/>
     </row>
-    <row r="95" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" ht="15">
       <c r="A95" s="47" t="b">
         <v>1</v>
       </c>
@@ -9541,7 +9555,7 @@
       <c r="Q95" s="44"/>
       <c r="R95" s="44"/>
     </row>
-    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" ht="15">
       <c r="A96" s="38"/>
       <c r="B96" s="48" t="s">
         <v>22</v>
@@ -9581,10 +9595,10 @@
       <c r="P96" s="38"/>
       <c r="Q96" s="38"/>
       <c r="R96" s="38" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" ht="15">
       <c r="A97" s="48"/>
       <c r="B97" s="48" t="s">
         <v>22</v>
@@ -9623,10 +9637,10 @@
       <c r="P97" s="38"/>
       <c r="Q97" s="38"/>
       <c r="R97" s="38" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" ht="15">
       <c r="A98" s="48"/>
       <c r="B98" s="48" t="s">
         <v>22</v>
@@ -9665,10 +9679,10 @@
       <c r="P98" s="40"/>
       <c r="Q98" s="40"/>
       <c r="R98" s="38" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A99" s="44" t="b">
         <v>1</v>
       </c>
@@ -9685,7 +9699,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="100" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" s="54" customFormat="1">
       <c r="B100" s="54" t="s">
         <v>21</v>
       </c>
@@ -9723,10 +9737,10 @@
         <v>0.1</v>
       </c>
       <c r="R100" s="38" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B101" s="38" t="s">
         <v>22</v>
       </c>
@@ -9764,21 +9778,21 @@
         <v>10</v>
       </c>
       <c r="R101" s="38" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" s="35" customFormat="1">
       <c r="A102" s="35" t="b">
         <v>1</v>
       </c>
       <c r="B102" s="35" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C102" s="35" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D102" s="35" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E102" s="35" t="s">
         <v>231</v>
@@ -9786,400 +9800,400 @@
       <c r="H102" s="36"/>
       <c r="I102" s="36"/>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18">
       <c r="F103" s="61"/>
       <c r="I103" s="30"/>
       <c r="J103" s="30"/>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18">
       <c r="F104" s="45"/>
       <c r="I104" s="30"/>
       <c r="J104" s="30"/>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18">
       <c r="F105" s="45"/>
       <c r="I105" s="30"/>
       <c r="J105" s="30"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18">
       <c r="F106" s="45"/>
       <c r="I106" s="30"/>
       <c r="J106" s="30"/>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18">
       <c r="F107" s="45"/>
       <c r="I107" s="30"/>
       <c r="J107" s="30"/>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18">
       <c r="F108" s="45"/>
       <c r="I108" s="30"/>
       <c r="J108" s="30"/>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18">
       <c r="F109" s="45"/>
       <c r="I109" s="30"/>
       <c r="J109" s="30"/>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18">
       <c r="F110" s="45"/>
       <c r="I110" s="30"/>
       <c r="J110" s="30"/>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18">
       <c r="F111" s="45"/>
       <c r="I111" s="30"/>
       <c r="J111" s="30"/>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18">
       <c r="I112" s="30"/>
       <c r="J112" s="30"/>
     </row>
-    <row r="113" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="9:10">
       <c r="I113" s="30"/>
       <c r="J113" s="30"/>
     </row>
-    <row r="114" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="9:10">
       <c r="I114" s="30"/>
       <c r="J114" s="30"/>
     </row>
-    <row r="115" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="9:10">
       <c r="I115" s="30"/>
       <c r="J115" s="30"/>
     </row>
-    <row r="116" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="9:10">
       <c r="I116" s="30"/>
       <c r="J116" s="30"/>
     </row>
-    <row r="117" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="9:10">
       <c r="I117" s="30"/>
       <c r="J117" s="30"/>
     </row>
-    <row r="118" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="9:10">
       <c r="I118" s="30"/>
       <c r="J118" s="30"/>
     </row>
-    <row r="119" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="9:10">
       <c r="I119" s="30"/>
       <c r="J119" s="30"/>
     </row>
-    <row r="120" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="9:10">
       <c r="I120" s="30"/>
       <c r="J120" s="30"/>
     </row>
-    <row r="121" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="9:10">
       <c r="I121" s="30"/>
       <c r="J121" s="30"/>
     </row>
-    <row r="122" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="9:10">
       <c r="I122" s="30"/>
       <c r="J122" s="30"/>
     </row>
-    <row r="123" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="9:10">
       <c r="I123" s="30"/>
       <c r="J123" s="30"/>
     </row>
-    <row r="124" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="9:10">
       <c r="I124" s="30"/>
       <c r="J124" s="30"/>
     </row>
-    <row r="125" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="9:10">
       <c r="I125" s="30"/>
       <c r="J125" s="30"/>
     </row>
-    <row r="126" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="9:10">
       <c r="I126" s="30"/>
       <c r="J126" s="30"/>
     </row>
-    <row r="127" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="9:10">
       <c r="I127" s="30"/>
       <c r="J127" s="30"/>
     </row>
-    <row r="128" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="9:10">
       <c r="I128" s="30"/>
       <c r="J128" s="30"/>
     </row>
-    <row r="129" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="9:10">
       <c r="I129" s="30"/>
       <c r="J129" s="30"/>
     </row>
-    <row r="130" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="9:10">
       <c r="I130" s="30"/>
       <c r="J130" s="30"/>
     </row>
-    <row r="131" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="9:10">
       <c r="I131" s="30"/>
       <c r="J131" s="30"/>
     </row>
-    <row r="132" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="9:10">
       <c r="I132" s="30"/>
       <c r="J132" s="30"/>
     </row>
-    <row r="133" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="9:10">
       <c r="I133" s="30"/>
       <c r="J133" s="30"/>
     </row>
-    <row r="134" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="9:10">
       <c r="I134" s="30"/>
       <c r="J134" s="30"/>
     </row>
-    <row r="135" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="9:10">
       <c r="I135" s="30"/>
       <c r="J135" s="30"/>
     </row>
-    <row r="136" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="9:10">
       <c r="I136" s="30"/>
       <c r="J136" s="30"/>
     </row>
-    <row r="137" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="9:10">
       <c r="I137" s="30"/>
       <c r="J137" s="30"/>
     </row>
-    <row r="138" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="9:10">
       <c r="I138" s="30"/>
       <c r="J138" s="30"/>
     </row>
-    <row r="139" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="9:10">
       <c r="I139" s="30"/>
       <c r="J139" s="30"/>
     </row>
-    <row r="140" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="9:10">
       <c r="I140" s="30"/>
       <c r="J140" s="30"/>
     </row>
-    <row r="141" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="9:10">
       <c r="I141" s="30"/>
       <c r="J141" s="30"/>
     </row>
-    <row r="142" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="9:10">
       <c r="I142" s="30"/>
       <c r="J142" s="30"/>
     </row>
-    <row r="143" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="9:10">
       <c r="I143" s="30"/>
       <c r="J143" s="30"/>
     </row>
-    <row r="144" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="9:10">
       <c r="I144" s="30"/>
       <c r="J144" s="30"/>
     </row>
-    <row r="145" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="9:10">
       <c r="I145" s="30"/>
       <c r="J145" s="30"/>
     </row>
-    <row r="146" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="9:10">
       <c r="I146" s="30"/>
       <c r="J146" s="30"/>
     </row>
-    <row r="147" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="9:10">
       <c r="I147" s="30"/>
       <c r="J147" s="30"/>
     </row>
-    <row r="148" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="9:10">
       <c r="I148" s="30"/>
       <c r="J148" s="30"/>
     </row>
-    <row r="149" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="9:10">
       <c r="I149" s="30"/>
       <c r="J149" s="30"/>
     </row>
-    <row r="150" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="9:10">
       <c r="I150" s="30"/>
       <c r="J150" s="30"/>
     </row>
-    <row r="151" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="9:10">
       <c r="I151" s="30"/>
       <c r="J151" s="30"/>
     </row>
-    <row r="152" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="9:10">
       <c r="I152" s="30"/>
       <c r="J152" s="30"/>
     </row>
-    <row r="153" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="9:10">
       <c r="I153" s="30"/>
       <c r="J153" s="30"/>
     </row>
-    <row r="154" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="9:10">
       <c r="I154" s="30"/>
       <c r="J154" s="30"/>
     </row>
-    <row r="155" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="9:10">
       <c r="I155" s="30"/>
       <c r="J155" s="30"/>
     </row>
-    <row r="156" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="9:10">
       <c r="I156" s="30"/>
       <c r="J156" s="30"/>
     </row>
-    <row r="157" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="9:10">
       <c r="I157" s="30"/>
       <c r="J157" s="30"/>
     </row>
-    <row r="158" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="9:10">
       <c r="I158" s="30"/>
       <c r="J158" s="30"/>
     </row>
-    <row r="159" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="9:10">
       <c r="I159" s="30"/>
       <c r="J159" s="30"/>
     </row>
-    <row r="160" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="9:10">
       <c r="I160" s="30"/>
       <c r="J160" s="30"/>
     </row>
-    <row r="161" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="9:10">
       <c r="I161" s="30"/>
       <c r="J161" s="30"/>
     </row>
-    <row r="162" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="9:10">
       <c r="I162" s="30"/>
       <c r="J162" s="30"/>
     </row>
-    <row r="163" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="9:10">
       <c r="I163" s="30"/>
       <c r="J163" s="30"/>
     </row>
-    <row r="164" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="9:10">
       <c r="I164" s="30"/>
       <c r="J164" s="30"/>
     </row>
-    <row r="165" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="9:10">
       <c r="I165" s="30"/>
       <c r="J165" s="30"/>
     </row>
-    <row r="166" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="9:10">
       <c r="I166" s="30"/>
       <c r="J166" s="30"/>
     </row>
-    <row r="167" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="9:10">
       <c r="I167" s="30"/>
       <c r="J167" s="30"/>
     </row>
-    <row r="168" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="9:10">
       <c r="I168" s="30"/>
       <c r="J168" s="30"/>
     </row>
-    <row r="169" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="9:10">
       <c r="I169" s="30"/>
       <c r="J169" s="30"/>
     </row>
-    <row r="170" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="9:10">
       <c r="I170" s="30"/>
       <c r="J170" s="30"/>
     </row>
-    <row r="171" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="9:10">
       <c r="I171" s="30"/>
       <c r="J171" s="30"/>
     </row>
-    <row r="172" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="9:10">
       <c r="I172" s="30"/>
       <c r="J172" s="30"/>
     </row>
-    <row r="173" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="9:10">
       <c r="I173" s="30"/>
       <c r="J173" s="30"/>
     </row>
-    <row r="174" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="9:10">
       <c r="I174" s="30"/>
       <c r="J174" s="30"/>
     </row>
-    <row r="175" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="9:10">
       <c r="I175" s="30"/>
       <c r="J175" s="30"/>
     </row>
-    <row r="176" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="9:10">
       <c r="I176" s="30"/>
       <c r="J176" s="30"/>
     </row>
-    <row r="177" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="9:10">
       <c r="I177" s="30"/>
       <c r="J177" s="30"/>
     </row>
-    <row r="178" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="9:10">
       <c r="I178" s="30"/>
       <c r="J178" s="30"/>
     </row>
-    <row r="179" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="9:10">
       <c r="I179" s="30"/>
       <c r="J179" s="30"/>
     </row>
-    <row r="180" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="9:10">
       <c r="I180" s="30"/>
       <c r="J180" s="30"/>
     </row>
-    <row r="181" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="9:10">
       <c r="I181" s="30"/>
       <c r="J181" s="30"/>
     </row>
-    <row r="182" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="9:10">
       <c r="I182" s="30"/>
       <c r="J182" s="30"/>
     </row>
-    <row r="183" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="9:10">
       <c r="I183" s="30"/>
       <c r="J183" s="30"/>
     </row>
-    <row r="184" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="9:10">
       <c r="I184" s="30"/>
       <c r="J184" s="30"/>
     </row>
-    <row r="185" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="9:10">
       <c r="I185" s="30"/>
       <c r="J185" s="30"/>
     </row>
-    <row r="186" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="9:10">
       <c r="I186" s="30"/>
       <c r="J186" s="30"/>
     </row>
-    <row r="187" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="9:10">
       <c r="I187" s="30"/>
       <c r="J187" s="30"/>
     </row>
-    <row r="188" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="9:10">
       <c r="I188" s="30"/>
       <c r="J188" s="30"/>
     </row>
-    <row r="189" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="9:10">
       <c r="I189" s="30"/>
       <c r="J189" s="30"/>
     </row>
-    <row r="190" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="9:10">
       <c r="I190" s="30"/>
       <c r="J190" s="30"/>
     </row>
-    <row r="191" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="9:10">
       <c r="I191" s="30"/>
       <c r="J191" s="30"/>
     </row>
-    <row r="192" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="9:10">
       <c r="I192" s="30"/>
       <c r="J192" s="30"/>
     </row>
-    <row r="193" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="9:10">
       <c r="I193" s="30"/>
       <c r="J193" s="30"/>
     </row>
-    <row r="194" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="9:10">
       <c r="I194" s="30"/>
       <c r="J194" s="30"/>
     </row>
-    <row r="195" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="9:10">
       <c r="I195" s="30"/>
       <c r="J195" s="30"/>
     </row>
-    <row r="196" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="9:10">
       <c r="I196" s="30"/>
       <c r="J196" s="30"/>
     </row>
-    <row r="197" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="9:10">
       <c r="I197" s="30"/>
       <c r="J197" s="30"/>
     </row>
-    <row r="198" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="9:10">
       <c r="I198" s="30"/>
       <c r="J198" s="30"/>
     </row>
-    <row r="199" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="9:10">
       <c r="I199" s="30"/>
       <c r="J199" s="30"/>
     </row>
@@ -10189,7 +10203,6 @@
     <mergeCell ref="U1:Z1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10204,25 +10217,25 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD16"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="30" customWidth="1"/>
+    <col min="1" max="1" width="29.5" style="30" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="29.5" style="30" customWidth="1"/>
     <col min="4" max="4" width="71" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="30" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.44140625" style="30" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="30" customWidth="1"/>
+    <col min="7" max="8" width="10.5" style="30" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="30" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" style="30" customWidth="1"/>
     <col min="11" max="11" width="9.6640625" style="30" customWidth="1"/>
-    <col min="12" max="16384" width="11.44140625" style="30"/>
+    <col min="12" max="16384" width="11.5" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="58"/>
       <c r="C1" s="5"/>
@@ -10238,7 +10251,7 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>457</v>
       </c>
@@ -10276,7 +10289,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="14" customFormat="1" ht="45">
       <c r="A3" s="14" t="s">
         <v>619</v>
       </c>
@@ -10315,7 +10328,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" s="29" t="s">
         <v>628</v>
       </c>
@@ -10344,14 +10357,14 @@
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" s="29" t="s">
         <v>633</v>
       </c>
       <c r="B5" s="45"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29" t="s">
-        <v>757</v>
+        <v>766</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>634</v>
@@ -10373,14 +10386,14 @@
       <c r="L5" s="29"/>
       <c r="M5" s="29"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" s="29" t="s">
         <v>635</v>
       </c>
       <c r="B6" s="45"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29" t="s">
-        <v>758</v>
+        <v>767</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>636</v>
@@ -10402,14 +10415,14 @@
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" s="29" t="s">
         <v>665</v>
       </c>
       <c r="B7" s="45"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29" t="s">
-        <v>759</v>
+        <v>768</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>642</v>
@@ -10430,14 +10443,14 @@
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" s="29" t="s">
         <v>666</v>
       </c>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
-        <v>760</v>
+        <v>769</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>642</v>
@@ -10458,14 +10471,14 @@
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" s="29" t="s">
         <v>667</v>
       </c>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29" t="s">
-        <v>761</v>
+        <v>770</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>642</v>
@@ -10486,14 +10499,14 @@
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10" s="29" t="s">
         <v>668</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
-        <v>762</v>
+        <v>771</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>642</v>
@@ -10514,14 +10527,14 @@
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" s="29" t="s">
         <v>669</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29" t="s">
-        <v>763</v>
+        <v>772</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>642</v>
@@ -10542,14 +10555,14 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" s="29" t="s">
         <v>670</v>
       </c>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29" t="s">
-        <v>764</v>
+        <v>773</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>642</v>
@@ -10570,14 +10583,14 @@
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13" s="29" t="s">
         <v>690</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29" t="s">
-        <v>765</v>
+        <v>774</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="30" t="s">
@@ -10593,14 +10606,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14" s="29" t="s">
         <v>691</v>
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29" t="s">
-        <v>766</v>
+        <v>775</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="30" t="s">
@@ -10616,14 +10629,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15" s="29" t="s">
         <v>692</v>
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29" t="s">
-        <v>767</v>
+        <v>776</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="30" t="s">
@@ -10639,13 +10652,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" s="29" t="s">
         <v>693</v>
       </c>
       <c r="B16" s="29"/>
       <c r="D16" s="29" t="s">
-        <v>768</v>
+        <v>777</v>
       </c>
       <c r="F16" s="30" t="s">
         <v>62</v>
@@ -10660,180 +10673,179 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2">
       <c r="B17" s="29"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2">
       <c r="B18" s="29"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2">
       <c r="B19" s="29"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2">
       <c r="B20" s="29"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2">
       <c r="B21" s="29"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2">
       <c r="B22" s="29"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2">
       <c r="B23" s="29"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2">
       <c r="B24" s="29"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2">
       <c r="B25" s="29"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2">
       <c r="B26" s="29"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2">
       <c r="B27" s="29"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2">
       <c r="B28" s="29"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2">
       <c r="B29" s="29"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2">
       <c r="B30" s="29"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2">
       <c r="B31" s="29"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2">
       <c r="B32" s="29"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2">
       <c r="B33" s="29"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2">
       <c r="B34" s="29"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2">
       <c r="B35" s="29"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2">
       <c r="B36" s="29"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2">
       <c r="B37" s="29"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2">
       <c r="B38" s="29"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2">
       <c r="B39" s="29"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2">
       <c r="B40" s="29"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2">
       <c r="B41" s="29"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2">
       <c r="B42" s="29"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2">
       <c r="B43" s="29"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2">
       <c r="B44" s="29"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2">
       <c r="B45" s="29"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2">
       <c r="B46" s="29"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2">
       <c r="B47" s="29"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2">
       <c r="B48" s="29"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2">
       <c r="B49" s="29"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2">
       <c r="B50" s="29"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2">
       <c r="B51" s="29"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2">
       <c r="B52" s="29"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2">
       <c r="B53" s="29"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2">
       <c r="B54" s="29"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2">
       <c r="B55" s="29"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2">
       <c r="B56" s="29"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2">
       <c r="B57" s="29"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2">
       <c r="B58" s="29"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2">
       <c r="B59" s="29"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2">
       <c r="B60" s="29"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2">
       <c r="B61" s="29"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2">
       <c r="B62" s="29"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2">
       <c r="B63" s="29"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2">
       <c r="B64" s="29"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2">
       <c r="B65" s="29"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2">
       <c r="B66" s="29"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2">
       <c r="B67" s="29"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2">
       <c r="B68" s="29"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2">
       <c r="B69" s="29"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2">
       <c r="B70" s="29"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2">
       <c r="B71" s="29"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2">
       <c r="B72" s="29"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2">
       <c r="B73" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10850,19 +10862,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -10881,7 +10893,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -10902,7 +10914,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -10925,7 +10937,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -10948,7 +10960,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -10971,7 +10983,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -10994,7 +11006,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -11017,7 +11029,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -11040,7 +11052,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -11063,7 +11075,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -11086,7 +11098,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -11105,7 +11117,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -11126,7 +11138,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -11149,7 +11161,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -11172,7 +11184,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -11195,7 +11207,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -11218,7 +11230,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -11241,7 +11253,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -11264,7 +11276,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -11287,7 +11299,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -11310,7 +11322,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -11329,7 +11341,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -11352,7 +11364,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -11375,7 +11387,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -11398,7 +11410,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -11421,7 +11433,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -11444,7 +11456,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -11467,7 +11479,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -11490,7 +11502,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -11513,7 +11525,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -11536,7 +11548,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -11555,7 +11567,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -11576,7 +11588,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -11599,7 +11611,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -11622,7 +11634,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -11645,7 +11657,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -11668,7 +11680,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -11691,7 +11703,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -11714,7 +11726,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -11737,7 +11749,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -11760,7 +11772,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -11779,7 +11791,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -11800,7 +11812,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -11823,7 +11835,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -11846,7 +11858,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -11869,7 +11881,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -11892,7 +11904,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -11915,7 +11927,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -11938,7 +11950,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -11961,7 +11973,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -11984,7 +11996,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -12003,7 +12015,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -12024,7 +12036,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -12047,7 +12059,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -12070,7 +12082,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -12093,7 +12105,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -12116,7 +12128,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -12139,7 +12151,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -12162,7 +12174,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -12185,7 +12197,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -12208,7 +12220,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -12227,7 +12239,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -12248,7 +12260,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12273,7 +12285,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -12296,7 +12308,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -12319,7 +12331,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -12342,7 +12354,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -12365,7 +12377,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -12388,7 +12400,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -12411,7 +12423,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -12434,7 +12446,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -12457,7 +12469,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -12476,7 +12488,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -12497,7 +12509,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -12520,7 +12532,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -12545,7 +12557,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -12568,7 +12580,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -12591,7 +12603,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -12614,7 +12626,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -12637,7 +12649,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -12660,7 +12672,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -12683,7 +12695,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -12706,7 +12718,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -12729,7 +12741,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -12752,7 +12764,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -12775,7 +12787,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -12794,7 +12806,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -12817,7 +12829,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -12840,7 +12852,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -12863,7 +12875,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -12886,7 +12898,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -12909,7 +12921,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -12932,7 +12944,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -12955,7 +12967,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -12978,7 +12990,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -13001,7 +13013,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -13024,7 +13036,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -13043,7 +13055,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -13068,7 +13080,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -13087,7 +13099,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -13108,7 +13120,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -13133,7 +13145,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -13152,7 +13164,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -13175,7 +13187,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -13200,7 +13212,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -13223,7 +13235,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -13244,7 +13256,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -13263,7 +13275,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -13288,7 +13300,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -13311,7 +13323,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -13334,7 +13346,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -13357,7 +13369,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -13380,7 +13392,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -13403,7 +13415,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -13426,7 +13438,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -13445,7 +13457,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -13468,7 +13480,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -13491,7 +13503,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -13514,7 +13526,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -13533,7 +13545,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -13556,7 +13568,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -13579,7 +13591,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -13602,7 +13614,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -13625,7 +13637,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -13648,7 +13660,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -13671,7 +13683,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -13690,7 +13702,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -13715,7 +13727,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -13738,7 +13750,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -13761,7 +13773,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -13784,7 +13796,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -13807,7 +13819,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -13830,7 +13842,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -13853,7 +13865,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -13876,7 +13888,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -13899,7 +13911,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -13918,7 +13930,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -13943,7 +13955,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -13964,7 +13976,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -13987,7 +13999,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -14010,7 +14022,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -14033,7 +14045,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -14056,7 +14068,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -14079,7 +14091,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -14102,7 +14114,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -14125,7 +14137,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -14148,7 +14160,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -14171,7 +14183,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -14194,7 +14206,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -14217,7 +14229,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -14240,7 +14252,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -14259,7 +14271,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14282,7 +14294,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -14301,7 +14313,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -14324,7 +14336,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -14347,7 +14359,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -14366,7 +14378,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -14391,7 +14403,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -14414,7 +14426,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -14437,7 +14449,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -14460,7 +14472,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -14483,7 +14495,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -14506,7 +14518,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -14529,7 +14541,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -14552,7 +14564,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -14575,7 +14587,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -14598,7 +14610,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -14617,7 +14629,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -14642,7 +14654,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -14665,7 +14677,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -14688,7 +14700,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -14711,7 +14723,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -14734,7 +14746,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -14757,7 +14769,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -14780,7 +14792,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -14803,7 +14815,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -14826,7 +14838,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -14849,7 +14861,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -14868,7 +14880,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -14891,7 +14903,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -14914,7 +14926,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -14937,7 +14949,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -14960,7 +14972,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -14979,7 +14991,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -15002,7 +15014,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -15025,7 +15037,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -15048,7 +15060,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -15071,7 +15083,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -15090,7 +15102,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -15111,7 +15123,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -15134,7 +15146,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -15153,7 +15165,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -15176,7 +15188,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -15201,7 +15213,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -15222,7 +15234,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -15247,7 +15259,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15272,7 +15284,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -15291,7 +15303,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -15316,7 +15328,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -15339,7 +15351,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -15362,7 +15374,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -15385,7 +15397,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -15408,7 +15420,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -15431,7 +15443,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -15454,7 +15466,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -15477,7 +15489,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -15500,7 +15512,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -15519,7 +15531,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -15544,7 +15556,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -15567,7 +15579,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -15590,7 +15602,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -15613,7 +15625,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -15636,7 +15648,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -15659,7 +15671,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -15682,7 +15694,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -15705,7 +15717,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -15728,7 +15740,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -15747,7 +15759,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -15768,7 +15780,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -15791,7 +15803,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -15814,7 +15826,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -15837,7 +15849,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -15860,7 +15872,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -15883,7 +15895,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -15906,7 +15918,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -15929,7 +15941,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -15952,7 +15964,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -15975,7 +15987,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -15998,7 +16010,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -16021,7 +16033,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -16044,7 +16056,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -16067,7 +16079,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -16090,7 +16102,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -16113,7 +16125,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -16132,7 +16144,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -16153,7 +16165,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -16176,7 +16188,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -16199,7 +16211,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -16222,7 +16234,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -16245,7 +16257,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16268,7 +16280,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -16291,7 +16303,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -16314,7 +16326,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -16337,7 +16349,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -16360,7 +16372,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -16383,7 +16395,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -16406,7 +16418,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -16429,7 +16441,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -16452,7 +16464,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -16475,7 +16487,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -16498,7 +16510,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -16517,7 +16529,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -16542,7 +16554,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -16565,7 +16577,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -16588,7 +16600,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -16611,7 +16623,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -16634,7 +16646,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -16653,7 +16665,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -16678,7 +16690,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -16701,7 +16713,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -16720,7 +16732,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -16739,7 +16751,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -16758,7 +16770,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -16779,7 +16791,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -16802,7 +16814,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -16825,7 +16837,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -16848,7 +16860,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -16871,7 +16883,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -16894,7 +16906,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -16917,7 +16929,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -16940,7 +16952,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -16963,7 +16975,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -16986,7 +16998,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -17009,7 +17021,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -17028,7 +17040,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -17051,7 +17063,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -17070,7 +17082,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -17095,7 +17107,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -17118,7 +17130,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -17141,7 +17153,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -17164,7 +17176,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -17187,7 +17199,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -17210,7 +17222,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -17233,7 +17245,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -17256,7 +17268,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -17279,7 +17291,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -17302,7 +17314,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -17325,7 +17337,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -17344,7 +17356,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -17367,7 +17379,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -17386,7 +17398,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -17407,7 +17419,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -17426,7 +17438,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -17447,7 +17459,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -17466,7 +17478,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -17487,7 +17499,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -17506,7 +17518,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -17529,7 +17541,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -17548,7 +17560,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -17573,7 +17585,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -17596,7 +17608,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -17619,7 +17631,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -17642,7 +17654,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -17665,7 +17677,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -17688,7 +17700,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -17711,7 +17723,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -17734,7 +17746,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -17757,7 +17769,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -17776,7 +17788,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -17799,7 +17811,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -17822,7 +17834,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -17845,7 +17857,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -17868,7 +17880,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -17887,7 +17899,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -17910,7 +17922,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -17933,7 +17945,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -17958,7 +17970,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -17977,7 +17989,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -18002,7 +18014,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -18025,7 +18037,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -18044,7 +18056,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -18065,7 +18077,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -18086,7 +18098,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -18109,7 +18121,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -18128,7 +18140,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -18147,7 +18159,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -18172,7 +18184,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -18197,7 +18209,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -18211,7 +18223,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -18234,7 +18246,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18254,7 +18266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18274,7 +18286,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18294,7 +18306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18311,7 +18323,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18334,7 +18346,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18357,7 +18369,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18371,7 +18383,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18394,7 +18406,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18417,7 +18429,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18437,7 +18449,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -18457,7 +18469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -18474,7 +18486,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -18500,7 +18512,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -18529,7 +18541,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" ht="15">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -18568,7 +18580,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -18582,7 +18594,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -18602,7 +18614,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -18616,7 +18628,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -18636,7 +18648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -18656,7 +18668,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -18676,7 +18688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -18696,7 +18708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -18716,7 +18728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:18">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -18736,7 +18748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -18756,7 +18768,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:18">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -18776,7 +18788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -18796,7 +18808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:18">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -18810,7 +18822,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:18">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -18830,7 +18842,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:18">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -18850,7 +18862,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:18" s="1" customFormat="1">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -18866,7 +18878,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:18" s="1" customFormat="1">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -18892,7 +18904,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -18933,7 +18945,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:18">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -18947,7 +18959,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:18">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -18967,7 +18979,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:18">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -18981,7 +18993,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:18">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -19003,7 +19015,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -19017,20 +19028,20 @@
   <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.44140625" customWidth="1"/>
+    <col min="17" max="17" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>439</v>
       </c>
@@ -19041,7 +19052,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="29" customFormat="1">
       <c r="A2" s="29" t="s">
         <v>585</v>
       </c>
@@ -19055,7 +19066,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" s="29" customFormat="1">
       <c r="A3" s="29" t="s">
         <v>588</v>
       </c>
@@ -19069,7 +19080,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" s="29" customFormat="1">
       <c r="A4" s="29" t="s">
         <v>590</v>
       </c>
@@ -19083,7 +19094,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" s="29" customFormat="1">
       <c r="A5" s="29" t="s">
         <v>592</v>
       </c>
@@ -19097,7 +19108,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" s="29" customFormat="1">
       <c r="A6" s="29" t="s">
         <v>594</v>
       </c>
@@ -19111,7 +19122,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" s="29" customFormat="1">
       <c r="A7" s="29" t="s">
         <v>438</v>
       </c>
@@ -19125,12 +19136,12 @@
         <v>601</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" s="29" customFormat="1">
       <c r="A8" s="29" t="s">
         <v>597</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>598</v>
@@ -19139,12 +19150,12 @@
         <v>601</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" s="29" customFormat="1">
       <c r="A9" s="29" t="s">
         <v>599</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>446</v>
+        <v>765</v>
       </c>
       <c r="C9" s="29" t="s">
         <v>600</v>
@@ -19153,7 +19164,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>565</v>
       </c>
@@ -19167,7 +19178,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>452</v>
       </c>
@@ -19181,7 +19192,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>450</v>
       </c>
@@ -19192,8 +19203,8 @@
         <v>540</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="29" customFormat="1"/>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>543</v>
       </c>
@@ -19219,7 +19230,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>544</v>
       </c>
@@ -19260,7 +19271,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -19301,7 +19312,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>538</v>
       </c>
@@ -19333,7 +19344,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>546</v>
       </c>
@@ -19365,7 +19376,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>545</v>
       </c>
@@ -19394,7 +19405,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>547</v>
       </c>
@@ -19426,7 +19437,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>548</v>
       </c>
@@ -19446,7 +19457,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>630</v>
       </c>
@@ -19469,7 +19480,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="L25" s="1" t="s">
         <v>554</v>
       </c>
@@ -19480,7 +19491,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17">
       <c r="L26" s="1" t="s">
         <v>535</v>
       </c>
@@ -19488,7 +19499,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="L27" s="1" t="s">
         <v>537</v>
       </c>
@@ -19501,7 +19512,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
